--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4C9C6C88-752B-4042-8A8F-ECC3CCE8E4E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B005D-2544-8F43-B761-BE182874223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="37920" windowHeight="18840" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
   <si>
     <t>A1</t>
   </si>
@@ -69,6 +69,15 @@
   </si>
   <si>
     <t>ستسمع في هذا الدرس بعض الكلمات، حاول كتابتها بشكل صحيح. يمكنك سماع كل كلمة كم مرة تريد. تم أخذ كل هذه الكلمات لذا لن تجدها صعبة للغاية (إذا كنت قد قمت بتدوين الملاحظات:)​</t>
+  </si>
+  <si>
+    <t>ribhi</t>
+  </si>
+  <si>
+    <t>Reading</t>
+  </si>
+  <si>
+    <t>A2</t>
   </si>
 </sst>
 </file>
@@ -440,9 +449,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -501,7 +512,60 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>4</v>
+      </c>
+      <c r="G4" t="s">
+        <v>5</v>
+      </c>
+      <c r="H4" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{910B005D-2544-8F43-B761-BE182874223D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250BF09-BD0F-BF4D-9B17-7EA796C752FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="37920" windowHeight="18840" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
   <si>
     <t>A1</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>A2</t>
+  </si>
+  <si>
+    <t>dictation</t>
   </si>
 </sst>
 </file>
@@ -449,10 +452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -460,7 +463,7 @@
     <col min="8" max="8" width="169.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -485,8 +488,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -511,8 +517,11 @@
       <c r="H2" t="s">
         <v>9</v>
       </c>
+      <c r="I2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -537,8 +546,11 @@
       <c r="H3" t="s">
         <v>11</v>
       </c>
+      <c r="I3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -562,6 +574,9 @@
       </c>
       <c r="H4" t="s">
         <v>11</v>
+      </c>
+      <c r="I4" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7250BF09-BD0F-BF4D-9B17-7EA796C752FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB6877-50D4-8D44-8EF0-376B60C51673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="37920" windowHeight="18840" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
   <si>
     <t>A1</t>
   </si>
@@ -81,6 +81,15 @@
   </si>
   <si>
     <t>dictation</t>
+  </si>
+  <si>
+    <t>Girl,People,School</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Girl </t>
+  </si>
+  <si>
+    <t>multipleChoice</t>
   </si>
 </sst>
 </file>
@@ -452,18 +461,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="169.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="18.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -489,10 +500,13 @@
         <v>6</v>
       </c>
       <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -518,10 +532,13 @@
         <v>9</v>
       </c>
       <c r="I2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -547,10 +564,13 @@
         <v>11</v>
       </c>
       <c r="I3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>13</v>
       </c>
@@ -576,7 +596,42 @@
         <v>11</v>
       </c>
       <c r="I4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J4" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>4</v>
+      </c>
+      <c r="G5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H5" t="s">
+        <v>15</v>
+      </c>
+      <c r="I5" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DADB6877-50D4-8D44-8EF0-376B60C51673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F8403-9B65-7A43-AD09-2104AC4392C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="740" windowWidth="37920" windowHeight="18840" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
   <si>
     <t>A1</t>
   </si>
@@ -59,37 +59,67 @@
     <t>Girl,People,School,Animals,Cat,Fish,Lion,Elephant,Sheep,Chair,Door,Jacket,City,Beautiful,Yellow,Orange,Rainbow,Ice</t>
   </si>
   <si>
-    <t>Unit2</t>
-  </si>
-  <si>
-    <t>ستسمع في هذا الدرس بعض الكلمات، حاول كتابتها بشكل صحيح. يمكنك سماع كل كلمة كم مرة تريد. تم أخذ كل هذه الكلمات لذا لن تجدها صعبة للغاية (إذا كنت قد قمت بتدوين الملاحظات؛))​</t>
-  </si>
-  <si>
-    <t>she,he,them,i sit on the bench,she sits on the bench,moon,money,noodles,orange,oven,Pineapple,park ,queen,question,rainbow,time,umbrella,ear,zebra,violin,white,hear,glue,paint,five apples,eight apples</t>
-  </si>
-  <si>
     <t>ستسمع في هذا الدرس بعض الكلمات، حاول كتابتها بشكل صحيح. يمكنك سماع كل كلمة كم مرة تريد. تم أخذ كل هذه الكلمات لذا لن تجدها صعبة للغاية (إذا كنت قد قمت بتدوين الملاحظات:)​</t>
   </si>
   <si>
-    <t>ribhi</t>
-  </si>
-  <si>
-    <t>Reading</t>
-  </si>
-  <si>
-    <t>A2</t>
-  </si>
-  <si>
     <t>dictation</t>
   </si>
   <si>
-    <t>Girl,People,School</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Girl </t>
-  </si>
-  <si>
-    <t>multipleChoice</t>
+    <t xml:space="preserve">Reading </t>
+  </si>
+  <si>
+    <t>In this lesson you will read a small text . When you are ready to start press the button and speak into the microphone . Keep trying until you get it right ! Don’t worry about making mistakes , mistakes mean you are improving ​</t>
+  </si>
+  <si>
+    <t>من النص هل يمكنك ايجاد الكلمة الانجليزية للكلامات الاتية ؟ ​</t>
+  </si>
+  <si>
+    <t>Friendship,Paint,Brush,Through,Field,Picnic,Yummy,Watermelon,Grapes,Rainbow,Says,Play</t>
+  </si>
+  <si>
+    <t>صداقة,الصبغ او الرسم بالالوان,فرشاة او ريشة,عبر او خلال,حقل,نزهة,لذيذة,بطيخة,عنب,قوس قزح,يقول,يلعب </t>
+  </si>
+  <si>
+    <t>Friendship</t>
+  </si>
+  <si>
+    <t xml:space="preserve">الصداقة </t>
+  </si>
+  <si>
+    <t>In a little village, there were three friends: Red, Blue, and Green.​  Red likes to play with his red ball. Blue likes to paint with her blue brush. And Green likes to run through the green fields.​  They want to have a picnic. Red brings juicy red apples, Blue brings yummy watermelon and Green brings crunchy green grapes.​  They sit on a colorful blanket and enjoy their picnic under the bright sun. Suddenly, they see a rainbow in the sky.​  "It's so pretty!" says Blue.​  "I see red, blue, and green!" says Red.​  "And yellow, purple, and orange too!" adds Green.​  They laugh and play, feeling happy and colorful together. And from that day on, they know that friendship was the brightest color of all.</t>
+  </si>
+  <si>
+    <t>في قرية صغيرة، كان هناك ثلاثة أصدقاء: الأحمر والأزرق والأخضر.​  يحب الأحمر اللعب بكرته الحمراء. يحب الأزرق الرسم بفرشاته الزرقاء. والأخضر يحب الركض عبر الحقول الخضراء.​  يريدون الذهاب الى نزهة . الأحمر يجلب التفاح الأحمر العصير، والأزرق يجلب البطيخ اللذيذ والأخضر يجلب العنب الأخضر المقرمش. ​  يجلسون على بطانية ملونة ويستمتعون بنزهة تحت أشعة الشمس الساطعة. وفجأة رأوا قوس قزح في السماء.​  "انها جميلة جدا!" يقول الأزرق.​  "أرى الأحمر والأزرق والأخضر!" يقول الأحمر.​  "والأصفر والأرجواني والبرتقالي أيضًا!" يضيف الأخضر.​  إنهم يضحكون ويلعبون، ويشعرون بالسعادة والألوان معًا.​   ومن ذلك اليوم فصاعدًا، عرفوا أن الصداقة كانت ألمع الألوان على الإطلاق.</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>findWordsFromPassage</t>
+  </si>
+  <si>
+    <t>جاوب على الاسئلة الاتية و قارن بنفسك الاجوبة . لا تنسى كتابة الاجوبة الصحيحة على الدفتر ! حاول بقدر ما تسطيع الاجابة , نعلم انها صعبة قليلا لكن بالصعوبة نترقى ! ​</t>
+  </si>
+  <si>
+    <t>Emily </t>
+  </si>
+  <si>
+    <t>إيميلي ​</t>
+  </si>
+  <si>
+    <t>Hello! My name is Emily. I am six years old. I have three red balloons. I like red because it's my favorite color. I also have two blue toy cars and one green teddy bear. My teddy bear's name is Teddy. He's my best friend. I like to play with my toys in the park. Yesterday, I saw five birds flying in the sky. They were colorful: two were blue, two were yellow, and one was green. It was a beautiful sight! There were also three colorful balloons floating in the air: one red, one blue, and one yellow. After painting, I played with my favorite toys. I have five stuffed animals: a brown bear, a white bunny, a black and white panda, a pink elephant, and a purple unicorn. Each of them has their own special spot on my bed. I love spending time with my toys and creating new adventures for them to go on!</t>
+  </si>
+  <si>
+    <t>مرحبًا! إسمي إيميلي. أنا ست سنوات من العمر. لدي ثلاث بالونات حمراء. أحب اللون الأحمر لأنه لوني المفضل. لدي أيضًا سيارتان لعبة باللون الأزرق ودبدوب أخضر. اسم الدبدوب الخاص بي هو تيدي. انه صديقي المفضل. أحب اللعب بألعابي في الحديقة. بالأمس رأيت خمسة طيور تحلق في السماء. كانت ملونة: اثنان باللون الأزرق، واثنان باللون الأصفر، وواحد باللون الأخضر. كان منظرا جميلا! كانت هناك أيضًا ثلاثة بالونات ملونة تطفو في الهواء: واحدة حمراء، وواحدة زرقاء، وواحدة صفراء. بعد الرسم، لعبت بألعابي المفضلة. لدي خمسة حيوانات محشوة: دب بني، وأرنب أبيض، وباندا أبيض وأسود، وفيل وردي، ووحيد قرن أرجواني. كل واحد منهم لديه مكانه الخاص على سريري. أحب قضاء الوقت مع ألعابي وخلق مغامرات جديدة لهم للاستمرار فيها!</t>
+  </si>
+  <si>
+    <t>answerQuestionsFromPassage</t>
+  </si>
+  <si>
+    <t>What is the name of the speaker? ما هو اسم المتحدث؟​,How old is the speaker? كم عمر المتحدث؟​,How many birds were there in the sky ? كم كان عدد الطيور في السماء؟​,How many stuffed animals does the speaker have? كم عدد الحيوانات المحشية التي يملكها المتحدث؟,What does the speaker like to do ? ماذا يحب المتحدث أن يفعل؟ ​</t>
+  </si>
+  <si>
+    <t>The name of the speaker is Emily,The speaker is six years old ​,There were 5 birds flying in the sky​,The speaker has 5 stuffed animals​,She loves spending time with my toys and creating new adventures for them to go on!</t>
   </si>
 </sst>
 </file>
@@ -461,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -472,9 +502,10 @@
     <col min="8" max="8" width="169.83203125" customWidth="1"/>
     <col min="9" max="9" width="14.33203125" customWidth="1"/>
     <col min="10" max="10" width="18.1640625" customWidth="1"/>
+    <col min="13" max="13" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +519,7 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
@@ -503,135 +534,107 @@
         <v>6</v>
       </c>
       <c r="J1" t="s">
-        <v>14</v>
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
-      </c>
       <c r="F2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="H2" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="I2" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" t="s">
         <v>14</v>
       </c>
+      <c r="L2" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
       <c r="F3" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="G3" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="s">
-        <v>4</v>
-      </c>
-      <c r="G4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H4" t="s">
-        <v>11</v>
-      </c>
-      <c r="I4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>4</v>
-      </c>
-      <c r="G5" t="s">
-        <v>5</v>
-      </c>
-      <c r="H5" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J5" t="s">
-        <v>17</v>
+        <v>25</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460F8403-9B65-7A43-AD09-2104AC4392C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C090A1B-DDBE-244B-A9DE-BAB1D3317912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="740" windowWidth="37920" windowHeight="18840" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,102 +36,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Listening</t>
-  </si>
-  <si>
     <t>Unit1</t>
   </si>
   <si>
-    <t>In this lesson you will hear some words , try typing them correctly . You can hear each word how much ever you like . All of these words are taken before so you wont find them so hard (if you have taken notes ;)​</t>
-  </si>
-  <si>
-    <t>Write down what you are hearing</t>
-  </si>
-  <si>
-    <t>اكتب ما تسمعه</t>
-  </si>
-  <si>
-    <t>Girl,People,School,Animals,Cat,Fish,Lion,Elephant,Sheep,Chair,Door,Jacket,City,Beautiful,Yellow,Orange,Rainbow,Ice</t>
-  </si>
-  <si>
-    <t>ستسمع في هذا الدرس بعض الكلمات، حاول كتابتها بشكل صحيح. يمكنك سماع كل كلمة كم مرة تريد. تم أخذ كل هذه الكلمات لذا لن تجدها صعبة للغاية (إذا كنت قد قمت بتدوين الملاحظات:)​</t>
-  </si>
-  <si>
-    <t>dictation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reading </t>
-  </si>
-  <si>
-    <t>In this lesson you will read a small text . When you are ready to start press the button and speak into the microphone . Keep trying until you get it right ! Don’t worry about making mistakes , mistakes mean you are improving ​</t>
-  </si>
-  <si>
-    <t>من النص هل يمكنك ايجاد الكلمة الانجليزية للكلامات الاتية ؟ ​</t>
-  </si>
-  <si>
-    <t>Friendship,Paint,Brush,Through,Field,Picnic,Yummy,Watermelon,Grapes,Rainbow,Says,Play</t>
-  </si>
-  <si>
-    <t>صداقة,الصبغ او الرسم بالالوان,فرشاة او ريشة,عبر او خلال,حقل,نزهة,لذيذة,بطيخة,عنب,قوس قزح,يقول,يلعب </t>
-  </si>
-  <si>
-    <t>Friendship</t>
-  </si>
-  <si>
-    <t xml:space="preserve">الصداقة </t>
-  </si>
-  <si>
-    <t>In a little village, there were three friends: Red, Blue, and Green.​  Red likes to play with his red ball. Blue likes to paint with her blue brush. And Green likes to run through the green fields.​  They want to have a picnic. Red brings juicy red apples, Blue brings yummy watermelon and Green brings crunchy green grapes.​  They sit on a colorful blanket and enjoy their picnic under the bright sun. Suddenly, they see a rainbow in the sky.​  "It's so pretty!" says Blue.​  "I see red, blue, and green!" says Red.​  "And yellow, purple, and orange too!" adds Green.​  They laugh and play, feeling happy and colorful together. And from that day on, they know that friendship was the brightest color of all.</t>
-  </si>
-  <si>
-    <t>في قرية صغيرة، كان هناك ثلاثة أصدقاء: الأحمر والأزرق والأخضر.​  يحب الأحمر اللعب بكرته الحمراء. يحب الأزرق الرسم بفرشاته الزرقاء. والأخضر يحب الركض عبر الحقول الخضراء.​  يريدون الذهاب الى نزهة . الأحمر يجلب التفاح الأحمر العصير، والأزرق يجلب البطيخ اللذيذ والأخضر يجلب العنب الأخضر المقرمش. ​  يجلسون على بطانية ملونة ويستمتعون بنزهة تحت أشعة الشمس الساطعة. وفجأة رأوا قوس قزح في السماء.​  "انها جميلة جدا!" يقول الأزرق.​  "أرى الأحمر والأزرق والأخضر!" يقول الأحمر.​  "والأصفر والأرجواني والبرتقالي أيضًا!" يضيف الأخضر.​  إنهم يضحكون ويلعبون، ويشعرون بالسعادة والألوان معًا.​   ومن ذلك اليوم فصاعدًا، عرفوا أن الصداقة كانت ألمع الألوان على الإطلاق.</t>
-  </si>
-  <si>
     <t>-</t>
   </si>
   <si>
-    <t>findWordsFromPassage</t>
-  </si>
-  <si>
-    <t>جاوب على الاسئلة الاتية و قارن بنفسك الاجوبة . لا تنسى كتابة الاجوبة الصحيحة على الدفتر ! حاول بقدر ما تسطيع الاجابة , نعلم انها صعبة قليلا لكن بالصعوبة نترقى ! ​</t>
-  </si>
-  <si>
-    <t>Emily </t>
-  </si>
-  <si>
-    <t>إيميلي ​</t>
-  </si>
-  <si>
-    <t>Hello! My name is Emily. I am six years old. I have three red balloons. I like red because it's my favorite color. I also have two blue toy cars and one green teddy bear. My teddy bear's name is Teddy. He's my best friend. I like to play with my toys in the park. Yesterday, I saw five birds flying in the sky. They were colorful: two were blue, two were yellow, and one was green. It was a beautiful sight! There were also three colorful balloons floating in the air: one red, one blue, and one yellow. After painting, I played with my favorite toys. I have five stuffed animals: a brown bear, a white bunny, a black and white panda, a pink elephant, and a purple unicorn. Each of them has their own special spot on my bed. I love spending time with my toys and creating new adventures for them to go on!</t>
-  </si>
-  <si>
-    <t>مرحبًا! إسمي إيميلي. أنا ست سنوات من العمر. لدي ثلاث بالونات حمراء. أحب اللون الأحمر لأنه لوني المفضل. لدي أيضًا سيارتان لعبة باللون الأزرق ودبدوب أخضر. اسم الدبدوب الخاص بي هو تيدي. انه صديقي المفضل. أحب اللعب بألعابي في الحديقة. بالأمس رأيت خمسة طيور تحلق في السماء. كانت ملونة: اثنان باللون الأزرق، واثنان باللون الأصفر، وواحد باللون الأخضر. كان منظرا جميلا! كانت هناك أيضًا ثلاثة بالونات ملونة تطفو في الهواء: واحدة حمراء، وواحدة زرقاء، وواحدة صفراء. بعد الرسم، لعبت بألعابي المفضلة. لدي خمسة حيوانات محشوة: دب بني، وأرنب أبيض، وباندا أبيض وأسود، وفيل وردي، ووحيد قرن أرجواني. كل واحد منهم لديه مكانه الخاص على سريري. أحب قضاء الوقت مع ألعابي وخلق مغامرات جديدة لهم للاستمرار فيها!</t>
-  </si>
-  <si>
-    <t>answerQuestionsFromPassage</t>
-  </si>
-  <si>
-    <t>What is the name of the speaker? ما هو اسم المتحدث؟​,How old is the speaker? كم عمر المتحدث؟​,How many birds were there in the sky ? كم كان عدد الطيور في السماء؟​,How many stuffed animals does the speaker have? كم عدد الحيوانات المحشية التي يملكها المتحدث؟,What does the speaker like to do ? ماذا يحب المتحدث أن يفعل؟ ​</t>
-  </si>
-  <si>
-    <t>The name of the speaker is Emily,The speaker is six years old ​,There were 5 birds flying in the sky​,The speaker has 5 stuffed animals​,She loves spending time with my toys and creating new adventures for them to go on!</t>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>No Intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاحظة : هناك ثلاث اقسام للمفردات​
+قسم الجمل و على الطالب حفظها​
+قسم الاسماء و عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
+قسم الافعال و ايضا عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
+سوف يتم استخدام المفردات في درس المحادثة لذالك يجي دراستها بجدية </t>
+  </si>
+  <si>
+    <t>The boy eats an apple الولد يأكل التفاحة,The book is on the table الكتاب على الطاولة,I am a student انا تلميذ,I can speak English انا استطيع التحدث بالانجليزية,Come here  تعال الى هنا</t>
+  </si>
+  <si>
+    <t>Teacher معلمة : I love my teacher  انا احب معلمتي,School مدرسة  : I go to school every day  انا اذهب الى المدرسة كل يوم,Smart ذكية  : she is smart هي ذكية,Week اسبوع : see you next week اراك الاسبوع القادم,Lesson درس  : I love English lessons انا احب الدروس الانجليزي</t>
+  </si>
+  <si>
+    <t>No intro</t>
+  </si>
+  <si>
+    <t>Run اركض : I run everyday  انا اركض كل يوم,Eat أكل  : I eat banana انا اكل موزة,Have لدي : they have a dog  لديهم كلب,Write يكتب : she writes on the book هي تكتب على الكتاب,Say يقول : he says hello  هو يقول مرحبا</t>
+  </si>
+  <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>verb</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -155,8 +123,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -491,151 +463,185 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="169.83203125" customWidth="1"/>
-    <col min="9" max="9" width="14.33203125" customWidth="1"/>
-    <col min="10" max="10" width="18.1640625" customWidth="1"/>
-    <col min="13" max="13" width="16.1640625" customWidth="1"/>
+    <col min="8" max="8" width="168.5" customWidth="1"/>
+    <col min="9" max="10" width="14.33203125" customWidth="1"/>
+    <col min="11" max="11" width="18.1640625" customWidth="1"/>
+    <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
       <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="G1" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H1" t="s">
         <v>6</v>
       </c>
       <c r="I1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J1" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="K1" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="L1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="M1" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="N1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" t="s">
-        <v>14</v>
-      </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+      <c r="O2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="I3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
         <v>10</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" t="s">
-        <v>21</v>
-      </c>
       <c r="L3" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M3" t="s">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>24</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I13" s="2"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I14" s="2"/>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I15" s="2"/>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I16" s="2"/>
+    </row>
+    <row r="17" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C090A1B-DDBE-244B-A9DE-BAB1D3317912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4BC07-B4B6-FA42-9F1C-2EEC9D8B6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
   <si>
     <t>A1</t>
   </si>
@@ -44,44 +44,82 @@
     <t>Unit1</t>
   </si>
   <si>
+    <t xml:space="preserve">Reading </t>
+  </si>
+  <si>
     <t>-</t>
   </si>
   <si>
-    <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>No Intro</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ملاحظة : هناك ثلاث اقسام للمفردات​
-قسم الجمل و على الطالب حفظها​
-قسم الاسماء و عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
-قسم الافعال و ايضا عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
-سوف يتم استخدام المفردات في درس المحادثة لذالك يجي دراستها بجدية </t>
-  </si>
-  <si>
-    <t>The boy eats an apple الولد يأكل التفاحة,The book is on the table الكتاب على الطاولة,I am a student انا تلميذ,I can speak English انا استطيع التحدث بالانجليزية,Come here  تعال الى هنا</t>
-  </si>
-  <si>
-    <t>Teacher معلمة : I love my teacher  انا احب معلمتي,School مدرسة  : I go to school every day  انا اذهب الى المدرسة كل يوم,Smart ذكية  : she is smart هي ذكية,Week اسبوع : see you next week اراك الاسبوع القادم,Lesson درس  : I love English lessons انا احب الدروس الانجليزي</t>
-  </si>
-  <si>
-    <t>No intro</t>
-  </si>
-  <si>
-    <t>Run اركض : I run everyday  انا اركض كل يوم,Eat أكل  : I eat banana انا اكل موزة,Have لدي : they have a dog  لديهم كلب,Write يكتب : she writes on the book هي تكتب على الكتاب,Say يقول : he says hello  هو يقول مرحبا</t>
-  </si>
-  <si>
-    <t>vocabulary</t>
-  </si>
-  <si>
-    <t>sentence</t>
-  </si>
-  <si>
-    <t>word</t>
-  </si>
-  <si>
-    <t>verb</t>
+    <t>passage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ali </t>
+  </si>
+  <si>
+    <t>علي </t>
+  </si>
+  <si>
+    <t>Ali ​  Once upon a time, there was a smart boy named Ali who loved to learn new things. Every day, Ali would go to school. He would wake up early, eat a banana for breakfast, and run to school. Ali loved English lessons the most. He could speak English very well and enjoyed practicing with his friends.​  One day, his teacher gave them a special lesson. She said, "Today, we are going to write a short story." Ali was excited. He loved his teacher and always paid attention to her lessons. He thought for a moment and then began to write on his notebook, "The boy eats an apple," he started.​  At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​  Before going to bed, Ali looked at the book on the table beside his bed. He said to himself, "I love my school and my teacher. I can't wait for next week to learn more." And with that happy thought, he drifted off to sleep, dreaming of all the new things he would learn.​  See you next week, Ali thought, as he closed his eyes, ready for another exciting day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Questions </t>
+  </si>
+  <si>
+    <t>اسئلة</t>
+  </si>
+  <si>
+    <t>Smart , Ali , was </t>
+  </si>
+  <si>
+    <t>في يوم من الأيام، كان هناك ولد ذكي اسمه علي يحب تعلم أشياء جديدة. كل يوم، كان علي يذهب إلى المدرسة. كان يستيقظ مبكرًا، يأكل موزة على الإفطار، ويركض إلى المدرسة. كان علي يحب دروس اللغة الإنجليزية أكثر من أي شيء آخر. كان يستطيع التحدث بالإنجليزية جيدًا ويستمتع بالتدرب مع أصدقائه.في يوم من الأيام، أعطتهم معلمتهم درسًا خاصًا. قالت، "اليوم، سنكتب قصة قصيرة." كان علي متحمسًا. كان يحب معلمته ودائمًا ما كان ينتبه إلى دروسها. فكر للحظة ثم بدأ يكتب في دفتره، "الولد يأكل التفاحة"، بدأ.في وقت الغداء، جلس علي مع أصدقائه وتحدثوا عن قصصهم. قال لهم بفخر، "أنا أستطيع التحدث بالإنجليزية." اتفقوا جميعًا على أن تعلم الإنجليزية ممتع. بعد المدرسة، ركض علي إلى المنزل ليشارك قصته مع والديه. ابتسمت والدته وقالت، "أنت ذكي جدًا يا علي."قبل الذهاب إلى الفراش، نظر علي إلى الكتاب على الطاولة بجانب سريره. قال لنفسه، "أنا أحب مدرستي ومعلمتي. لا أستطيع الانتظار للأسبوع القادم لأتعلم المزيد." ومع هذا الفكر السعيد، غط في النوم، يحلم بكل الأشياء الجديدة التي سيتعلمها."أراك الأسبوع القادم"، فكر علي وهو يغلق عينيه، مستعدًا ليوم آخر مثير.</t>
+  </si>
+  <si>
+    <t>Breakfast , school, banana</t>
+  </si>
+  <si>
+    <t>English , apple, teacher ​</t>
+  </si>
+  <si>
+    <t>What subject does Ali love the most?​​​ما هو الموضوع الذي يحبه علي أكثر شيء؟,Ali loves ______ lessons the most.</t>
+  </si>
+  <si>
+    <t>What does Ali eat for breakfast?​​ماذا يأكل علي على الإفطار؟,Ali eats a ______  for breakfast.</t>
+  </si>
+  <si>
+    <t>Friends , parents , mother</t>
+  </si>
+  <si>
+    <t>Who did Ali share his story with after school?​مع من شارك علي قصته بعد المدرسة؟​,Ali shared his story with his ______ after school.</t>
+  </si>
+  <si>
+    <t>What did Ali's mother say to him?ماذا قالت والدة علي له؟,Ali's mother said, “_______”</t>
+  </si>
+  <si>
+    <t>You are very smart, Ali​, I can speak English, I can't wait for next week to learn more​</t>
+  </si>
+  <si>
+    <t>Bed , parents, table ​</t>
+  </si>
+  <si>
+    <t>Where was the book that Ali looked at before going to bed?أين كان الكتاب الذي نظر إليه علي قبل الذهاب إلى الفراش؟,The book was on the_______beside his bed.</t>
+  </si>
+  <si>
+    <t>What did Ali say he loves?​ماذا قال علي أنه يحب؟,Ali said “________”</t>
+  </si>
+  <si>
+    <t>I love my school and my teacher,  I can't wait for next week to learn more, Ali who loved to learn new things​</t>
+  </si>
+  <si>
+    <t>What is Ali excited about for next week?عن ماذا كان علي متحمسًا للأسبوع القادم؟,-</t>
+  </si>
+  <si>
+    <t>Ali is excited about learning more next week, Ali thought as he closed his eyes, See you next week​</t>
+  </si>
+  <si>
+    <t>What is the name of the smart boy in the story? ​ما اسم الولد الذكي في القصة؟​,The name of the smart boy is ______ .</t>
+  </si>
+  <si>
+    <t>multipleChoice</t>
   </si>
 </sst>
 </file>
@@ -463,10 +501,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A1:O17"/>
+  <dimension ref="A4:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,162 +515,432 @@
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="29" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I8" t="s">
+        <v>3</v>
+      </c>
+      <c r="J8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K8" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="L8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
+      <c r="M8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N8" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" t="s">
         <v>11</v>
       </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" t="s">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" t="s">
+        <v>9</v>
+      </c>
+      <c r="H9" t="s">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" t="s">
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>27</v>
+      </c>
+      <c r="L9" t="s">
+        <v>3</v>
+      </c>
+      <c r="M9" t="s">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E10" t="s">
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" t="s">
+        <v>9</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
         <v>12</v>
       </c>
-      <c r="G2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" t="s">
-        <v>7</v>
-      </c>
-      <c r="I2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" t="s">
-        <v>2</v>
-      </c>
-      <c r="M2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N2" t="s">
-        <v>2</v>
-      </c>
-      <c r="O2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="J10">
+        <v>2</v>
+      </c>
+      <c r="K10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>3</v>
+      </c>
+      <c r="O10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E11" t="s">
+        <v>3</v>
+      </c>
+      <c r="F11" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="G11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" t="s">
+        <v>3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>3</v>
+      </c>
+      <c r="O11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+      <c r="G12" t="s">
         <v>9</v>
       </c>
-      <c r="I3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
-      </c>
-      <c r="M3" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" t="s">
-        <v>2</v>
-      </c>
-      <c r="O3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" ht="45" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I12" s="2"/>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12" t="s">
+        <v>27</v>
+      </c>
+      <c r="L12" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" t="s">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>3</v>
+      </c>
+      <c r="O12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I13" s="2"/>
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+      <c r="G13" t="s">
+        <v>9</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13" t="s">
+        <v>27</v>
+      </c>
+      <c r="L13" t="s">
+        <v>3</v>
+      </c>
+      <c r="M13" t="s">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
+        <v>3</v>
+      </c>
+      <c r="O13" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I14" s="2"/>
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14">
+        <v>2</v>
+      </c>
+      <c r="K14" t="s">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s">
+        <v>3</v>
+      </c>
+      <c r="M14" t="s">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I15" s="2"/>
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+      <c r="G15" t="s">
+        <v>9</v>
+      </c>
+      <c r="H15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15" t="s">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s">
+        <v>3</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" t="s">
+        <v>3</v>
+      </c>
+      <c r="O15" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I16" s="2"/>
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="D16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16" t="s">
+        <v>27</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="17" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I17" s="2"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE4BC07-B4B6-FA42-9F1C-2EEC9D8B6340}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B34C65-A49E-984B-BA4F-4ED538DE85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
   <si>
     <t>A1</t>
   </si>
@@ -114,6 +114,18 @@
   </si>
   <si>
     <t>Ali is excited about learning more next week, Ali thought as he closed his eyes, See you next week​</t>
+  </si>
+  <si>
+    <t>What is the meaning of the word</t>
+  </si>
+  <si>
+    <t>Special,اشياء ,bed  ,Home ,Happy </t>
+  </si>
+  <si>
+    <t>خاص,Things,فراش,منزل ,سعيد</t>
+  </si>
+  <si>
+    <t>fillTheBlanks</t>
   </si>
   <si>
     <t>What is the name of the smart boy in the story? ​ما اسم الولد الذكي في القصة؟​,The name of the smart boy is ______ .</t>
@@ -503,8 +515,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:O17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -589,7 +601,7 @@
         <v>9</v>
       </c>
       <c r="H9" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
         <v>10</v>
@@ -598,7 +610,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L9" t="s">
         <v>3</v>
@@ -645,7 +657,7 @@
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L10" t="s">
         <v>3</v>
@@ -692,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L11" t="s">
         <v>3</v>
@@ -739,7 +751,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L12" t="s">
         <v>3</v>
@@ -786,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L13" t="s">
         <v>3</v>
@@ -833,7 +845,7 @@
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L14" t="s">
         <v>3</v>
@@ -880,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="L15" t="s">
         <v>3</v>
@@ -927,29 +939,67 @@
         <v>0</v>
       </c>
       <c r="K16" t="s">
+        <v>31</v>
+      </c>
+      <c r="L16" t="s">
+        <v>3</v>
+      </c>
+      <c r="M16" t="s">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>3</v>
+      </c>
+      <c r="O16" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
         <v>27</v>
       </c>
-      <c r="L16" t="s">
-        <v>3</v>
-      </c>
-      <c r="M16" t="s">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>3</v>
-      </c>
-      <c r="O16" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
+      <c r="I17" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" t="s">
+        <v>3</v>
+      </c>
+      <c r="K17" t="s">
+        <v>29</v>
+      </c>
+      <c r="L17" t="s">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>3</v>
+      </c>
+      <c r="O17" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76B34C65-A49E-984B-BA4F-4ED538DE85A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD2A48-E4EF-ED40-8F37-6F83F2DF884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,11 +36,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
   <si>
     <t>A1</t>
   </si>
   <si>
+    <t>Listening</t>
+  </si>
+  <si>
     <t>Unit1</t>
   </si>
   <si>
@@ -50,6 +53,31 @@
     <t>-</t>
   </si>
   <si>
+    <t>Vocabulary</t>
+  </si>
+  <si>
+    <t>No Intro</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ملاحظة : هناك ثلاث اقسام للمفردات​
+قسم الجمل و على الطالب حفظها​
+قسم الاسماء و عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
+قسم الافعال و ايضا عليها جمل على الطالب فقط حفظ الكلمات و فهم الجمل ليستطيع تركيب جملته باستخدام الكلمات المعطائة ​
+سوف يتم استخدام المفردات في درس المحادثة لذالك يجي دراستها بجدية </t>
+  </si>
+  <si>
+    <t>The boy eats an apple الولد يأكل التفاحة,The book is on the table الكتاب على الطاولة,I am a student انا تلميذ,I can speak English انا استطيع التحدث بالانجليزية,Come here  تعال الى هنا</t>
+  </si>
+  <si>
+    <t>Teacher معلمة : I love my teacher  انا احب معلمتي,School مدرسة  : I go to school every day  انا اذهب الى المدرسة كل يوم,Smart ذكية  : she is smart هي ذكية,Week اسبوع : see you next week اراك الاسبوع القادم,Lesson درس  : I love English lessons انا احب الدروس الانجليزي</t>
+  </si>
+  <si>
+    <t>No intro</t>
+  </si>
+  <si>
+    <t>Run اركض : I run everyday  انا اركض كل يوم,Eat أكل  : I eat banana انا اكل موزة,Have لدي : they have a dog  لديهم كلب,Write يكتب : she writes on the book هي تكتب على الكتاب,Say يقول : he says hello  هو يقول مرحبا</t>
+  </si>
+  <si>
     <t>passage</t>
   </si>
   <si>
@@ -128,10 +156,37 @@
     <t>fillTheBlanks</t>
   </si>
   <si>
+    <t>vocabulary</t>
+  </si>
+  <si>
+    <t>sentence</t>
+  </si>
+  <si>
+    <t>word</t>
+  </si>
+  <si>
+    <t>verb</t>
+  </si>
+  <si>
     <t>What is the name of the smart boy in the story? ​ما اسم الولد الذكي في القصة؟​,The name of the smart boy is ______ .</t>
   </si>
   <si>
     <t>multipleChoice</t>
+  </si>
+  <si>
+    <t>Unit2</t>
+  </si>
+  <si>
+    <t>Nice to meet you سررت بلقائك,How are you ? كيف حالك,I have two cats لدي قطتان​,How old are you ? كم عمرك​,I love playing football احب لعب كرة القدم</t>
+  </si>
+  <si>
+    <t>Ant نملة  :  The ant is very small  النملة صغيرة جدا,Bed فراش  :  My bed is pink فراشي زهري,Circle دائرة :  I drew a circle رسمت دائرة,Door باب  :  Open the door افتح الباب,Egg بيضة   : The chicken is sitting on the egg الدجاجة جالسة على البيضة,Flower وردة  : The flower smells nice الوردة رائحتها جميلة,Gum  علكة : Don’t swallow the gum لا تبلع العلكة,Hot حار   : Be careful it’s too hot انتبه انه حار جدا,Ice ثلج  : I love ice احب الثلج,Juice عصير : I want apple juice اريد عصير تفاح,Key مفتاح : Don’t forget the keys لا تنسى المفاتيح,Lion اسد : The lion is scary الاسد مخيف</t>
+  </si>
+  <si>
+    <t>Mary loves animals. She has two fish , one dog and  two cat . In the farm, she has two cows , and one horse . She has apple tree and flowers in her garden. Her house is big and white . I like to go to her house and play with her ​</t>
+  </si>
+  <si>
+    <t>listening</t>
   </si>
 </sst>
 </file>
@@ -513,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O17"/>
+  <dimension ref="A4:O23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -527,55 +582,192 @@
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="1:15" ht="14" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E5" s="1"/>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" t="s">
+        <v>8</v>
+      </c>
+      <c r="I4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J4" t="s">
+        <v>4</v>
+      </c>
+      <c r="K4" t="s">
+        <v>38</v>
+      </c>
+      <c r="L4" t="s">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>4</v>
+      </c>
+      <c r="O4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" t="s">
+        <v>4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K5" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" t="s">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>4</v>
+      </c>
+      <c r="F6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" t="s">
+        <v>4</v>
+      </c>
+      <c r="J6" t="s">
+        <v>4</v>
+      </c>
+      <c r="K6" t="s">
+        <v>38</v>
+      </c>
+      <c r="L6" t="s">
+        <v>4</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J8" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="K8" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="L8" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="M8" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="N8" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -583,46 +775,46 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H9" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="I9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -630,46 +822,46 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C10" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="I10" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O10" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -677,46 +869,46 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C11" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G11" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="I11" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O11" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -724,46 +916,46 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G12" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -771,46 +963,46 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C13" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G13" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H13" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -818,46 +1010,46 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G14" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H14" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O14" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -865,46 +1057,46 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C15" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H15" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -912,46 +1104,46 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C16" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="H16" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="L16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O16" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -959,48 +1151,237 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" t="s">
+        <v>36</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
+        <v>37</v>
+      </c>
+      <c r="L17" t="s">
+        <v>4</v>
+      </c>
+      <c r="M17" t="s">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" t="s">
+        <v>5</v>
+      </c>
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>39</v>
+      </c>
+      <c r="G19" t="s">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>45</v>
+      </c>
+      <c r="I19" t="s">
+        <v>4</v>
+      </c>
+      <c r="J19" t="s">
+        <v>4</v>
+      </c>
+      <c r="K19" t="s">
+        <v>38</v>
+      </c>
+      <c r="L19" t="s">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+      <c r="J20" t="s">
+        <v>4</v>
+      </c>
+      <c r="K20" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" t="s">
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" t="s">
+        <v>41</v>
+      </c>
+      <c r="G21" t="s">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>11</v>
+      </c>
+      <c r="I21" t="s">
+        <v>4</v>
+      </c>
+      <c r="J21" t="s">
+        <v>4</v>
+      </c>
+      <c r="K21" t="s">
+        <v>38</v>
+      </c>
+      <c r="L21" t="s">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" t="s">
         <v>1</v>
       </c>
-      <c r="D17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" t="s">
-        <v>27</v>
-      </c>
-      <c r="I17" t="s">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s">
-        <v>3</v>
-      </c>
-      <c r="K17" t="s">
-        <v>29</v>
-      </c>
-      <c r="L17" t="s">
-        <v>3</v>
-      </c>
-      <c r="M17" t="s">
-        <v>3</v>
-      </c>
-      <c r="N17" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" t="s">
-        <v>3</v>
-      </c>
-    </row>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02FD2A48-E4EF-ED40-8F37-6F83F2DF884F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BF6D5-88B6-3145-B6B9-544FAC3114D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="107">
   <si>
     <t>A1</t>
   </si>
@@ -66,18 +66,9 @@
 سوف يتم استخدام المفردات في درس المحادثة لذالك يجي دراستها بجدية </t>
   </si>
   <si>
-    <t>The boy eats an apple الولد يأكل التفاحة,The book is on the table الكتاب على الطاولة,I am a student انا تلميذ,I can speak English انا استطيع التحدث بالانجليزية,Come here  تعال الى هنا</t>
-  </si>
-  <si>
-    <t>Teacher معلمة : I love my teacher  انا احب معلمتي,School مدرسة  : I go to school every day  انا اذهب الى المدرسة كل يوم,Smart ذكية  : she is smart هي ذكية,Week اسبوع : see you next week اراك الاسبوع القادم,Lesson درس  : I love English lessons انا احب الدروس الانجليزي</t>
-  </si>
-  <si>
     <t>No intro</t>
   </si>
   <si>
-    <t>Run اركض : I run everyday  انا اركض كل يوم,Eat أكل  : I eat banana انا اكل موزة,Have لدي : they have a dog  لديهم كلب,Write يكتب : she writes on the book هي تكتب على الكتاب,Say يقول : he says hello  هو يقول مرحبا</t>
-  </si>
-  <si>
     <t>passage</t>
   </si>
   <si>
@@ -90,69 +81,15 @@
     <t>Ali ​  Once upon a time, there was a smart boy named Ali who loved to learn new things. Every day, Ali would go to school. He would wake up early, eat a banana for breakfast, and run to school. Ali loved English lessons the most. He could speak English very well and enjoyed practicing with his friends.​  One day, his teacher gave them a special lesson. She said, "Today, we are going to write a short story." Ali was excited. He loved his teacher and always paid attention to her lessons. He thought for a moment and then began to write on his notebook, "The boy eats an apple," he started.​  At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​  Before going to bed, Ali looked at the book on the table beside his bed. He said to himself, "I love my school and my teacher. I can't wait for next week to learn more." And with that happy thought, he drifted off to sleep, dreaming of all the new things he would learn.​  See you next week, Ali thought, as he closed his eyes, ready for another exciting day.</t>
   </si>
   <si>
-    <t xml:space="preserve">Questions </t>
-  </si>
-  <si>
-    <t>اسئلة</t>
-  </si>
-  <si>
-    <t>Smart , Ali , was </t>
-  </si>
-  <si>
     <t>في يوم من الأيام، كان هناك ولد ذكي اسمه علي يحب تعلم أشياء جديدة. كل يوم، كان علي يذهب إلى المدرسة. كان يستيقظ مبكرًا، يأكل موزة على الإفطار، ويركض إلى المدرسة. كان علي يحب دروس اللغة الإنجليزية أكثر من أي شيء آخر. كان يستطيع التحدث بالإنجليزية جيدًا ويستمتع بالتدرب مع أصدقائه.في يوم من الأيام، أعطتهم معلمتهم درسًا خاصًا. قالت، "اليوم، سنكتب قصة قصيرة." كان علي متحمسًا. كان يحب معلمته ودائمًا ما كان ينتبه إلى دروسها. فكر للحظة ثم بدأ يكتب في دفتره، "الولد يأكل التفاحة"، بدأ.في وقت الغداء، جلس علي مع أصدقائه وتحدثوا عن قصصهم. قال لهم بفخر، "أنا أستطيع التحدث بالإنجليزية." اتفقوا جميعًا على أن تعلم الإنجليزية ممتع. بعد المدرسة، ركض علي إلى المنزل ليشارك قصته مع والديه. ابتسمت والدته وقالت، "أنت ذكي جدًا يا علي."قبل الذهاب إلى الفراش، نظر علي إلى الكتاب على الطاولة بجانب سريره. قال لنفسه، "أنا أحب مدرستي ومعلمتي. لا أستطيع الانتظار للأسبوع القادم لأتعلم المزيد." ومع هذا الفكر السعيد، غط في النوم، يحلم بكل الأشياء الجديدة التي سيتعلمها."أراك الأسبوع القادم"، فكر علي وهو يغلق عينيه، مستعدًا ليوم آخر مثير.</t>
   </si>
   <si>
-    <t>Breakfast , school, banana</t>
-  </si>
-  <si>
-    <t>English , apple, teacher ​</t>
-  </si>
-  <si>
-    <t>What subject does Ali love the most?​​​ما هو الموضوع الذي يحبه علي أكثر شيء؟,Ali loves ______ lessons the most.</t>
-  </si>
-  <si>
-    <t>What does Ali eat for breakfast?​​ماذا يأكل علي على الإفطار؟,Ali eats a ______  for breakfast.</t>
-  </si>
-  <si>
-    <t>Friends , parents , mother</t>
-  </si>
-  <si>
-    <t>Who did Ali share his story with after school?​مع من شارك علي قصته بعد المدرسة؟​,Ali shared his story with his ______ after school.</t>
-  </si>
-  <si>
-    <t>What did Ali's mother say to him?ماذا قالت والدة علي له؟,Ali's mother said, “_______”</t>
-  </si>
-  <si>
-    <t>You are very smart, Ali​, I can speak English, I can't wait for next week to learn more​</t>
-  </si>
-  <si>
-    <t>Bed , parents, table ​</t>
-  </si>
-  <si>
-    <t>Where was the book that Ali looked at before going to bed?أين كان الكتاب الذي نظر إليه علي قبل الذهاب إلى الفراش؟,The book was on the_______beside his bed.</t>
-  </si>
-  <si>
-    <t>What did Ali say he loves?​ماذا قال علي أنه يحب؟,Ali said “________”</t>
-  </si>
-  <si>
-    <t>I love my school and my teacher,  I can't wait for next week to learn more, Ali who loved to learn new things​</t>
-  </si>
-  <si>
-    <t>What is Ali excited about for next week?عن ماذا كان علي متحمسًا للأسبوع القادم؟,-</t>
-  </si>
-  <si>
-    <t>Ali is excited about learning more next week, Ali thought as he closed his eyes, See you next week​</t>
-  </si>
-  <si>
     <t>What is the meaning of the word</t>
   </si>
   <si>
     <t>Special,اشياء ,bed  ,Home ,Happy </t>
   </si>
   <si>
-    <t>خاص,Things,فراش,منزل ,سعيد</t>
-  </si>
-  <si>
     <t>fillTheBlanks</t>
   </si>
   <si>
@@ -168,25 +105,262 @@
     <t>verb</t>
   </si>
   <si>
-    <t>What is the name of the smart boy in the story? ​ما اسم الولد الذكي في القصة؟​,The name of the smart boy is ______ .</t>
-  </si>
-  <si>
     <t>multipleChoice</t>
   </si>
   <si>
     <t>Unit2</t>
   </si>
   <si>
-    <t>Nice to meet you سررت بلقائك,How are you ? كيف حالك,I have two cats لدي قطتان​,How old are you ? كم عمرك​,I love playing football احب لعب كرة القدم</t>
-  </si>
-  <si>
-    <t>Ant نملة  :  The ant is very small  النملة صغيرة جدا,Bed فراش  :  My bed is pink فراشي زهري,Circle دائرة :  I drew a circle رسمت دائرة,Door باب  :  Open the door افتح الباب,Egg بيضة   : The chicken is sitting on the egg الدجاجة جالسة على البيضة,Flower وردة  : The flower smells nice الوردة رائحتها جميلة,Gum  علكة : Don’t swallow the gum لا تبلع العلكة,Hot حار   : Be careful it’s too hot انتبه انه حار جدا,Ice ثلج  : I love ice احب الثلج,Juice عصير : I want apple juice اريد عصير تفاح,Key مفتاح : Don’t forget the keys لا تنسى المفاتيح,Lion اسد : The lion is scary الاسد مخيف</t>
-  </si>
-  <si>
     <t>Mary loves animals. She has two fish , one dog and  two cat . In the farm, she has two cows , and one horse . She has apple tree and flowers in her garden. Her house is big and white . I like to go to her house and play with her ​</t>
   </si>
   <si>
     <t>listening</t>
+  </si>
+  <si>
+    <t>word </t>
+  </si>
+  <si>
+    <t>Unit3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sarah </t>
+  </si>
+  <si>
+    <t>سارة </t>
+  </si>
+  <si>
+    <t>Sara was born in a small town. She lives in a cozy house with her family. Every morning, she wakes up early to study and do her homework. She likes to read books and learn new things.​  One day, Sara realized she needed a big box to organize her toys and books. She decided to go to the store nearby to find one. When she arrived at the store, she met her friend Ali. Ali was also looking for something at the store.​  Sara and Ali talked for a while and then Ali had a great idea. He suggested they have a party at Sara's house on the weekend. Sara loved the idea and agreed. They bought the box and some decorations for the party.​  On Saturday morning, Sara and Ali started preparing for the party. They decorated the wall with colorful balloons and streamers. They set up games and prepared snacks for their friends. By the afternoon, everything was ready.​  Their friends arrived, and everyone was excited. They played games, danced to music, and enjoyed delicious snacks. The party was a huge success. Sara was very happy to see everyone having fun.​  After the party, Sara and Ali sat down and talked about their day. They were tired but very satisfied. It was a wonderful day filled with joy and laughter. Sara realized how much she enjoyed spending time with her friends and making happy memories.</t>
+  </si>
+  <si>
+    <t>ولدت سارة في بلدة صغيرة. تعيش في بيت مريح مع عائلتها. كل صباح، تستيقظ مبكرًا لتدرس وتقوم بواجبها المنزلي. تحب قراءة الكتب وتعلم أشياء جديدة.​  في أحد الأيام، أدركت سارة أنها تحتاج إلى صندوق كبير لتنظيم ألعابها وكتبها. قررت الذهاب إلى المتجر القريب لتجد واحدًا. عندما وصلت إلى المتجر، التقت بصديقها علي. كان علي يبحث أيضًا عن شيء في المتجر.​  تحدثت سارة وعلي لفترة، ثم خطرت لعلي فكرة رائعة. اقترح إقامة حفلة في بيت سارة في نهاية الأسبوع. أحبت سارة الفكرة ووافقت. اشتروا الصندوق وبعض الزينة للحفلة.​  في صباح السبت، بدأت سارة وعلي التحضير للحفلة. زينوا الجدار ببالونات ملونة وشرائط. أعدوا الألعاب وجهزوا وجبات خفيفة لأصدقائهم. بحلول فترة الظهيرة، كان كل شيء جاهزًا.​  وصل أصدقاؤهم، وكان الجميع متحمسًا. لعبوا الألعاب، ورقصوا على الموسيقى، واستمتعوا بالوجبات اللذيذة. كانت الحفلة ناجحة جدًا. كانت سارة سعيدة جدًا برؤية الجميع يستمتعون بوقتهم.​  بعد الحفلة، جلست سارة وعلي وتحدثا عن يومهما. كانا متعبين لكن راضيين جدًا. كان يومًا رائعًا مليئًا بالفرح والضحك. أدركت سارة كم تستمتع بقضاء الوقت مع أصدقائها وصنع ذكريات سعيدة.</t>
+  </si>
+  <si>
+    <t>Where was Sara born?</t>
+  </si>
+  <si>
+    <t>أين وُلدت سارة؟​</t>
+  </si>
+  <si>
+    <t>Sara was born in a________.​</t>
+  </si>
+  <si>
+    <t>Who does Sara live with?​</t>
+  </si>
+  <si>
+    <t>مَع من تعيش سارة؟</t>
+  </si>
+  <si>
+    <t>What does Sara do every morning?​</t>
+  </si>
+  <si>
+    <t>ماذا تفعل سارة كل صباح؟</t>
+  </si>
+  <si>
+    <t>Why did Sara go to the store?​</t>
+  </si>
+  <si>
+    <t>لماذا ذهبت سارة إلى المتجر؟</t>
+  </si>
+  <si>
+    <t>Who did Sara meet at the store?​</t>
+  </si>
+  <si>
+    <t>من التقت بها سارة في المتجر؟</t>
+  </si>
+  <si>
+    <t>What idea did Ali have at the store?​</t>
+  </si>
+  <si>
+    <t>ما هي الفكرة التي كانت لدى علي في المتجر؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Where did Sara and Ali decide to have the party? ​</t>
+  </si>
+  <si>
+    <t>أين قررت سارة وعلي إقامة الحفلة؟</t>
+  </si>
+  <si>
+    <t>What did Sara and Ali buy at the store?​</t>
+  </si>
+  <si>
+    <t>ماذا اشتروا سارة وعلي من المتجر؟</t>
+  </si>
+  <si>
+    <t>How did Sara and Ali decorate for the party?​</t>
+  </si>
+  <si>
+    <t>كيف زينت سارة وعلي للحفلة؟</t>
+  </si>
+  <si>
+    <t>What did they do at the party?​</t>
+  </si>
+  <si>
+    <t>ماذا فعلوا في الحفلة؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> How did Sara feel after the party?​</t>
+  </si>
+  <si>
+    <t>كيف شعرت سارة بعد الحفلة؟</t>
+  </si>
+  <si>
+    <t>tired but very satisfied;​  Sara loved the idea and agreed;​  Sara was very happy to see everyone having fun;</t>
+  </si>
+  <si>
+    <t>What did Sara realize about her day with Ali?​</t>
+  </si>
+  <si>
+    <t>ماذا أدركت سارة عن يومها مع علي؟</t>
+  </si>
+  <si>
+    <t>They were tired but very satisfied. It was a wonderful day filled with joy and laughter;​  Sara realized how much she enjoyed spending time with her friends;​  Sara was born in a small town;</t>
+  </si>
+  <si>
+    <t>The boy eats an apple الولد يأكل التفاحة;The book is on the table الكتاب على الطاولة;I am a student انا تلميذ,I can speak English انا استطيع التحدث بالانجليزية;Come here  تعال الى هنا</t>
+  </si>
+  <si>
+    <t>Teacher معلمة : I love my teacher  انا احب معلمتي;School مدرسة  : I go to school every day  انا اذهب الى المدرسة كل يوم;Smart ذكية  : she is smart هي ذكية;Week اسبوع : see you next week اراك الاسبوع القادم;Lesson درس  : I love English lessons انا احب الدروس الانجليزي</t>
+  </si>
+  <si>
+    <t>Run اركض : I run everyday  انا اركض كل يوم;Eat أكل  : I eat banana انا اكل موزة;Have لدي : they have a dog  لديهم كلب;Write يكتب : she writes on the book هي تكتب على الكتاب;Say يقول : he says hello  هو يقول مرحبا</t>
+  </si>
+  <si>
+    <t>What is the name of the smart boy in the story?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ​​The name of the smart boy is ______ .</t>
+  </si>
+  <si>
+    <t>ما اسم الولد الذكي في القصة؟</t>
+  </si>
+  <si>
+    <t>What does Ali eat for breakfast?</t>
+  </si>
+  <si>
+    <t>ماذا يأكل علي على الإفطار؟</t>
+  </si>
+  <si>
+    <t>​​Ali eats a ______  for breakfast.</t>
+  </si>
+  <si>
+    <t>What subject does Ali love the most?</t>
+  </si>
+  <si>
+    <t>ما هو الموضوع الذي يحبه علي أكثر شيء؟</t>
+  </si>
+  <si>
+    <t>​​​Ali loves ______ lessons the most.</t>
+  </si>
+  <si>
+    <t>Who did Ali share his story with after school?</t>
+  </si>
+  <si>
+    <t>​Ali shared his story with his ______ after school.</t>
+  </si>
+  <si>
+    <t>​مع من شارك علي قصته بعد المدرسة؟</t>
+  </si>
+  <si>
+    <t>What did Ali's mother say to him?</t>
+  </si>
+  <si>
+    <t>ماذا قالت والدة علي له؟</t>
+  </si>
+  <si>
+    <t>Ali's mother said, “_______”</t>
+  </si>
+  <si>
+    <t>Where was the book that Ali looked at before going to bed?</t>
+  </si>
+  <si>
+    <t>The book was on the_______beside his bed.</t>
+  </si>
+  <si>
+    <t>أين كان الكتاب الذي نظر إليه علي قبل الذهاب إلى الفراش؟</t>
+  </si>
+  <si>
+    <t>What did Ali say he loves?</t>
+  </si>
+  <si>
+    <t>​Ali said “________”</t>
+  </si>
+  <si>
+    <t>ماذا قال علي أنه يحب؟</t>
+  </si>
+  <si>
+    <t>What is Ali excited about for next week?</t>
+  </si>
+  <si>
+    <t>عن ماذا كان علي متحمسًا للأسبوع القادم؟</t>
+  </si>
+  <si>
+    <t>Smart ; Ali ; was </t>
+  </si>
+  <si>
+    <t>Breakfast ; school; banana</t>
+  </si>
+  <si>
+    <t>English ;apple;teacher ​</t>
+  </si>
+  <si>
+    <t>Friends ; parents ; mother</t>
+  </si>
+  <si>
+    <t>You are very smart; Ali​; I can speak English;I can't wait for next week to learn more​</t>
+  </si>
+  <si>
+    <t>Bed; parents; table ​</t>
+  </si>
+  <si>
+    <t>I love my school and my teacher;  I can't wait for next week to learn more; Ali who loved to learn new things​</t>
+  </si>
+  <si>
+    <t>Ali is excited about learning more next week; Ali thought as he closed his eyes; See you next week​</t>
+  </si>
+  <si>
+    <t>خاص ;Things;فراش;منزل ;سعيد</t>
+  </si>
+  <si>
+    <t>Nice to meet you سررت بلقائك;How are you ? كيف حالك;I have two cats لدي قطتان​;How old are you ? كم عمرك​;I love playing football احب لعب كرة القدم</t>
+  </si>
+  <si>
+    <t>Ant نملة  :  The ant is very small  النملة صغيرة جدا;Bed فراش  :  My bed is pink فراشي زهري;Circle دائرة :  I drew a circle رسمت دائرة;Door باب  :  Open the door افتح الباب;Egg بيضة   : The chicken is sitting on the egg الدجاجة جالسة على البيضة;Flower وردة  : The flower smells nice الوردة رائحتها جميلة,Gum  علكة : Don’t swallow the gum لا تبلع العلكة,Hot حار   : Be careful it’s too hot انتبه انه حار جدا,Ice ثلج  : I love ice احب الثلج,Juice عصير : I want apple juice اريد عصير تفاح,Key مفتاح : Don’t forget the keys لا تنسى المفاتيح,Lion اسد : The lion is scary الاسد مخيف</t>
+  </si>
+  <si>
+    <t>Box صندوق  :  The cat is in the box القطة في الصندوق;Wall حائط    :  There is an insect on the wall هناك حشرة على الحائط;Party حفلة    :  You are invited to the party انت معزوم للحفلة;Homework وظيفة :    Did you do your homework ? هل حليت و ظيفتك ؟;Store متجر :    Is the store open ? هل المتجر مفتوح ؟</t>
+  </si>
+  <si>
+    <t>To live  يعيش : I live in Turkey انا اعيش في تركيا;Born ولد : I was born in Germany ولدت في المانيا;Meet يلتقي : I meet my friends in school التقي باصدقائي في المدرسة;Wake up يستيقظ  : She wakes up early هي تستيقظ باكرا;Study يدرس : We study hard for the test ندرس باجتهاد للامتحان</t>
+  </si>
+  <si>
+    <t>Where is the book ?اين الكتاب;When were you born? متى و لدت;When does the store open ? متى يفتح المتجر;Where are you from ? من اين انت;Where are you ? اين انت</t>
+  </si>
+  <si>
+    <t>Cozy house; small town; her family​</t>
+  </si>
+  <si>
+    <t>Read books and learn new things; wakes up early and do her homework </t>
+  </si>
+  <si>
+    <t>To buy a box ; to meet her friend ​</t>
+  </si>
+  <si>
+    <t>Ali; Sarah; her mom</t>
+  </si>
+  <si>
+    <t>Sara and Ali talked for a while;​   to have a party at Sara's house ;​  to bring the box and some decorations</t>
+  </si>
+  <si>
+    <t>Ali’s house ; Sarah’s house ​</t>
+  </si>
+  <si>
+    <t>big box and some decorations; idea; colorful balloons and streamers​</t>
+  </si>
+  <si>
+    <t>Sara and Ali sat down and talked about their day.;​    They played games, danced to music, and enjoyed delicious snacks.;​    Sara realized how much she enjoyed spending time with her friends;</t>
+  </si>
+  <si>
+    <t>They decorated the wall with colorful balloons and streamers;​    They played games, danced to music, and enjoyed delicious snacks;​    Sara and Ali sat down and talked about their day;</t>
   </si>
 </sst>
 </file>
@@ -568,10 +742,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O23"/>
+  <dimension ref="A4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -599,13 +773,13 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>8</v>
+        <v>58</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -614,7 +788,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -646,13 +820,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>9</v>
+        <v>59</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -661,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -687,19 +861,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -708,7 +882,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L6" t="s">
         <v>4</v>
@@ -755,19 +929,19 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" t="s">
         <v>12</v>
       </c>
-      <c r="L8" t="s">
+      <c r="O8" t="s">
         <v>13</v>
-      </c>
-      <c r="M8" t="s">
-        <v>14</v>
-      </c>
-      <c r="N8" t="s">
-        <v>15</v>
-      </c>
-      <c r="O8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -787,22 +961,22 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="H9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="I9" t="s">
-        <v>18</v>
+        <v>84</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
@@ -834,22 +1008,22 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>23</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
-        <v>20</v>
+        <v>85</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L10" t="s">
         <v>4</v>
@@ -881,22 +1055,22 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>16</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>68</v>
       </c>
       <c r="H11" t="s">
-        <v>22</v>
+        <v>69</v>
       </c>
       <c r="I11" t="s">
+        <v>86</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11" t="s">
         <v>21</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11" t="s">
-        <v>43</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
@@ -928,22 +1102,22 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="H12" t="s">
-        <v>25</v>
+        <v>71</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -975,22 +1149,22 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>74</v>
       </c>
       <c r="H13" t="s">
-        <v>26</v>
+        <v>75</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
@@ -1022,22 +1196,22 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>16</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>28</v>
+        <v>89</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
@@ -1069,22 +1243,22 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>31</v>
+        <v>90</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L15" t="s">
         <v>4</v>
@@ -1116,22 +1290,22 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>16</v>
+        <v>82</v>
       </c>
       <c r="G16" t="s">
-        <v>17</v>
+        <v>83</v>
       </c>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>33</v>
+        <v>91</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -1163,22 +1337,22 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>92</v>
       </c>
       <c r="J17" t="s">
         <v>4</v>
       </c>
       <c r="K17" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
@@ -1201,7 +1375,7 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>6</v>
@@ -1210,13 +1384,13 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -1225,7 +1399,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -1248,7 +1422,7 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D20" t="s">
         <v>6</v>
@@ -1257,13 +1431,13 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>94</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -1272,7 +1446,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L20" t="s">
         <v>4</v>
@@ -1295,22 +1469,22 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>11</v>
+        <v>60</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
@@ -1319,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="L21" t="s">
         <v>4</v>
@@ -1342,46 +1516,798 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" t="s">
+        <v>8</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L22" t="s">
+        <v>4</v>
+      </c>
+      <c r="M22" t="s">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G24" t="s">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>95</v>
+      </c>
+      <c r="I24" t="s">
+        <v>4</v>
+      </c>
+      <c r="J24" t="s">
+        <v>4</v>
+      </c>
+      <c r="K24" t="s">
+        <v>17</v>
+      </c>
+      <c r="L24" t="s">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" t="s">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>96</v>
+      </c>
+      <c r="I25" t="s">
+        <v>4</v>
+      </c>
+      <c r="J25" t="s">
+        <v>4</v>
+      </c>
+      <c r="K25" t="s">
+        <v>17</v>
+      </c>
+      <c r="L25" t="s">
+        <v>4</v>
+      </c>
+      <c r="M25" t="s">
+        <v>4</v>
+      </c>
+      <c r="N25" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>18</v>
+      </c>
+      <c r="G26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>97</v>
+      </c>
+      <c r="I26" t="s">
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>4</v>
+      </c>
+      <c r="K26" t="s">
+        <v>17</v>
+      </c>
+      <c r="L26" t="s">
+        <v>4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>4</v>
+      </c>
+      <c r="N26" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>9</v>
+      </c>
+      <c r="L27" t="s">
+        <v>27</v>
+      </c>
+      <c r="M27" t="s">
+        <v>28</v>
+      </c>
+      <c r="N27" t="s">
+        <v>29</v>
+      </c>
+      <c r="O27" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>31</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="H28" t="s">
+        <v>33</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28">
+        <v>1</v>
+      </c>
+      <c r="K28" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" t="s">
+        <v>4</v>
+      </c>
+      <c r="M28" t="s">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" t="s">
+        <v>4</v>
+      </c>
+      <c r="F29" t="s">
+        <v>34</v>
+      </c>
+      <c r="G29" t="s">
+        <v>35</v>
+      </c>
+      <c r="H29" t="s">
+        <v>4</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29" t="s">
+        <v>21</v>
+      </c>
+      <c r="L29" t="s">
+        <v>4</v>
+      </c>
+      <c r="M29" t="s">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" t="s">
+        <v>4</v>
+      </c>
+      <c r="F30" t="s">
+        <v>36</v>
+      </c>
+      <c r="G30" t="s">
+        <v>37</v>
+      </c>
+      <c r="H30" t="s">
+        <v>4</v>
+      </c>
+      <c r="I30" t="s">
+        <v>99</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L30" t="s">
+        <v>4</v>
+      </c>
+      <c r="M30" t="s">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>4</v>
+      </c>
+      <c r="I31" t="s">
+        <v>100</v>
+      </c>
+      <c r="J31">
+        <v>1</v>
+      </c>
+      <c r="K31" t="s">
+        <v>21</v>
+      </c>
+      <c r="L31" t="s">
+        <v>4</v>
+      </c>
+      <c r="M31" t="s">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" t="s">
+        <v>41</v>
+      </c>
+      <c r="H32" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32" t="s">
+        <v>21</v>
+      </c>
+      <c r="L32" t="s">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" t="s">
+        <v>42</v>
+      </c>
+      <c r="G33" t="s">
+        <v>43</v>
+      </c>
+      <c r="H33" t="s">
+        <v>4</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J33">
+        <v>1</v>
+      </c>
+      <c r="K33" t="s">
+        <v>21</v>
+      </c>
+      <c r="L33" t="s">
+        <v>4</v>
+      </c>
+      <c r="M33" t="s">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
+        <v>26</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
         <v>44</v>
       </c>
-      <c r="D22" t="s">
-        <v>10</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>4</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" t="s">
+        <v>4</v>
+      </c>
+      <c r="M34" t="s">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" t="s">
+        <v>46</v>
+      </c>
+      <c r="G35" t="s">
         <v>47</v>
       </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" t="s">
+      <c r="H35" t="s">
+        <v>4</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" t="s">
+        <v>4</v>
+      </c>
+      <c r="M35" t="s">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D36" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
         <v>48</v>
       </c>
-      <c r="L22" t="s">
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>4</v>
-      </c>
-      <c r="N22" t="s">
-        <v>4</v>
-      </c>
-      <c r="O22" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="G36" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" t="s">
+        <v>4</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="J36">
+        <v>0</v>
+      </c>
+      <c r="K36" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" t="s">
+        <v>4</v>
+      </c>
+      <c r="M36" t="s">
+        <v>4</v>
+      </c>
+      <c r="N36" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" t="s">
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>50</v>
+      </c>
+      <c r="G37" t="s">
+        <v>51</v>
+      </c>
+      <c r="H37" t="s">
+        <v>4</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="J37">
+        <v>1</v>
+      </c>
+      <c r="K37" t="s">
+        <v>21</v>
+      </c>
+      <c r="L37" t="s">
+        <v>4</v>
+      </c>
+      <c r="M37" t="s">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" t="s">
+        <v>3</v>
+      </c>
+      <c r="C38" t="s">
+        <v>26</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" t="s">
+        <v>52</v>
+      </c>
+      <c r="G38" t="s">
+        <v>53</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J38">
+        <v>0</v>
+      </c>
+      <c r="K38" t="s">
+        <v>21</v>
+      </c>
+      <c r="L38" t="s">
+        <v>4</v>
+      </c>
+      <c r="M38" t="s">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>26</v>
+      </c>
+      <c r="D39" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" t="s">
+        <v>55</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="J39">
+        <v>0</v>
+      </c>
+      <c r="K39" t="s">
+        <v>21</v>
+      </c>
+      <c r="L39" t="s">
+        <v>4</v>
+      </c>
+      <c r="M39" t="s">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BF6D5-88B6-3145-B6B9-544FAC3114D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4747B8CC-7BE7-8E4B-B476-1AB6A40F0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -744,8 +744,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:O39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4747B8CC-7BE7-8E4B-B476-1AB6A40F0A14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006345E5-B90E-554B-B765-657A7342E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="149">
   <si>
     <t>A1</t>
   </si>
@@ -54,9 +54,6 @@
   </si>
   <si>
     <t>Vocabulary</t>
-  </si>
-  <si>
-    <t>No Intro</t>
   </si>
   <si>
     <t xml:space="preserve">ملاحظة : هناك ثلاث اقسام للمفردات​
@@ -66,9 +63,6 @@
 سوف يتم استخدام المفردات في درس المحادثة لذالك يجي دراستها بجدية </t>
   </si>
   <si>
-    <t>No intro</t>
-  </si>
-  <si>
     <t>passage</t>
   </si>
   <si>
@@ -361,6 +355,138 @@
   </si>
   <si>
     <t>They decorated the wall with colorful balloons and streamers;​    They played games, danced to music, and enjoyed delicious snacks;​    Sara and Ali sat down and talked about their day;</t>
+  </si>
+  <si>
+    <t>Unit4</t>
+  </si>
+  <si>
+    <t>Milk  حليب:  I drink milk before sleeping  انا اشرب الحليب قبل النوم;Numbers  ارقام : I know numbers in Italian  اعلم الارقام بالايطالية;Olive  زيتون : I eat olive during breakfast  اكل زيتون على الفطور;People ناس  : There are many people in here  هناك الكثير من الناس هنا;Queen ملكة : The queen died last year الملكة ماتت العام الماضي;Rainbow قوس قزح : There is a rainbow outside  هناك قوس قزح بالخارج;Spoon  حساء  : Soup is eaten with a spoon  الحساء يأكل بالملعقة;Turtle  سلحفاة :  Turtles walk so slow السلاحف يمشون ببطئ;Umbrella   مظلة :  Don’t forget your umbrella لاتنسى مظلتك;Voice  صوت  : She has a nice voice لديها صوت جميل;Water  ماء : Water is so important الماء مهم جدا;Yogurt لبن : We need to bring Yogurt نحتاج الى شراء اللبن</t>
+  </si>
+  <si>
+    <t>Don’t forget your umbrella لاتنسى مظلتك;Water is so important الماء مهم جدا;She has a nice voice لديها صوت جميل;There are many people in here  هناك الكثير من الناس هنا</t>
+  </si>
+  <si>
+    <t>Lina wakes up early. She drinks a glass of milk. She likes milk very much.;Lina sees her pet turtle in the garden. The turtle is slow but cute. Lina counts the flowers in the garden. The number of flowers is five.;Lina goes to the kitchen. She takes a spoon and eats yogurt for breakfast.; She also eats some olives. Olives are the best .</t>
+  </si>
+  <si>
+    <t>Unit5</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Unit5</t>
+  </si>
+  <si>
+    <t>Beautiful جميل:  She is very beautiful  هي جميلة جدا ;Tall طويل : I am a tall man انا رجل طويل ;Blond اشقر :  Her friend is blond  صديقتها شقراء ;Blond اشقر :  Her friend is blond  صديقتها شقراء ;Hospital مستشفى : We are going to the hospital  ذاهبون الى المستشفى ;Kiss قبلة : The kid gave her dad a kiss  الطفلة اعطت ابها قبلة</t>
+  </si>
+  <si>
+    <t>I am 10 years old انا عمري عشر سنوات;Can you help me ?هل يمكنك مساعدتي;This gift is for you هذه الهدية لك;I talked to him انا تحدثت معه</t>
+  </si>
+  <si>
+    <t>Sarah and I ​</t>
+  </si>
+  <si>
+    <t>انا و سارة ​</t>
+  </si>
+  <si>
+    <t>My name is Emma. I am seven years old. I have a beautiful, tall, blond friend named Sarah. Sarah is very nice and always helps me.​  One day, Sarah got sick and went to the hospital. I was very worried about her. I wanted to know if she was okay, so I asked my mom to call the hospital. The nurse said Sarah was fine and could come home soon.​  When Sarah came back home, I was so happy! I went to her house to see her. I talked to her and told her how much I missed her. She gave me a big kiss on the cheek and said, "Thank you for caring about me."​  Sarah loves to learn new things. She likes to teach me what she learns at school. She teaches me how to read and write. I am very lucky to have a friend like her.​  On Sarah's birthday, I wanted to give her a special gift. I asked my mom, "Can you help me find a gift for Sarah?" We went to the store and found a beautiful book. I said, "This gift is for you, Sarah. I hope you like it."​  Sarah was very happy and gave me a big hug. She said, "Thank you, Emma. You are the best friend ever." I felt so happy and proud.</t>
+  </si>
+  <si>
+    <t>اسمي إيما. عمري سبع سنوات. لدي صديقة جميلة، طويلة، وشقراء اسمها سارة. سارة لطيفة جدًا وتساعدني دائمًا.​  في أحد الأيام، مرضت سارة وذهبت إلى المستشفى. كنت قلقة جدًا عليها. أردت أن أعرف إذا كانت بخير، لذا طلبت من أمي أن تتصل بالمستشفى. قالت الممرضة إن سارة بخير ويمكنها العودة إلى المنزل قريبًا.​  عندما عادت سارة إلى المنزل، كنت سعيدة جدًا! ذهبت إلى منزلها لرؤيتها. تحدثت معها وأخبرتها كم اشتقت إليها. أعطتني قبلة كبيرة على الخد وقالت، "شكرًا لاهتمامك بي."​  تحب سارة تعلم أشياء جديدة. تحب أن تعلمني ما تتعلمه في المدرسة. تعلمني كيف أقرأ وأكتب. أنا محظوظة جدًا بوجود صديقة مثلها.​  في عيد ميلاد سارة، أردت أن أقدم لها هدية خاصة. سألت أمي، "هل يمكنك مساعدتي في العثور على هدية لسارة؟" ذهبنا إلى المتجر ووجدنا كتابًا جميلًا. قلت، "هذه الهدية لكِ، سارة. أتمنى أن تعجبكِ."​  كانت سارة سعيدة جدًا وعانقتني بقوة. قالت، "شكرًا لكِ، إيما. أنتِ أفضل صديقة على الإطلاق." شعرت بالسعادة والفخر.</t>
+  </si>
+  <si>
+    <t>How old is Emma?</t>
+  </si>
+  <si>
+    <t>كم عمر إيما؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> -</t>
+  </si>
+  <si>
+    <t>Five years old;Seven years old;Ten years old</t>
+  </si>
+  <si>
+    <t>ما اسم صديقة إيما؟</t>
+  </si>
+  <si>
+    <t>What is the name of Emma's friend?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> أين ذهبت سارة عندما مرضت؟</t>
+  </si>
+  <si>
+    <t>Where did Sarah go when she got sick?</t>
+  </si>
+  <si>
+    <t>Who did Emma ask to call the hospital?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> من طلبت إيما أن يتصل بالمستشفى؟</t>
+  </si>
+  <si>
+    <t>What did Sarah do when Emma visited her at home?</t>
+  </si>
+  <si>
+    <t>ماذا فعلت سارة عندما زارتها إيما في المنزل؟</t>
+  </si>
+  <si>
+    <t>What does Sarah like to do?</t>
+  </si>
+  <si>
+    <t>ماذا تحب سارة أن تفعل؟</t>
+  </si>
+  <si>
+    <t>What did Emma give Sarah for her birthday?</t>
+  </si>
+  <si>
+    <t>ماذا قدمت إيما لسارة في عيد ميلادها؟</t>
+  </si>
+  <si>
+    <t>How did Sarah feel about the gift?</t>
+  </si>
+  <si>
+    <t>كيف شعرت سارة بشأن الهدية؟</t>
+  </si>
+  <si>
+    <t>What did Emma ask her mom to help with?</t>
+  </si>
+  <si>
+    <t>بماذا طلبت إيما من والدتها المساعدة؟</t>
+  </si>
+  <si>
+    <t>What did Emma feel after giving the gift to Sarah?</t>
+  </si>
+  <si>
+    <t>ماذا شعرت إيما بعد أن قدمت الهدية لسارة؟</t>
+  </si>
+  <si>
+    <t>Lily;Sarah;Anna</t>
+  </si>
+  <si>
+    <t>To the park;To the hospital;To the school</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Her dad;Her mom;Her teacher</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She gave Emma a toy;She gave Emma a big kiss on the cheek;She made a cake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To swim; To learn new things and teach Emma;To play video games​</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> A beautiful book;A new dress;A toy car</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She was sad;She was very happy and gave Emma a big hug;She was angry​</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> To cook dinner;To find a gift for Sarah;To clean the house</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Sad;Proud and happy;Nervous</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To talk يتكلم : I talk to my mom daily اتكلم مع امي يوميا;To call يتصل : She called me when I was out اتصلت بي عندما كنت بالخارج;To know يعلم : I know your secret اعلم سرك;To learn يتعلم : Many students learn English الكثير من التلامذ يتعلمون الإنجليزية;To teach يعلم : My teacher teaches us معلمتي تعلمنا </t>
   </si>
 </sst>
 </file>
@@ -742,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O39"/>
+  <dimension ref="A4:O59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="H52" sqref="H52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -767,19 +893,19 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -788,7 +914,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -814,19 +940,19 @@
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -835,7 +961,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -861,19 +987,19 @@
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E6" t="s">
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -882,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L6" t="s">
         <v>4</v>
@@ -929,19 +1055,19 @@
         <v>4</v>
       </c>
       <c r="K8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M8" t="s">
         <v>9</v>
       </c>
-      <c r="L8" t="s">
+      <c r="N8" t="s">
         <v>10</v>
       </c>
-      <c r="M8" t="s">
+      <c r="O8" t="s">
         <v>11</v>
-      </c>
-      <c r="N8" t="s">
-        <v>12</v>
-      </c>
-      <c r="O8" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -961,22 +1087,22 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
+        <v>59</v>
+      </c>
+      <c r="G9" t="s">
         <v>61</v>
       </c>
-      <c r="G9" t="s">
-        <v>63</v>
-      </c>
       <c r="H9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
@@ -1008,22 +1134,22 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" t="s">
         <v>64</v>
       </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>66</v>
-      </c>
       <c r="I10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="J10">
         <v>2</v>
       </c>
       <c r="K10" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L10" t="s">
         <v>4</v>
@@ -1055,22 +1181,22 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G11" t="s">
+        <v>66</v>
+      </c>
+      <c r="H11" t="s">
         <v>67</v>
       </c>
-      <c r="G11" t="s">
-        <v>68</v>
-      </c>
-      <c r="H11" t="s">
-        <v>69</v>
-      </c>
       <c r="I11" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
@@ -1102,22 +1228,22 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
+        <v>68</v>
+      </c>
+      <c r="G12" t="s">
         <v>70</v>
       </c>
-      <c r="G12" t="s">
-        <v>72</v>
-      </c>
       <c r="H12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="J12">
         <v>1</v>
       </c>
       <c r="K12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -1149,22 +1275,22 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="s">
+        <v>72</v>
+      </c>
+      <c r="H13" t="s">
         <v>73</v>
       </c>
-      <c r="G13" t="s">
-        <v>74</v>
-      </c>
-      <c r="H13" t="s">
-        <v>75</v>
-      </c>
       <c r="I13" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
@@ -1196,22 +1322,22 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
         <v>76</v>
       </c>
-      <c r="G14" t="s">
-        <v>78</v>
-      </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J14">
         <v>2</v>
       </c>
       <c r="K14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
@@ -1243,22 +1369,22 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
+        <v>77</v>
+      </c>
+      <c r="G15" t="s">
         <v>79</v>
       </c>
-      <c r="G15" t="s">
-        <v>81</v>
-      </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L15" t="s">
         <v>4</v>
@@ -1290,22 +1416,22 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s">
         <v>4</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -1337,22 +1463,22 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
+        <v>12</v>
+      </c>
+      <c r="G17" t="s">
+        <v>4</v>
+      </c>
+      <c r="H17" t="s">
+        <v>13</v>
+      </c>
+      <c r="I17" t="s">
+        <v>90</v>
+      </c>
+      <c r="J17" t="s">
+        <v>4</v>
+      </c>
+      <c r="K17" t="s">
         <v>14</v>
-      </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
-      </c>
-      <c r="I17" t="s">
-        <v>92</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
@@ -1375,22 +1501,22 @@
         <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F19" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I19" t="s">
         <v>4</v>
@@ -1399,7 +1525,7 @@
         <v>4</v>
       </c>
       <c r="K19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -1422,22 +1548,22 @@
         <v>5</v>
       </c>
       <c r="C20" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D20" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E20" t="s">
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I20" t="s">
         <v>4</v>
@@ -1446,7 +1572,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
         <v>4</v>
@@ -1469,22 +1595,22 @@
         <v>5</v>
       </c>
       <c r="C21" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E21" t="s">
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I21" t="s">
         <v>4</v>
@@ -1493,7 +1619,7 @@
         <v>4</v>
       </c>
       <c r="K21" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
         <v>4</v>
@@ -1516,31 +1642,31 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="F22" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" t="s">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" t="s">
+        <v>4</v>
+      </c>
+      <c r="J22" t="s">
+        <v>4</v>
+      </c>
+      <c r="K22" t="s">
         <v>22</v>
-      </c>
-      <c r="D22" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" t="s">
-        <v>4</v>
-      </c>
-      <c r="F22" t="s">
-        <v>4</v>
-      </c>
-      <c r="G22" t="s">
-        <v>4</v>
-      </c>
-      <c r="H22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
-      </c>
-      <c r="K22" t="s">
-        <v>24</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
@@ -1564,22 +1690,22 @@
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D24" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="F24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I24" t="s">
         <v>4</v>
@@ -1588,7 +1714,7 @@
         <v>4</v>
       </c>
       <c r="K24" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -1611,22 +1737,22 @@
         <v>5</v>
       </c>
       <c r="C25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E25" t="s">
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
         <v>4</v>
@@ -1635,7 +1761,7 @@
         <v>4</v>
       </c>
       <c r="K25" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
         <v>4</v>
@@ -1658,22 +1784,22 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G26" t="s">
         <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I26" t="s">
         <v>4</v>
@@ -1682,7 +1808,7 @@
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="L26" t="s">
         <v>4</v>
@@ -1705,43 +1831,43 @@
         <v>3</v>
       </c>
       <c r="C27" t="s">
+        <v>24</v>
+      </c>
+      <c r="D27" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" t="s">
+        <v>4</v>
+      </c>
+      <c r="G27" t="s">
+        <v>4</v>
+      </c>
+      <c r="H27" t="s">
+        <v>4</v>
+      </c>
+      <c r="I27" t="s">
+        <v>4</v>
+      </c>
+      <c r="J27" t="s">
+        <v>4</v>
+      </c>
+      <c r="K27" t="s">
+        <v>7</v>
+      </c>
+      <c r="L27" t="s">
+        <v>25</v>
+      </c>
+      <c r="M27" t="s">
         <v>26</v>
       </c>
-      <c r="D27" t="s">
-        <v>4</v>
-      </c>
-      <c r="E27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F27" t="s">
-        <v>4</v>
-      </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
-      </c>
-      <c r="K27" t="s">
-        <v>9</v>
-      </c>
-      <c r="L27" t="s">
+      <c r="N27" t="s">
         <v>27</v>
       </c>
-      <c r="M27" t="s">
+      <c r="O27" t="s">
         <v>28</v>
-      </c>
-      <c r="N27" t="s">
-        <v>29</v>
-      </c>
-      <c r="O27" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1752,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1761,22 +1887,22 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" t="s">
+        <v>30</v>
+      </c>
+      <c r="H28" t="s">
         <v>31</v>
       </c>
-      <c r="G28" t="s">
-        <v>32</v>
-      </c>
-      <c r="H28" t="s">
-        <v>33</v>
-      </c>
       <c r="I28" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J28">
         <v>1</v>
       </c>
       <c r="K28" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L28" t="s">
         <v>4</v>
@@ -1799,7 +1925,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1808,22 +1934,22 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H29" t="s">
         <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="J29">
         <v>2</v>
       </c>
       <c r="K29" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
@@ -1846,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="C30" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1855,22 +1981,22 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G30" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H30" t="s">
         <v>4</v>
       </c>
       <c r="I30" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L30" t="s">
         <v>4</v>
@@ -1893,7 +2019,7 @@
         <v>3</v>
       </c>
       <c r="C31" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -1902,22 +2028,22 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="G31" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H31" t="s">
         <v>4</v>
       </c>
       <c r="I31" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
@@ -1940,7 +2066,7 @@
         <v>3</v>
       </c>
       <c r="C32" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -1949,22 +2075,22 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G32" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="H32" t="s">
         <v>4</v>
       </c>
       <c r="I32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
@@ -1987,7 +2113,7 @@
         <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -1996,22 +2122,22 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G33" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H33" t="s">
         <v>4</v>
       </c>
       <c r="I33" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="J33">
         <v>1</v>
       </c>
       <c r="K33" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L33" t="s">
         <v>4</v>
@@ -2034,7 +2160,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2043,22 +2169,22 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="H34" t="s">
         <v>4</v>
       </c>
       <c r="I34" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J34">
         <v>1</v>
       </c>
       <c r="K34" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
@@ -2081,7 +2207,7 @@
         <v>3</v>
       </c>
       <c r="C35" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -2090,22 +2216,22 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G35" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
         <v>4</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="J35">
         <v>0</v>
       </c>
       <c r="K35" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L35" t="s">
         <v>4</v>
@@ -2128,7 +2254,7 @@
         <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -2137,22 +2263,22 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G36" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
         <v>4</v>
       </c>
       <c r="I36" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="J36">
         <v>0</v>
       </c>
       <c r="K36" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L36" t="s">
         <v>4</v>
@@ -2175,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="C37" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2184,22 +2310,22 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="H37" t="s">
         <v>4</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="J37">
         <v>1</v>
       </c>
       <c r="K37" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
@@ -2222,7 +2348,7 @@
         <v>3</v>
       </c>
       <c r="C38" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -2231,22 +2357,22 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
+        <v>50</v>
+      </c>
+      <c r="G38" t="s">
+        <v>51</v>
+      </c>
+      <c r="H38" t="s">
+        <v>4</v>
+      </c>
+      <c r="I38" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="G38" t="s">
-        <v>53</v>
-      </c>
-      <c r="H38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
@@ -2269,7 +2395,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -2278,22 +2404,22 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
+        <v>53</v>
+      </c>
+      <c r="G39" t="s">
+        <v>54</v>
+      </c>
+      <c r="H39" t="s">
+        <v>4</v>
+      </c>
+      <c r="I39" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G39" t="s">
-        <v>56</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="J39">
         <v>0</v>
       </c>
       <c r="K39" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L39" t="s">
         <v>4</v>
@@ -2307,6 +2433,811 @@
       <c r="O39" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" t="s">
+        <v>105</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F40" t="s">
+        <v>17</v>
+      </c>
+      <c r="G40" t="s">
+        <v>4</v>
+      </c>
+      <c r="H40" t="s">
+        <v>106</v>
+      </c>
+      <c r="I40" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" t="s">
+        <v>4</v>
+      </c>
+      <c r="K40" t="s">
+        <v>15</v>
+      </c>
+      <c r="L40" t="s">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>5</v>
+      </c>
+      <c r="C41" t="s">
+        <v>105</v>
+      </c>
+      <c r="D41" t="s">
+        <v>4</v>
+      </c>
+      <c r="E41" t="s">
+        <v>4</v>
+      </c>
+      <c r="F41" t="s">
+        <v>16</v>
+      </c>
+      <c r="G41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H41" t="s">
+        <v>107</v>
+      </c>
+      <c r="I41" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" t="s">
+        <v>4</v>
+      </c>
+      <c r="K41" t="s">
+        <v>15</v>
+      </c>
+      <c r="L41" t="s">
+        <v>4</v>
+      </c>
+      <c r="M41" t="s">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>105</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" t="s">
+        <v>4</v>
+      </c>
+      <c r="F42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G42" t="s">
+        <v>4</v>
+      </c>
+      <c r="H42" t="s">
+        <v>108</v>
+      </c>
+      <c r="I42" t="s">
+        <v>4</v>
+      </c>
+      <c r="J42" t="s">
+        <v>4</v>
+      </c>
+      <c r="K42" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" t="s">
+        <v>4</v>
+      </c>
+      <c r="M42" t="s">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" t="s">
+        <v>109</v>
+      </c>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F44" t="s">
+        <v>23</v>
+      </c>
+      <c r="G44" t="s">
+        <v>4</v>
+      </c>
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
+        <v>4</v>
+      </c>
+      <c r="J44" t="s">
+        <v>4</v>
+      </c>
+      <c r="K44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L44" t="s">
+        <v>4</v>
+      </c>
+      <c r="M44" t="s">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45" t="s">
+        <v>5</v>
+      </c>
+      <c r="C45" t="s">
+        <v>110</v>
+      </c>
+      <c r="D45" t="s">
+        <v>4</v>
+      </c>
+      <c r="E45" t="s">
+        <v>4</v>
+      </c>
+      <c r="F45" t="s">
+        <v>16</v>
+      </c>
+      <c r="G45" t="s">
+        <v>4</v>
+      </c>
+      <c r="H45" t="s">
+        <v>112</v>
+      </c>
+      <c r="I45" t="s">
+        <v>4</v>
+      </c>
+      <c r="J45" t="s">
+        <v>4</v>
+      </c>
+      <c r="K45" t="s">
+        <v>15</v>
+      </c>
+      <c r="L45" t="s">
+        <v>4</v>
+      </c>
+      <c r="M45" t="s">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>109</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s">
+        <v>4</v>
+      </c>
+      <c r="H46" t="s">
+        <v>148</v>
+      </c>
+      <c r="I46" t="s">
+        <v>4</v>
+      </c>
+      <c r="J46" t="s">
+        <v>4</v>
+      </c>
+      <c r="K46" t="s">
+        <v>15</v>
+      </c>
+      <c r="L46" t="s">
+        <v>4</v>
+      </c>
+      <c r="M46" t="s">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>3</v>
+      </c>
+      <c r="C47" t="s">
+        <v>109</v>
+      </c>
+      <c r="D47" t="s">
+        <v>4</v>
+      </c>
+      <c r="E47" t="s">
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>4</v>
+      </c>
+      <c r="G47" t="s">
+        <v>4</v>
+      </c>
+      <c r="H47" t="s">
+        <v>4</v>
+      </c>
+      <c r="I47" t="s">
+        <v>4</v>
+      </c>
+      <c r="J47" t="s">
+        <v>4</v>
+      </c>
+      <c r="K47" t="s">
+        <v>7</v>
+      </c>
+      <c r="L47" t="s">
+        <v>113</v>
+      </c>
+      <c r="M47" t="s">
+        <v>114</v>
+      </c>
+      <c r="N47" t="s">
+        <v>115</v>
+      </c>
+      <c r="O47" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>109</v>
+      </c>
+      <c r="D48" t="s">
+        <v>4</v>
+      </c>
+      <c r="E48" t="s">
+        <v>4</v>
+      </c>
+      <c r="F48" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" t="s">
+        <v>119</v>
+      </c>
+      <c r="I48" t="s">
+        <v>120</v>
+      </c>
+      <c r="J48">
+        <v>1</v>
+      </c>
+      <c r="K48" t="s">
+        <v>19</v>
+      </c>
+      <c r="L48" t="s">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>4</v>
+      </c>
+      <c r="N48" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C49" t="s">
+        <v>109</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" t="s">
+        <v>122</v>
+      </c>
+      <c r="G49" t="s">
+        <v>121</v>
+      </c>
+      <c r="H49" t="s">
+        <v>4</v>
+      </c>
+      <c r="I49" t="s">
+        <v>139</v>
+      </c>
+      <c r="J49">
+        <v>1</v>
+      </c>
+      <c r="K49" t="s">
+        <v>19</v>
+      </c>
+      <c r="L49" t="s">
+        <v>4</v>
+      </c>
+      <c r="M49" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50" t="s">
+        <v>3</v>
+      </c>
+      <c r="C50" t="s">
+        <v>109</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>124</v>
+      </c>
+      <c r="G50" t="s">
+        <v>123</v>
+      </c>
+      <c r="H50" t="s">
+        <v>4</v>
+      </c>
+      <c r="I50" t="s">
+        <v>140</v>
+      </c>
+      <c r="J50">
+        <v>1</v>
+      </c>
+      <c r="K50" t="s">
+        <v>19</v>
+      </c>
+      <c r="L50" t="s">
+        <v>4</v>
+      </c>
+      <c r="M50" t="s">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>109</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>4</v>
+      </c>
+      <c r="F51" t="s">
+        <v>125</v>
+      </c>
+      <c r="G51" t="s">
+        <v>126</v>
+      </c>
+      <c r="H51" t="s">
+        <v>4</v>
+      </c>
+      <c r="I51" t="s">
+        <v>141</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51" t="s">
+        <v>19</v>
+      </c>
+      <c r="L51" t="s">
+        <v>4</v>
+      </c>
+      <c r="M51" t="s">
+        <v>4</v>
+      </c>
+      <c r="N51" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52" t="s">
+        <v>3</v>
+      </c>
+      <c r="C52" t="s">
+        <v>109</v>
+      </c>
+      <c r="D52" t="s">
+        <v>4</v>
+      </c>
+      <c r="E52" t="s">
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" t="s">
+        <v>128</v>
+      </c>
+      <c r="H52" t="s">
+        <v>4</v>
+      </c>
+      <c r="I52" t="s">
+        <v>142</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+      <c r="K52" t="s">
+        <v>19</v>
+      </c>
+      <c r="L52" t="s">
+        <v>4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53" t="s">
+        <v>3</v>
+      </c>
+      <c r="C53" t="s">
+        <v>109</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>4</v>
+      </c>
+      <c r="F53" t="s">
+        <v>129</v>
+      </c>
+      <c r="G53" t="s">
+        <v>130</v>
+      </c>
+      <c r="H53" t="s">
+        <v>4</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J53">
+        <v>1</v>
+      </c>
+      <c r="K53" t="s">
+        <v>19</v>
+      </c>
+      <c r="L53" t="s">
+        <v>4</v>
+      </c>
+      <c r="M53" t="s">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" t="s">
+        <v>4</v>
+      </c>
+      <c r="E54" t="s">
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>131</v>
+      </c>
+      <c r="G54" t="s">
+        <v>132</v>
+      </c>
+      <c r="H54" t="s">
+        <v>4</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54" t="s">
+        <v>19</v>
+      </c>
+      <c r="L54" t="s">
+        <v>4</v>
+      </c>
+      <c r="M54" t="s">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>3</v>
+      </c>
+      <c r="C55" t="s">
+        <v>109</v>
+      </c>
+      <c r="D55" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" t="s">
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>133</v>
+      </c>
+      <c r="G55" t="s">
+        <v>134</v>
+      </c>
+      <c r="H55" t="s">
+        <v>4</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55" t="s">
+        <v>19</v>
+      </c>
+      <c r="L55" t="s">
+        <v>4</v>
+      </c>
+      <c r="M55" t="s">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56" t="s">
+        <v>3</v>
+      </c>
+      <c r="C56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>4</v>
+      </c>
+      <c r="F56" t="s">
+        <v>135</v>
+      </c>
+      <c r="G56" t="s">
+        <v>136</v>
+      </c>
+      <c r="H56" t="s">
+        <v>4</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56" t="s">
+        <v>19</v>
+      </c>
+      <c r="L56" t="s">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>109</v>
+      </c>
+      <c r="D57" t="s">
+        <v>4</v>
+      </c>
+      <c r="E57" t="s">
+        <v>4</v>
+      </c>
+      <c r="F57" t="s">
+        <v>137</v>
+      </c>
+      <c r="G57" t="s">
+        <v>138</v>
+      </c>
+      <c r="H57" t="s">
+        <v>4</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57" t="s">
+        <v>19</v>
+      </c>
+      <c r="L57" t="s">
+        <v>4</v>
+      </c>
+      <c r="M57" t="s">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="1"/>
+    </row>
+    <row r="59" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{006345E5-B90E-554B-B765-657A7342E119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E056E7-BEC9-6847-9355-7D72382993CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="38640" yWindow="3100" windowWidth="33360" windowHeight="20260" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="202">
   <si>
     <t>A1</t>
   </si>
@@ -72,9 +72,6 @@
     <t>علي </t>
   </si>
   <si>
-    <t>Ali ​  Once upon a time, there was a smart boy named Ali who loved to learn new things. Every day, Ali would go to school. He would wake up early, eat a banana for breakfast, and run to school. Ali loved English lessons the most. He could speak English very well and enjoyed practicing with his friends.​  One day, his teacher gave them a special lesson. She said, "Today, we are going to write a short story." Ali was excited. He loved his teacher and always paid attention to her lessons. He thought for a moment and then began to write on his notebook, "The boy eats an apple," he started.​  At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​  Before going to bed, Ali looked at the book on the table beside his bed. He said to himself, "I love my school and my teacher. I can't wait for next week to learn more." And with that happy thought, he drifted off to sleep, dreaming of all the new things he would learn.​  See you next week, Ali thought, as he closed his eyes, ready for another exciting day.</t>
-  </si>
-  <si>
     <t>في يوم من الأيام، كان هناك ولد ذكي اسمه علي يحب تعلم أشياء جديدة. كل يوم، كان علي يذهب إلى المدرسة. كان يستيقظ مبكرًا، يأكل موزة على الإفطار، ويركض إلى المدرسة. كان علي يحب دروس اللغة الإنجليزية أكثر من أي شيء آخر. كان يستطيع التحدث بالإنجليزية جيدًا ويستمتع بالتدرب مع أصدقائه.في يوم من الأيام، أعطتهم معلمتهم درسًا خاصًا. قالت، "اليوم، سنكتب قصة قصيرة." كان علي متحمسًا. كان يحب معلمته ودائمًا ما كان ينتبه إلى دروسها. فكر للحظة ثم بدأ يكتب في دفتره، "الولد يأكل التفاحة"، بدأ.في وقت الغداء، جلس علي مع أصدقائه وتحدثوا عن قصصهم. قال لهم بفخر، "أنا أستطيع التحدث بالإنجليزية." اتفقوا جميعًا على أن تعلم الإنجليزية ممتع. بعد المدرسة، ركض علي إلى المنزل ليشارك قصته مع والديه. ابتسمت والدته وقالت، "أنت ذكي جدًا يا علي."قبل الذهاب إلى الفراش، نظر علي إلى الكتاب على الطاولة بجانب سريره. قال لنفسه، "أنا أحب مدرستي ومعلمتي. لا أستطيع الانتظار للأسبوع القادم لأتعلم المزيد." ومع هذا الفكر السعيد، غط في النوم، يحلم بكل الأشياء الجديدة التي سيتعلمها."أراك الأسبوع القادم"، فكر علي وهو يغلق عينيه، مستعدًا ليوم آخر مثير.</t>
   </si>
   <si>
@@ -487,13 +484,263 @@
   </si>
   <si>
     <t xml:space="preserve">To talk يتكلم : I talk to my mom daily اتكلم مع امي يوميا;To call يتصل : She called me when I was out اتصلت بي عندما كنت بالخارج;To know يعلم : I know your secret اعلم سرك;To learn يتعلم : Many students learn English الكثير من التلامذ يتعلمون الإنجليزية;To teach يعلم : My teacher teaches us معلمتي تعلمنا </t>
+  </si>
+  <si>
+    <t>Once upon a time, there was a smart boy named Ali who loved to learn new things. Every day, Ali would go to school. He would wake up early, eat a banana for breakfast, and run to school. Ali loved English lessons the most. He could speak English very well and enjoyed practicing with his friends.​  One day, his teacher gave them a special lesson. She said, "Today, we are going to write a short story." Ali was excited. He loved his teacher and always paid attention to her lessons. He thought for a moment and then began to write on his notebook, "The boy eats an apple," he started.​  At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​  Before going to bed, Ali looked at the book on the table beside his bed. He said to himself, "I love my school and my teacher. I can't wait for next week to learn more." And with that happy thought, he drifted off to sleep, dreaming of all the new things he would learn.​  See you next week, Ali thought, as he closed his eyes, ready for another exciting day.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test </t>
+  </si>
+  <si>
+    <t>The ____ has long blonde hair</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> He is a very kind _____</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They have one _____</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> She ______ speak Turkish</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> They _____ one cat</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I ____ a student</t>
+  </si>
+  <si>
+    <t>boy; girl ; thing</t>
+  </si>
+  <si>
+    <t>person; animal; month</t>
+  </si>
+  <si>
+    <t>child; person; happiness</t>
+  </si>
+  <si>
+    <t>he; she ; you</t>
+  </si>
+  <si>
+    <t>we; he ; it</t>
+  </si>
+  <si>
+    <t>they; she ; I</t>
+  </si>
+  <si>
+    <t>can ; say; has</t>
+  </si>
+  <si>
+    <t>have; say ; go</t>
+  </si>
+  <si>
+    <t>go; write; am</t>
+  </si>
+  <si>
+    <t>Complete the sentence based on the Arabic translation provided:</t>
+  </si>
+  <si>
+    <t>أكمل الجملة بناءً على الترجمة العربية المقدمة:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>My sister</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is visiting us.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Ahmed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is a good student.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve"> The children</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> are playing outside.</t>
+    </r>
+  </si>
+  <si>
+    <t>here;always</t>
+  </si>
+  <si>
+    <t>The dog is _____ the table</t>
+  </si>
+  <si>
+    <t>under;in; on</t>
+  </si>
+  <si>
+    <t>Select the option that best describes the image above</t>
+  </si>
+  <si>
+    <t>The table is ____ the dog and the cat</t>
+  </si>
+  <si>
+    <t>between;in;on</t>
+  </si>
+  <si>
+    <t>Do you want to drink coffee ____ tea ?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I got a gift ___ you</t>
+  </si>
+  <si>
+    <t>or;and</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> while;but</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I want to buy a new dress ____ I don’t have money</t>
+  </si>
+  <si>
+    <t>because;for</t>
+  </si>
+  <si>
+    <t>At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​</t>
+  </si>
+  <si>
+    <t>Read the following passage and answer the question with one word.</t>
+  </si>
+  <si>
+    <t>اقرأ الفقرة التالية وأجب عن السؤال بكلمة واحدة.</t>
+  </si>
+  <si>
+    <t>With whom did Ali share his story? ________;They all agreed that learning English is _______;Where did Ali run? ______​;"غداء" ______;"ام"_______</t>
+  </si>
+  <si>
+    <t>Parents;Fun;Home;Lunch;Mother</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">She is waiting for you ____ : هي تنتظرك </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>هنا</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t xml:space="preserve">; I will _____ love you : انا سأحبك </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>دائما</t>
+    </r>
+  </si>
+  <si>
+    <t>The book is on the table</t>
+  </si>
+  <si>
+    <t>The boy eats an apple</t>
+  </si>
+  <si>
+    <t>I can speak English</t>
+  </si>
+  <si>
+    <t>الكتاب على الطاولة ; الكتاب في الطاولة</t>
+  </si>
+  <si>
+    <t>انا استطيع التحدث بالانجليزية ; من الممكن ان اتكلم الانجليزية</t>
+  </si>
+  <si>
+    <t>الولد يأكل التفاحة ; الولد ياكل الموزة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> اسبوع  =  ________;مدرسة = _______;ذكية =  ______​</t>
+  </si>
+  <si>
+    <t>week;School;smart</t>
+  </si>
+  <si>
+    <t>she ______ on the bool</t>
+  </si>
+  <si>
+    <t>I ____ banana</t>
+  </si>
+  <si>
+    <t>He ____ hello</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reads; says; writes</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> eat; run; have</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> reads; writes; says</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -506,6 +753,17 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
     </font>
   </fonts>
   <fills count="2">
@@ -868,10 +1126,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O59"/>
+  <dimension ref="A4:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F27" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="H52" sqref="H52"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -899,13 +1157,13 @@
         <v>6</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G4" t="s">
         <v>4</v>
       </c>
       <c r="H4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I4" t="s">
         <v>4</v>
@@ -914,7 +1172,7 @@
         <v>4</v>
       </c>
       <c r="K4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L4" t="s">
         <v>4</v>
@@ -946,13 +1204,13 @@
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G5" t="s">
         <v>4</v>
       </c>
       <c r="H5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I5" t="s">
         <v>4</v>
@@ -961,7 +1219,7 @@
         <v>4</v>
       </c>
       <c r="K5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L5" t="s">
         <v>4</v>
@@ -993,13 +1251,13 @@
         <v>4</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G6" t="s">
         <v>4</v>
       </c>
       <c r="H6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I6" t="s">
         <v>4</v>
@@ -1008,7 +1266,7 @@
         <v>4</v>
       </c>
       <c r="K6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="L6" t="s">
         <v>4</v>
@@ -1021,6 +1279,53 @@
       </c>
       <c r="O6" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G7" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" t="s">
+        <v>4</v>
+      </c>
+      <c r="I7" t="s">
+        <v>4</v>
+      </c>
+      <c r="J7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K7" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" t="s">
+        <v>8</v>
+      </c>
+      <c r="M7" t="s">
+        <v>9</v>
+      </c>
+      <c r="N7" t="s">
+        <v>148</v>
+      </c>
+      <c r="O7" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1040,34 +1345,34 @@
         <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="G8" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="I8" t="s">
-        <v>4</v>
-      </c>
-      <c r="J8" t="s">
-        <v>4</v>
+        <v>81</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M8" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="O8" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1087,22 +1392,22 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="G9" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H9" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="I9" t="s">
         <v>82</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L9" t="s">
         <v>4</v>
@@ -1134,22 +1439,22 @@
         <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="G10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="H10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="I10" t="s">
         <v>83</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L10" t="s">
         <v>4</v>
@@ -1181,22 +1486,22 @@
         <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="H11" t="s">
-        <v>67</v>
-      </c>
-      <c r="I11" t="s">
+        <v>68</v>
+      </c>
+      <c r="I11" s="2" t="s">
         <v>84</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L11" t="s">
         <v>4</v>
@@ -1228,22 +1533,22 @@
         <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="H12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="I12" s="2" t="s">
         <v>85</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L12" t="s">
         <v>4</v>
@@ -1275,22 +1580,22 @@
         <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I13" s="2" t="s">
         <v>86</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L13" t="s">
         <v>4</v>
@@ -1322,22 +1627,22 @@
         <v>4</v>
       </c>
       <c r="F14" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="G14" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H14" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="I14" s="2" t="s">
         <v>87</v>
       </c>
       <c r="J14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L14" t="s">
         <v>4</v>
@@ -1369,13 +1674,13 @@
         <v>4</v>
       </c>
       <c r="F15" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G15" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s">
-        <v>78</v>
+        <v>4</v>
       </c>
       <c r="I15" s="2" t="s">
         <v>88</v>
@@ -1384,7 +1689,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L15" t="s">
         <v>4</v>
@@ -1416,22 +1721,22 @@
         <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>80</v>
+        <v>11</v>
       </c>
       <c r="G16" t="s">
-        <v>81</v>
+        <v>4</v>
       </c>
       <c r="H16" t="s">
-        <v>4</v>
-      </c>
-      <c r="I16" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
         <v>89</v>
       </c>
-      <c r="J16">
-        <v>0</v>
+      <c r="J16" t="s">
+        <v>4</v>
       </c>
       <c r="K16" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L16" t="s">
         <v>4</v>
@@ -1451,7 +1756,7 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
@@ -1463,22 +1768,22 @@
         <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="G17" t="s">
         <v>4</v>
       </c>
       <c r="H17" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" t="s">
-        <v>90</v>
-      </c>
-      <c r="J17" t="s">
-        <v>4</v>
+        <v>150</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L17" t="s">
         <v>4</v>
@@ -1490,6 +1795,53 @@
         <v>4</v>
       </c>
       <c r="O17" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" t="s">
+        <v>151</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" t="s">
+        <v>4</v>
+      </c>
+      <c r="M18" t="s">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1498,34 +1850,34 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C19" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D19" t="s">
         <v>4</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>6</v>
+      <c r="E19" t="s">
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G19" t="s">
         <v>4</v>
       </c>
       <c r="H19" t="s">
-        <v>91</v>
-      </c>
-      <c r="I19" t="s">
-        <v>4</v>
-      </c>
-      <c r="J19" t="s">
-        <v>4</v>
+        <v>152</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L19" t="s">
         <v>4</v>
@@ -1545,10 +1897,10 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C20" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D20" t="s">
         <v>4</v>
@@ -1557,22 +1909,22 @@
         <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G20" t="s">
         <v>4</v>
       </c>
       <c r="H20" t="s">
-        <v>92</v>
-      </c>
-      <c r="I20" t="s">
-        <v>4</v>
-      </c>
-      <c r="J20" t="s">
-        <v>4</v>
+        <v>167</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L20" t="s">
         <v>4</v>
@@ -1592,10 +1944,10 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C21" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -1604,22 +1956,22 @@
         <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G21" t="s">
         <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>58</v>
-      </c>
-      <c r="I21" t="s">
-        <v>4</v>
-      </c>
-      <c r="J21" t="s">
-        <v>4</v>
+        <v>168</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L21" t="s">
         <v>4</v>
@@ -1639,10 +1991,10 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>1</v>
+        <v>149</v>
       </c>
       <c r="C22" t="s">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="D22" t="s">
         <v>4</v>
@@ -1657,16 +2009,16 @@
         <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" t="s">
-        <v>4</v>
-      </c>
-      <c r="J22" t="s">
-        <v>4</v>
+        <v>169</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="L22" t="s">
         <v>4</v>
@@ -1681,40 +2033,86 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23" t="s">
+        <v>149</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>4</v>
+      </c>
+      <c r="F23" t="s">
+        <v>4</v>
+      </c>
+      <c r="G23" t="s">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>153</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23" t="s">
+        <v>18</v>
+      </c>
+      <c r="L23" t="s">
+        <v>4</v>
+      </c>
+      <c r="M23" t="s">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C24" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D24" t="s">
         <v>4</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>6</v>
+      <c r="E24" t="s">
+        <v>4</v>
       </c>
       <c r="F24" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G24" t="s">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>93</v>
-      </c>
-      <c r="I24" t="s">
-        <v>4</v>
-      </c>
-      <c r="J24" t="s">
-        <v>4</v>
+        <v>154</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L24" t="s">
         <v>4</v>
@@ -1734,10 +2132,10 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D25" t="s">
         <v>4</v>
@@ -1746,22 +2144,22 @@
         <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G25" t="s">
         <v>4</v>
       </c>
       <c r="H25" t="s">
-        <v>94</v>
-      </c>
-      <c r="I25" t="s">
-        <v>4</v>
-      </c>
-      <c r="J25" t="s">
-        <v>4</v>
+        <v>155</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="L25" t="s">
         <v>4</v>
@@ -1776,39 +2174,39 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
         <v>4</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" t="s">
         <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="G26" t="s">
-        <v>4</v>
+        <v>166</v>
       </c>
       <c r="H26" t="s">
-        <v>95</v>
+        <v>187</v>
       </c>
       <c r="I26" t="s">
-        <v>4</v>
+        <v>170</v>
       </c>
       <c r="J26" t="s">
         <v>4</v>
       </c>
       <c r="K26" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L26" t="s">
         <v>4</v>
@@ -1828,10 +2226,10 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D27" t="s">
         <v>4</v>
@@ -1840,34 +2238,34 @@
         <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>4</v>
+        <v>173</v>
       </c>
       <c r="G27" t="s">
         <v>4</v>
       </c>
       <c r="H27" t="s">
-        <v>4</v>
-      </c>
-      <c r="I27" t="s">
-        <v>4</v>
-      </c>
-      <c r="J27" t="s">
-        <v>4</v>
+        <v>171</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="L27" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M27" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="O27" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -1875,10 +2273,10 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D28" t="s">
         <v>4</v>
@@ -1887,22 +2285,22 @@
         <v>4</v>
       </c>
       <c r="F28" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="G28" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="H28" t="s">
-        <v>31</v>
-      </c>
-      <c r="I28" t="s">
-        <v>96</v>
+        <v>174</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>175</v>
       </c>
       <c r="J28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L28" t="s">
         <v>4</v>
@@ -1922,10 +2320,10 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C29" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D29" t="s">
         <v>4</v>
@@ -1934,22 +2332,22 @@
         <v>4</v>
       </c>
       <c r="F29" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="H29" t="s">
-        <v>4</v>
-      </c>
-      <c r="I29" t="s">
-        <v>96</v>
+        <v>176</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>178</v>
       </c>
       <c r="J29">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L29" t="s">
         <v>4</v>
@@ -1969,10 +2367,10 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C30" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D30" t="s">
         <v>4</v>
@@ -1981,22 +2379,22 @@
         <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="G30" t="s">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
-      </c>
-      <c r="I30" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>181</v>
       </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L30" t="s">
         <v>4</v>
@@ -2016,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C31" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D31" t="s">
         <v>4</v>
@@ -2028,22 +2426,22 @@
         <v>4</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="G31" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="H31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" t="s">
-        <v>98</v>
+        <v>180</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L31" t="s">
         <v>4</v>
@@ -2063,10 +2461,10 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C32" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D32" t="s">
         <v>4</v>
@@ -2075,22 +2473,22 @@
         <v>4</v>
       </c>
       <c r="F32" t="s">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="G32" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="H32" t="s">
-        <v>4</v>
-      </c>
-      <c r="I32" t="s">
-        <v>99</v>
+        <v>188</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L32" t="s">
         <v>4</v>
@@ -2105,15 +2503,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C33" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D33" t="s">
         <v>4</v>
@@ -2122,22 +2520,22 @@
         <v>4</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="G33" t="s">
-        <v>41</v>
+        <v>4</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
-      </c>
-      <c r="I33" s="1" t="s">
-        <v>100</v>
+        <v>190</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>192</v>
       </c>
       <c r="J33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L33" t="s">
         <v>4</v>
@@ -2152,15 +2550,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C34" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D34" t="s">
         <v>4</v>
@@ -2169,22 +2567,22 @@
         <v>4</v>
       </c>
       <c r="F34" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="G34" t="s">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="H34" t="s">
-        <v>4</v>
-      </c>
-      <c r="I34" s="1" t="s">
-        <v>101</v>
+        <v>189</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L34" t="s">
         <v>4</v>
@@ -2199,15 +2597,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C35" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D35" t="s">
         <v>4</v>
@@ -2216,22 +2614,22 @@
         <v>4</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>4</v>
       </c>
       <c r="H35" t="s">
-        <v>4</v>
-      </c>
-      <c r="I35" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
+        <v>194</v>
+      </c>
+      <c r="I35" t="s">
+        <v>195</v>
+      </c>
+      <c r="J35" t="s">
+        <v>4</v>
       </c>
       <c r="K35" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L35" t="s">
         <v>4</v>
@@ -2246,15 +2644,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D36" t="s">
         <v>4</v>
@@ -2263,22 +2661,22 @@
         <v>4</v>
       </c>
       <c r="F36" t="s">
-        <v>46</v>
+        <v>4</v>
       </c>
       <c r="G36" t="s">
-        <v>47</v>
+        <v>4</v>
       </c>
       <c r="H36" t="s">
-        <v>4</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>104</v>
+        <v>196</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>199</v>
       </c>
       <c r="J36">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L36" t="s">
         <v>4</v>
@@ -2293,15 +2691,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C37" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D37" t="s">
         <v>4</v>
@@ -2310,22 +2708,22 @@
         <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="G37" t="s">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="H37" t="s">
-        <v>4</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>103</v>
+        <v>197</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>200</v>
       </c>
       <c r="J37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L37" t="s">
         <v>4</v>
@@ -2340,15 +2738,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C38" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D38" t="s">
         <v>4</v>
@@ -2357,22 +2755,22 @@
         <v>4</v>
       </c>
       <c r="F38" t="s">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="G38" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="H38" t="s">
-        <v>4</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>52</v>
+        <v>198</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>201</v>
       </c>
       <c r="J38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="L38" t="s">
         <v>4</v>
@@ -2387,15 +2785,15 @@
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>149</v>
       </c>
       <c r="C39" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="D39" t="s">
         <v>4</v>
@@ -2404,22 +2802,22 @@
         <v>4</v>
       </c>
       <c r="F39" t="s">
-        <v>53</v>
+        <v>183</v>
       </c>
       <c r="G39" t="s">
-        <v>54</v>
+        <v>184</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="J39">
-        <v>0</v>
+      <c r="I39" t="s">
+        <v>4</v>
+      </c>
+      <c r="J39" t="s">
+        <v>4</v>
       </c>
       <c r="K39" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="L39" t="s">
         <v>4</v>
@@ -2428,7 +2826,7 @@
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>4</v>
+        <v>182</v>
       </c>
       <c r="O39" t="s">
         <v>4</v>
@@ -2439,34 +2837,34 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="C40" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="D40" t="s">
         <v>4</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>6</v>
+      <c r="E40" t="s">
+        <v>4</v>
       </c>
       <c r="F40" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G40" t="s">
         <v>4</v>
       </c>
       <c r="H40" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="I40" t="s">
-        <v>4</v>
+        <v>186</v>
       </c>
       <c r="J40" t="s">
         <v>4</v>
       </c>
       <c r="K40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="L40" t="s">
         <v>4</v>
@@ -2481,763 +2879,1768 @@
         <v>4</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>0</v>
-      </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
-      <c r="C41" t="s">
-        <v>105</v>
-      </c>
-      <c r="D41" t="s">
-        <v>4</v>
-      </c>
-      <c r="E41" t="s">
-        <v>4</v>
-      </c>
-      <c r="F41" t="s">
-        <v>16</v>
-      </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41" t="s">
-        <v>107</v>
-      </c>
-      <c r="I41" t="s">
-        <v>4</v>
-      </c>
-      <c r="J41" t="s">
-        <v>4</v>
-      </c>
-      <c r="K41" t="s">
-        <v>15</v>
-      </c>
-      <c r="L41" t="s">
-        <v>4</v>
-      </c>
-      <c r="M41" t="s">
-        <v>4</v>
-      </c>
-      <c r="N41" t="s">
-        <v>4</v>
-      </c>
-      <c r="O41" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>0</v>
-      </c>
-      <c r="B42" t="s">
-        <v>1</v>
-      </c>
-      <c r="C42" t="s">
-        <v>105</v>
-      </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" t="s">
-        <v>4</v>
-      </c>
-      <c r="F42" t="s">
-        <v>4</v>
-      </c>
-      <c r="G42" t="s">
-        <v>4</v>
-      </c>
-      <c r="H42" t="s">
-        <v>108</v>
-      </c>
-      <c r="I42" t="s">
-        <v>4</v>
-      </c>
-      <c r="J42" t="s">
-        <v>4</v>
-      </c>
-      <c r="K42" t="s">
-        <v>22</v>
-      </c>
-      <c r="L42" t="s">
-        <v>4</v>
-      </c>
-      <c r="M42" t="s">
-        <v>4</v>
-      </c>
-      <c r="N42" t="s">
-        <v>4</v>
-      </c>
-      <c r="O42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
-      <c r="C44" t="s">
-        <v>109</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>4</v>
-      </c>
-      <c r="H44" t="s">
-        <v>111</v>
-      </c>
-      <c r="I44" t="s">
-        <v>4</v>
-      </c>
-      <c r="J44" t="s">
-        <v>4</v>
-      </c>
-      <c r="K44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L44" t="s">
-        <v>4</v>
-      </c>
-      <c r="M44" t="s">
-        <v>4</v>
-      </c>
-      <c r="N44" t="s">
-        <v>4</v>
-      </c>
-      <c r="O44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>0</v>
-      </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" t="s">
-        <v>4</v>
-      </c>
-      <c r="F45" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" t="s">
-        <v>4</v>
-      </c>
-      <c r="H45" t="s">
-        <v>112</v>
-      </c>
-      <c r="I45" t="s">
-        <v>4</v>
-      </c>
-      <c r="J45" t="s">
-        <v>4</v>
-      </c>
-      <c r="K45" t="s">
-        <v>15</v>
-      </c>
-      <c r="L45" t="s">
-        <v>4</v>
-      </c>
-      <c r="M45" t="s">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>4</v>
-      </c>
-      <c r="O45" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>0</v>
-      </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>109</v>
-      </c>
-      <c r="D46" t="s">
-        <v>4</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F46" t="s">
-        <v>18</v>
-      </c>
-      <c r="G46" t="s">
-        <v>4</v>
-      </c>
-      <c r="H46" t="s">
-        <v>148</v>
-      </c>
-      <c r="I46" t="s">
-        <v>4</v>
-      </c>
-      <c r="J46" t="s">
-        <v>4</v>
-      </c>
-      <c r="K46" t="s">
-        <v>15</v>
-      </c>
-      <c r="L46" t="s">
-        <v>4</v>
-      </c>
-      <c r="M46" t="s">
-        <v>4</v>
-      </c>
-      <c r="N46" t="s">
-        <v>4</v>
-      </c>
-      <c r="O46" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>0</v>
-      </c>
-      <c r="B47" t="s">
-        <v>3</v>
-      </c>
-      <c r="C47" t="s">
-        <v>109</v>
-      </c>
-      <c r="D47" t="s">
-        <v>4</v>
-      </c>
-      <c r="E47" t="s">
-        <v>4</v>
-      </c>
-      <c r="F47" t="s">
-        <v>4</v>
-      </c>
-      <c r="G47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47" t="s">
-        <v>4</v>
-      </c>
-      <c r="I47" t="s">
-        <v>4</v>
-      </c>
-      <c r="J47" t="s">
-        <v>4</v>
-      </c>
-      <c r="K47" t="s">
-        <v>7</v>
-      </c>
-      <c r="L47" t="s">
-        <v>113</v>
-      </c>
-      <c r="M47" t="s">
-        <v>114</v>
-      </c>
-      <c r="N47" t="s">
-        <v>115</v>
-      </c>
-      <c r="O47" t="s">
-        <v>116</v>
-      </c>
-    </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>0</v>
-      </c>
-      <c r="B48" t="s">
-        <v>3</v>
-      </c>
-      <c r="C48" t="s">
-        <v>109</v>
-      </c>
-      <c r="D48" t="s">
-        <v>4</v>
-      </c>
-      <c r="E48" t="s">
-        <v>4</v>
-      </c>
-      <c r="F48" t="s">
-        <v>117</v>
-      </c>
-      <c r="G48" t="s">
-        <v>118</v>
-      </c>
-      <c r="H48" t="s">
-        <v>119</v>
-      </c>
-      <c r="I48" t="s">
-        <v>120</v>
-      </c>
-      <c r="J48">
-        <v>1</v>
-      </c>
-      <c r="K48" t="s">
-        <v>19</v>
-      </c>
-      <c r="L48" t="s">
-        <v>4</v>
-      </c>
-      <c r="M48" t="s">
-        <v>4</v>
-      </c>
-      <c r="N48" t="s">
-        <v>4</v>
-      </c>
-      <c r="O48" t="s">
-        <v>4</v>
-      </c>
+      <c r="I48" s="2"/>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>0</v>
-      </c>
-      <c r="B49" t="s">
-        <v>3</v>
-      </c>
-      <c r="C49" t="s">
-        <v>109</v>
-      </c>
-      <c r="D49" t="s">
-        <v>4</v>
-      </c>
-      <c r="E49" t="s">
-        <v>4</v>
-      </c>
-      <c r="F49" t="s">
-        <v>122</v>
-      </c>
-      <c r="G49" t="s">
-        <v>121</v>
-      </c>
-      <c r="H49" t="s">
-        <v>4</v>
-      </c>
-      <c r="I49" t="s">
-        <v>139</v>
-      </c>
-      <c r="J49">
-        <v>1</v>
-      </c>
-      <c r="K49" t="s">
-        <v>19</v>
-      </c>
-      <c r="L49" t="s">
-        <v>4</v>
-      </c>
-      <c r="M49" t="s">
-        <v>4</v>
-      </c>
-      <c r="N49" t="s">
-        <v>4</v>
-      </c>
-      <c r="O49" t="s">
-        <v>4</v>
-      </c>
+      <c r="I49" s="2"/>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>0</v>
-      </c>
-      <c r="B50" t="s">
-        <v>3</v>
-      </c>
-      <c r="C50" t="s">
-        <v>109</v>
-      </c>
-      <c r="D50" t="s">
-        <v>4</v>
-      </c>
-      <c r="E50" t="s">
-        <v>4</v>
-      </c>
-      <c r="F50" t="s">
-        <v>124</v>
-      </c>
-      <c r="G50" t="s">
-        <v>123</v>
-      </c>
-      <c r="H50" t="s">
-        <v>4</v>
-      </c>
-      <c r="I50" t="s">
-        <v>140</v>
-      </c>
-      <c r="J50">
-        <v>1</v>
-      </c>
-      <c r="K50" t="s">
-        <v>19</v>
-      </c>
-      <c r="L50" t="s">
-        <v>4</v>
-      </c>
-      <c r="M50" t="s">
-        <v>4</v>
-      </c>
-      <c r="N50" t="s">
-        <v>4</v>
-      </c>
-      <c r="O50" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" t="s">
-        <v>3</v>
-      </c>
-      <c r="C51" t="s">
-        <v>109</v>
-      </c>
-      <c r="D51" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" t="s">
-        <v>4</v>
-      </c>
-      <c r="F51" t="s">
-        <v>125</v>
-      </c>
-      <c r="G51" t="s">
-        <v>126</v>
-      </c>
-      <c r="H51" t="s">
-        <v>4</v>
-      </c>
-      <c r="I51" t="s">
-        <v>141</v>
-      </c>
-      <c r="J51">
-        <v>1</v>
-      </c>
-      <c r="K51" t="s">
-        <v>19</v>
-      </c>
-      <c r="L51" t="s">
-        <v>4</v>
-      </c>
-      <c r="M51" t="s">
-        <v>4</v>
-      </c>
-      <c r="N51" t="s">
-        <v>4</v>
-      </c>
-      <c r="O51" t="s">
-        <v>4</v>
-      </c>
+      <c r="I50" s="2"/>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>0</v>
-      </c>
-      <c r="B52" t="s">
-        <v>3</v>
-      </c>
-      <c r="C52" t="s">
-        <v>109</v>
-      </c>
-      <c r="D52" t="s">
-        <v>4</v>
-      </c>
-      <c r="E52" t="s">
-        <v>4</v>
-      </c>
-      <c r="F52" t="s">
-        <v>127</v>
-      </c>
-      <c r="G52" t="s">
-        <v>128</v>
-      </c>
-      <c r="H52" t="s">
-        <v>4</v>
-      </c>
-      <c r="I52" t="s">
-        <v>142</v>
-      </c>
-      <c r="J52">
-        <v>1</v>
-      </c>
-      <c r="K52" t="s">
-        <v>19</v>
-      </c>
-      <c r="L52" t="s">
-        <v>4</v>
-      </c>
-      <c r="M52" t="s">
-        <v>4</v>
-      </c>
-      <c r="N52" t="s">
-        <v>4</v>
-      </c>
-      <c r="O52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" t="s">
-        <v>3</v>
-      </c>
-      <c r="C53" t="s">
-        <v>109</v>
-      </c>
-      <c r="D53" t="s">
-        <v>4</v>
-      </c>
-      <c r="E53" t="s">
-        <v>4</v>
-      </c>
-      <c r="F53" t="s">
-        <v>129</v>
-      </c>
-      <c r="G53" t="s">
-        <v>130</v>
-      </c>
-      <c r="H53" t="s">
-        <v>4</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="J53">
-        <v>1</v>
-      </c>
-      <c r="K53" t="s">
-        <v>19</v>
-      </c>
-      <c r="L53" t="s">
-        <v>4</v>
-      </c>
-      <c r="M53" t="s">
-        <v>4</v>
-      </c>
-      <c r="N53" t="s">
-        <v>4</v>
-      </c>
-      <c r="O53" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>0</v>
-      </c>
-      <c r="B54" t="s">
-        <v>3</v>
-      </c>
-      <c r="C54" t="s">
-        <v>109</v>
-      </c>
-      <c r="D54" t="s">
-        <v>4</v>
-      </c>
-      <c r="E54" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" t="s">
-        <v>131</v>
-      </c>
-      <c r="G54" t="s">
-        <v>132</v>
-      </c>
-      <c r="H54" t="s">
-        <v>4</v>
-      </c>
-      <c r="I54" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J54">
-        <v>0</v>
-      </c>
-      <c r="K54" t="s">
-        <v>19</v>
-      </c>
-      <c r="L54" t="s">
-        <v>4</v>
-      </c>
-      <c r="M54" t="s">
-        <v>4</v>
-      </c>
-      <c r="N54" t="s">
-        <v>4</v>
-      </c>
-      <c r="O54" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>0</v>
-      </c>
-      <c r="B55" t="s">
-        <v>3</v>
-      </c>
-      <c r="C55" t="s">
-        <v>109</v>
-      </c>
-      <c r="D55" t="s">
-        <v>4</v>
-      </c>
-      <c r="E55" t="s">
-        <v>4</v>
-      </c>
-      <c r="F55" t="s">
-        <v>133</v>
-      </c>
-      <c r="G55" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4</v>
-      </c>
-      <c r="I55" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J55">
-        <v>1</v>
-      </c>
-      <c r="K55" t="s">
-        <v>19</v>
-      </c>
-      <c r="L55" t="s">
-        <v>4</v>
-      </c>
-      <c r="M55" t="s">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>4</v>
-      </c>
-      <c r="O55" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>0</v>
-      </c>
-      <c r="B56" t="s">
-        <v>3</v>
-      </c>
-      <c r="C56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
-        <v>4</v>
-      </c>
-      <c r="E56" t="s">
-        <v>4</v>
-      </c>
-      <c r="F56" t="s">
-        <v>135</v>
-      </c>
-      <c r="G56" t="s">
-        <v>136</v>
-      </c>
-      <c r="H56" t="s">
-        <v>4</v>
-      </c>
-      <c r="I56" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56" t="s">
-        <v>19</v>
-      </c>
-      <c r="L56" t="s">
-        <v>4</v>
-      </c>
-      <c r="M56" t="s">
-        <v>4</v>
-      </c>
-      <c r="N56" t="s">
-        <v>4</v>
-      </c>
-      <c r="O56" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>0</v>
-      </c>
-      <c r="B57" t="s">
-        <v>3</v>
-      </c>
-      <c r="C57" t="s">
-        <v>109</v>
-      </c>
-      <c r="D57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E57" t="s">
-        <v>4</v>
-      </c>
-      <c r="F57" t="s">
-        <v>137</v>
-      </c>
-      <c r="G57" t="s">
-        <v>138</v>
-      </c>
-      <c r="H57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I57" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="J57">
-        <v>1</v>
-      </c>
-      <c r="K57" t="s">
-        <v>19</v>
-      </c>
-      <c r="L57" t="s">
-        <v>4</v>
-      </c>
-      <c r="M57" t="s">
-        <v>4</v>
-      </c>
-      <c r="N57" t="s">
-        <v>4</v>
-      </c>
-      <c r="O57" t="s">
-        <v>4</v>
-      </c>
+      <c r="I52" s="2"/>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I53" s="2"/>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I54" s="2"/>
     </row>
     <row r="58" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I58" s="1"/>
     </row>
     <row r="59" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I59" s="1"/>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>5</v>
+      </c>
+      <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F62" t="s">
+        <v>15</v>
+      </c>
+      <c r="G62" t="s">
+        <v>4</v>
+      </c>
+      <c r="H62" t="s">
+        <v>90</v>
+      </c>
+      <c r="I62" t="s">
+        <v>4</v>
+      </c>
+      <c r="J62" t="s">
+        <v>4</v>
+      </c>
+      <c r="K62" t="s">
+        <v>14</v>
+      </c>
+      <c r="L62" t="s">
+        <v>4</v>
+      </c>
+      <c r="M62" t="s">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
+      </c>
+      <c r="D63" t="s">
+        <v>4</v>
+      </c>
+      <c r="E63" t="s">
+        <v>4</v>
+      </c>
+      <c r="F63" t="s">
+        <v>16</v>
+      </c>
+      <c r="G63" t="s">
+        <v>4</v>
+      </c>
+      <c r="H63" t="s">
+        <v>91</v>
+      </c>
+      <c r="I63" t="s">
+        <v>4</v>
+      </c>
+      <c r="J63" t="s">
+        <v>4</v>
+      </c>
+      <c r="K63" t="s">
+        <v>14</v>
+      </c>
+      <c r="L63" t="s">
+        <v>4</v>
+      </c>
+      <c r="M63" t="s">
+        <v>4</v>
+      </c>
+      <c r="N63" t="s">
+        <v>4</v>
+      </c>
+      <c r="O63" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>4</v>
+      </c>
+      <c r="F64" t="s">
+        <v>17</v>
+      </c>
+      <c r="G64" t="s">
+        <v>4</v>
+      </c>
+      <c r="H64" t="s">
+        <v>57</v>
+      </c>
+      <c r="I64" t="s">
+        <v>4</v>
+      </c>
+      <c r="J64" t="s">
+        <v>4</v>
+      </c>
+      <c r="K64" t="s">
+        <v>14</v>
+      </c>
+      <c r="L64" t="s">
+        <v>4</v>
+      </c>
+      <c r="M64" t="s">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>4</v>
+      </c>
+      <c r="O64" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>19</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>4</v>
+      </c>
+      <c r="G65" t="s">
+        <v>4</v>
+      </c>
+      <c r="H65" t="s">
+        <v>20</v>
+      </c>
+      <c r="I65" t="s">
+        <v>4</v>
+      </c>
+      <c r="J65" t="s">
+        <v>4</v>
+      </c>
+      <c r="K65" t="s">
+        <v>21</v>
+      </c>
+      <c r="L65" t="s">
+        <v>4</v>
+      </c>
+      <c r="M65" t="s">
+        <v>4</v>
+      </c>
+      <c r="N65" t="s">
+        <v>4</v>
+      </c>
+      <c r="O65" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>5</v>
+      </c>
+      <c r="C67" t="s">
+        <v>23</v>
+      </c>
+      <c r="D67" t="s">
+        <v>4</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F67" t="s">
+        <v>22</v>
+      </c>
+      <c r="G67" t="s">
+        <v>4</v>
+      </c>
+      <c r="H67" t="s">
+        <v>92</v>
+      </c>
+      <c r="I67" t="s">
+        <v>4</v>
+      </c>
+      <c r="J67" t="s">
+        <v>4</v>
+      </c>
+      <c r="K67" t="s">
+        <v>14</v>
+      </c>
+      <c r="L67" t="s">
+        <v>4</v>
+      </c>
+      <c r="M67" t="s">
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C68" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" t="s">
+        <v>4</v>
+      </c>
+      <c r="E68" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" t="s">
+        <v>17</v>
+      </c>
+      <c r="G68" t="s">
+        <v>4</v>
+      </c>
+      <c r="H68" t="s">
+        <v>93</v>
+      </c>
+      <c r="I68" t="s">
+        <v>4</v>
+      </c>
+      <c r="J68" t="s">
+        <v>4</v>
+      </c>
+      <c r="K68" t="s">
+        <v>14</v>
+      </c>
+      <c r="L68" t="s">
+        <v>4</v>
+      </c>
+      <c r="M68" t="s">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69" t="s">
+        <v>5</v>
+      </c>
+      <c r="C69" t="s">
+        <v>23</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F69" t="s">
+        <v>15</v>
+      </c>
+      <c r="G69" t="s">
+        <v>4</v>
+      </c>
+      <c r="H69" t="s">
+        <v>94</v>
+      </c>
+      <c r="I69" t="s">
+        <v>4</v>
+      </c>
+      <c r="J69" t="s">
+        <v>4</v>
+      </c>
+      <c r="K69" t="s">
+        <v>14</v>
+      </c>
+      <c r="L69" t="s">
+        <v>4</v>
+      </c>
+      <c r="M69" t="s">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" t="s">
+        <v>3</v>
+      </c>
+      <c r="C70" t="s">
+        <v>23</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" t="s">
+        <v>4</v>
+      </c>
+      <c r="G70" t="s">
+        <v>4</v>
+      </c>
+      <c r="H70" t="s">
+        <v>4</v>
+      </c>
+      <c r="I70" t="s">
+        <v>4</v>
+      </c>
+      <c r="J70" t="s">
+        <v>4</v>
+      </c>
+      <c r="K70" t="s">
+        <v>7</v>
+      </c>
+      <c r="L70" t="s">
+        <v>24</v>
+      </c>
+      <c r="M70" t="s">
+        <v>25</v>
+      </c>
+      <c r="N70" t="s">
+        <v>26</v>
+      </c>
+      <c r="O70" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" t="s">
+        <v>23</v>
+      </c>
+      <c r="D71" t="s">
+        <v>4</v>
+      </c>
+      <c r="E71" t="s">
+        <v>4</v>
+      </c>
+      <c r="F71" t="s">
+        <v>28</v>
+      </c>
+      <c r="G71" t="s">
+        <v>29</v>
+      </c>
+      <c r="H71" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
+        <v>95</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71" t="s">
+        <v>18</v>
+      </c>
+      <c r="L71" t="s">
+        <v>4</v>
+      </c>
+      <c r="M71" t="s">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s">
+        <v>4</v>
+      </c>
+      <c r="O71" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72" t="s">
+        <v>3</v>
+      </c>
+      <c r="C72" t="s">
+        <v>23</v>
+      </c>
+      <c r="D72" t="s">
+        <v>4</v>
+      </c>
+      <c r="E72" t="s">
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>31</v>
+      </c>
+      <c r="G72" t="s">
+        <v>32</v>
+      </c>
+      <c r="H72" t="s">
+        <v>4</v>
+      </c>
+      <c r="I72" t="s">
+        <v>95</v>
+      </c>
+      <c r="J72">
+        <v>2</v>
+      </c>
+      <c r="K72" t="s">
+        <v>18</v>
+      </c>
+      <c r="L72" t="s">
+        <v>4</v>
+      </c>
+      <c r="M72" t="s">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73" t="s">
+        <v>3</v>
+      </c>
+      <c r="C73" t="s">
+        <v>23</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>33</v>
+      </c>
+      <c r="G73" t="s">
+        <v>34</v>
+      </c>
+      <c r="H73" t="s">
+        <v>4</v>
+      </c>
+      <c r="I73" t="s">
+        <v>96</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73" t="s">
+        <v>18</v>
+      </c>
+      <c r="L73" t="s">
+        <v>4</v>
+      </c>
+      <c r="M73" t="s">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74" t="s">
+        <v>3</v>
+      </c>
+      <c r="C74" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>35</v>
+      </c>
+      <c r="G74" t="s">
+        <v>36</v>
+      </c>
+      <c r="H74" t="s">
+        <v>4</v>
+      </c>
+      <c r="I74" t="s">
+        <v>97</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74" t="s">
+        <v>18</v>
+      </c>
+      <c r="L74" t="s">
+        <v>4</v>
+      </c>
+      <c r="M74" t="s">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75" t="s">
+        <v>3</v>
+      </c>
+      <c r="C75" t="s">
+        <v>23</v>
+      </c>
+      <c r="D75" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" t="s">
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>37</v>
+      </c>
+      <c r="G75" t="s">
+        <v>38</v>
+      </c>
+      <c r="H75" t="s">
+        <v>4</v>
+      </c>
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+      <c r="J75">
+        <v>0</v>
+      </c>
+      <c r="K75" t="s">
+        <v>18</v>
+      </c>
+      <c r="L75" t="s">
+        <v>4</v>
+      </c>
+      <c r="M75" t="s">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76" t="s">
+        <v>3</v>
+      </c>
+      <c r="C76" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" t="s">
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="s">
+        <v>40</v>
+      </c>
+      <c r="H76" t="s">
+        <v>4</v>
+      </c>
+      <c r="I76" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76" t="s">
+        <v>18</v>
+      </c>
+      <c r="L76" t="s">
+        <v>4</v>
+      </c>
+      <c r="M76" t="s">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" t="s">
+        <v>4</v>
+      </c>
+      <c r="E77" t="s">
+        <v>4</v>
+      </c>
+      <c r="F77" t="s">
+        <v>41</v>
+      </c>
+      <c r="G77" t="s">
+        <v>42</v>
+      </c>
+      <c r="H77" t="s">
+        <v>4</v>
+      </c>
+      <c r="I77" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77" t="s">
+        <v>18</v>
+      </c>
+      <c r="L77" t="s">
+        <v>4</v>
+      </c>
+      <c r="M77" t="s">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78" t="s">
+        <v>3</v>
+      </c>
+      <c r="C78" t="s">
+        <v>23</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>43</v>
+      </c>
+      <c r="G78" t="s">
+        <v>44</v>
+      </c>
+      <c r="H78" t="s">
+        <v>4</v>
+      </c>
+      <c r="I78" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J78">
+        <v>0</v>
+      </c>
+      <c r="K78" t="s">
+        <v>18</v>
+      </c>
+      <c r="L78" t="s">
+        <v>4</v>
+      </c>
+      <c r="M78" t="s">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>4</v>
+      </c>
+      <c r="O78" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79" t="s">
+        <v>3</v>
+      </c>
+      <c r="C79" t="s">
+        <v>23</v>
+      </c>
+      <c r="D79" t="s">
+        <v>4</v>
+      </c>
+      <c r="E79" t="s">
+        <v>4</v>
+      </c>
+      <c r="F79" t="s">
+        <v>45</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>4</v>
+      </c>
+      <c r="I79" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="J79">
+        <v>0</v>
+      </c>
+      <c r="K79" t="s">
+        <v>18</v>
+      </c>
+      <c r="L79" t="s">
+        <v>4</v>
+      </c>
+      <c r="M79" t="s">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80" t="s">
+        <v>3</v>
+      </c>
+      <c r="C80" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>4</v>
+      </c>
+      <c r="F80" t="s">
+        <v>47</v>
+      </c>
+      <c r="G80" t="s">
+        <v>48</v>
+      </c>
+      <c r="H80" t="s">
+        <v>4</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80" t="s">
+        <v>18</v>
+      </c>
+      <c r="L80" t="s">
+        <v>4</v>
+      </c>
+      <c r="M80" t="s">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81" t="s">
+        <v>3</v>
+      </c>
+      <c r="C81" t="s">
+        <v>23</v>
+      </c>
+      <c r="D81" t="s">
+        <v>4</v>
+      </c>
+      <c r="E81" t="s">
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>49</v>
+      </c>
+      <c r="G81" t="s">
+        <v>50</v>
+      </c>
+      <c r="H81" t="s">
+        <v>4</v>
+      </c>
+      <c r="I81" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J81">
+        <v>0</v>
+      </c>
+      <c r="K81" t="s">
+        <v>18</v>
+      </c>
+      <c r="L81" t="s">
+        <v>4</v>
+      </c>
+      <c r="M81" t="s">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82" t="s">
+        <v>3</v>
+      </c>
+      <c r="C82" t="s">
+        <v>23</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>4</v>
+      </c>
+      <c r="F82" t="s">
+        <v>52</v>
+      </c>
+      <c r="G82" t="s">
+        <v>53</v>
+      </c>
+      <c r="H82" t="s">
+        <v>4</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="J82">
+        <v>0</v>
+      </c>
+      <c r="K82" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" t="s">
+        <v>4</v>
+      </c>
+      <c r="M82" t="s">
+        <v>4</v>
+      </c>
+      <c r="N82" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" t="s">
+        <v>104</v>
+      </c>
+      <c r="D83" t="s">
+        <v>4</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" t="s">
+        <v>16</v>
+      </c>
+      <c r="G83" t="s">
+        <v>4</v>
+      </c>
+      <c r="H83" t="s">
+        <v>105</v>
+      </c>
+      <c r="I83" t="s">
+        <v>4</v>
+      </c>
+      <c r="J83" t="s">
+        <v>4</v>
+      </c>
+      <c r="K83" t="s">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>4</v>
+      </c>
+      <c r="M83" t="s">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84" t="s">
+        <v>5</v>
+      </c>
+      <c r="C84" t="s">
+        <v>104</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>15</v>
+      </c>
+      <c r="G84" t="s">
+        <v>4</v>
+      </c>
+      <c r="H84" t="s">
+        <v>106</v>
+      </c>
+      <c r="I84" t="s">
+        <v>4</v>
+      </c>
+      <c r="J84" t="s">
+        <v>4</v>
+      </c>
+      <c r="K84" t="s">
+        <v>14</v>
+      </c>
+      <c r="L84" t="s">
+        <v>4</v>
+      </c>
+      <c r="M84" t="s">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>4</v>
+      </c>
+      <c r="O84" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
+        <v>4</v>
+      </c>
+      <c r="E85" t="s">
+        <v>4</v>
+      </c>
+      <c r="F85" t="s">
+        <v>4</v>
+      </c>
+      <c r="G85" t="s">
+        <v>4</v>
+      </c>
+      <c r="H85" t="s">
+        <v>107</v>
+      </c>
+      <c r="I85" t="s">
+        <v>4</v>
+      </c>
+      <c r="J85" t="s">
+        <v>4</v>
+      </c>
+      <c r="K85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L85" t="s">
+        <v>4</v>
+      </c>
+      <c r="M85" t="s">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>4</v>
+      </c>
+      <c r="O85" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87" t="s">
+        <v>5</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>4</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F87" t="s">
+        <v>22</v>
+      </c>
+      <c r="G87" t="s">
+        <v>4</v>
+      </c>
+      <c r="H87" t="s">
+        <v>110</v>
+      </c>
+      <c r="I87" t="s">
+        <v>4</v>
+      </c>
+      <c r="J87" t="s">
+        <v>4</v>
+      </c>
+      <c r="K87" t="s">
+        <v>14</v>
+      </c>
+      <c r="L87" t="s">
+        <v>4</v>
+      </c>
+      <c r="M87" t="s">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>4</v>
+      </c>
+      <c r="O87" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>109</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>4</v>
+      </c>
+      <c r="F88" t="s">
+        <v>15</v>
+      </c>
+      <c r="G88" t="s">
+        <v>4</v>
+      </c>
+      <c r="H88" t="s">
+        <v>111</v>
+      </c>
+      <c r="I88" t="s">
+        <v>4</v>
+      </c>
+      <c r="J88" t="s">
+        <v>4</v>
+      </c>
+      <c r="K88" t="s">
+        <v>14</v>
+      </c>
+      <c r="L88" t="s">
+        <v>4</v>
+      </c>
+      <c r="M88" t="s">
+        <v>4</v>
+      </c>
+      <c r="N88" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89" t="s">
+        <v>5</v>
+      </c>
+      <c r="C89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" t="s">
+        <v>4</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>17</v>
+      </c>
+      <c r="G89" t="s">
+        <v>4</v>
+      </c>
+      <c r="H89" t="s">
+        <v>147</v>
+      </c>
+      <c r="I89" t="s">
+        <v>4</v>
+      </c>
+      <c r="J89" t="s">
+        <v>4</v>
+      </c>
+      <c r="K89" t="s">
+        <v>14</v>
+      </c>
+      <c r="L89" t="s">
+        <v>4</v>
+      </c>
+      <c r="M89" t="s">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90" t="s">
+        <v>3</v>
+      </c>
+      <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>4</v>
+      </c>
+      <c r="F90" t="s">
+        <v>4</v>
+      </c>
+      <c r="G90" t="s">
+        <v>4</v>
+      </c>
+      <c r="H90" t="s">
+        <v>4</v>
+      </c>
+      <c r="I90" t="s">
+        <v>4</v>
+      </c>
+      <c r="J90" t="s">
+        <v>4</v>
+      </c>
+      <c r="K90" t="s">
+        <v>7</v>
+      </c>
+      <c r="L90" t="s">
+        <v>112</v>
+      </c>
+      <c r="M90" t="s">
+        <v>113</v>
+      </c>
+      <c r="N90" t="s">
+        <v>114</v>
+      </c>
+      <c r="O90" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91" t="s">
+        <v>3</v>
+      </c>
+      <c r="C91" t="s">
+        <v>108</v>
+      </c>
+      <c r="D91" t="s">
+        <v>4</v>
+      </c>
+      <c r="E91" t="s">
+        <v>4</v>
+      </c>
+      <c r="F91" t="s">
+        <v>116</v>
+      </c>
+      <c r="G91" t="s">
+        <v>117</v>
+      </c>
+      <c r="H91" t="s">
+        <v>118</v>
+      </c>
+      <c r="I91" t="s">
+        <v>119</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91" t="s">
+        <v>18</v>
+      </c>
+      <c r="L91" t="s">
+        <v>4</v>
+      </c>
+      <c r="M91" t="s">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92" t="s">
+        <v>3</v>
+      </c>
+      <c r="C92" t="s">
+        <v>108</v>
+      </c>
+      <c r="D92" t="s">
+        <v>4</v>
+      </c>
+      <c r="E92" t="s">
+        <v>4</v>
+      </c>
+      <c r="F92" t="s">
+        <v>121</v>
+      </c>
+      <c r="G92" t="s">
+        <v>120</v>
+      </c>
+      <c r="H92" t="s">
+        <v>4</v>
+      </c>
+      <c r="I92" t="s">
+        <v>138</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92" t="s">
+        <v>18</v>
+      </c>
+      <c r="L92" t="s">
+        <v>4</v>
+      </c>
+      <c r="M92" t="s">
+        <v>4</v>
+      </c>
+      <c r="N92" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93" t="s">
+        <v>3</v>
+      </c>
+      <c r="C93" t="s">
+        <v>108</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" t="s">
+        <v>123</v>
+      </c>
+      <c r="G93" t="s">
+        <v>122</v>
+      </c>
+      <c r="H93" t="s">
+        <v>4</v>
+      </c>
+      <c r="I93" t="s">
+        <v>139</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93" t="s">
+        <v>18</v>
+      </c>
+      <c r="L93" t="s">
+        <v>4</v>
+      </c>
+      <c r="M93" t="s">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94" t="s">
+        <v>3</v>
+      </c>
+      <c r="C94" t="s">
+        <v>108</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>124</v>
+      </c>
+      <c r="G94" t="s">
+        <v>125</v>
+      </c>
+      <c r="H94" t="s">
+        <v>4</v>
+      </c>
+      <c r="I94" t="s">
+        <v>140</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94" t="s">
+        <v>18</v>
+      </c>
+      <c r="L94" t="s">
+        <v>4</v>
+      </c>
+      <c r="M94" t="s">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" t="s">
+        <v>108</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>4</v>
+      </c>
+      <c r="F95" t="s">
+        <v>126</v>
+      </c>
+      <c r="G95" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" t="s">
+        <v>4</v>
+      </c>
+      <c r="I95" t="s">
+        <v>141</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95" t="s">
+        <v>18</v>
+      </c>
+      <c r="L95" t="s">
+        <v>4</v>
+      </c>
+      <c r="M95" t="s">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s">
+        <v>4</v>
+      </c>
+      <c r="O95" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D96" t="s">
+        <v>4</v>
+      </c>
+      <c r="E96" t="s">
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>128</v>
+      </c>
+      <c r="G96" t="s">
+        <v>129</v>
+      </c>
+      <c r="H96" t="s">
+        <v>4</v>
+      </c>
+      <c r="I96" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96" t="s">
+        <v>18</v>
+      </c>
+      <c r="L96" t="s">
+        <v>4</v>
+      </c>
+      <c r="M96" t="s">
+        <v>4</v>
+      </c>
+      <c r="N96" t="s">
+        <v>4</v>
+      </c>
+      <c r="O96" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" t="s">
+        <v>108</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" t="s">
+        <v>130</v>
+      </c>
+      <c r="G97" t="s">
+        <v>131</v>
+      </c>
+      <c r="H97" t="s">
+        <v>4</v>
+      </c>
+      <c r="I97" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J97">
+        <v>0</v>
+      </c>
+      <c r="K97" t="s">
+        <v>18</v>
+      </c>
+      <c r="L97" t="s">
+        <v>4</v>
+      </c>
+      <c r="M97" t="s">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>4</v>
+      </c>
+      <c r="O97" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>0</v>
+      </c>
+      <c r="B98" t="s">
+        <v>3</v>
+      </c>
+      <c r="C98" t="s">
+        <v>108</v>
+      </c>
+      <c r="D98" t="s">
+        <v>4</v>
+      </c>
+      <c r="E98" t="s">
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>132</v>
+      </c>
+      <c r="G98" t="s">
+        <v>133</v>
+      </c>
+      <c r="H98" t="s">
+        <v>4</v>
+      </c>
+      <c r="I98" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98" t="s">
+        <v>18</v>
+      </c>
+      <c r="L98" t="s">
+        <v>4</v>
+      </c>
+      <c r="M98" t="s">
+        <v>4</v>
+      </c>
+      <c r="N98" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>0</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>108</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>4</v>
+      </c>
+      <c r="F99" t="s">
+        <v>134</v>
+      </c>
+      <c r="G99" t="s">
+        <v>135</v>
+      </c>
+      <c r="H99" t="s">
+        <v>4</v>
+      </c>
+      <c r="I99" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99" t="s">
+        <v>18</v>
+      </c>
+      <c r="L99" t="s">
+        <v>4</v>
+      </c>
+      <c r="M99" t="s">
+        <v>4</v>
+      </c>
+      <c r="N99" t="s">
+        <v>4</v>
+      </c>
+      <c r="O99" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>0</v>
+      </c>
+      <c r="B100" t="s">
+        <v>3</v>
+      </c>
+      <c r="C100" t="s">
+        <v>108</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>4</v>
+      </c>
+      <c r="F100" t="s">
+        <v>136</v>
+      </c>
+      <c r="G100" t="s">
+        <v>137</v>
+      </c>
+      <c r="H100" t="s">
+        <v>4</v>
+      </c>
+      <c r="I100" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100" t="s">
+        <v>18</v>
+      </c>
+      <c r="L100" t="s">
+        <v>4</v>
+      </c>
+      <c r="M100" t="s">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8E056E7-BEC9-6847-9355-7D72382993CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1138CE5C-54DE-3549-B911-8686FA4F0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="3100" windowWidth="33360" windowHeight="20260" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,24 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1060" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="219">
   <si>
     <t>A1</t>
   </si>
   <si>
-    <t>Listening</t>
-  </si>
-  <si>
     <t>Unit1</t>
   </si>
   <si>
-    <t xml:space="preserve">Reading </t>
-  </si>
-  <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>Vocabulary</t>
   </si>
   <si>
     <t xml:space="preserve">ملاحظة : هناك ثلاث اقسام للمفردات​
@@ -487,9 +478,6 @@
   </si>
   <si>
     <t>Once upon a time, there was a smart boy named Ali who loved to learn new things. Every day, Ali would go to school. He would wake up early, eat a banana for breakfast, and run to school. Ali loved English lessons the most. He could speak English very well and enjoyed practicing with his friends.​  One day, his teacher gave them a special lesson. She said, "Today, we are going to write a short story." Ali was excited. He loved his teacher and always paid attention to her lessons. He thought for a moment and then began to write on his notebook, "The boy eats an apple," he started.​  At lunch, Ali sat with his friends and talked about their stories. "I can speak English," he proudly told them. They all agreed that learning English was fun. After school, Ali ran home to share his story with his parents. His mother smiled and said, "You are very smart, Ali."​  Before going to bed, Ali looked at the book on the table beside his bed. He said to himself, "I love my school and my teacher. I can't wait for next week to learn more." And with that happy thought, he drifted off to sleep, dreaming of all the new things he would learn.​  See you next week, Ali thought, as he closed his eyes, ready for another exciting day.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Test </t>
   </si>
   <si>
     <t>The ____ has long blonde hair</t>
@@ -734,6 +722,69 @@
   </si>
   <si>
     <t xml:space="preserve"> reads; writes; says</t>
+  </si>
+  <si>
+    <t>Read the following</t>
+  </si>
+  <si>
+    <t>Arrow; Butterfly ; Circle; Cow; Deer; Elephant; Flower ; Giraffe; Horse ; Ice , Juice ; Kangaroo; Lake ; White; Phone ; Ship; Think ;Chair ; Sit; Time; Wife</t>
+  </si>
+  <si>
+    <t>vocabularyWithListening</t>
+  </si>
+  <si>
+    <t>Apple; Ball; City; Door; Egg; Fish; Gate; Hen; Ice; Juice; King; Lemon; White; Phone; Ship; Think; Chair; Cake; Bed</t>
+  </si>
+  <si>
+    <t>Write the following</t>
+  </si>
+  <si>
+    <t>In the farm, she has two cows , and one horse . She has apple tree and flowers in her garden. Her house is big and white​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don’t forget the ______ </t>
+  </si>
+  <si>
+    <t>bed; keys; ice</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ____ is scary </t>
+  </si>
+  <si>
+    <t>Open the ____</t>
+  </si>
+  <si>
+    <t>My bed is ____</t>
+  </si>
+  <si>
+    <t>The ____ is very small</t>
+  </si>
+  <si>
+    <t>keys; door; egg</t>
+  </si>
+  <si>
+    <t>flower; juice; pink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">circle; ant; lion </t>
+  </si>
+  <si>
+    <t>lion; ant; bird</t>
+  </si>
+  <si>
+    <t>Be careful it’s too _____</t>
+  </si>
+  <si>
+    <t>hot; door; gum</t>
+  </si>
+  <si>
+    <t>reading</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test </t>
   </si>
 </sst>
 </file>
@@ -1126,10 +1177,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O100"/>
+  <dimension ref="A4:O115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="B48" sqref="B48"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1140,51 +1191,51 @@
     <col min="14" max="14" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" ht="13" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.2">
@@ -1192,46 +1243,46 @@
         <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -1239,46 +1290,46 @@
         <v>0</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K6" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.2">
@@ -1286,46 +1337,46 @@
         <v>0</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D7" t="s">
+        <v>2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+      <c r="J7" t="s">
+        <v>2</v>
+      </c>
+      <c r="K7" t="s">
         <v>4</v>
       </c>
-      <c r="E7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F7" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" t="s">
-        <v>4</v>
-      </c>
-      <c r="J7" t="s">
-        <v>4</v>
-      </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>6</v>
+      </c>
+      <c r="N7" t="s">
+        <v>145</v>
+      </c>
+      <c r="O7" t="s">
         <v>7</v>
-      </c>
-      <c r="L7" t="s">
-        <v>8</v>
-      </c>
-      <c r="M7" t="s">
-        <v>9</v>
-      </c>
-      <c r="N7" t="s">
-        <v>148</v>
-      </c>
-      <c r="O7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.2">
@@ -1333,46 +1384,46 @@
         <v>0</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G8" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="H8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.2">
@@ -1380,46 +1431,46 @@
         <v>0</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="H9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="I9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O9" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -1427,46 +1478,46 @@
         <v>0</v>
       </c>
       <c r="B10" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="G10" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="H10" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="I10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O10" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -1474,46 +1525,46 @@
         <v>0</v>
       </c>
       <c r="B11" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="J11">
         <v>1</v>
       </c>
       <c r="K11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O11" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -1521,46 +1572,46 @@
         <v>0</v>
       </c>
       <c r="B12" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="G12" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H12" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O12" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -1568,46 +1619,46 @@
         <v>0</v>
       </c>
       <c r="B13" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C13" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
       <c r="K13" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -1615,46 +1666,46 @@
         <v>0</v>
       </c>
       <c r="B14" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C14" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F14" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="G14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="I14" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O14" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -1662,46 +1713,46 @@
         <v>0</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C15" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="G15" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O15" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -1709,46 +1760,46 @@
         <v>0</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C16" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="G16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="J16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K16" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O16" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.2">
@@ -1756,46 +1807,46 @@
         <v>0</v>
       </c>
       <c r="B17" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C17" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="I17" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="J17">
         <v>1</v>
       </c>
       <c r="K17" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O17" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.2">
@@ -1803,46 +1854,46 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C18" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I18" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O18" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.2">
@@ -1850,46 +1901,46 @@
         <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O19" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.2">
@@ -1897,46 +1948,46 @@
         <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C20" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="J20">
         <v>1</v>
       </c>
       <c r="K20" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O20" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.2">
@@ -1944,46 +1995,46 @@
         <v>0</v>
       </c>
       <c r="B21" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C21" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="I21" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="J21">
         <v>1</v>
       </c>
       <c r="K21" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O21" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.2">
@@ -1991,46 +2042,46 @@
         <v>0</v>
       </c>
       <c r="B22" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C22" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I22" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O22" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.2">
@@ -2038,46 +2089,46 @@
         <v>0</v>
       </c>
       <c r="B23" t="s">
+        <v>217</v>
+      </c>
+      <c r="C23" t="s">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2</v>
+      </c>
+      <c r="E23" t="s">
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>2</v>
+      </c>
+      <c r="H23" t="s">
         <v>149</v>
       </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
-        <v>4</v>
-      </c>
-      <c r="E23" t="s">
-        <v>4</v>
-      </c>
-      <c r="F23" t="s">
-        <v>4</v>
-      </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23" t="s">
-        <v>153</v>
-      </c>
       <c r="I23" s="2" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O23" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.2">
@@ -2085,46 +2136,46 @@
         <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C24" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H24" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="I24" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O24" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.2">
@@ -2132,46 +2183,46 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C25" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H25" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="I25" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="J25">
         <v>2</v>
       </c>
       <c r="K25" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O25" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.2">
@@ -2179,46 +2230,46 @@
         <v>0</v>
       </c>
       <c r="B26" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C26" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="G26" t="s">
+        <v>162</v>
+      </c>
+      <c r="H26" t="s">
+        <v>183</v>
+      </c>
+      <c r="I26" t="s">
         <v>166</v>
       </c>
-      <c r="H26" t="s">
-        <v>187</v>
-      </c>
-      <c r="I26" t="s">
-        <v>170</v>
-      </c>
       <c r="J26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K26" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O26" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.2">
@@ -2226,46 +2277,46 @@
         <v>0</v>
       </c>
       <c r="B27" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C27" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H27" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="I27" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="J27">
         <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O27" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.2">
@@ -2273,46 +2324,46 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H28" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I28" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="J28">
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O28" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.2">
@@ -2320,46 +2371,46 @@
         <v>0</v>
       </c>
       <c r="B29" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C29" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="I29" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="J29">
         <v>0</v>
       </c>
       <c r="K29" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O29" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.2">
@@ -2367,46 +2418,46 @@
         <v>0</v>
       </c>
       <c r="B30" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C30" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
+        <v>173</v>
+      </c>
+      <c r="I30" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I30" s="2" t="s">
-        <v>181</v>
-      </c>
       <c r="J30">
         <v>1</v>
       </c>
       <c r="K30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O30" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.2">
@@ -2414,46 +2465,46 @@
         <v>0</v>
       </c>
       <c r="B31" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C31" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H31" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="I31" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J31">
         <v>1</v>
       </c>
       <c r="K31" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O31" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.2">
@@ -2461,46 +2512,46 @@
         <v>0</v>
       </c>
       <c r="B32" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C32" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H32" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="I32" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="J32">
         <v>0</v>
       </c>
       <c r="K32" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O32" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.2">
@@ -2508,46 +2559,46 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C33" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H33" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="I33" s="2" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="J33">
         <v>0</v>
       </c>
       <c r="K33" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O33" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -2555,46 +2606,46 @@
         <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C34" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H34" t="s">
+        <v>185</v>
+      </c>
+      <c r="I34" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="I34" s="2" t="s">
-        <v>193</v>
-      </c>
       <c r="J34">
         <v>0</v>
       </c>
       <c r="K34" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O34" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.2">
@@ -2602,46 +2653,46 @@
         <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C35" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H35" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="I35" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="J35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K35" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O35" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.2">
@@ -2649,46 +2700,46 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C36" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H36" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="I36" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="J36">
         <v>2</v>
       </c>
       <c r="K36" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O36" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -2696,46 +2747,46 @@
         <v>0</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C37" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="J37">
         <v>0</v>
       </c>
       <c r="K37" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O37" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.2">
@@ -2743,46 +2794,46 @@
         <v>0</v>
       </c>
       <c r="B38" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C38" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H38" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="J38">
         <v>2</v>
       </c>
       <c r="K38" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O38" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.2">
@@ -2790,46 +2841,46 @@
         <v>0</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C39" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D39" t="s">
+        <v>2</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>179</v>
+      </c>
+      <c r="G39" t="s">
+        <v>180</v>
+      </c>
+      <c r="H39" t="s">
+        <v>2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" t="s">
+        <v>2</v>
+      </c>
+      <c r="K39" t="s">
         <v>4</v>
       </c>
-      <c r="E39" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" t="s">
-        <v>183</v>
-      </c>
-      <c r="G39" t="s">
-        <v>184</v>
-      </c>
-      <c r="H39" t="s">
-        <v>4</v>
-      </c>
-      <c r="I39" t="s">
-        <v>4</v>
-      </c>
-      <c r="J39" t="s">
-        <v>4</v>
-      </c>
-      <c r="K39" t="s">
-        <v>7</v>
-      </c>
       <c r="L39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N39" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="O39" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
@@ -2837,46 +2888,46 @@
         <v>0</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>217</v>
       </c>
       <c r="C40" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H40" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="I40" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="J40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="L40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O40" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -2903,51 +2954,51 @@
     <row r="59" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I59" s="1"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F62" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="I62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K62" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O62" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2">
@@ -2955,46 +3006,46 @@
         <v>0</v>
       </c>
       <c r="B63" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="G63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H63" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="I63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K63" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O63" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.2">
@@ -3002,46 +3053,46 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="G64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H64" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O64" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.2">
@@ -3049,46 +3100,93 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="I65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="L65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N65" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O65" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>217</v>
+      </c>
+      <c r="C66" t="s">
+        <v>16</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2</v>
+      </c>
+      <c r="E66" t="s">
+        <v>2</v>
+      </c>
+      <c r="F66" t="s">
+        <v>198</v>
+      </c>
+      <c r="G66" t="s">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>199</v>
+      </c>
+      <c r="I66" t="s">
+        <v>2</v>
+      </c>
+      <c r="J66" t="s">
+        <v>2</v>
+      </c>
+      <c r="K66" t="s">
+        <v>200</v>
+      </c>
+      <c r="L66" t="s">
+        <v>2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>2</v>
+      </c>
+      <c r="N66" t="s">
+        <v>2</v>
+      </c>
+      <c r="O66" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.2">
@@ -3096,46 +3194,46 @@
         <v>0</v>
       </c>
       <c r="B67" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="C67" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D67" t="s">
-        <v>4</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
+      </c>
+      <c r="E67" t="s">
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>22</v>
+        <v>202</v>
       </c>
       <c r="G67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H67" t="s">
-        <v>92</v>
+        <v>201</v>
       </c>
       <c r="I67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K67" t="s">
-        <v>14</v>
+        <v>200</v>
       </c>
       <c r="L67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O67" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.2">
@@ -3143,93 +3241,93 @@
         <v>0</v>
       </c>
       <c r="B68" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="C68" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F68" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H68" t="s">
-        <v>93</v>
+        <v>203</v>
       </c>
       <c r="I68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K68" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="L68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N68" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O68" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>5</v>
+        <v>217</v>
       </c>
       <c r="C69" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D69" t="s">
-        <v>4</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="E69" t="s">
+        <v>2</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H69" t="s">
-        <v>94</v>
-      </c>
-      <c r="I69" t="s">
-        <v>4</v>
-      </c>
-      <c r="J69" t="s">
-        <v>4</v>
+        <v>204</v>
+      </c>
+      <c r="I69" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O69" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.2">
@@ -3237,46 +3335,46 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G70" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H70" t="s">
-        <v>4</v>
-      </c>
-      <c r="I70" t="s">
-        <v>4</v>
-      </c>
-      <c r="J70" t="s">
-        <v>4</v>
+        <v>214</v>
+      </c>
+      <c r="I70" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
       </c>
       <c r="K70" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L70" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M70" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
       <c r="N70" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="O70" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.2">
@@ -3284,46 +3382,46 @@
         <v>0</v>
       </c>
       <c r="B71" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="C71" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="G71" t="s">
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="H71" t="s">
-        <v>30</v>
-      </c>
-      <c r="I71" t="s">
-        <v>95</v>
+        <v>207</v>
+      </c>
+      <c r="I71" s="2" t="s">
+        <v>210</v>
       </c>
       <c r="J71">
         <v>1</v>
       </c>
       <c r="K71" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O71" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.2">
@@ -3331,46 +3429,46 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>3</v>
+        <v>217</v>
       </c>
       <c r="C72" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
-        <v>31</v>
+        <v>2</v>
       </c>
       <c r="G72" t="s">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="H72" t="s">
-        <v>4</v>
-      </c>
-      <c r="I72" t="s">
-        <v>95</v>
+        <v>208</v>
+      </c>
+      <c r="I72" s="2" t="s">
+        <v>211</v>
       </c>
       <c r="J72">
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O72" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.2">
@@ -3378,46 +3476,46 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="C73" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F73" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="G73" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>4</v>
-      </c>
-      <c r="I73" t="s">
-        <v>96</v>
+        <v>209</v>
+      </c>
+      <c r="I73" s="2" t="s">
+        <v>212</v>
       </c>
       <c r="J73">
         <v>1</v>
       </c>
       <c r="K73" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O73" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.2">
@@ -3425,469 +3523,161 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>3</v>
+        <v>218</v>
       </c>
       <c r="C74" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
-        <v>35</v>
+        <v>2</v>
       </c>
       <c r="G74" t="s">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>4</v>
-      </c>
-      <c r="I74" t="s">
-        <v>97</v>
+        <v>206</v>
+      </c>
+      <c r="I74" s="2" t="s">
+        <v>213</v>
       </c>
       <c r="J74">
         <v>1</v>
       </c>
       <c r="K74" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O74" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B75" t="s">
-        <v>3</v>
-      </c>
-      <c r="C75" t="s">
-        <v>23</v>
-      </c>
-      <c r="D75" t="s">
-        <v>4</v>
-      </c>
-      <c r="E75" t="s">
-        <v>4</v>
-      </c>
-      <c r="F75" t="s">
-        <v>37</v>
-      </c>
-      <c r="G75" t="s">
-        <v>38</v>
-      </c>
-      <c r="H75" t="s">
-        <v>4</v>
-      </c>
-      <c r="I75" t="s">
-        <v>98</v>
-      </c>
-      <c r="J75">
-        <v>0</v>
-      </c>
-      <c r="K75" t="s">
-        <v>18</v>
-      </c>
-      <c r="L75" t="s">
-        <v>4</v>
-      </c>
-      <c r="M75" t="s">
-        <v>4</v>
-      </c>
-      <c r="N75" t="s">
-        <v>4</v>
-      </c>
-      <c r="O75" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>0</v>
-      </c>
-      <c r="B76" t="s">
-        <v>3</v>
-      </c>
-      <c r="C76" t="s">
-        <v>23</v>
-      </c>
-      <c r="D76" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" t="s">
-        <v>4</v>
-      </c>
-      <c r="F76" t="s">
-        <v>39</v>
-      </c>
-      <c r="G76" t="s">
-        <v>40</v>
-      </c>
-      <c r="H76" t="s">
-        <v>4</v>
-      </c>
-      <c r="I76" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="J76">
-        <v>1</v>
-      </c>
-      <c r="K76" t="s">
-        <v>18</v>
-      </c>
-      <c r="L76" t="s">
-        <v>4</v>
-      </c>
-      <c r="M76" t="s">
-        <v>4</v>
-      </c>
-      <c r="N76" t="s">
-        <v>4</v>
-      </c>
-      <c r="O76" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>0</v>
-      </c>
-      <c r="B77" t="s">
-        <v>3</v>
-      </c>
-      <c r="C77" t="s">
-        <v>23</v>
-      </c>
-      <c r="D77" t="s">
-        <v>4</v>
-      </c>
-      <c r="E77" t="s">
-        <v>4</v>
-      </c>
-      <c r="F77" t="s">
-        <v>41</v>
-      </c>
-      <c r="G77" t="s">
-        <v>42</v>
-      </c>
-      <c r="H77" t="s">
-        <v>4</v>
-      </c>
-      <c r="I77" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="J77">
-        <v>1</v>
-      </c>
-      <c r="K77" t="s">
-        <v>18</v>
-      </c>
-      <c r="L77" t="s">
-        <v>4</v>
-      </c>
-      <c r="M77" t="s">
-        <v>4</v>
-      </c>
-      <c r="N77" t="s">
-        <v>4</v>
-      </c>
-      <c r="O77" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>0</v>
-      </c>
-      <c r="B78" t="s">
-        <v>3</v>
-      </c>
-      <c r="C78" t="s">
-        <v>23</v>
-      </c>
-      <c r="D78" t="s">
-        <v>4</v>
-      </c>
-      <c r="E78" t="s">
-        <v>4</v>
-      </c>
-      <c r="F78" t="s">
-        <v>43</v>
-      </c>
-      <c r="G78" t="s">
-        <v>44</v>
-      </c>
-      <c r="H78" t="s">
-        <v>4</v>
-      </c>
-      <c r="I78" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J78">
-        <v>0</v>
-      </c>
-      <c r="K78" t="s">
-        <v>18</v>
-      </c>
-      <c r="L78" t="s">
-        <v>4</v>
-      </c>
-      <c r="M78" t="s">
-        <v>4</v>
-      </c>
-      <c r="N78" t="s">
-        <v>4</v>
-      </c>
-      <c r="O78" t="s">
-        <v>4</v>
-      </c>
+      <c r="I75" s="2"/>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I76" s="2"/>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I77" s="2"/>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I78" s="2"/>
     </row>
     <row r="79" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>0</v>
-      </c>
-      <c r="B79" t="s">
-        <v>3</v>
-      </c>
-      <c r="C79" t="s">
-        <v>23</v>
-      </c>
-      <c r="D79" t="s">
-        <v>4</v>
-      </c>
-      <c r="E79" t="s">
-        <v>4</v>
-      </c>
-      <c r="F79" t="s">
-        <v>45</v>
-      </c>
-      <c r="G79" t="s">
-        <v>46</v>
-      </c>
-      <c r="H79" t="s">
-        <v>4</v>
-      </c>
-      <c r="I79" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="J79">
-        <v>0</v>
-      </c>
-      <c r="K79" t="s">
-        <v>18</v>
-      </c>
-      <c r="L79" t="s">
-        <v>4</v>
-      </c>
-      <c r="M79" t="s">
-        <v>4</v>
-      </c>
-      <c r="N79" t="s">
-        <v>4</v>
-      </c>
-      <c r="O79" t="s">
-        <v>4</v>
-      </c>
+      <c r="I79" s="1"/>
     </row>
     <row r="80" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>0</v>
-      </c>
-      <c r="B80" t="s">
-        <v>3</v>
-      </c>
-      <c r="C80" t="s">
-        <v>23</v>
-      </c>
-      <c r="D80" t="s">
-        <v>4</v>
-      </c>
-      <c r="E80" t="s">
-        <v>4</v>
-      </c>
-      <c r="F80" t="s">
-        <v>47</v>
-      </c>
-      <c r="G80" t="s">
-        <v>48</v>
-      </c>
-      <c r="H80" t="s">
-        <v>4</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="J80">
-        <v>1</v>
-      </c>
-      <c r="K80" t="s">
-        <v>18</v>
-      </c>
-      <c r="L80" t="s">
-        <v>4</v>
-      </c>
-      <c r="M80" t="s">
-        <v>4</v>
-      </c>
-      <c r="N80" t="s">
-        <v>4</v>
-      </c>
-      <c r="O80" t="s">
-        <v>4</v>
-      </c>
+      <c r="I80" s="1"/>
     </row>
     <row r="81" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B81" t="s">
-        <v>3</v>
-      </c>
-      <c r="C81" t="s">
-        <v>23</v>
-      </c>
-      <c r="D81" t="s">
-        <v>4</v>
-      </c>
-      <c r="E81" t="s">
-        <v>4</v>
-      </c>
-      <c r="F81" t="s">
-        <v>49</v>
-      </c>
-      <c r="G81" t="s">
-        <v>50</v>
-      </c>
-      <c r="H81" t="s">
-        <v>4</v>
-      </c>
-      <c r="I81" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
-      </c>
-      <c r="K81" t="s">
-        <v>18</v>
-      </c>
-      <c r="L81" t="s">
-        <v>4</v>
-      </c>
-      <c r="M81" t="s">
-        <v>4</v>
-      </c>
-      <c r="N81" t="s">
-        <v>4</v>
-      </c>
-      <c r="O81" t="s">
-        <v>4</v>
-      </c>
+      <c r="I81" s="1"/>
     </row>
     <row r="82" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>0</v>
       </c>
       <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82" t="s">
+        <v>20</v>
+      </c>
+      <c r="D82" t="s">
+        <v>2</v>
+      </c>
+      <c r="E82" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C82" t="s">
-        <v>23</v>
-      </c>
-      <c r="D82" t="s">
-        <v>4</v>
-      </c>
-      <c r="E82" t="s">
-        <v>4</v>
-      </c>
       <c r="F82" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="G82" t="s">
-        <v>53</v>
+        <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>4</v>
+        <v>89</v>
       </c>
       <c r="I82" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J82" t="s">
+        <v>2</v>
       </c>
       <c r="K82" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O82" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C83" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>105</v>
+        <v>90</v>
       </c>
       <c r="I83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K83" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O83" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.2">
@@ -3895,46 +3685,46 @@
         <v>0</v>
       </c>
       <c r="B84" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C84" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="G84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H84" t="s">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="I84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K84" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="L84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O84" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.2">
@@ -3942,93 +3732,140 @@
         <v>0</v>
       </c>
       <c r="B85" t="s">
-        <v>1</v>
+        <v>216</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>20</v>
       </c>
       <c r="D85" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" t="s">
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>2</v>
+      </c>
+      <c r="G85" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>2</v>
+      </c>
+      <c r="J85" t="s">
+        <v>2</v>
+      </c>
+      <c r="K85" t="s">
         <v>4</v>
       </c>
-      <c r="E85" t="s">
-        <v>4</v>
-      </c>
-      <c r="F85" t="s">
-        <v>4</v>
-      </c>
-      <c r="G85" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85" t="s">
-        <v>107</v>
-      </c>
-      <c r="I85" t="s">
-        <v>4</v>
-      </c>
-      <c r="J85" t="s">
-        <v>4</v>
-      </c>
-      <c r="K85" t="s">
+      <c r="L85" t="s">
         <v>21</v>
       </c>
-      <c r="L85" t="s">
-        <v>4</v>
-      </c>
       <c r="M85" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="N85" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="O85" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86" t="s">
+        <v>216</v>
+      </c>
+      <c r="C86" t="s">
+        <v>20</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2</v>
+      </c>
+      <c r="E86" t="s">
+        <v>2</v>
+      </c>
+      <c r="F86" t="s">
+        <v>25</v>
+      </c>
+      <c r="G86" t="s">
+        <v>26</v>
+      </c>
+      <c r="H86" t="s">
+        <v>27</v>
+      </c>
+      <c r="I86" t="s">
+        <v>92</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86" t="s">
+        <v>15</v>
+      </c>
+      <c r="L86" t="s">
+        <v>2</v>
+      </c>
+      <c r="M86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>2</v>
+      </c>
+      <c r="O86" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>0</v>
       </c>
       <c r="B87" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C87" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G87" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="H87" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="I87" t="s">
-        <v>4</v>
-      </c>
-      <c r="J87" t="s">
-        <v>4</v>
+        <v>92</v>
+      </c>
+      <c r="J87">
+        <v>2</v>
       </c>
       <c r="K87" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O87" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.2">
@@ -4036,93 +3873,93 @@
         <v>0</v>
       </c>
       <c r="B88" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C88" t="s">
-        <v>109</v>
+        <v>20</v>
       </c>
       <c r="D88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F88" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="G88" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="H88" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="I88" t="s">
-        <v>4</v>
-      </c>
-      <c r="J88" t="s">
-        <v>4</v>
+        <v>93</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
       </c>
       <c r="K88" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N88" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O88" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>0</v>
       </c>
       <c r="B89" t="s">
-        <v>5</v>
+        <v>216</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="G89" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="H89" t="s">
-        <v>147</v>
+        <v>2</v>
       </c>
       <c r="I89" t="s">
-        <v>4</v>
-      </c>
-      <c r="J89" t="s">
-        <v>4</v>
+        <v>94</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
       </c>
       <c r="K89" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O89" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.2">
@@ -4130,46 +3967,46 @@
         <v>0</v>
       </c>
       <c r="B90" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C90" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F90" t="s">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="G90" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="H90" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I90" t="s">
-        <v>4</v>
-      </c>
-      <c r="J90" t="s">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="J90">
+        <v>0</v>
       </c>
       <c r="K90" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="L90" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="M90" t="s">
-        <v>113</v>
+        <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="O90" t="s">
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.2">
@@ -4177,46 +4014,46 @@
         <v>0</v>
       </c>
       <c r="B91" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C91" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
-        <v>116</v>
+        <v>36</v>
       </c>
       <c r="G91" t="s">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="H91" t="s">
-        <v>118</v>
+        <v>2</v>
       </c>
       <c r="I91" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="J91">
         <v>1</v>
       </c>
       <c r="K91" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O91" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.2">
@@ -4224,46 +4061,46 @@
         <v>0</v>
       </c>
       <c r="B92" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C92" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
-        <v>121</v>
+        <v>38</v>
       </c>
       <c r="G92" t="s">
-        <v>120</v>
+        <v>39</v>
       </c>
       <c r="H92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" t="s">
-        <v>138</v>
+        <v>97</v>
       </c>
       <c r="J92">
         <v>1</v>
       </c>
       <c r="K92" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O92" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.2">
@@ -4271,46 +4108,46 @@
         <v>0</v>
       </c>
       <c r="B93" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C93" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
-        <v>123</v>
+        <v>40</v>
       </c>
       <c r="G93" t="s">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="H93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I93" t="s">
-        <v>139</v>
+        <v>98</v>
       </c>
       <c r="J93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K93" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O93" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.2">
@@ -4318,46 +4155,46 @@
         <v>0</v>
       </c>
       <c r="B94" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C94" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="G94" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="H94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I94" t="s">
-        <v>140</v>
+        <v>100</v>
       </c>
       <c r="J94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K94" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O94" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.2">
@@ -4365,46 +4202,46 @@
         <v>0</v>
       </c>
       <c r="B95" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C95" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
-        <v>126</v>
+        <v>44</v>
       </c>
       <c r="G95" t="s">
-        <v>127</v>
+        <v>45</v>
       </c>
       <c r="H95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I95" t="s">
-        <v>141</v>
+        <v>99</v>
       </c>
       <c r="J95">
         <v>1</v>
       </c>
       <c r="K95" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O95" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4412,46 +4249,46 @@
         <v>0</v>
       </c>
       <c r="B96" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C96" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
-        <v>128</v>
+        <v>46</v>
       </c>
       <c r="G96" t="s">
-        <v>129</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I96" s="1" t="s">
-        <v>142</v>
+        <v>48</v>
       </c>
       <c r="J96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K96" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O96" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4459,46 +4296,46 @@
         <v>0</v>
       </c>
       <c r="B97" t="s">
-        <v>3</v>
+        <v>216</v>
       </c>
       <c r="C97" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="D97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F97" t="s">
-        <v>130</v>
+        <v>49</v>
       </c>
       <c r="G97" t="s">
-        <v>131</v>
+        <v>50</v>
       </c>
       <c r="H97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I97" s="1" t="s">
-        <v>143</v>
+        <v>51</v>
       </c>
       <c r="J97">
         <v>0</v>
       </c>
       <c r="K97" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O97" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4506,46 +4343,46 @@
         <v>0</v>
       </c>
       <c r="B98" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" t="s">
+        <v>101</v>
+      </c>
+      <c r="D98" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C98" t="s">
-        <v>108</v>
-      </c>
-      <c r="D98" t="s">
-        <v>4</v>
-      </c>
-      <c r="E98" t="s">
-        <v>4</v>
-      </c>
       <c r="F98" t="s">
-        <v>132</v>
+        <v>13</v>
       </c>
       <c r="G98" t="s">
-        <v>133</v>
+        <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>4</v>
+        <v>102</v>
       </c>
       <c r="I98" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="J98">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J98" t="s">
+        <v>2</v>
       </c>
       <c r="K98" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O98" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4553,46 +4390,46 @@
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="C99" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>134</v>
+        <v>12</v>
       </c>
       <c r="G99" t="s">
-        <v>135</v>
+        <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>4</v>
+        <v>103</v>
       </c>
       <c r="I99" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="J99">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J99" t="s">
+        <v>2</v>
       </c>
       <c r="K99" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="L99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
@@ -4600,46 +4437,704 @@
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
       <c r="C100" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="D100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E100" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>136</v>
+        <v>2</v>
       </c>
       <c r="G100" t="s">
-        <v>137</v>
+        <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>4</v>
+        <v>104</v>
       </c>
       <c r="I100" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="J100">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="J100" t="s">
+        <v>2</v>
       </c>
       <c r="K100" t="s">
         <v>18</v>
       </c>
       <c r="L100" t="s">
+        <v>2</v>
+      </c>
+      <c r="M100" t="s">
+        <v>2</v>
+      </c>
+      <c r="N100" t="s">
+        <v>2</v>
+      </c>
+      <c r="O100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>0</v>
+      </c>
+      <c r="B102" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F102" t="s">
+        <v>19</v>
+      </c>
+      <c r="G102" t="s">
+        <v>2</v>
+      </c>
+      <c r="H102" t="s">
+        <v>107</v>
+      </c>
+      <c r="I102" t="s">
+        <v>2</v>
+      </c>
+      <c r="J102" t="s">
+        <v>2</v>
+      </c>
+      <c r="K102" t="s">
+        <v>11</v>
+      </c>
+      <c r="L102" t="s">
+        <v>2</v>
+      </c>
+      <c r="M102" t="s">
+        <v>2</v>
+      </c>
+      <c r="N102" t="s">
+        <v>2</v>
+      </c>
+      <c r="O102" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B103" t="s">
+        <v>11</v>
+      </c>
+      <c r="C103" t="s">
+        <v>106</v>
+      </c>
+      <c r="D103" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" t="s">
+        <v>2</v>
+      </c>
+      <c r="F103" t="s">
+        <v>12</v>
+      </c>
+      <c r="G103" t="s">
+        <v>2</v>
+      </c>
+      <c r="H103" t="s">
+        <v>108</v>
+      </c>
+      <c r="I103" t="s">
+        <v>2</v>
+      </c>
+      <c r="J103" t="s">
+        <v>2</v>
+      </c>
+      <c r="K103" t="s">
+        <v>11</v>
+      </c>
+      <c r="L103" t="s">
+        <v>2</v>
+      </c>
+      <c r="M103" t="s">
+        <v>2</v>
+      </c>
+      <c r="N103" t="s">
+        <v>2</v>
+      </c>
+      <c r="O103" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B104" t="s">
+        <v>11</v>
+      </c>
+      <c r="C104" t="s">
+        <v>105</v>
+      </c>
+      <c r="D104" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" t="s">
+        <v>2</v>
+      </c>
+      <c r="F104" t="s">
+        <v>14</v>
+      </c>
+      <c r="G104" t="s">
+        <v>2</v>
+      </c>
+      <c r="H104" t="s">
+        <v>144</v>
+      </c>
+      <c r="I104" t="s">
+        <v>2</v>
+      </c>
+      <c r="J104" t="s">
+        <v>2</v>
+      </c>
+      <c r="K104" t="s">
+        <v>11</v>
+      </c>
+      <c r="L104" t="s">
+        <v>2</v>
+      </c>
+      <c r="M104" t="s">
+        <v>2</v>
+      </c>
+      <c r="N104" t="s">
+        <v>2</v>
+      </c>
+      <c r="O104" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B105" t="s">
+        <v>216</v>
+      </c>
+      <c r="C105" t="s">
+        <v>105</v>
+      </c>
+      <c r="D105" t="s">
+        <v>2</v>
+      </c>
+      <c r="E105" t="s">
+        <v>2</v>
+      </c>
+      <c r="F105" t="s">
+        <v>2</v>
+      </c>
+      <c r="G105" t="s">
+        <v>2</v>
+      </c>
+      <c r="H105" t="s">
+        <v>2</v>
+      </c>
+      <c r="I105" t="s">
+        <v>2</v>
+      </c>
+      <c r="J105" t="s">
+        <v>2</v>
+      </c>
+      <c r="K105" t="s">
         <v>4</v>
       </c>
-      <c r="M100" t="s">
-        <v>4</v>
-      </c>
-      <c r="N100" t="s">
-        <v>4</v>
-      </c>
-      <c r="O100" t="s">
-        <v>4</v>
+      <c r="L105" t="s">
+        <v>109</v>
+      </c>
+      <c r="M105" t="s">
+        <v>110</v>
+      </c>
+      <c r="N105" t="s">
+        <v>111</v>
+      </c>
+      <c r="O105" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>0</v>
+      </c>
+      <c r="B106" t="s">
+        <v>216</v>
+      </c>
+      <c r="C106" t="s">
+        <v>105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" t="s">
+        <v>2</v>
+      </c>
+      <c r="F106" t="s">
+        <v>113</v>
+      </c>
+      <c r="G106" t="s">
+        <v>114</v>
+      </c>
+      <c r="H106" t="s">
+        <v>115</v>
+      </c>
+      <c r="I106" t="s">
+        <v>116</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106" t="s">
+        <v>15</v>
+      </c>
+      <c r="L106" t="s">
+        <v>2</v>
+      </c>
+      <c r="M106" t="s">
+        <v>2</v>
+      </c>
+      <c r="N106" t="s">
+        <v>2</v>
+      </c>
+      <c r="O106" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>0</v>
+      </c>
+      <c r="B107" t="s">
+        <v>216</v>
+      </c>
+      <c r="C107" t="s">
+        <v>105</v>
+      </c>
+      <c r="D107" t="s">
+        <v>2</v>
+      </c>
+      <c r="E107" t="s">
+        <v>2</v>
+      </c>
+      <c r="F107" t="s">
+        <v>118</v>
+      </c>
+      <c r="G107" t="s">
+        <v>117</v>
+      </c>
+      <c r="H107" t="s">
+        <v>2</v>
+      </c>
+      <c r="I107" t="s">
+        <v>135</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107" t="s">
+        <v>15</v>
+      </c>
+      <c r="L107" t="s">
+        <v>2</v>
+      </c>
+      <c r="M107" t="s">
+        <v>2</v>
+      </c>
+      <c r="N107" t="s">
+        <v>2</v>
+      </c>
+      <c r="O107" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>0</v>
+      </c>
+      <c r="B108" t="s">
+        <v>216</v>
+      </c>
+      <c r="C108" t="s">
+        <v>105</v>
+      </c>
+      <c r="D108" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>2</v>
+      </c>
+      <c r="F108" t="s">
+        <v>120</v>
+      </c>
+      <c r="G108" t="s">
+        <v>119</v>
+      </c>
+      <c r="H108" t="s">
+        <v>2</v>
+      </c>
+      <c r="I108" t="s">
+        <v>136</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>15</v>
+      </c>
+      <c r="L108" t="s">
+        <v>2</v>
+      </c>
+      <c r="M108" t="s">
+        <v>2</v>
+      </c>
+      <c r="N108" t="s">
+        <v>2</v>
+      </c>
+      <c r="O108" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>0</v>
+      </c>
+      <c r="B109" t="s">
+        <v>216</v>
+      </c>
+      <c r="C109" t="s">
+        <v>105</v>
+      </c>
+      <c r="D109" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>2</v>
+      </c>
+      <c r="F109" t="s">
+        <v>121</v>
+      </c>
+      <c r="G109" t="s">
+        <v>122</v>
+      </c>
+      <c r="H109" t="s">
+        <v>2</v>
+      </c>
+      <c r="I109" t="s">
+        <v>137</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109" t="s">
+        <v>15</v>
+      </c>
+      <c r="L109" t="s">
+        <v>2</v>
+      </c>
+      <c r="M109" t="s">
+        <v>2</v>
+      </c>
+      <c r="N109" t="s">
+        <v>2</v>
+      </c>
+      <c r="O109" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>0</v>
+      </c>
+      <c r="B110" t="s">
+        <v>216</v>
+      </c>
+      <c r="C110" t="s">
+        <v>105</v>
+      </c>
+      <c r="D110" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" t="s">
+        <v>2</v>
+      </c>
+      <c r="F110" t="s">
+        <v>123</v>
+      </c>
+      <c r="G110" t="s">
+        <v>124</v>
+      </c>
+      <c r="H110" t="s">
+        <v>2</v>
+      </c>
+      <c r="I110" t="s">
+        <v>138</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110" t="s">
+        <v>15</v>
+      </c>
+      <c r="L110" t="s">
+        <v>2</v>
+      </c>
+      <c r="M110" t="s">
+        <v>2</v>
+      </c>
+      <c r="N110" t="s">
+        <v>2</v>
+      </c>
+      <c r="O110" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>0</v>
+      </c>
+      <c r="B111" t="s">
+        <v>216</v>
+      </c>
+      <c r="C111" t="s">
+        <v>105</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2</v>
+      </c>
+      <c r="F111" t="s">
+        <v>125</v>
+      </c>
+      <c r="G111" t="s">
+        <v>126</v>
+      </c>
+      <c r="H111" t="s">
+        <v>2</v>
+      </c>
+      <c r="I111" t="s">
+        <v>139</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111" t="s">
+        <v>15</v>
+      </c>
+      <c r="L111" t="s">
+        <v>2</v>
+      </c>
+      <c r="M111" t="s">
+        <v>2</v>
+      </c>
+      <c r="N111" t="s">
+        <v>2</v>
+      </c>
+      <c r="O111" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>216</v>
+      </c>
+      <c r="C112" t="s">
+        <v>105</v>
+      </c>
+      <c r="D112" t="s">
+        <v>2</v>
+      </c>
+      <c r="E112" t="s">
+        <v>2</v>
+      </c>
+      <c r="F112" t="s">
+        <v>127</v>
+      </c>
+      <c r="G112" t="s">
+        <v>128</v>
+      </c>
+      <c r="H112" t="s">
+        <v>2</v>
+      </c>
+      <c r="I112" t="s">
+        <v>140</v>
+      </c>
+      <c r="J112">
+        <v>0</v>
+      </c>
+      <c r="K112" t="s">
+        <v>15</v>
+      </c>
+      <c r="L112" t="s">
+        <v>2</v>
+      </c>
+      <c r="M112" t="s">
+        <v>2</v>
+      </c>
+      <c r="N112" t="s">
+        <v>2</v>
+      </c>
+      <c r="O112" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>0</v>
+      </c>
+      <c r="B113" t="s">
+        <v>216</v>
+      </c>
+      <c r="C113" t="s">
+        <v>105</v>
+      </c>
+      <c r="D113" t="s">
+        <v>2</v>
+      </c>
+      <c r="E113" t="s">
+        <v>2</v>
+      </c>
+      <c r="F113" t="s">
+        <v>129</v>
+      </c>
+      <c r="G113" t="s">
+        <v>130</v>
+      </c>
+      <c r="H113" t="s">
+        <v>2</v>
+      </c>
+      <c r="I113" t="s">
+        <v>141</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113" t="s">
+        <v>15</v>
+      </c>
+      <c r="L113" t="s">
+        <v>2</v>
+      </c>
+      <c r="M113" t="s">
+        <v>2</v>
+      </c>
+      <c r="N113" t="s">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>0</v>
+      </c>
+      <c r="B114" t="s">
+        <v>216</v>
+      </c>
+      <c r="C114" t="s">
+        <v>105</v>
+      </c>
+      <c r="D114" t="s">
+        <v>2</v>
+      </c>
+      <c r="E114" t="s">
+        <v>2</v>
+      </c>
+      <c r="F114" t="s">
+        <v>131</v>
+      </c>
+      <c r="G114" t="s">
+        <v>132</v>
+      </c>
+      <c r="H114" t="s">
+        <v>2</v>
+      </c>
+      <c r="I114" t="s">
+        <v>142</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114" t="s">
+        <v>15</v>
+      </c>
+      <c r="L114" t="s">
+        <v>2</v>
+      </c>
+      <c r="M114" t="s">
+        <v>2</v>
+      </c>
+      <c r="N114" t="s">
+        <v>2</v>
+      </c>
+      <c r="O114" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>0</v>
+      </c>
+      <c r="B115" t="s">
+        <v>216</v>
+      </c>
+      <c r="C115" t="s">
+        <v>105</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>133</v>
+      </c>
+      <c r="G115" t="s">
+        <v>134</v>
+      </c>
+      <c r="H115" t="s">
+        <v>2</v>
+      </c>
+      <c r="I115" t="s">
+        <v>143</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1138CE5C-54DE-3549-B911-8686FA4F0F8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D6B1BB-EAF3-9F46-A99D-53B28714AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1189" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="244">
   <si>
     <t>A1</t>
   </si>
@@ -785,6 +785,81 @@
   </si>
   <si>
     <t xml:space="preserve">test </t>
+  </si>
+  <si>
+    <t>Select the correct preposition to complete the sentence based on the given translation:</t>
+  </si>
+  <si>
+    <t>Your house is ________ my house منزلك  بجانب منزلي</t>
+  </si>
+  <si>
+    <t>He is _____the door. هو عند الباب</t>
+  </si>
+  <si>
+    <t>He is _____ the office now. هو في المكتب الآن</t>
+  </si>
+  <si>
+    <t>The shoes are _____ the bed. الأحذية تحت السرير</t>
+  </si>
+  <si>
+    <t>There is a stain ____ your shirt. هناك بقعة على قميصك</t>
+  </si>
+  <si>
+    <t>The painting is ____ the wall. اللوحة على الحائط</t>
+  </si>
+  <si>
+    <t>She lives _____ New York. هي تعيش في نيويورك</t>
+  </si>
+  <si>
+    <t>The keys are _____ the drawer. المفاتيح في الدرج</t>
+  </si>
+  <si>
+    <t>in;on;under;at;next to</t>
+  </si>
+  <si>
+    <t>Select the correct preposition to complete the sentence:</t>
+  </si>
+  <si>
+    <t>They have been friends ____ ten years.</t>
+  </si>
+  <si>
+    <t>We will visit them ____ December.</t>
+  </si>
+  <si>
+    <t>He was born ____ 1990.</t>
+  </si>
+  <si>
+    <t>They have a meeting ____ Tuesday.</t>
+  </si>
+  <si>
+    <t>Please submit your report _____ Friday.</t>
+  </si>
+  <si>
+    <t>The show starts _____ 7 PM.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She has been studying ____ two hours. </t>
+  </si>
+  <si>
+    <t>on; in; by; at; for</t>
+  </si>
+  <si>
+    <t>The cat jumped _____ the box. القطة قفزت إلى داخل الصندوق</t>
+  </si>
+  <si>
+    <t>This package is _____ my friend  هذه الحزمة من صديقي​</t>
+  </si>
+  <si>
+    <t>We walked ______ the forest. نحن مشينا عبر الغابة​</t>
+  </si>
+  <si>
+    <t>He jumped ______the window.    هو قفز من النافذة​</t>
+  </si>
+  <si>
+    <t>She traveled _____ Paris last summer  هي سافرت إلى باريس الصيف الماضي</t>
+  </si>
+  <si>
+    <t>to;from;into;out of ;through</t>
   </si>
 </sst>
 </file>
@@ -1177,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O115"/>
+  <dimension ref="A4:O151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4338,39 +4413,39 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>0</v>
       </c>
       <c r="B98" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C98" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D98" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>3</v>
+      <c r="E98" t="s">
+        <v>2</v>
       </c>
       <c r="F98" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
       <c r="G98" t="s">
         <v>2</v>
       </c>
       <c r="H98" t="s">
-        <v>102</v>
-      </c>
-      <c r="I98" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J98" t="s">
-        <v>2</v>
+        <v>227</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J98">
+        <v>0</v>
       </c>
       <c r="K98" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L98" t="s">
         <v>2</v>
@@ -4385,15 +4460,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>0</v>
       </c>
       <c r="B99" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C99" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D99" t="s">
         <v>2</v>
@@ -4402,22 +4477,22 @@
         <v>2</v>
       </c>
       <c r="F99" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="G99" t="s">
         <v>2</v>
       </c>
       <c r="H99" t="s">
-        <v>103</v>
-      </c>
-      <c r="I99" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J99" t="s">
-        <v>2</v>
+        <v>226</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J99">
+        <v>0</v>
       </c>
       <c r="K99" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L99" t="s">
         <v>2</v>
@@ -4432,15 +4507,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>0</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>218</v>
       </c>
       <c r="C100" t="s">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="D100" t="s">
         <v>2</v>
@@ -4449,22 +4524,22 @@
         <v>2</v>
       </c>
       <c r="F100" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="G100" t="s">
         <v>2</v>
       </c>
       <c r="H100" t="s">
-        <v>104</v>
-      </c>
-      <c r="I100" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J100" t="s">
-        <v>2</v>
+        <v>225</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
       </c>
       <c r="K100" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="L100" t="s">
         <v>2</v>
@@ -4476,6 +4551,53 @@
         <v>2</v>
       </c>
       <c r="O100" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>0</v>
+      </c>
+      <c r="B101" t="s">
+        <v>218</v>
+      </c>
+      <c r="C101" t="s">
+        <v>20</v>
+      </c>
+      <c r="D101" t="s">
+        <v>2</v>
+      </c>
+      <c r="E101" t="s">
+        <v>2</v>
+      </c>
+      <c r="F101" t="s">
+        <v>219</v>
+      </c>
+      <c r="G101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H101" t="s">
+        <v>224</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101" t="s">
+        <v>15</v>
+      </c>
+      <c r="L101" t="s">
+        <v>2</v>
+      </c>
+      <c r="M101" t="s">
+        <v>2</v>
+      </c>
+      <c r="N101" t="s">
+        <v>2</v>
+      </c>
+      <c r="O101" t="s">
         <v>2</v>
       </c>
     </row>
@@ -4484,34 +4606,34 @@
         <v>0</v>
       </c>
       <c r="B102" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C102" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D102" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="1" t="s">
-        <v>3</v>
+      <c r="E102" t="s">
+        <v>2</v>
       </c>
       <c r="F102" t="s">
-        <v>19</v>
+        <v>219</v>
       </c>
       <c r="G102" t="s">
         <v>2</v>
       </c>
       <c r="H102" t="s">
-        <v>107</v>
-      </c>
-      <c r="I102" t="s">
-        <v>2</v>
-      </c>
-      <c r="J102" t="s">
+        <v>223</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J102">
         <v>2</v>
       </c>
       <c r="K102" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L102" t="s">
         <v>2</v>
@@ -4531,10 +4653,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C103" t="s">
-        <v>106</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
         <v>2</v>
@@ -4543,22 +4665,22 @@
         <v>2</v>
       </c>
       <c r="F103" t="s">
-        <v>12</v>
+        <v>219</v>
       </c>
       <c r="G103" t="s">
         <v>2</v>
       </c>
       <c r="H103" t="s">
-        <v>108</v>
-      </c>
-      <c r="I103" t="s">
-        <v>2</v>
-      </c>
-      <c r="J103" t="s">
-        <v>2</v>
+        <v>222</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J103">
+        <v>3</v>
       </c>
       <c r="K103" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L103" t="s">
         <v>2</v>
@@ -4578,10 +4700,10 @@
         <v>0</v>
       </c>
       <c r="B104" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C104" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D104" t="s">
         <v>2</v>
@@ -4590,22 +4712,22 @@
         <v>2</v>
       </c>
       <c r="F104" t="s">
-        <v>14</v>
+        <v>219</v>
       </c>
       <c r="G104" t="s">
         <v>2</v>
       </c>
       <c r="H104" t="s">
-        <v>144</v>
-      </c>
-      <c r="I104" t="s">
-        <v>2</v>
-      </c>
-      <c r="J104" t="s">
-        <v>2</v>
+        <v>221</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J104">
+        <v>3</v>
       </c>
       <c r="K104" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L104" t="s">
         <v>2</v>
@@ -4625,10 +4747,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C105" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D105" t="s">
         <v>2</v>
@@ -4637,34 +4759,34 @@
         <v>2</v>
       </c>
       <c r="F105" t="s">
-        <v>2</v>
+        <v>219</v>
       </c>
       <c r="G105" t="s">
         <v>2</v>
       </c>
       <c r="H105" t="s">
-        <v>2</v>
-      </c>
-      <c r="I105" t="s">
-        <v>2</v>
-      </c>
-      <c r="J105" t="s">
-        <v>2</v>
+        <v>220</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="J105">
+        <v>4</v>
       </c>
       <c r="K105" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L105" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="M105" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N105" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="O105" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:15" x14ac:dyDescent="0.2">
@@ -4672,10 +4794,10 @@
         <v>0</v>
       </c>
       <c r="B106" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C106" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D106" t="s">
         <v>2</v>
@@ -4684,16 +4806,16 @@
         <v>2</v>
       </c>
       <c r="F106" t="s">
-        <v>113</v>
+        <v>229</v>
       </c>
       <c r="G106" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H106" t="s">
-        <v>115</v>
-      </c>
-      <c r="I106" t="s">
-        <v>116</v>
+        <v>231</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J106">
         <v>1</v>
@@ -4719,10 +4841,10 @@
         <v>0</v>
       </c>
       <c r="B107" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C107" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D107" t="s">
         <v>2</v>
@@ -4731,16 +4853,16 @@
         <v>2</v>
       </c>
       <c r="F107" t="s">
-        <v>118</v>
+        <v>229</v>
       </c>
       <c r="G107" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="H107" t="s">
-        <v>2</v>
-      </c>
-      <c r="I107" t="s">
-        <v>135</v>
+        <v>232</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J107">
         <v>1</v>
@@ -4766,10 +4888,10 @@
         <v>0</v>
       </c>
       <c r="B108" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C108" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D108" t="s">
         <v>2</v>
@@ -4778,19 +4900,19 @@
         <v>2</v>
       </c>
       <c r="F108" t="s">
-        <v>120</v>
+        <v>229</v>
       </c>
       <c r="G108" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="H108" t="s">
-        <v>2</v>
-      </c>
-      <c r="I108" t="s">
-        <v>136</v>
+        <v>233</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J108">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K108" t="s">
         <v>15</v>
@@ -4813,10 +4935,10 @@
         <v>0</v>
       </c>
       <c r="B109" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C109" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D109" t="s">
         <v>2</v>
@@ -4825,19 +4947,19 @@
         <v>2</v>
       </c>
       <c r="F109" t="s">
-        <v>121</v>
+        <v>229</v>
       </c>
       <c r="G109" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="H109" t="s">
-        <v>2</v>
-      </c>
-      <c r="I109" t="s">
-        <v>137</v>
+        <v>234</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J109">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K109" t="s">
         <v>15</v>
@@ -4860,10 +4982,10 @@
         <v>0</v>
       </c>
       <c r="B110" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C110" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D110" t="s">
         <v>2</v>
@@ -4872,19 +4994,19 @@
         <v>2</v>
       </c>
       <c r="F110" t="s">
-        <v>123</v>
+        <v>229</v>
       </c>
       <c r="G110" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="H110" t="s">
-        <v>2</v>
-      </c>
-      <c r="I110" t="s">
-        <v>138</v>
+        <v>235</v>
+      </c>
+      <c r="I110" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J110">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K110" t="s">
         <v>15</v>
@@ -4907,10 +5029,10 @@
         <v>0</v>
       </c>
       <c r="B111" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C111" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D111" t="s">
         <v>2</v>
@@ -4919,19 +5041,19 @@
         <v>2</v>
       </c>
       <c r="F111" t="s">
-        <v>125</v>
+        <v>229</v>
       </c>
       <c r="G111" t="s">
-        <v>126</v>
+        <v>2</v>
       </c>
       <c r="H111" t="s">
-        <v>2</v>
-      </c>
-      <c r="I111" t="s">
-        <v>139</v>
+        <v>236</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J111">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="K111" t="s">
         <v>15</v>
@@ -4954,10 +5076,10 @@
         <v>0</v>
       </c>
       <c r="B112" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D112" t="s">
         <v>2</v>
@@ -4966,19 +5088,19 @@
         <v>2</v>
       </c>
       <c r="F112" t="s">
-        <v>127</v>
+        <v>229</v>
       </c>
       <c r="G112" t="s">
-        <v>128</v>
+        <v>2</v>
       </c>
       <c r="H112" t="s">
-        <v>2</v>
-      </c>
-      <c r="I112" t="s">
-        <v>140</v>
+        <v>230</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>237</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K112" t="s">
         <v>15</v>
@@ -5001,10 +5123,10 @@
         <v>0</v>
       </c>
       <c r="B113" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C113" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D113" t="s">
         <v>2</v>
@@ -5013,19 +5135,19 @@
         <v>2</v>
       </c>
       <c r="F113" t="s">
-        <v>129</v>
+        <v>219</v>
       </c>
       <c r="G113" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="H113" t="s">
-        <v>2</v>
-      </c>
-      <c r="I113" t="s">
-        <v>141</v>
+        <v>238</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K113" t="s">
         <v>15</v>
@@ -5048,10 +5170,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C114" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="D114" t="s">
         <v>2</v>
@@ -5060,16 +5182,16 @@
         <v>2</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="G114" t="s">
-        <v>132</v>
+        <v>2</v>
       </c>
       <c r="H114" t="s">
-        <v>2</v>
-      </c>
-      <c r="I114" t="s">
-        <v>142</v>
+        <v>239</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>243</v>
       </c>
       <c r="J114">
         <v>1</v>
@@ -5095,45 +5217,941 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
+        <v>218</v>
+      </c>
+      <c r="C115" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" t="s">
+        <v>2</v>
+      </c>
+      <c r="E115" t="s">
+        <v>2</v>
+      </c>
+      <c r="F115" t="s">
+        <v>219</v>
+      </c>
+      <c r="G115" t="s">
+        <v>2</v>
+      </c>
+      <c r="H115" t="s">
+        <v>240</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115" t="s">
+        <v>15</v>
+      </c>
+      <c r="L115" t="s">
+        <v>2</v>
+      </c>
+      <c r="M115" t="s">
+        <v>2</v>
+      </c>
+      <c r="N115" t="s">
+        <v>2</v>
+      </c>
+      <c r="O115" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>0</v>
+      </c>
+      <c r="B116" t="s">
+        <v>218</v>
+      </c>
+      <c r="C116" t="s">
+        <v>20</v>
+      </c>
+      <c r="D116" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" t="s">
+        <v>2</v>
+      </c>
+      <c r="F116" t="s">
+        <v>219</v>
+      </c>
+      <c r="G116" t="s">
+        <v>2</v>
+      </c>
+      <c r="H116" t="s">
+        <v>241</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J116">
+        <v>3</v>
+      </c>
+      <c r="K116" t="s">
+        <v>15</v>
+      </c>
+      <c r="L116" t="s">
+        <v>2</v>
+      </c>
+      <c r="M116" t="s">
+        <v>2</v>
+      </c>
+      <c r="N116" t="s">
+        <v>2</v>
+      </c>
+      <c r="O116" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>0</v>
+      </c>
+      <c r="B117" t="s">
+        <v>218</v>
+      </c>
+      <c r="C117" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" t="s">
+        <v>2</v>
+      </c>
+      <c r="E117" t="s">
+        <v>2</v>
+      </c>
+      <c r="F117" t="s">
+        <v>219</v>
+      </c>
+      <c r="G117" t="s">
+        <v>2</v>
+      </c>
+      <c r="H117" t="s">
+        <v>242</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="J117">
+        <v>0</v>
+      </c>
+      <c r="K117" t="s">
+        <v>15</v>
+      </c>
+      <c r="L117" t="s">
+        <v>2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>2</v>
+      </c>
+      <c r="N117" t="s">
+        <v>2</v>
+      </c>
+      <c r="O117" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="133" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133" t="s">
+        <v>101</v>
+      </c>
+      <c r="D133" t="s">
+        <v>2</v>
+      </c>
+      <c r="E133" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F133" t="s">
+        <v>13</v>
+      </c>
+      <c r="G133" t="s">
+        <v>2</v>
+      </c>
+      <c r="H133" t="s">
+        <v>102</v>
+      </c>
+      <c r="I133" t="s">
+        <v>2</v>
+      </c>
+      <c r="J133" t="s">
+        <v>2</v>
+      </c>
+      <c r="K133" t="s">
+        <v>11</v>
+      </c>
+      <c r="L133" t="s">
+        <v>2</v>
+      </c>
+      <c r="M133" t="s">
+        <v>2</v>
+      </c>
+      <c r="N133" t="s">
+        <v>2</v>
+      </c>
+      <c r="O133" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>0</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134" t="s">
+        <v>101</v>
+      </c>
+      <c r="D134" t="s">
+        <v>2</v>
+      </c>
+      <c r="E134" t="s">
+        <v>2</v>
+      </c>
+      <c r="F134" t="s">
+        <v>12</v>
+      </c>
+      <c r="G134" t="s">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>103</v>
+      </c>
+      <c r="I134" t="s">
+        <v>2</v>
+      </c>
+      <c r="J134" t="s">
+        <v>2</v>
+      </c>
+      <c r="K134" t="s">
+        <v>11</v>
+      </c>
+      <c r="L134" t="s">
+        <v>2</v>
+      </c>
+      <c r="M134" t="s">
+        <v>2</v>
+      </c>
+      <c r="N134" t="s">
+        <v>2</v>
+      </c>
+      <c r="O134" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>0</v>
+      </c>
+      <c r="B135" t="s">
+        <v>18</v>
+      </c>
+      <c r="C135" t="s">
+        <v>101</v>
+      </c>
+      <c r="D135" t="s">
+        <v>2</v>
+      </c>
+      <c r="E135" t="s">
+        <v>2</v>
+      </c>
+      <c r="F135" t="s">
+        <v>2</v>
+      </c>
+      <c r="G135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>104</v>
+      </c>
+      <c r="I135" t="s">
+        <v>2</v>
+      </c>
+      <c r="J135" t="s">
+        <v>2</v>
+      </c>
+      <c r="K135" t="s">
+        <v>18</v>
+      </c>
+      <c r="L135" t="s">
+        <v>2</v>
+      </c>
+      <c r="M135" t="s">
+        <v>2</v>
+      </c>
+      <c r="N135" t="s">
+        <v>2</v>
+      </c>
+      <c r="O135" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B138" t="s">
+        <v>11</v>
+      </c>
+      <c r="C138" t="s">
+        <v>105</v>
+      </c>
+      <c r="D138" t="s">
+        <v>2</v>
+      </c>
+      <c r="E138" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F138" t="s">
+        <v>19</v>
+      </c>
+      <c r="G138" t="s">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>107</v>
+      </c>
+      <c r="I138" t="s">
+        <v>2</v>
+      </c>
+      <c r="J138" t="s">
+        <v>2</v>
+      </c>
+      <c r="K138" t="s">
+        <v>11</v>
+      </c>
+      <c r="L138" t="s">
+        <v>2</v>
+      </c>
+      <c r="M138" t="s">
+        <v>2</v>
+      </c>
+      <c r="N138" t="s">
+        <v>2</v>
+      </c>
+      <c r="O138" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>0</v>
+      </c>
+      <c r="B139" t="s">
+        <v>11</v>
+      </c>
+      <c r="C139" t="s">
+        <v>106</v>
+      </c>
+      <c r="D139" t="s">
+        <v>2</v>
+      </c>
+      <c r="E139" t="s">
+        <v>2</v>
+      </c>
+      <c r="F139" t="s">
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>2</v>
+      </c>
+      <c r="H139" t="s">
+        <v>108</v>
+      </c>
+      <c r="I139" t="s">
+        <v>2</v>
+      </c>
+      <c r="J139" t="s">
+        <v>2</v>
+      </c>
+      <c r="K139" t="s">
+        <v>11</v>
+      </c>
+      <c r="L139" t="s">
+        <v>2</v>
+      </c>
+      <c r="M139" t="s">
+        <v>2</v>
+      </c>
+      <c r="N139" t="s">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>0</v>
+      </c>
+      <c r="B140" t="s">
+        <v>11</v>
+      </c>
+      <c r="C140" t="s">
+        <v>105</v>
+      </c>
+      <c r="D140" t="s">
+        <v>2</v>
+      </c>
+      <c r="E140" t="s">
+        <v>2</v>
+      </c>
+      <c r="F140" t="s">
+        <v>14</v>
+      </c>
+      <c r="G140" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" t="s">
+        <v>144</v>
+      </c>
+      <c r="I140" t="s">
+        <v>2</v>
+      </c>
+      <c r="J140" t="s">
+        <v>2</v>
+      </c>
+      <c r="K140" t="s">
+        <v>11</v>
+      </c>
+      <c r="L140" t="s">
+        <v>2</v>
+      </c>
+      <c r="M140" t="s">
+        <v>2</v>
+      </c>
+      <c r="N140" t="s">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>0</v>
+      </c>
+      <c r="B141" t="s">
         <v>216</v>
       </c>
-      <c r="C115" t="s">
+      <c r="C141" t="s">
         <v>105</v>
       </c>
-      <c r="D115" t="s">
-        <v>2</v>
-      </c>
-      <c r="E115" t="s">
-        <v>2</v>
-      </c>
-      <c r="F115" t="s">
+      <c r="D141" t="s">
+        <v>2</v>
+      </c>
+      <c r="E141" t="s">
+        <v>2</v>
+      </c>
+      <c r="F141" t="s">
+        <v>2</v>
+      </c>
+      <c r="G141" t="s">
+        <v>2</v>
+      </c>
+      <c r="H141" t="s">
+        <v>2</v>
+      </c>
+      <c r="I141" t="s">
+        <v>2</v>
+      </c>
+      <c r="J141" t="s">
+        <v>2</v>
+      </c>
+      <c r="K141" t="s">
+        <v>4</v>
+      </c>
+      <c r="L141" t="s">
+        <v>109</v>
+      </c>
+      <c r="M141" t="s">
+        <v>110</v>
+      </c>
+      <c r="N141" t="s">
+        <v>111</v>
+      </c>
+      <c r="O141" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>0</v>
+      </c>
+      <c r="B142" t="s">
+        <v>216</v>
+      </c>
+      <c r="C142" t="s">
+        <v>105</v>
+      </c>
+      <c r="D142" t="s">
+        <v>2</v>
+      </c>
+      <c r="E142" t="s">
+        <v>2</v>
+      </c>
+      <c r="F142" t="s">
+        <v>113</v>
+      </c>
+      <c r="G142" t="s">
+        <v>114</v>
+      </c>
+      <c r="H142" t="s">
+        <v>115</v>
+      </c>
+      <c r="I142" t="s">
+        <v>116</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142" t="s">
+        <v>15</v>
+      </c>
+      <c r="L142" t="s">
+        <v>2</v>
+      </c>
+      <c r="M142" t="s">
+        <v>2</v>
+      </c>
+      <c r="N142" t="s">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>216</v>
+      </c>
+      <c r="C143" t="s">
+        <v>105</v>
+      </c>
+      <c r="D143" t="s">
+        <v>2</v>
+      </c>
+      <c r="E143" t="s">
+        <v>2</v>
+      </c>
+      <c r="F143" t="s">
+        <v>118</v>
+      </c>
+      <c r="G143" t="s">
+        <v>117</v>
+      </c>
+      <c r="H143" t="s">
+        <v>2</v>
+      </c>
+      <c r="I143" t="s">
+        <v>135</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" t="s">
+        <v>2</v>
+      </c>
+      <c r="M143" t="s">
+        <v>2</v>
+      </c>
+      <c r="N143" t="s">
+        <v>2</v>
+      </c>
+      <c r="O143" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>0</v>
+      </c>
+      <c r="B144" t="s">
+        <v>216</v>
+      </c>
+      <c r="C144" t="s">
+        <v>105</v>
+      </c>
+      <c r="D144" t="s">
+        <v>2</v>
+      </c>
+      <c r="E144" t="s">
+        <v>2</v>
+      </c>
+      <c r="F144" t="s">
+        <v>120</v>
+      </c>
+      <c r="G144" t="s">
+        <v>119</v>
+      </c>
+      <c r="H144" t="s">
+        <v>2</v>
+      </c>
+      <c r="I144" t="s">
+        <v>136</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144" t="s">
+        <v>15</v>
+      </c>
+      <c r="L144" t="s">
+        <v>2</v>
+      </c>
+      <c r="M144" t="s">
+        <v>2</v>
+      </c>
+      <c r="N144" t="s">
+        <v>2</v>
+      </c>
+      <c r="O144" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>0</v>
+      </c>
+      <c r="B145" t="s">
+        <v>216</v>
+      </c>
+      <c r="C145" t="s">
+        <v>105</v>
+      </c>
+      <c r="D145" t="s">
+        <v>2</v>
+      </c>
+      <c r="E145" t="s">
+        <v>2</v>
+      </c>
+      <c r="F145" t="s">
+        <v>121</v>
+      </c>
+      <c r="G145" t="s">
+        <v>122</v>
+      </c>
+      <c r="H145" t="s">
+        <v>2</v>
+      </c>
+      <c r="I145" t="s">
+        <v>137</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145" t="s">
+        <v>15</v>
+      </c>
+      <c r="L145" t="s">
+        <v>2</v>
+      </c>
+      <c r="M145" t="s">
+        <v>2</v>
+      </c>
+      <c r="N145" t="s">
+        <v>2</v>
+      </c>
+      <c r="O145" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>0</v>
+      </c>
+      <c r="B146" t="s">
+        <v>216</v>
+      </c>
+      <c r="C146" t="s">
+        <v>105</v>
+      </c>
+      <c r="D146" t="s">
+        <v>2</v>
+      </c>
+      <c r="E146" t="s">
+        <v>2</v>
+      </c>
+      <c r="F146" t="s">
+        <v>123</v>
+      </c>
+      <c r="G146" t="s">
+        <v>124</v>
+      </c>
+      <c r="H146" t="s">
+        <v>2</v>
+      </c>
+      <c r="I146" t="s">
+        <v>138</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146" t="s">
+        <v>15</v>
+      </c>
+      <c r="L146" t="s">
+        <v>2</v>
+      </c>
+      <c r="M146" t="s">
+        <v>2</v>
+      </c>
+      <c r="N146" t="s">
+        <v>2</v>
+      </c>
+      <c r="O146" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>0</v>
+      </c>
+      <c r="B147" t="s">
+        <v>216</v>
+      </c>
+      <c r="C147" t="s">
+        <v>105</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>125</v>
+      </c>
+      <c r="G147" t="s">
+        <v>126</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" t="s">
+        <v>139</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147" t="s">
+        <v>2</v>
+      </c>
+      <c r="M147" t="s">
+        <v>2</v>
+      </c>
+      <c r="N147" t="s">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>0</v>
+      </c>
+      <c r="B148" t="s">
+        <v>216</v>
+      </c>
+      <c r="C148" t="s">
+        <v>105</v>
+      </c>
+      <c r="D148" t="s">
+        <v>2</v>
+      </c>
+      <c r="E148" t="s">
+        <v>2</v>
+      </c>
+      <c r="F148" t="s">
+        <v>127</v>
+      </c>
+      <c r="G148" t="s">
+        <v>128</v>
+      </c>
+      <c r="H148" t="s">
+        <v>2</v>
+      </c>
+      <c r="I148" t="s">
+        <v>140</v>
+      </c>
+      <c r="J148">
+        <v>0</v>
+      </c>
+      <c r="K148" t="s">
+        <v>15</v>
+      </c>
+      <c r="L148" t="s">
+        <v>2</v>
+      </c>
+      <c r="M148" t="s">
+        <v>2</v>
+      </c>
+      <c r="N148" t="s">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>0</v>
+      </c>
+      <c r="B149" t="s">
+        <v>216</v>
+      </c>
+      <c r="C149" t="s">
+        <v>105</v>
+      </c>
+      <c r="D149" t="s">
+        <v>2</v>
+      </c>
+      <c r="E149" t="s">
+        <v>2</v>
+      </c>
+      <c r="F149" t="s">
+        <v>129</v>
+      </c>
+      <c r="G149" t="s">
+        <v>130</v>
+      </c>
+      <c r="H149" t="s">
+        <v>2</v>
+      </c>
+      <c r="I149" t="s">
+        <v>141</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149" t="s">
+        <v>15</v>
+      </c>
+      <c r="L149" t="s">
+        <v>2</v>
+      </c>
+      <c r="M149" t="s">
+        <v>2</v>
+      </c>
+      <c r="N149" t="s">
+        <v>2</v>
+      </c>
+      <c r="O149" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B150" t="s">
+        <v>216</v>
+      </c>
+      <c r="C150" t="s">
+        <v>105</v>
+      </c>
+      <c r="D150" t="s">
+        <v>2</v>
+      </c>
+      <c r="E150" t="s">
+        <v>2</v>
+      </c>
+      <c r="F150" t="s">
+        <v>131</v>
+      </c>
+      <c r="G150" t="s">
+        <v>132</v>
+      </c>
+      <c r="H150" t="s">
+        <v>2</v>
+      </c>
+      <c r="I150" t="s">
+        <v>142</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150" t="s">
+        <v>15</v>
+      </c>
+      <c r="L150" t="s">
+        <v>2</v>
+      </c>
+      <c r="M150" t="s">
+        <v>2</v>
+      </c>
+      <c r="N150" t="s">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>0</v>
+      </c>
+      <c r="B151" t="s">
+        <v>216</v>
+      </c>
+      <c r="C151" t="s">
+        <v>105</v>
+      </c>
+      <c r="D151" t="s">
+        <v>2</v>
+      </c>
+      <c r="E151" t="s">
+        <v>2</v>
+      </c>
+      <c r="F151" t="s">
         <v>133</v>
       </c>
-      <c r="G115" t="s">
+      <c r="G151" t="s">
         <v>134</v>
       </c>
-      <c r="H115" t="s">
-        <v>2</v>
-      </c>
-      <c r="I115" t="s">
+      <c r="H151" t="s">
+        <v>2</v>
+      </c>
+      <c r="I151" t="s">
         <v>143</v>
       </c>
-      <c r="J115">
-        <v>1</v>
-      </c>
-      <c r="K115" t="s">
-        <v>15</v>
-      </c>
-      <c r="L115" t="s">
-        <v>2</v>
-      </c>
-      <c r="M115" t="s">
-        <v>2</v>
-      </c>
-      <c r="N115" t="s">
-        <v>2</v>
-      </c>
-      <c r="O115" t="s">
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151" t="s">
+        <v>15</v>
+      </c>
+      <c r="L151" t="s">
+        <v>2</v>
+      </c>
+      <c r="M151" t="s">
+        <v>2</v>
+      </c>
+      <c r="N151" t="s">
+        <v>2</v>
+      </c>
+      <c r="O151" t="s">
         <v>2</v>
       </c>
     </row>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D6B1BB-EAF3-9F46-A99D-53B28714AC52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1B5AE3C-F091-C54C-B2D6-0112402C1B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38640" yWindow="3100" windowWidth="33120" windowHeight="20020" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1469" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1838" uniqueCount="290">
   <si>
     <t>A1</t>
   </si>
@@ -860,6 +860,144 @@
   </si>
   <si>
     <t>to;from;into;out of ;through</t>
+  </si>
+  <si>
+    <t>Write the word In English</t>
+  </si>
+  <si>
+    <t>Box;Wall;Party;Homework;Store</t>
+  </si>
+  <si>
+    <t>صندوق;حائط;حفلة;وظيفة;متجر</t>
+  </si>
+  <si>
+    <t>Read the following :</t>
+  </si>
+  <si>
+    <t>money;mouse;nose;octopus;pencil;queen;row; swim;train;rainbow;voice;violin;whale;x-ray;yogurt;zoo</t>
+  </si>
+  <si>
+    <t>Write the following on your notebook:</t>
+  </si>
+  <si>
+    <t>mouse;net;nest;owl power;pencil;queen; rainbow;snake;turtle;umbrella;vote;water;x-ray;yellow;zip</t>
+  </si>
+  <si>
+    <t>write what you hear</t>
+  </si>
+  <si>
+    <t>Lina goes to the kitchen. She takes a spoon and eats yogurt for breakfast. She also eats some olives. Olives are the best .​</t>
+  </si>
+  <si>
+    <t>dictation</t>
+  </si>
+  <si>
+    <t>Select the sentence that best describes the image above:</t>
+  </si>
+  <si>
+    <t>turtle;spoon;milk</t>
+  </si>
+  <si>
+    <t>olive;yogurt;milk</t>
+  </si>
+  <si>
+    <t>spoon;window;fork</t>
+  </si>
+  <si>
+    <t>people;rainbow;water</t>
+  </si>
+  <si>
+    <t>turtle;spoon;water</t>
+  </si>
+  <si>
+    <t>queen;mouse;yogurt</t>
+  </si>
+  <si>
+    <t>queen;people;owl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">turtle;spoon;water) </t>
+  </si>
+  <si>
+    <t>people;turtle;numbers</t>
+  </si>
+  <si>
+    <t>We;You;They;You;You;They;You;It;He;It;She;I</t>
+  </si>
+  <si>
+    <t>نحن;انتم;هم;انت;انتن;هن;انتي;هو لغير العاقل;هو;هي لغير العاقل;هي;انا</t>
+  </si>
+  <si>
+    <t>Select the correct pronoun to complete the sentence:</t>
+  </si>
+  <si>
+    <t>_____  didn’t go to school today.</t>
+  </si>
+  <si>
+    <t>This gift is for _____ .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> _____  bought a gift.</t>
+  </si>
+  <si>
+    <t>I will call _____ tomorrow.</t>
+  </si>
+  <si>
+    <t>Can you tell _____  the news?</t>
+  </si>
+  <si>
+    <t>We are looking for the cat _____ .</t>
+  </si>
+  <si>
+    <t>_____ said ‘No’.</t>
+  </si>
+  <si>
+    <t>She gave _____  the instructions.</t>
+  </si>
+  <si>
+    <t>She asked _____  to join the team. (هن)</t>
+  </si>
+  <si>
+    <t>_____  said “ no we didn’t like it “.</t>
+  </si>
+  <si>
+    <t>The movie was great. Did you like _____ ? (هو/هي لغير العاقل)</t>
+  </si>
+  <si>
+    <t>They didn't invite _____ to the party.</t>
+  </si>
+  <si>
+    <t>i;me</t>
+  </si>
+  <si>
+    <t>I;Me</t>
+  </si>
+  <si>
+    <t>i;you</t>
+  </si>
+  <si>
+    <t>Me; You​</t>
+  </si>
+  <si>
+    <t>he;him</t>
+  </si>
+  <si>
+    <t>she;her</t>
+  </si>
+  <si>
+    <t>it;her</t>
+  </si>
+  <si>
+    <t>We; Him</t>
+  </si>
+  <si>
+    <t>we;us</t>
+  </si>
+  <si>
+    <t>them;they​</t>
+  </si>
+  <si>
+    <t>they;them​</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:O151"/>
+  <dimension ref="A4:O184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
-      <selection activeCell="C119" sqref="C119"/>
+    <sheetView tabSelected="1" topLeftCell="H166" zoomScale="137" zoomScaleNormal="230" workbookViewId="0">
+      <selection activeCell="J185" sqref="J185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5353,8 +5491,52 @@
         <v>2</v>
       </c>
     </row>
-    <row r="119" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="E119" s="1"/>
+    <row r="118" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>0</v>
+      </c>
+      <c r="B118" t="s">
+        <v>218</v>
+      </c>
+      <c r="C118" t="s">
+        <v>20</v>
+      </c>
+      <c r="D118" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" t="s">
+        <v>2</v>
+      </c>
+      <c r="F118" t="s">
+        <v>244</v>
+      </c>
+      <c r="G118" t="s">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>246</v>
+      </c>
+      <c r="I118" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="J118" t="s">
+        <v>2</v>
+      </c>
+      <c r="K118" t="s">
+        <v>10</v>
+      </c>
+      <c r="L118" t="s">
+        <v>2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>2</v>
+      </c>
+      <c r="N118" t="s">
+        <v>2</v>
+      </c>
+      <c r="O118" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="133" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
@@ -5497,39 +5679,133 @@
         <v>2</v>
       </c>
     </row>
+    <row r="136" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>0</v>
+      </c>
+      <c r="B136" t="s">
+        <v>218</v>
+      </c>
+      <c r="C136" t="s">
+        <v>101</v>
+      </c>
+      <c r="D136" t="s">
+        <v>2</v>
+      </c>
+      <c r="E136" t="s">
+        <v>2</v>
+      </c>
+      <c r="F136" t="s">
+        <v>247</v>
+      </c>
+      <c r="G136" t="s">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>248</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J136" t="s">
+        <v>2</v>
+      </c>
+      <c r="K136" t="s">
+        <v>200</v>
+      </c>
+      <c r="L136" t="s">
+        <v>2</v>
+      </c>
+      <c r="M136" t="s">
+        <v>2</v>
+      </c>
+      <c r="N136" t="s">
+        <v>2</v>
+      </c>
+      <c r="O136" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>0</v>
+      </c>
+      <c r="B137" t="s">
+        <v>218</v>
+      </c>
+      <c r="C137" t="s">
+        <v>101</v>
+      </c>
+      <c r="D137" t="s">
+        <v>2</v>
+      </c>
+      <c r="E137" t="s">
+        <v>2</v>
+      </c>
+      <c r="F137" t="s">
+        <v>249</v>
+      </c>
+      <c r="G137" t="s">
+        <v>2</v>
+      </c>
+      <c r="H137" t="s">
+        <v>250</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J137" t="s">
+        <v>2</v>
+      </c>
+      <c r="K137" t="s">
+        <v>200</v>
+      </c>
+      <c r="L137" t="s">
+        <v>2</v>
+      </c>
+      <c r="M137" t="s">
+        <v>2</v>
+      </c>
+      <c r="N137" t="s">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>2</v>
+      </c>
+    </row>
     <row r="138" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C138" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D138" t="s">
         <v>2</v>
       </c>
-      <c r="E138" s="1" t="s">
-        <v>3</v>
+      <c r="E138" t="s">
+        <v>2</v>
       </c>
       <c r="F138" t="s">
-        <v>19</v>
+        <v>251</v>
       </c>
       <c r="G138" t="s">
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>107</v>
-      </c>
-      <c r="I138" t="s">
+        <v>252</v>
+      </c>
+      <c r="I138" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J138" t="s">
         <v>2</v>
       </c>
       <c r="K138" t="s">
-        <v>11</v>
+        <v>253</v>
       </c>
       <c r="L138" t="s">
         <v>2</v>
@@ -5549,10 +5825,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C139" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="D139" t="s">
         <v>2</v>
@@ -5561,22 +5837,22 @@
         <v>2</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>254</v>
       </c>
       <c r="G139" t="s">
         <v>2</v>
       </c>
       <c r="H139" t="s">
-        <v>108</v>
-      </c>
-      <c r="I139" t="s">
-        <v>2</v>
-      </c>
-      <c r="J139" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
       </c>
       <c r="K139" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L139" t="s">
         <v>2</v>
@@ -5596,10 +5872,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>11</v>
+        <v>218</v>
       </c>
       <c r="C140" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D140" t="s">
         <v>2</v>
@@ -5608,22 +5884,22 @@
         <v>2</v>
       </c>
       <c r="F140" t="s">
-        <v>14</v>
+        <v>254</v>
       </c>
       <c r="G140" t="s">
         <v>2</v>
       </c>
       <c r="H140" t="s">
-        <v>144</v>
-      </c>
-      <c r="I140" t="s">
-        <v>2</v>
-      </c>
-      <c r="J140" t="s">
-        <v>2</v>
+        <v>2</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
       </c>
       <c r="K140" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="L140" t="s">
         <v>2</v>
@@ -5643,10 +5919,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C141" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D141" t="s">
         <v>2</v>
@@ -5655,7 +5931,7 @@
         <v>2</v>
       </c>
       <c r="F141" t="s">
-        <v>2</v>
+        <v>254</v>
       </c>
       <c r="G141" t="s">
         <v>2</v>
@@ -5663,26 +5939,26 @@
       <c r="H141" t="s">
         <v>2</v>
       </c>
-      <c r="I141" t="s">
-        <v>2</v>
-      </c>
-      <c r="J141" t="s">
+      <c r="I141" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="J141">
         <v>2</v>
       </c>
       <c r="K141" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L141" t="s">
-        <v>109</v>
+        <v>2</v>
       </c>
       <c r="M141" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="N141" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:15" x14ac:dyDescent="0.2">
@@ -5690,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C142" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D142" t="s">
         <v>2</v>
@@ -5702,19 +5978,19 @@
         <v>2</v>
       </c>
       <c r="F142" t="s">
-        <v>113</v>
+        <v>254</v>
       </c>
       <c r="G142" t="s">
-        <v>114</v>
+        <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>115</v>
-      </c>
-      <c r="I142" t="s">
-        <v>116</v>
+        <v>2</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>257</v>
       </c>
       <c r="J142">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K142" t="s">
         <v>15</v>
@@ -5737,10 +6013,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C143" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D143" t="s">
         <v>2</v>
@@ -5749,16 +6025,16 @@
         <v>2</v>
       </c>
       <c r="F143" t="s">
-        <v>118</v>
+        <v>254</v>
       </c>
       <c r="G143" t="s">
-        <v>117</v>
+        <v>2</v>
       </c>
       <c r="H143" t="s">
         <v>2</v>
       </c>
-      <c r="I143" t="s">
-        <v>135</v>
+      <c r="I143" s="2" t="s">
+        <v>258</v>
       </c>
       <c r="J143">
         <v>1</v>
@@ -5784,10 +6060,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C144" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D144" t="s">
         <v>2</v>
@@ -5796,19 +6072,19 @@
         <v>2</v>
       </c>
       <c r="F144" t="s">
-        <v>120</v>
+        <v>254</v>
       </c>
       <c r="G144" t="s">
-        <v>119</v>
+        <v>2</v>
       </c>
       <c r="H144" t="s">
         <v>2</v>
       </c>
-      <c r="I144" t="s">
-        <v>136</v>
+      <c r="I144" s="2" t="s">
+        <v>259</v>
       </c>
       <c r="J144">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K144" t="s">
         <v>15</v>
@@ -5831,10 +6107,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C145" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D145" t="s">
         <v>2</v>
@@ -5843,19 +6119,19 @@
         <v>2</v>
       </c>
       <c r="F145" t="s">
-        <v>121</v>
+        <v>254</v>
       </c>
       <c r="G145" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="H145" t="s">
         <v>2</v>
       </c>
-      <c r="I145" t="s">
-        <v>137</v>
+      <c r="I145" s="2" t="s">
+        <v>262</v>
       </c>
       <c r="J145">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K145" t="s">
         <v>15</v>
@@ -5878,10 +6154,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C146" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="D146" t="s">
         <v>2</v>
@@ -5890,19 +6166,19 @@
         <v>2</v>
       </c>
       <c r="F146" t="s">
-        <v>123</v>
+        <v>254</v>
       </c>
       <c r="G146" t="s">
-        <v>124</v>
+        <v>2</v>
       </c>
       <c r="H146" t="s">
         <v>2</v>
       </c>
-      <c r="I146" t="s">
-        <v>138</v>
+      <c r="I146" s="2" t="s">
+        <v>260</v>
       </c>
       <c r="J146">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K146" t="s">
         <v>15</v>
@@ -5925,233 +6201,1314 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
+        <v>218</v>
+      </c>
+      <c r="C147" t="s">
+        <v>101</v>
+      </c>
+      <c r="D147" t="s">
+        <v>2</v>
+      </c>
+      <c r="E147" t="s">
+        <v>2</v>
+      </c>
+      <c r="F147" t="s">
+        <v>254</v>
+      </c>
+      <c r="G147" t="s">
+        <v>2</v>
+      </c>
+      <c r="H147" t="s">
+        <v>2</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147" t="s">
+        <v>15</v>
+      </c>
+      <c r="L147" t="s">
+        <v>2</v>
+      </c>
+      <c r="M147" t="s">
+        <v>2</v>
+      </c>
+      <c r="N147" t="s">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B158" t="s">
+        <v>11</v>
+      </c>
+      <c r="C158" t="s">
+        <v>105</v>
+      </c>
+      <c r="D158" t="s">
+        <v>2</v>
+      </c>
+      <c r="E158" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F158" t="s">
+        <v>19</v>
+      </c>
+      <c r="G158" t="s">
+        <v>2</v>
+      </c>
+      <c r="H158" t="s">
+        <v>107</v>
+      </c>
+      <c r="I158" t="s">
+        <v>2</v>
+      </c>
+      <c r="J158" t="s">
+        <v>2</v>
+      </c>
+      <c r="K158" t="s">
+        <v>11</v>
+      </c>
+      <c r="L158" t="s">
+        <v>2</v>
+      </c>
+      <c r="M158" t="s">
+        <v>2</v>
+      </c>
+      <c r="N158" t="s">
+        <v>2</v>
+      </c>
+      <c r="O158" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159" t="s">
+        <v>106</v>
+      </c>
+      <c r="D159" t="s">
+        <v>2</v>
+      </c>
+      <c r="E159" t="s">
+        <v>2</v>
+      </c>
+      <c r="F159" t="s">
+        <v>12</v>
+      </c>
+      <c r="G159" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" t="s">
+        <v>108</v>
+      </c>
+      <c r="I159" t="s">
+        <v>2</v>
+      </c>
+      <c r="J159" t="s">
+        <v>2</v>
+      </c>
+      <c r="K159" t="s">
+        <v>11</v>
+      </c>
+      <c r="L159" t="s">
+        <v>2</v>
+      </c>
+      <c r="M159" t="s">
+        <v>2</v>
+      </c>
+      <c r="N159" t="s">
+        <v>2</v>
+      </c>
+      <c r="O159" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>0</v>
+      </c>
+      <c r="B160" t="s">
+        <v>11</v>
+      </c>
+      <c r="C160" t="s">
+        <v>105</v>
+      </c>
+      <c r="D160" t="s">
+        <v>2</v>
+      </c>
+      <c r="E160" t="s">
+        <v>2</v>
+      </c>
+      <c r="F160" t="s">
+        <v>14</v>
+      </c>
+      <c r="G160" t="s">
+        <v>2</v>
+      </c>
+      <c r="H160" t="s">
+        <v>144</v>
+      </c>
+      <c r="I160" t="s">
+        <v>2</v>
+      </c>
+      <c r="J160" t="s">
+        <v>2</v>
+      </c>
+      <c r="K160" t="s">
+        <v>11</v>
+      </c>
+      <c r="L160" t="s">
+        <v>2</v>
+      </c>
+      <c r="M160" t="s">
+        <v>2</v>
+      </c>
+      <c r="N160" t="s">
+        <v>2</v>
+      </c>
+      <c r="O160" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>0</v>
+      </c>
+      <c r="B161" t="s">
         <v>216</v>
       </c>
-      <c r="C147" t="s">
+      <c r="C161" t="s">
         <v>105</v>
       </c>
-      <c r="D147" t="s">
-        <v>2</v>
-      </c>
-      <c r="E147" t="s">
-        <v>2</v>
-      </c>
-      <c r="F147" t="s">
+      <c r="D161" t="s">
+        <v>2</v>
+      </c>
+      <c r="E161" t="s">
+        <v>2</v>
+      </c>
+      <c r="F161" t="s">
+        <v>2</v>
+      </c>
+      <c r="G161" t="s">
+        <v>2</v>
+      </c>
+      <c r="H161" t="s">
+        <v>2</v>
+      </c>
+      <c r="I161" t="s">
+        <v>2</v>
+      </c>
+      <c r="J161" t="s">
+        <v>2</v>
+      </c>
+      <c r="K161" t="s">
+        <v>4</v>
+      </c>
+      <c r="L161" t="s">
+        <v>109</v>
+      </c>
+      <c r="M161" t="s">
+        <v>110</v>
+      </c>
+      <c r="N161" t="s">
+        <v>111</v>
+      </c>
+      <c r="O161" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" t="s">
+        <v>216</v>
+      </c>
+      <c r="C162" t="s">
+        <v>105</v>
+      </c>
+      <c r="D162" t="s">
+        <v>2</v>
+      </c>
+      <c r="E162" t="s">
+        <v>2</v>
+      </c>
+      <c r="F162" t="s">
+        <v>113</v>
+      </c>
+      <c r="G162" t="s">
+        <v>114</v>
+      </c>
+      <c r="H162" t="s">
+        <v>115</v>
+      </c>
+      <c r="I162" t="s">
+        <v>116</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162" t="s">
+        <v>15</v>
+      </c>
+      <c r="L162" t="s">
+        <v>2</v>
+      </c>
+      <c r="M162" t="s">
+        <v>2</v>
+      </c>
+      <c r="N162" t="s">
+        <v>2</v>
+      </c>
+      <c r="O162" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>0</v>
+      </c>
+      <c r="B163" t="s">
+        <v>216</v>
+      </c>
+      <c r="C163" t="s">
+        <v>105</v>
+      </c>
+      <c r="D163" t="s">
+        <v>2</v>
+      </c>
+      <c r="E163" t="s">
+        <v>2</v>
+      </c>
+      <c r="F163" t="s">
+        <v>118</v>
+      </c>
+      <c r="G163" t="s">
+        <v>117</v>
+      </c>
+      <c r="H163" t="s">
+        <v>2</v>
+      </c>
+      <c r="I163" t="s">
+        <v>135</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163" t="s">
+        <v>15</v>
+      </c>
+      <c r="L163" t="s">
+        <v>2</v>
+      </c>
+      <c r="M163" t="s">
+        <v>2</v>
+      </c>
+      <c r="N163" t="s">
+        <v>2</v>
+      </c>
+      <c r="O163" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>0</v>
+      </c>
+      <c r="B164" t="s">
+        <v>216</v>
+      </c>
+      <c r="C164" t="s">
+        <v>105</v>
+      </c>
+      <c r="D164" t="s">
+        <v>2</v>
+      </c>
+      <c r="E164" t="s">
+        <v>2</v>
+      </c>
+      <c r="F164" t="s">
+        <v>120</v>
+      </c>
+      <c r="G164" t="s">
+        <v>119</v>
+      </c>
+      <c r="H164" t="s">
+        <v>2</v>
+      </c>
+      <c r="I164" t="s">
+        <v>136</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164" t="s">
+        <v>15</v>
+      </c>
+      <c r="L164" t="s">
+        <v>2</v>
+      </c>
+      <c r="M164" t="s">
+        <v>2</v>
+      </c>
+      <c r="N164" t="s">
+        <v>2</v>
+      </c>
+      <c r="O164" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" t="s">
+        <v>216</v>
+      </c>
+      <c r="C165" t="s">
+        <v>105</v>
+      </c>
+      <c r="D165" t="s">
+        <v>2</v>
+      </c>
+      <c r="E165" t="s">
+        <v>2</v>
+      </c>
+      <c r="F165" t="s">
+        <v>121</v>
+      </c>
+      <c r="G165" t="s">
+        <v>122</v>
+      </c>
+      <c r="H165" t="s">
+        <v>2</v>
+      </c>
+      <c r="I165" t="s">
+        <v>137</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165" t="s">
+        <v>15</v>
+      </c>
+      <c r="L165" t="s">
+        <v>2</v>
+      </c>
+      <c r="M165" t="s">
+        <v>2</v>
+      </c>
+      <c r="N165" t="s">
+        <v>2</v>
+      </c>
+      <c r="O165" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>0</v>
+      </c>
+      <c r="B166" t="s">
+        <v>216</v>
+      </c>
+      <c r="C166" t="s">
+        <v>105</v>
+      </c>
+      <c r="D166" t="s">
+        <v>2</v>
+      </c>
+      <c r="E166" t="s">
+        <v>2</v>
+      </c>
+      <c r="F166" t="s">
+        <v>123</v>
+      </c>
+      <c r="G166" t="s">
+        <v>124</v>
+      </c>
+      <c r="H166" t="s">
+        <v>2</v>
+      </c>
+      <c r="I166" t="s">
+        <v>138</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166" t="s">
+        <v>15</v>
+      </c>
+      <c r="L166" t="s">
+        <v>2</v>
+      </c>
+      <c r="M166" t="s">
+        <v>2</v>
+      </c>
+      <c r="N166" t="s">
+        <v>2</v>
+      </c>
+      <c r="O166" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>0</v>
+      </c>
+      <c r="B167" t="s">
+        <v>216</v>
+      </c>
+      <c r="C167" t="s">
+        <v>105</v>
+      </c>
+      <c r="D167" t="s">
+        <v>2</v>
+      </c>
+      <c r="E167" t="s">
+        <v>2</v>
+      </c>
+      <c r="F167" t="s">
         <v>125</v>
       </c>
-      <c r="G147" t="s">
+      <c r="G167" t="s">
         <v>126</v>
       </c>
-      <c r="H147" t="s">
-        <v>2</v>
-      </c>
-      <c r="I147" t="s">
+      <c r="H167" t="s">
+        <v>2</v>
+      </c>
+      <c r="I167" t="s">
         <v>139</v>
       </c>
-      <c r="J147">
-        <v>1</v>
-      </c>
-      <c r="K147" t="s">
-        <v>15</v>
-      </c>
-      <c r="L147" t="s">
-        <v>2</v>
-      </c>
-      <c r="M147" t="s">
-        <v>2</v>
-      </c>
-      <c r="N147" t="s">
-        <v>2</v>
-      </c>
-      <c r="O147" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A148" t="s">
-        <v>0</v>
-      </c>
-      <c r="B148" t="s">
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167" t="s">
+        <v>15</v>
+      </c>
+      <c r="L167" t="s">
+        <v>2</v>
+      </c>
+      <c r="M167" t="s">
+        <v>2</v>
+      </c>
+      <c r="N167" t="s">
+        <v>2</v>
+      </c>
+      <c r="O167" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>0</v>
+      </c>
+      <c r="B168" t="s">
         <v>216</v>
       </c>
-      <c r="C148" t="s">
+      <c r="C168" t="s">
         <v>105</v>
       </c>
-      <c r="D148" t="s">
-        <v>2</v>
-      </c>
-      <c r="E148" t="s">
-        <v>2</v>
-      </c>
-      <c r="F148" t="s">
+      <c r="D168" t="s">
+        <v>2</v>
+      </c>
+      <c r="E168" t="s">
+        <v>2</v>
+      </c>
+      <c r="F168" t="s">
         <v>127</v>
       </c>
-      <c r="G148" t="s">
+      <c r="G168" t="s">
         <v>128</v>
       </c>
-      <c r="H148" t="s">
-        <v>2</v>
-      </c>
-      <c r="I148" t="s">
+      <c r="H168" t="s">
+        <v>2</v>
+      </c>
+      <c r="I168" t="s">
         <v>140</v>
       </c>
-      <c r="J148">
-        <v>0</v>
-      </c>
-      <c r="K148" t="s">
-        <v>15</v>
-      </c>
-      <c r="L148" t="s">
-        <v>2</v>
-      </c>
-      <c r="M148" t="s">
-        <v>2</v>
-      </c>
-      <c r="N148" t="s">
-        <v>2</v>
-      </c>
-      <c r="O148" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A149" t="s">
-        <v>0</v>
-      </c>
-      <c r="B149" t="s">
+      <c r="J168">
+        <v>0</v>
+      </c>
+      <c r="K168" t="s">
+        <v>15</v>
+      </c>
+      <c r="L168" t="s">
+        <v>2</v>
+      </c>
+      <c r="M168" t="s">
+        <v>2</v>
+      </c>
+      <c r="N168" t="s">
+        <v>2</v>
+      </c>
+      <c r="O168" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B169" t="s">
         <v>216</v>
       </c>
-      <c r="C149" t="s">
+      <c r="C169" t="s">
         <v>105</v>
       </c>
-      <c r="D149" t="s">
-        <v>2</v>
-      </c>
-      <c r="E149" t="s">
-        <v>2</v>
-      </c>
-      <c r="F149" t="s">
+      <c r="D169" t="s">
+        <v>2</v>
+      </c>
+      <c r="E169" t="s">
+        <v>2</v>
+      </c>
+      <c r="F169" t="s">
         <v>129</v>
       </c>
-      <c r="G149" t="s">
+      <c r="G169" t="s">
         <v>130</v>
       </c>
-      <c r="H149" t="s">
-        <v>2</v>
-      </c>
-      <c r="I149" t="s">
+      <c r="H169" t="s">
+        <v>2</v>
+      </c>
+      <c r="I169" t="s">
         <v>141</v>
       </c>
-      <c r="J149">
-        <v>1</v>
-      </c>
-      <c r="K149" t="s">
-        <v>15</v>
-      </c>
-      <c r="L149" t="s">
-        <v>2</v>
-      </c>
-      <c r="M149" t="s">
-        <v>2</v>
-      </c>
-      <c r="N149" t="s">
-        <v>2</v>
-      </c>
-      <c r="O149" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A150" t="s">
-        <v>0</v>
-      </c>
-      <c r="B150" t="s">
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169" t="s">
+        <v>15</v>
+      </c>
+      <c r="L169" t="s">
+        <v>2</v>
+      </c>
+      <c r="M169" t="s">
+        <v>2</v>
+      </c>
+      <c r="N169" t="s">
+        <v>2</v>
+      </c>
+      <c r="O169" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170" t="s">
         <v>216</v>
       </c>
-      <c r="C150" t="s">
+      <c r="C170" t="s">
         <v>105</v>
       </c>
-      <c r="D150" t="s">
-        <v>2</v>
-      </c>
-      <c r="E150" t="s">
-        <v>2</v>
-      </c>
-      <c r="F150" t="s">
+      <c r="D170" t="s">
+        <v>2</v>
+      </c>
+      <c r="E170" t="s">
+        <v>2</v>
+      </c>
+      <c r="F170" t="s">
         <v>131</v>
       </c>
-      <c r="G150" t="s">
+      <c r="G170" t="s">
         <v>132</v>
       </c>
-      <c r="H150" t="s">
-        <v>2</v>
-      </c>
-      <c r="I150" t="s">
+      <c r="H170" t="s">
+        <v>2</v>
+      </c>
+      <c r="I170" t="s">
         <v>142</v>
       </c>
-      <c r="J150">
-        <v>1</v>
-      </c>
-      <c r="K150" t="s">
-        <v>15</v>
-      </c>
-      <c r="L150" t="s">
-        <v>2</v>
-      </c>
-      <c r="M150" t="s">
-        <v>2</v>
-      </c>
-      <c r="N150" t="s">
-        <v>2</v>
-      </c>
-      <c r="O150" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="151" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A151" t="s">
-        <v>0</v>
-      </c>
-      <c r="B151" t="s">
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170" t="s">
+        <v>15</v>
+      </c>
+      <c r="L170" t="s">
+        <v>2</v>
+      </c>
+      <c r="M170" t="s">
+        <v>2</v>
+      </c>
+      <c r="N170" t="s">
+        <v>2</v>
+      </c>
+      <c r="O170" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B171" t="s">
         <v>216</v>
       </c>
-      <c r="C151" t="s">
+      <c r="C171" t="s">
         <v>105</v>
       </c>
-      <c r="D151" t="s">
-        <v>2</v>
-      </c>
-      <c r="E151" t="s">
-        <v>2</v>
-      </c>
-      <c r="F151" t="s">
+      <c r="D171" t="s">
+        <v>2</v>
+      </c>
+      <c r="E171" t="s">
+        <v>2</v>
+      </c>
+      <c r="F171" t="s">
         <v>133</v>
       </c>
-      <c r="G151" t="s">
+      <c r="G171" t="s">
         <v>134</v>
       </c>
-      <c r="H151" t="s">
-        <v>2</v>
-      </c>
-      <c r="I151" t="s">
+      <c r="H171" t="s">
+        <v>2</v>
+      </c>
+      <c r="I171" t="s">
         <v>143</v>
       </c>
-      <c r="J151">
-        <v>1</v>
-      </c>
-      <c r="K151" t="s">
-        <v>15</v>
-      </c>
-      <c r="L151" t="s">
-        <v>2</v>
-      </c>
-      <c r="M151" t="s">
-        <v>2</v>
-      </c>
-      <c r="N151" t="s">
-        <v>2</v>
-      </c>
-      <c r="O151" t="s">
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171" t="s">
+        <v>15</v>
+      </c>
+      <c r="L171" t="s">
+        <v>2</v>
+      </c>
+      <c r="M171" t="s">
+        <v>2</v>
+      </c>
+      <c r="N171" t="s">
+        <v>2</v>
+      </c>
+      <c r="O171" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>0</v>
+      </c>
+      <c r="B172" t="s">
+        <v>218</v>
+      </c>
+      <c r="C172" t="s">
+        <v>105</v>
+      </c>
+      <c r="D172" t="s">
+        <v>2</v>
+      </c>
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172" t="s">
+        <v>244</v>
+      </c>
+      <c r="G172" t="s">
+        <v>2</v>
+      </c>
+      <c r="H172" t="s">
+        <v>265</v>
+      </c>
+      <c r="I172" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="J172" t="s">
+        <v>2</v>
+      </c>
+      <c r="K172" t="s">
+        <v>10</v>
+      </c>
+      <c r="L172" t="s">
+        <v>2</v>
+      </c>
+      <c r="M172" t="s">
+        <v>2</v>
+      </c>
+      <c r="N172" t="s">
+        <v>2</v>
+      </c>
+      <c r="O172" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>0</v>
+      </c>
+      <c r="B173" t="s">
+        <v>218</v>
+      </c>
+      <c r="C173" t="s">
+        <v>105</v>
+      </c>
+      <c r="D173" t="s">
+        <v>2</v>
+      </c>
+      <c r="E173" t="s">
+        <v>2</v>
+      </c>
+      <c r="F173" t="s">
+        <v>266</v>
+      </c>
+      <c r="G173" t="s">
+        <v>2</v>
+      </c>
+      <c r="H173" t="s">
+        <v>278</v>
+      </c>
+      <c r="I173" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173" t="s">
+        <v>15</v>
+      </c>
+      <c r="L173" t="s">
+        <v>2</v>
+      </c>
+      <c r="M173" t="s">
+        <v>2</v>
+      </c>
+      <c r="N173" t="s">
+        <v>2</v>
+      </c>
+      <c r="O173" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>0</v>
+      </c>
+      <c r="B174" t="s">
+        <v>218</v>
+      </c>
+      <c r="C174" t="s">
+        <v>105</v>
+      </c>
+      <c r="D174" t="s">
+        <v>2</v>
+      </c>
+      <c r="E174" t="s">
+        <v>2</v>
+      </c>
+      <c r="F174" t="s">
+        <v>266</v>
+      </c>
+      <c r="G174" t="s">
+        <v>2</v>
+      </c>
+      <c r="H174" t="s">
+        <v>267</v>
+      </c>
+      <c r="I174" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="J174">
+        <v>0</v>
+      </c>
+      <c r="K174" t="s">
+        <v>15</v>
+      </c>
+      <c r="L174" t="s">
+        <v>2</v>
+      </c>
+      <c r="M174" t="s">
+        <v>2</v>
+      </c>
+      <c r="N174" t="s">
+        <v>2</v>
+      </c>
+      <c r="O174" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>218</v>
+      </c>
+      <c r="C175" t="s">
+        <v>105</v>
+      </c>
+      <c r="D175" t="s">
+        <v>2</v>
+      </c>
+      <c r="E175" t="s">
+        <v>2</v>
+      </c>
+      <c r="F175" t="s">
+        <v>266</v>
+      </c>
+      <c r="G175" t="s">
+        <v>2</v>
+      </c>
+      <c r="H175" t="s">
+        <v>268</v>
+      </c>
+      <c r="I175" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175" t="s">
+        <v>15</v>
+      </c>
+      <c r="L175" t="s">
+        <v>2</v>
+      </c>
+      <c r="M175" t="s">
+        <v>2</v>
+      </c>
+      <c r="N175" t="s">
+        <v>2</v>
+      </c>
+      <c r="O175" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>0</v>
+      </c>
+      <c r="B176" t="s">
+        <v>218</v>
+      </c>
+      <c r="C176" t="s">
+        <v>105</v>
+      </c>
+      <c r="D176" t="s">
+        <v>2</v>
+      </c>
+      <c r="E176" t="s">
+        <v>2</v>
+      </c>
+      <c r="F176" t="s">
+        <v>266</v>
+      </c>
+      <c r="G176" t="s">
+        <v>2</v>
+      </c>
+      <c r="H176" t="s">
+        <v>269</v>
+      </c>
+      <c r="I176" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176" t="s">
+        <v>15</v>
+      </c>
+      <c r="L176" t="s">
+        <v>2</v>
+      </c>
+      <c r="M176" t="s">
+        <v>2</v>
+      </c>
+      <c r="N176" t="s">
+        <v>2</v>
+      </c>
+      <c r="O176" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>0</v>
+      </c>
+      <c r="B177" t="s">
+        <v>218</v>
+      </c>
+      <c r="C177" t="s">
+        <v>105</v>
+      </c>
+      <c r="D177" t="s">
+        <v>2</v>
+      </c>
+      <c r="E177" t="s">
+        <v>2</v>
+      </c>
+      <c r="F177" t="s">
+        <v>266</v>
+      </c>
+      <c r="G177" t="s">
+        <v>2</v>
+      </c>
+      <c r="H177" t="s">
+        <v>270</v>
+      </c>
+      <c r="I177" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177" t="s">
+        <v>15</v>
+      </c>
+      <c r="L177" t="s">
+        <v>2</v>
+      </c>
+      <c r="M177" t="s">
+        <v>2</v>
+      </c>
+      <c r="N177" t="s">
+        <v>2</v>
+      </c>
+      <c r="O177" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>0</v>
+      </c>
+      <c r="B178" t="s">
+        <v>218</v>
+      </c>
+      <c r="C178" t="s">
+        <v>105</v>
+      </c>
+      <c r="D178" t="s">
+        <v>2</v>
+      </c>
+      <c r="E178" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" t="s">
+        <v>266</v>
+      </c>
+      <c r="G178" t="s">
+        <v>2</v>
+      </c>
+      <c r="H178" t="s">
+        <v>271</v>
+      </c>
+      <c r="I178" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178" t="s">
+        <v>15</v>
+      </c>
+      <c r="L178" t="s">
+        <v>2</v>
+      </c>
+      <c r="M178" t="s">
+        <v>2</v>
+      </c>
+      <c r="N178" t="s">
+        <v>2</v>
+      </c>
+      <c r="O178" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>0</v>
+      </c>
+      <c r="B179" t="s">
+        <v>218</v>
+      </c>
+      <c r="C179" t="s">
+        <v>105</v>
+      </c>
+      <c r="D179" t="s">
+        <v>2</v>
+      </c>
+      <c r="E179" t="s">
+        <v>2</v>
+      </c>
+      <c r="F179" t="s">
+        <v>266</v>
+      </c>
+      <c r="G179" t="s">
+        <v>2</v>
+      </c>
+      <c r="H179" t="s">
+        <v>272</v>
+      </c>
+      <c r="I179" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179" t="s">
+        <v>15</v>
+      </c>
+      <c r="L179" t="s">
+        <v>2</v>
+      </c>
+      <c r="M179" t="s">
+        <v>2</v>
+      </c>
+      <c r="N179" t="s">
+        <v>2</v>
+      </c>
+      <c r="O179" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>0</v>
+      </c>
+      <c r="B180" t="s">
+        <v>218</v>
+      </c>
+      <c r="C180" t="s">
+        <v>105</v>
+      </c>
+      <c r="D180" t="s">
+        <v>2</v>
+      </c>
+      <c r="E180" t="s">
+        <v>2</v>
+      </c>
+      <c r="F180" t="s">
+        <v>266</v>
+      </c>
+      <c r="G180" t="s">
+        <v>2</v>
+      </c>
+      <c r="H180" t="s">
+        <v>277</v>
+      </c>
+      <c r="I180" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180" t="s">
+        <v>15</v>
+      </c>
+      <c r="L180" t="s">
+        <v>2</v>
+      </c>
+      <c r="M180" t="s">
+        <v>2</v>
+      </c>
+      <c r="N180" t="s">
+        <v>2</v>
+      </c>
+      <c r="O180" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A181" t="s">
+        <v>0</v>
+      </c>
+      <c r="B181" t="s">
+        <v>218</v>
+      </c>
+      <c r="C181" t="s">
+        <v>105</v>
+      </c>
+      <c r="D181" t="s">
+        <v>2</v>
+      </c>
+      <c r="E181" t="s">
+        <v>2</v>
+      </c>
+      <c r="F181" t="s">
+        <v>266</v>
+      </c>
+      <c r="G181" t="s">
+        <v>2</v>
+      </c>
+      <c r="H181" t="s">
+        <v>273</v>
+      </c>
+      <c r="I181" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="J181">
+        <v>0</v>
+      </c>
+      <c r="K181" t="s">
+        <v>15</v>
+      </c>
+      <c r="L181" t="s">
+        <v>2</v>
+      </c>
+      <c r="M181" t="s">
+        <v>2</v>
+      </c>
+      <c r="N181" t="s">
+        <v>2</v>
+      </c>
+      <c r="O181" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B182" t="s">
+        <v>218</v>
+      </c>
+      <c r="C182" t="s">
+        <v>105</v>
+      </c>
+      <c r="D182" t="s">
+        <v>2</v>
+      </c>
+      <c r="E182" t="s">
+        <v>2</v>
+      </c>
+      <c r="F182" t="s">
+        <v>266</v>
+      </c>
+      <c r="G182" t="s">
+        <v>2</v>
+      </c>
+      <c r="H182" t="s">
+        <v>274</v>
+      </c>
+      <c r="I182" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182" t="s">
+        <v>15</v>
+      </c>
+      <c r="L182" t="s">
+        <v>2</v>
+      </c>
+      <c r="M182" t="s">
+        <v>2</v>
+      </c>
+      <c r="N182" t="s">
+        <v>2</v>
+      </c>
+      <c r="O182" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>0</v>
+      </c>
+      <c r="B183" t="s">
+        <v>218</v>
+      </c>
+      <c r="C183" t="s">
+        <v>105</v>
+      </c>
+      <c r="D183" t="s">
+        <v>2</v>
+      </c>
+      <c r="E183" t="s">
+        <v>2</v>
+      </c>
+      <c r="F183" t="s">
+        <v>266</v>
+      </c>
+      <c r="G183" t="s">
+        <v>2</v>
+      </c>
+      <c r="H183" t="s">
+        <v>275</v>
+      </c>
+      <c r="I183" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="J183">
+        <v>0</v>
+      </c>
+      <c r="K183" t="s">
+        <v>15</v>
+      </c>
+      <c r="L183" t="s">
+        <v>2</v>
+      </c>
+      <c r="M183" t="s">
+        <v>2</v>
+      </c>
+      <c r="N183" t="s">
+        <v>2</v>
+      </c>
+      <c r="O183" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>0</v>
+      </c>
+      <c r="B184" t="s">
+        <v>218</v>
+      </c>
+      <c r="C184" t="s">
+        <v>105</v>
+      </c>
+      <c r="D184" t="s">
+        <v>2</v>
+      </c>
+      <c r="E184" t="s">
+        <v>2</v>
+      </c>
+      <c r="F184" t="s">
+        <v>266</v>
+      </c>
+      <c r="G184" t="s">
+        <v>2</v>
+      </c>
+      <c r="H184" t="s">
+        <v>276</v>
+      </c>
+      <c r="I184" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J184">
+        <v>0</v>
+      </c>
+      <c r="K184" t="s">
+        <v>15</v>
+      </c>
+      <c r="L184" t="s">
+        <v>2</v>
+      </c>
+      <c r="M184" t="s">
+        <v>2</v>
+      </c>
+      <c r="N184" t="s">
+        <v>2</v>
+      </c>
+      <c r="O184" t="s">
         <v>2</v>
       </c>
     </row>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B112F753-EBB8-924B-9013-20C157761C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57BAE71-46C6-3745-8AB6-63D560E1824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4918" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="594">
   <si>
     <t>A1</t>
   </si>
@@ -783,9 +783,6 @@
     <t xml:space="preserve">turtle;spoon;water) </t>
   </si>
   <si>
-    <t>people;turtle;numbers</t>
-  </si>
-  <si>
     <t>We;You;They;You;You;They;You;It;He;It;She;I</t>
   </si>
   <si>
@@ -1780,6 +1777,51 @@
   </si>
   <si>
     <t>a1_day1_grammar_1</t>
+  </si>
+  <si>
+    <t>a1_day1_grammar_2</t>
+  </si>
+  <si>
+    <t>a1_day3_grammar_1</t>
+  </si>
+  <si>
+    <t>a1_day3_grammar_2</t>
+  </si>
+  <si>
+    <t>numbers;turtle;voice</t>
+  </si>
+  <si>
+    <t>yogurt;milk;olive</t>
+  </si>
+  <si>
+    <t>turtle;milk;spoon</t>
+  </si>
+  <si>
+    <t>a1_day4_test_1</t>
+  </si>
+  <si>
+    <t>a1_day4_test_2</t>
+  </si>
+  <si>
+    <t>a1_day4_test_3</t>
+  </si>
+  <si>
+    <t>a1_day4_test_4</t>
+  </si>
+  <si>
+    <t>a1_day4_test_5</t>
+  </si>
+  <si>
+    <t>a1_day4_test_6</t>
+  </si>
+  <si>
+    <t>a1_day4_test_7</t>
+  </si>
+  <si>
+    <t>a1_day4_test_8</t>
+  </si>
+  <si>
+    <t>a1_day4_test_9</t>
   </si>
 </sst>
 </file>
@@ -2171,8 +2213,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:P507"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H56" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="W67" sqref="W67"/>
+    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2206,7 +2248,7 @@
         <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
@@ -3006,7 +3048,7 @@
         <v>2</v>
       </c>
       <c r="H20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>151</v>
@@ -3056,7 +3098,7 @@
         <v>2</v>
       </c>
       <c r="H21" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>152</v>
@@ -3106,7 +3148,7 @@
         <v>2</v>
       </c>
       <c r="H22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>153</v>
@@ -3306,7 +3348,7 @@
         <v>158</v>
       </c>
       <c r="H26" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I26" t="s">
         <v>159</v>
@@ -3380,7 +3422,7 @@
         <v>2</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>2</v>
+        <v>579</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -3430,7 +3472,7 @@
         <v>2</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>2</v>
+        <v>579</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -4038,7 +4080,7 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C41" t="s">
         <v>1</v>
@@ -4065,7 +4107,7 @@
         <v>2</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L41" t="s">
         <v>2</v>
@@ -4088,7 +4130,7 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C42" t="s">
         <v>1</v>
@@ -4115,10 +4157,10 @@
         <v>2</v>
       </c>
       <c r="K42" t="s">
+        <v>274</v>
+      </c>
+      <c r="L42" t="s">
         <v>275</v>
-      </c>
-      <c r="L42" t="s">
-        <v>276</v>
       </c>
       <c r="M42" t="s">
         <v>2</v>
@@ -4138,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C43" t="s">
         <v>1</v>
@@ -4156,10 +4198,10 @@
         <v>2</v>
       </c>
       <c r="H43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4168,7 +4210,7 @@
         <v>15</v>
       </c>
       <c r="L43" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s">
         <v>2</v>
@@ -4188,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C44" t="s">
         <v>1</v>
@@ -4206,10 +4248,10 @@
         <v>2</v>
       </c>
       <c r="H44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4218,7 +4260,7 @@
         <v>15</v>
       </c>
       <c r="L44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M44" t="s">
         <v>2</v>
@@ -4238,7 +4280,7 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C45" t="s">
         <v>1</v>
@@ -4256,10 +4298,10 @@
         <v>2</v>
       </c>
       <c r="H45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4268,7 +4310,7 @@
         <v>15</v>
       </c>
       <c r="L45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M45" t="s">
         <v>2</v>
@@ -4288,7 +4330,7 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C46" t="s">
         <v>1</v>
@@ -4306,10 +4348,10 @@
         <v>2</v>
       </c>
       <c r="H46" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4318,7 +4360,7 @@
         <v>15</v>
       </c>
       <c r="L46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M46" t="s">
         <v>2</v>
@@ -4338,7 +4380,7 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C47" t="s">
         <v>1</v>
@@ -4356,10 +4398,10 @@
         <v>2</v>
       </c>
       <c r="H47" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4368,7 +4410,7 @@
         <v>15</v>
       </c>
       <c r="L47" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M47" t="s">
         <v>2</v>
@@ -4388,7 +4430,7 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C48" t="s">
         <v>1</v>
@@ -4406,10 +4448,10 @@
         <v>2</v>
       </c>
       <c r="H48" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4418,7 +4460,7 @@
         <v>15</v>
       </c>
       <c r="L48" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M48" t="s">
         <v>2</v>
@@ -4441,7 +4483,7 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C50" t="s">
         <v>1</v>
@@ -4468,10 +4510,10 @@
         <v>2</v>
       </c>
       <c r="K50" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L50" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M50" t="s">
         <v>2</v>
@@ -4491,7 +4533,7 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C51" t="s">
         <v>1</v>
@@ -4506,13 +4548,13 @@
         <v>2</v>
       </c>
       <c r="G51" t="s">
+        <v>289</v>
+      </c>
+      <c r="H51" t="s">
         <v>290</v>
       </c>
-      <c r="H51" t="s">
-        <v>291</v>
-      </c>
       <c r="I51" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4521,7 +4563,7 @@
         <v>15</v>
       </c>
       <c r="L51" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M51" t="s">
         <v>2</v>
@@ -4541,7 +4583,7 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C52" t="s">
         <v>1</v>
@@ -4556,13 +4598,13 @@
         <v>2</v>
       </c>
       <c r="G52" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H52" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4571,7 +4613,7 @@
         <v>15</v>
       </c>
       <c r="L52" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M52" t="s">
         <v>2</v>
@@ -4591,7 +4633,7 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C53" t="s">
         <v>1</v>
@@ -4606,13 +4648,13 @@
         <v>2</v>
       </c>
       <c r="G53" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H53" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -4621,7 +4663,7 @@
         <v>15</v>
       </c>
       <c r="L53" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M53" t="s">
         <v>2</v>
@@ -4641,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C54" t="s">
         <v>1</v>
@@ -4656,13 +4698,13 @@
         <v>2</v>
       </c>
       <c r="G54" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H54" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I54" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4671,7 +4713,7 @@
         <v>15</v>
       </c>
       <c r="L54" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M54" t="s">
         <v>2</v>
@@ -4691,7 +4733,7 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C55" t="s">
         <v>1</v>
@@ -4706,13 +4748,13 @@
         <v>2</v>
       </c>
       <c r="G55" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="H55" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4721,7 +4763,7 @@
         <v>15</v>
       </c>
       <c r="L55" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="M55" t="s">
         <v>2</v>
@@ -4741,7 +4783,7 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C57" t="s">
         <v>1</v>
@@ -4768,10 +4810,10 @@
         <v>2</v>
       </c>
       <c r="K57" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L57" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M57" t="s">
         <v>2</v>
@@ -4791,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C58" t="s">
         <v>1</v>
@@ -4809,19 +4851,19 @@
         <v>2</v>
       </c>
       <c r="H58" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="J58">
+        <v>2</v>
+      </c>
+      <c r="K58" t="s">
+        <v>15</v>
+      </c>
+      <c r="L58" t="s">
         <v>310</v>
-      </c>
-      <c r="J58">
-        <v>2</v>
-      </c>
-      <c r="K58" t="s">
-        <v>15</v>
-      </c>
-      <c r="L58" t="s">
-        <v>311</v>
       </c>
       <c r="M58" t="s">
         <v>2</v>
@@ -4841,7 +4883,7 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C59" t="s">
         <v>1</v>
@@ -4859,10 +4901,10 @@
         <v>2</v>
       </c>
       <c r="H59" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4871,7 +4913,7 @@
         <v>15</v>
       </c>
       <c r="L59" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M59" t="s">
         <v>2</v>
@@ -4891,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" t="s">
         <v>1</v>
@@ -4909,10 +4951,10 @@
         <v>2</v>
       </c>
       <c r="H60" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -4921,7 +4963,7 @@
         <v>15</v>
       </c>
       <c r="L60" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M60" t="s">
         <v>2</v>
@@ -4941,7 +4983,7 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C61" t="s">
         <v>1</v>
@@ -4959,10 +5001,10 @@
         <v>2</v>
       </c>
       <c r="H61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -4971,7 +5013,7 @@
         <v>15</v>
       </c>
       <c r="L61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M61" t="s">
         <v>2</v>
@@ -4991,7 +5033,7 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C62" t="s">
         <v>1</v>
@@ -5009,10 +5051,10 @@
         <v>2</v>
       </c>
       <c r="H62" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5021,7 +5063,7 @@
         <v>15</v>
       </c>
       <c r="L62" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M62" t="s">
         <v>2</v>
@@ -5044,7 +5086,7 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C64" t="s">
         <v>1</v>
@@ -5071,10 +5113,10 @@
         <v>2</v>
       </c>
       <c r="K64" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L64" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M64" t="s">
         <v>2</v>
@@ -5106,7 +5148,7 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C69" t="s">
         <v>1</v>
@@ -5133,10 +5175,10 @@
         <v>2</v>
       </c>
       <c r="K69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L69" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M69" t="s">
         <v>2</v>
@@ -5156,7 +5198,7 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C70" t="s">
         <v>1</v>
@@ -5174,10 +5216,10 @@
         <v>158</v>
       </c>
       <c r="H70" t="s">
+        <v>317</v>
+      </c>
+      <c r="I70" t="s">
         <v>318</v>
-      </c>
-      <c r="I70" t="s">
-        <v>319</v>
       </c>
       <c r="J70" t="s">
         <v>2</v>
@@ -5186,7 +5228,7 @@
         <v>10</v>
       </c>
       <c r="L70" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M70" t="s">
         <v>2</v>
@@ -5210,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C72" t="s">
         <v>1</v>
@@ -5237,10 +5279,10 @@
         <v>2</v>
       </c>
       <c r="K72" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L72" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M72" t="s">
         <v>2</v>
@@ -5260,7 +5302,7 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C73" t="s">
         <v>1</v>
@@ -5278,10 +5320,10 @@
         <v>2</v>
       </c>
       <c r="H73" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -5290,7 +5332,7 @@
         <v>15</v>
       </c>
       <c r="L73" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M73" t="s">
         <v>2</v>
@@ -5302,7 +5344,7 @@
         <v>2</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -5310,7 +5352,7 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C74" t="s">
         <v>1</v>
@@ -5328,10 +5370,10 @@
         <v>2</v>
       </c>
       <c r="H74" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5340,7 +5382,7 @@
         <v>15</v>
       </c>
       <c r="L74" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M74" t="s">
         <v>2</v>
@@ -5352,7 +5394,7 @@
         <v>2</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>2</v>
+        <v>578</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -5360,7 +5402,7 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C75" t="s">
         <v>1</v>
@@ -5378,7 +5420,7 @@
         <v>2</v>
       </c>
       <c r="H75" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>164</v>
@@ -5390,7 +5432,7 @@
         <v>15</v>
       </c>
       <c r="L75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M75" t="s">
         <v>2</v>
@@ -5402,7 +5444,7 @@
         <v>2</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>2</v>
+        <v>578</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -5410,7 +5452,7 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C76" t="s">
         <v>1</v>
@@ -5428,10 +5470,10 @@
         <v>2</v>
       </c>
       <c r="H76" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5440,7 +5482,7 @@
         <v>15</v>
       </c>
       <c r="L76" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="M76" t="s">
         <v>2</v>
@@ -5452,7 +5494,7 @@
         <v>2</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>2</v>
+        <v>579</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -5463,7 +5505,7 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C78" t="s">
         <v>1</v>
@@ -5490,10 +5532,10 @@
         <v>2</v>
       </c>
       <c r="K78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L78" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M78" t="s">
         <v>2</v>
@@ -5513,7 +5555,7 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C79" t="s">
         <v>1</v>
@@ -5531,10 +5573,10 @@
         <v>2</v>
       </c>
       <c r="H79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5543,7 +5585,7 @@
         <v>15</v>
       </c>
       <c r="L79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M79" t="s">
         <v>2</v>
@@ -5563,7 +5605,7 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C80" t="s">
         <v>1</v>
@@ -5581,10 +5623,10 @@
         <v>2</v>
       </c>
       <c r="H80" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -5593,7 +5635,7 @@
         <v>15</v>
       </c>
       <c r="L80" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M80" t="s">
         <v>2</v>
@@ -5613,7 +5655,7 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C81" t="s">
         <v>1</v>
@@ -5631,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="H81" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>167</v>
@@ -5643,7 +5685,7 @@
         <v>15</v>
       </c>
       <c r="L81" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M81" t="s">
         <v>2</v>
@@ -5663,7 +5705,7 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C82" t="s">
         <v>1</v>
@@ -5681,7 +5723,7 @@
         <v>2</v>
       </c>
       <c r="H82" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>170</v>
@@ -5693,7 +5735,7 @@
         <v>15</v>
       </c>
       <c r="L82" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M82" t="s">
         <v>2</v>
@@ -5713,7 +5755,7 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C83" t="s">
         <v>1</v>
@@ -5731,10 +5773,10 @@
         <v>2</v>
       </c>
       <c r="H83" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -5743,7 +5785,7 @@
         <v>15</v>
       </c>
       <c r="L83" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M83" t="s">
         <v>2</v>
@@ -6471,7 +6513,7 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C114" t="s">
         <v>16</v>
@@ -6498,10 +6540,10 @@
         <v>2</v>
       </c>
       <c r="K114" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L114" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M114" t="s">
         <v>2</v>
@@ -6521,7 +6563,7 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C115" t="s">
         <v>16</v>
@@ -6539,10 +6581,10 @@
         <v>2</v>
       </c>
       <c r="H115" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -6551,7 +6593,7 @@
         <v>15</v>
       </c>
       <c r="L115" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M115" t="s">
         <v>2</v>
@@ -6571,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C116" t="s">
         <v>16</v>
@@ -6589,10 +6631,10 @@
         <v>2</v>
       </c>
       <c r="H116" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6601,7 +6643,7 @@
         <v>15</v>
       </c>
       <c r="L116" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M116" t="s">
         <v>2</v>
@@ -6621,7 +6663,7 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C117" t="s">
         <v>16</v>
@@ -6639,10 +6681,10 @@
         <v>2</v>
       </c>
       <c r="H117" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6651,7 +6693,7 @@
         <v>15</v>
       </c>
       <c r="L117" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M117" t="s">
         <v>2</v>
@@ -6671,7 +6713,7 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C118" t="s">
         <v>16</v>
@@ -6689,10 +6731,10 @@
         <v>2</v>
       </c>
       <c r="H118" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6701,7 +6743,7 @@
         <v>15</v>
       </c>
       <c r="L118" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M118" t="s">
         <v>2</v>
@@ -6724,7 +6766,7 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C120" t="s">
         <v>16</v>
@@ -6751,10 +6793,10 @@
         <v>2</v>
       </c>
       <c r="K120" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L120" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M120" t="s">
         <v>2</v>
@@ -6774,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C121" t="s">
         <v>16</v>
@@ -6792,7 +6834,7 @@
         <v>2</v>
       </c>
       <c r="H121" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>2</v>
@@ -6804,7 +6846,7 @@
         <v>192</v>
       </c>
       <c r="L121" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M121" t="s">
         <v>2</v>
@@ -6824,7 +6866,7 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C122" t="s">
         <v>16</v>
@@ -6842,7 +6884,7 @@
         <v>2</v>
       </c>
       <c r="H122" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>2</v>
@@ -6854,7 +6896,7 @@
         <v>192</v>
       </c>
       <c r="L122" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M122" t="s">
         <v>2</v>
@@ -6874,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C124" t="s">
         <v>16</v>
@@ -6901,10 +6943,10 @@
         <v>2</v>
       </c>
       <c r="K124" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L124" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M124" t="s">
         <v>2</v>
@@ -6924,7 +6966,7 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C125" t="s">
         <v>16</v>
@@ -6942,7 +6984,7 @@
         <v>2</v>
       </c>
       <c r="H125" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>2</v>
@@ -6954,7 +6996,7 @@
         <v>192</v>
       </c>
       <c r="L125" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M125" t="s">
         <v>2</v>
@@ -6974,7 +7016,7 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C126" t="s">
         <v>16</v>
@@ -6992,7 +7034,7 @@
         <v>2</v>
       </c>
       <c r="H126" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>2</v>
@@ -7004,7 +7046,7 @@
         <v>192</v>
       </c>
       <c r="L126" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="M126" t="s">
         <v>2</v>
@@ -7024,7 +7066,7 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C128" t="s">
         <v>16</v>
@@ -7051,10 +7093,10 @@
         <v>2</v>
       </c>
       <c r="K128" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L128" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M128" t="s">
         <v>2</v>
@@ -7074,7 +7116,7 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C129" t="s">
         <v>16</v>
@@ -7092,7 +7134,7 @@
         <v>2</v>
       </c>
       <c r="H129" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>2</v>
@@ -7104,7 +7146,7 @@
         <v>192</v>
       </c>
       <c r="L129" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M129" t="s">
         <v>2</v>
@@ -7124,7 +7166,7 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C130" t="s">
         <v>16</v>
@@ -7142,7 +7184,7 @@
         <v>2</v>
       </c>
       <c r="H130" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>2</v>
@@ -7154,7 +7196,7 @@
         <v>192</v>
       </c>
       <c r="L130" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M130" t="s">
         <v>2</v>
@@ -7174,7 +7216,7 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C132" t="s">
         <v>16</v>
@@ -7201,10 +7243,10 @@
         <v>2</v>
       </c>
       <c r="K132" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L132" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M132" t="s">
         <v>2</v>
@@ -7224,7 +7266,7 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C133" t="s">
         <v>16</v>
@@ -7242,7 +7284,7 @@
         <v>2</v>
       </c>
       <c r="H133" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>2</v>
@@ -7254,7 +7296,7 @@
         <v>192</v>
       </c>
       <c r="L133" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M133" t="s">
         <v>2</v>
@@ -7274,7 +7316,7 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C134" t="s">
         <v>16</v>
@@ -7292,7 +7334,7 @@
         <v>2</v>
       </c>
       <c r="H134" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>2</v>
@@ -7304,7 +7346,7 @@
         <v>192</v>
       </c>
       <c r="L134" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M134" t="s">
         <v>2</v>
@@ -7327,7 +7369,7 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C136" t="s">
         <v>16</v>
@@ -7354,10 +7396,10 @@
         <v>2</v>
       </c>
       <c r="K136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L136" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M136" t="s">
         <v>2</v>
@@ -7377,7 +7419,7 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C137" t="s">
         <v>16</v>
@@ -7395,7 +7437,7 @@
         <v>2</v>
       </c>
       <c r="H137" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>2</v>
@@ -7407,7 +7449,7 @@
         <v>192</v>
       </c>
       <c r="L137" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M137" t="s">
         <v>2</v>
@@ -7427,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C138" t="s">
         <v>16</v>
@@ -7445,7 +7487,7 @@
         <v>2</v>
       </c>
       <c r="H138" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>2</v>
@@ -7457,7 +7499,7 @@
         <v>192</v>
       </c>
       <c r="L138" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M138" t="s">
         <v>2</v>
@@ -7481,7 +7523,7 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C140" t="s">
         <v>16</v>
@@ -7508,10 +7550,10 @@
         <v>2</v>
       </c>
       <c r="K140" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L140" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M140" t="s">
         <v>2</v>
@@ -7531,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C141" t="s">
         <v>16</v>
@@ -7549,7 +7591,7 @@
         <v>2</v>
       </c>
       <c r="H141" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>2</v>
@@ -7561,7 +7603,7 @@
         <v>192</v>
       </c>
       <c r="L141" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M141" t="s">
         <v>2</v>
@@ -7581,7 +7623,7 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C142" t="s">
         <v>16</v>
@@ -7599,7 +7641,7 @@
         <v>2</v>
       </c>
       <c r="H142" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>2</v>
@@ -7611,7 +7653,7 @@
         <v>192</v>
       </c>
       <c r="L142" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="M142" t="s">
         <v>2</v>
@@ -7635,7 +7677,7 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C144" t="s">
         <v>16</v>
@@ -7662,10 +7704,10 @@
         <v>2</v>
       </c>
       <c r="K144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L144" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M144" t="s">
         <v>2</v>
@@ -7685,7 +7727,7 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C145" t="s">
         <v>16</v>
@@ -7703,7 +7745,7 @@
         <v>2</v>
       </c>
       <c r="H145" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>2</v>
@@ -7715,7 +7757,7 @@
         <v>192</v>
       </c>
       <c r="L145" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M145" t="s">
         <v>2</v>
@@ -7735,7 +7777,7 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C146" t="s">
         <v>16</v>
@@ -7753,7 +7795,7 @@
         <v>2</v>
       </c>
       <c r="H146" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>2</v>
@@ -7765,7 +7807,7 @@
         <v>192</v>
       </c>
       <c r="L146" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="M146" t="s">
         <v>2</v>
@@ -7790,7 +7832,7 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C148" t="s">
         <v>16</v>
@@ -7817,10 +7859,10 @@
         <v>2</v>
       </c>
       <c r="K148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L148" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M148" t="s">
         <v>2</v>
@@ -7840,7 +7882,7 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C149" t="s">
         <v>16</v>
@@ -7858,7 +7900,7 @@
         <v>2</v>
       </c>
       <c r="H149" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>2</v>
@@ -7870,7 +7912,7 @@
         <v>192</v>
       </c>
       <c r="L149" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M149" t="s">
         <v>2</v>
@@ -7890,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C150" t="s">
         <v>16</v>
@@ -7908,7 +7950,7 @@
         <v>2</v>
       </c>
       <c r="H150" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>2</v>
@@ -7920,7 +7962,7 @@
         <v>192</v>
       </c>
       <c r="L150" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="M150" t="s">
         <v>2</v>
@@ -7940,7 +7982,7 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C152" t="s">
         <v>16</v>
@@ -7967,10 +8009,10 @@
         <v>2</v>
       </c>
       <c r="K152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L152" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M152" t="s">
         <v>2</v>
@@ -7990,7 +8032,7 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C153" t="s">
         <v>16</v>
@@ -8008,7 +8050,7 @@
         <v>2</v>
       </c>
       <c r="H153" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>2</v>
@@ -8020,7 +8062,7 @@
         <v>192</v>
       </c>
       <c r="L153" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M153" t="s">
         <v>2</v>
@@ -8040,7 +8082,7 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C154" t="s">
         <v>16</v>
@@ -8058,7 +8100,7 @@
         <v>2</v>
       </c>
       <c r="H154" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>2</v>
@@ -8070,7 +8112,7 @@
         <v>192</v>
       </c>
       <c r="L154" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="M154" t="s">
         <v>2</v>
@@ -8090,7 +8132,7 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C156" t="s">
         <v>16</v>
@@ -8117,10 +8159,10 @@
         <v>2</v>
       </c>
       <c r="K156" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L156" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M156" t="s">
         <v>2</v>
@@ -8140,7 +8182,7 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C157" t="s">
         <v>16</v>
@@ -8158,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="H157" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>2</v>
@@ -8170,7 +8212,7 @@
         <v>192</v>
       </c>
       <c r="L157" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M157" t="s">
         <v>2</v>
@@ -8190,7 +8232,7 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C158" t="s">
         <v>16</v>
@@ -8208,7 +8250,7 @@
         <v>2</v>
       </c>
       <c r="H158" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>2</v>
@@ -8220,7 +8262,7 @@
         <v>192</v>
       </c>
       <c r="L158" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="M158" t="s">
         <v>2</v>
@@ -8243,7 +8285,7 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C160" t="s">
         <v>16</v>
@@ -8270,10 +8312,10 @@
         <v>2</v>
       </c>
       <c r="K160" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L160" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M160" t="s">
         <v>2</v>
@@ -8293,7 +8335,7 @@
         <v>0</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C161" t="s">
         <v>16</v>
@@ -8311,7 +8353,7 @@
         <v>2</v>
       </c>
       <c r="H161" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>2</v>
@@ -8323,7 +8365,7 @@
         <v>192</v>
       </c>
       <c r="L161" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M161" t="s">
         <v>2</v>
@@ -8343,7 +8385,7 @@
         <v>0</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C162" t="s">
         <v>16</v>
@@ -8361,7 +8403,7 @@
         <v>2</v>
       </c>
       <c r="H162" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>2</v>
@@ -8373,7 +8415,7 @@
         <v>192</v>
       </c>
       <c r="L162" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="M162" t="s">
         <v>2</v>
@@ -8396,7 +8438,7 @@
         <v>0</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C164" t="s">
         <v>16</v>
@@ -8423,10 +8465,10 @@
         <v>2</v>
       </c>
       <c r="K164" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L164" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M164" t="s">
         <v>2</v>
@@ -8446,7 +8488,7 @@
         <v>0</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C165" t="s">
         <v>16</v>
@@ -8464,7 +8506,7 @@
         <v>2</v>
       </c>
       <c r="H165" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>2</v>
@@ -8476,7 +8518,7 @@
         <v>192</v>
       </c>
       <c r="L165" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M165" t="s">
         <v>2</v>
@@ -8496,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C166" t="s">
         <v>16</v>
@@ -8514,7 +8556,7 @@
         <v>2</v>
       </c>
       <c r="H166" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>2</v>
@@ -8526,7 +8568,7 @@
         <v>192</v>
       </c>
       <c r="L166" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="M166" t="s">
         <v>2</v>
@@ -8549,7 +8591,7 @@
         <v>0</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C168" t="s">
         <v>16</v>
@@ -8567,7 +8609,7 @@
         <v>2</v>
       </c>
       <c r="H168" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>2</v>
@@ -8579,7 +8621,7 @@
         <v>192</v>
       </c>
       <c r="L168" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M168" t="s">
         <v>2</v>
@@ -10515,7 +10557,7 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C249" t="s">
         <v>20</v>
@@ -10542,10 +10584,10 @@
         <v>2</v>
       </c>
       <c r="K249" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L249" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M249" t="s">
         <v>2</v>
@@ -10565,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C250" t="s">
         <v>20</v>
@@ -10592,10 +10634,10 @@
         <v>2</v>
       </c>
       <c r="K250" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L250" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M250" t="s">
         <v>2</v>
@@ -10615,7 +10657,7 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C251" t="s">
         <v>20</v>
@@ -10633,10 +10675,10 @@
         <v>2</v>
       </c>
       <c r="H251" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="I251" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J251">
         <v>2</v>
@@ -10645,7 +10687,7 @@
         <v>15</v>
       </c>
       <c r="L251" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M251" t="s">
         <v>2</v>
@@ -10657,7 +10699,7 @@
         <v>2</v>
       </c>
       <c r="P251" t="s">
-        <v>2</v>
+        <v>580</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -10665,7 +10707,7 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C252" t="s">
         <v>20</v>
@@ -10686,7 +10728,7 @@
         <v>213</v>
       </c>
       <c r="I252" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J252">
         <v>2</v>
@@ -10695,7 +10737,7 @@
         <v>15</v>
       </c>
       <c r="L252" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M252" t="s">
         <v>2</v>
@@ -10715,7 +10757,7 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C253" t="s">
         <v>20</v>
@@ -10733,10 +10775,10 @@
         <v>2</v>
       </c>
       <c r="H253" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="I253" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="J253">
         <v>1</v>
@@ -10745,7 +10787,7 @@
         <v>15</v>
       </c>
       <c r="L253" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M253" t="s">
         <v>2</v>
@@ -10765,7 +10807,7 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C254" t="s">
         <v>20</v>
@@ -10783,10 +10825,10 @@
         <v>2</v>
       </c>
       <c r="H254" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I254" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -10795,7 +10837,7 @@
         <v>15</v>
       </c>
       <c r="L254" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M254" t="s">
         <v>2</v>
@@ -10807,7 +10849,7 @@
         <v>2</v>
       </c>
       <c r="P254" t="s">
-        <v>2</v>
+        <v>581</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
@@ -10815,7 +10857,7 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C255" t="s">
         <v>20</v>
@@ -10833,10 +10875,10 @@
         <v>2</v>
       </c>
       <c r="H255" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I255" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -10845,7 +10887,7 @@
         <v>15</v>
       </c>
       <c r="L255" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M255" t="s">
         <v>2</v>
@@ -10865,7 +10907,7 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C256" t="s">
         <v>20</v>
@@ -10883,10 +10925,10 @@
         <v>2</v>
       </c>
       <c r="H256" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I256" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="J256">
         <v>2</v>
@@ -10895,7 +10937,7 @@
         <v>15</v>
       </c>
       <c r="L256" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M256" t="s">
         <v>2</v>
@@ -10915,7 +10957,7 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C257" t="s">
         <v>20</v>
@@ -10933,10 +10975,10 @@
         <v>2</v>
       </c>
       <c r="H257" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I257" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -10945,7 +10987,7 @@
         <v>15</v>
       </c>
       <c r="L257" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M257" t="s">
         <v>2</v>
@@ -10965,7 +11007,7 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C258" t="s">
         <v>20</v>
@@ -10983,10 +11025,10 @@
         <v>2</v>
       </c>
       <c r="H258" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="I258" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -10995,7 +11037,7 @@
         <v>15</v>
       </c>
       <c r="L258" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M258" t="s">
         <v>2</v>
@@ -11015,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C259" t="s">
         <v>20</v>
@@ -11033,10 +11075,10 @@
         <v>2</v>
       </c>
       <c r="H259" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="I259" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J259">
         <v>2</v>
@@ -11045,7 +11087,7 @@
         <v>15</v>
       </c>
       <c r="L259" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M259" t="s">
         <v>2</v>
@@ -11065,7 +11107,7 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C260" t="s">
         <v>20</v>
@@ -11083,10 +11125,10 @@
         <v>2</v>
       </c>
       <c r="H260" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="I260" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J260">
         <v>2</v>
@@ -11095,7 +11137,7 @@
         <v>15</v>
       </c>
       <c r="L260" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M260" t="s">
         <v>2</v>
@@ -11115,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C263" t="s">
         <v>20</v>
@@ -11142,10 +11184,10 @@
         <v>2</v>
       </c>
       <c r="K263" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L263" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M263" t="s">
         <v>2</v>
@@ -11165,7 +11207,7 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C264" t="s">
         <v>20</v>
@@ -11192,10 +11234,10 @@
         <v>2</v>
       </c>
       <c r="K264" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L264" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M264" t="s">
         <v>2</v>
@@ -11215,7 +11257,7 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C265" t="s">
         <v>20</v>
@@ -11233,10 +11275,10 @@
         <v>2</v>
       </c>
       <c r="H265" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="I265" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -11245,7 +11287,7 @@
         <v>15</v>
       </c>
       <c r="L265" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M265" t="s">
         <v>2</v>
@@ -11265,7 +11307,7 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C266" t="s">
         <v>20</v>
@@ -11283,10 +11325,10 @@
         <v>2</v>
       </c>
       <c r="H266" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I266" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="J266">
         <v>1</v>
@@ -11295,7 +11337,7 @@
         <v>15</v>
       </c>
       <c r="L266" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M266" t="s">
         <v>2</v>
@@ -11315,7 +11357,7 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C267" t="s">
         <v>20</v>
@@ -11333,10 +11375,10 @@
         <v>2</v>
       </c>
       <c r="H267" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I267" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="J267">
         <v>1</v>
@@ -11345,7 +11387,7 @@
         <v>15</v>
       </c>
       <c r="L267" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M267" t="s">
         <v>2</v>
@@ -11365,7 +11407,7 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C268" t="s">
         <v>20</v>
@@ -11383,10 +11425,10 @@
         <v>2</v>
       </c>
       <c r="H268" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="I268" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -11395,7 +11437,7 @@
         <v>15</v>
       </c>
       <c r="L268" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M268" t="s">
         <v>2</v>
@@ -11415,7 +11457,7 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C269" t="s">
         <v>20</v>
@@ -11433,10 +11475,10 @@
         <v>2</v>
       </c>
       <c r="H269" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I269" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -11445,7 +11487,7 @@
         <v>15</v>
       </c>
       <c r="L269" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M269" t="s">
         <v>2</v>
@@ -11465,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C270" t="s">
         <v>20</v>
@@ -11483,19 +11525,19 @@
         <v>2</v>
       </c>
       <c r="H270" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="I270" t="s">
+        <v>400</v>
+      </c>
+      <c r="J270">
+        <v>0</v>
+      </c>
+      <c r="K270" t="s">
+        <v>15</v>
+      </c>
+      <c r="L270" t="s">
         <v>401</v>
-      </c>
-      <c r="J270">
-        <v>0</v>
-      </c>
-      <c r="K270" t="s">
-        <v>15</v>
-      </c>
-      <c r="L270" t="s">
-        <v>402</v>
       </c>
       <c r="M270" t="s">
         <v>2</v>
@@ -11515,7 +11557,7 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C271" t="s">
         <v>20</v>
@@ -11533,10 +11575,10 @@
         <v>2</v>
       </c>
       <c r="H271" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I271" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -11545,7 +11587,7 @@
         <v>15</v>
       </c>
       <c r="L271" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M271" t="s">
         <v>2</v>
@@ -11565,7 +11607,7 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C272" t="s">
         <v>20</v>
@@ -11583,10 +11625,10 @@
         <v>2</v>
       </c>
       <c r="H272" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I272" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -11595,7 +11637,7 @@
         <v>15</v>
       </c>
       <c r="L272" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M272" t="s">
         <v>2</v>
@@ -11615,7 +11657,7 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C273" t="s">
         <v>20</v>
@@ -11633,10 +11675,10 @@
         <v>2</v>
       </c>
       <c r="H273" t="s">
+        <v>415</v>
+      </c>
+      <c r="I273" t="s">
         <v>416</v>
-      </c>
-      <c r="I273" t="s">
-        <v>417</v>
       </c>
       <c r="J273">
         <v>1</v>
@@ -11645,7 +11687,7 @@
         <v>15</v>
       </c>
       <c r="L273" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M273" t="s">
         <v>2</v>
@@ -11665,7 +11707,7 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C274" t="s">
         <v>20</v>
@@ -11683,10 +11725,10 @@
         <v>2</v>
       </c>
       <c r="H274" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="I274" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -11695,7 +11737,7 @@
         <v>15</v>
       </c>
       <c r="L274" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M274" t="s">
         <v>2</v>
@@ -11715,7 +11757,7 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C276" t="s">
         <v>20</v>
@@ -11742,10 +11784,10 @@
         <v>2</v>
       </c>
       <c r="K276" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L276" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="M276" t="s">
         <v>2</v>
@@ -11765,7 +11807,7 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C277" t="s">
         <v>20</v>
@@ -11783,10 +11825,10 @@
         <v>2</v>
       </c>
       <c r="H277" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I277" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11795,7 +11837,7 @@
         <v>15</v>
       </c>
       <c r="L277" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M277" t="s">
         <v>2</v>
@@ -11815,7 +11857,7 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C278" t="s">
         <v>20</v>
@@ -11836,7 +11878,7 @@
         <v>233</v>
       </c>
       <c r="I278" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -11845,7 +11887,7 @@
         <v>15</v>
       </c>
       <c r="L278" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M278" t="s">
         <v>2</v>
@@ -11865,7 +11907,7 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C279" t="s">
         <v>20</v>
@@ -11883,10 +11925,10 @@
         <v>2</v>
       </c>
       <c r="H279" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I279" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -11895,7 +11937,7 @@
         <v>15</v>
       </c>
       <c r="L279" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M279" t="s">
         <v>2</v>
@@ -11915,7 +11957,7 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C280" t="s">
         <v>20</v>
@@ -11936,7 +11978,7 @@
         <v>234</v>
       </c>
       <c r="I280" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -11945,7 +11987,7 @@
         <v>15</v>
       </c>
       <c r="L280" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M280" t="s">
         <v>2</v>
@@ -11965,7 +12007,7 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C281" t="s">
         <v>20</v>
@@ -11983,10 +12025,10 @@
         <v>2</v>
       </c>
       <c r="H281" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="I281" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J281">
         <v>2</v>
@@ -11995,7 +12037,7 @@
         <v>15</v>
       </c>
       <c r="L281" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M281" t="s">
         <v>2</v>
@@ -12015,7 +12057,7 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C282" t="s">
         <v>20</v>
@@ -12036,7 +12078,7 @@
         <v>232</v>
       </c>
       <c r="I282" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="J282">
         <v>1</v>
@@ -12045,7 +12087,7 @@
         <v>15</v>
       </c>
       <c r="L282" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M282" t="s">
         <v>2</v>
@@ -12065,7 +12107,7 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C283" t="s">
         <v>20</v>
@@ -12083,10 +12125,10 @@
         <v>2</v>
       </c>
       <c r="H283" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I283" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J283">
         <v>1</v>
@@ -12095,7 +12137,7 @@
         <v>15</v>
       </c>
       <c r="L283" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M283" t="s">
         <v>2</v>
@@ -12115,7 +12157,7 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C284" t="s">
         <v>20</v>
@@ -12133,10 +12175,10 @@
         <v>2</v>
       </c>
       <c r="H284" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="I284" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="J284">
         <v>1</v>
@@ -12145,7 +12187,7 @@
         <v>15</v>
       </c>
       <c r="L284" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M284" t="s">
         <v>2</v>
@@ -12165,7 +12207,7 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C285" t="s">
         <v>20</v>
@@ -12183,10 +12225,10 @@
         <v>2</v>
       </c>
       <c r="H285" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="I285" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="J285">
         <v>1</v>
@@ -12195,7 +12237,7 @@
         <v>15</v>
       </c>
       <c r="L285" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M285" t="s">
         <v>2</v>
@@ -12215,7 +12257,7 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C286" t="s">
         <v>20</v>
@@ -12233,10 +12275,10 @@
         <v>2</v>
       </c>
       <c r="H286" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="I286" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -12245,7 +12287,7 @@
         <v>15</v>
       </c>
       <c r="L286" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M286" t="s">
         <v>2</v>
@@ -12265,7 +12307,7 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C288" t="s">
         <v>20</v>
@@ -12292,10 +12334,10 @@
         <v>2</v>
       </c>
       <c r="K288" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L288" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="M288" t="s">
         <v>2</v>
@@ -12315,7 +12357,7 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C289" t="s">
         <v>20</v>
@@ -12333,10 +12375,10 @@
         <v>2</v>
       </c>
       <c r="H289" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="I289" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -12345,7 +12387,7 @@
         <v>15</v>
       </c>
       <c r="L289" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M289" t="s">
         <v>2</v>
@@ -12365,7 +12407,7 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C290" t="s">
         <v>20</v>
@@ -12383,10 +12425,10 @@
         <v>2</v>
       </c>
       <c r="H290" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I290" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J290">
         <v>1</v>
@@ -12395,7 +12437,7 @@
         <v>15</v>
       </c>
       <c r="L290" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M290" t="s">
         <v>2</v>
@@ -12415,7 +12457,7 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C291" t="s">
         <v>20</v>
@@ -12433,10 +12475,10 @@
         <v>2</v>
       </c>
       <c r="H291" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I291" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12445,7 +12487,7 @@
         <v>15</v>
       </c>
       <c r="L291" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M291" t="s">
         <v>2</v>
@@ -12465,7 +12507,7 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C292" t="s">
         <v>20</v>
@@ -12483,10 +12525,10 @@
         <v>2</v>
       </c>
       <c r="H292" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="I292" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -12495,7 +12537,7 @@
         <v>15</v>
       </c>
       <c r="L292" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M292" t="s">
         <v>2</v>
@@ -12515,7 +12557,7 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C293" t="s">
         <v>20</v>
@@ -12533,10 +12575,10 @@
         <v>2</v>
       </c>
       <c r="H293" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="I293" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J293">
         <v>1</v>
@@ -12545,7 +12587,7 @@
         <v>15</v>
       </c>
       <c r="L293" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M293" t="s">
         <v>2</v>
@@ -12565,7 +12607,7 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C294" t="s">
         <v>20</v>
@@ -12583,10 +12625,10 @@
         <v>2</v>
       </c>
       <c r="H294" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="I294" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -12595,7 +12637,7 @@
         <v>15</v>
       </c>
       <c r="L294" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M294" t="s">
         <v>2</v>
@@ -12615,7 +12657,7 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C295" t="s">
         <v>20</v>
@@ -12633,10 +12675,10 @@
         <v>2</v>
       </c>
       <c r="H295" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="I295" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="J295">
         <v>2</v>
@@ -12645,7 +12687,7 @@
         <v>15</v>
       </c>
       <c r="L295" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M295" t="s">
         <v>2</v>
@@ -12665,7 +12707,7 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C296" t="s">
         <v>20</v>
@@ -12683,10 +12725,10 @@
         <v>2</v>
       </c>
       <c r="H296" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="I296" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="J296">
         <v>1</v>
@@ -12695,7 +12737,7 @@
         <v>15</v>
       </c>
       <c r="L296" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M296" t="s">
         <v>2</v>
@@ -12715,7 +12757,7 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C297" t="s">
         <v>20</v>
@@ -12733,10 +12775,10 @@
         <v>2</v>
       </c>
       <c r="H297" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I297" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -12745,7 +12787,7 @@
         <v>15</v>
       </c>
       <c r="L297" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M297" t="s">
         <v>2</v>
@@ -12758,6 +12800,106 @@
       </c>
       <c r="P297" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>0</v>
+      </c>
+      <c r="B335" t="s">
+        <v>210</v>
+      </c>
+      <c r="C335" t="s">
+        <v>100</v>
+      </c>
+      <c r="D335" t="s">
+        <v>2</v>
+      </c>
+      <c r="E335" t="s">
+        <v>2</v>
+      </c>
+      <c r="F335" t="s">
+        <v>240</v>
+      </c>
+      <c r="G335" t="s">
+        <v>2</v>
+      </c>
+      <c r="H335" t="s">
+        <v>2</v>
+      </c>
+      <c r="I335" t="s">
+        <v>584</v>
+      </c>
+      <c r="J335">
+        <v>1</v>
+      </c>
+      <c r="K335" t="s">
+        <v>15</v>
+      </c>
+      <c r="L335" t="s">
+        <v>2</v>
+      </c>
+      <c r="M335" t="s">
+        <v>2</v>
+      </c>
+      <c r="N335" t="s">
+        <v>2</v>
+      </c>
+      <c r="O335" t="s">
+        <v>2</v>
+      </c>
+      <c r="P335" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A336" t="s">
+        <v>0</v>
+      </c>
+      <c r="B336" t="s">
+        <v>210</v>
+      </c>
+      <c r="C336" t="s">
+        <v>100</v>
+      </c>
+      <c r="D336" t="s">
+        <v>2</v>
+      </c>
+      <c r="E336" t="s">
+        <v>2</v>
+      </c>
+      <c r="F336" t="s">
+        <v>240</v>
+      </c>
+      <c r="G336" t="s">
+        <v>2</v>
+      </c>
+      <c r="H336" t="s">
+        <v>2</v>
+      </c>
+      <c r="I336" t="s">
+        <v>583</v>
+      </c>
+      <c r="J336">
+        <v>2</v>
+      </c>
+      <c r="K336" t="s">
+        <v>15</v>
+      </c>
+      <c r="L336" t="s">
+        <v>2</v>
+      </c>
+      <c r="M336" t="s">
+        <v>2</v>
+      </c>
+      <c r="N336" t="s">
+        <v>2</v>
+      </c>
+      <c r="O336" t="s">
+        <v>2</v>
+      </c>
+      <c r="P336" t="s">
+        <v>586</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
@@ -12786,10 +12928,10 @@
         <v>2</v>
       </c>
       <c r="I337" t="s">
-        <v>247</v>
+        <v>582</v>
       </c>
       <c r="J337">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K337" t="s">
         <v>15</v>
@@ -12807,7 +12949,7 @@
         <v>2</v>
       </c>
       <c r="P337" t="s">
-        <v>2</v>
+        <v>587</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -12857,7 +12999,7 @@
         <v>2</v>
       </c>
       <c r="P338" t="s">
-        <v>2</v>
+        <v>588</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
@@ -12907,7 +13049,7 @@
         <v>2</v>
       </c>
       <c r="P339" t="s">
-        <v>2</v>
+        <v>589</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
@@ -12957,7 +13099,7 @@
         <v>2</v>
       </c>
       <c r="P340" t="s">
-        <v>2</v>
+        <v>590</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -13007,7 +13149,7 @@
         <v>2</v>
       </c>
       <c r="P341" t="s">
-        <v>2</v>
+        <v>591</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
@@ -13057,7 +13199,7 @@
         <v>2</v>
       </c>
       <c r="P342" t="s">
-        <v>2</v>
+        <v>592</v>
       </c>
     </row>
     <row r="343" spans="1:16" x14ac:dyDescent="0.2">
@@ -13107,7 +13249,7 @@
         <v>2</v>
       </c>
       <c r="P343" t="s">
-        <v>2</v>
+        <v>593</v>
       </c>
     </row>
     <row r="345" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -13115,7 +13257,7 @@
         <v>0</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C345" t="s">
         <v>100</v>
@@ -13142,10 +13284,10 @@
         <v>2</v>
       </c>
       <c r="K345" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L345" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M345" t="s">
         <v>2</v>
@@ -13165,7 +13307,7 @@
         <v>0</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C346" t="s">
         <v>100</v>
@@ -13183,7 +13325,7 @@
         <v>2</v>
       </c>
       <c r="H346" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="I346" s="2" t="s">
         <v>2</v>
@@ -13195,7 +13337,7 @@
         <v>192</v>
       </c>
       <c r="L346" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M346" t="s">
         <v>2</v>
@@ -13215,7 +13357,7 @@
         <v>0</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C347" t="s">
         <v>100</v>
@@ -13233,7 +13375,7 @@
         <v>2</v>
       </c>
       <c r="H347" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>2</v>
@@ -13245,7 +13387,7 @@
         <v>192</v>
       </c>
       <c r="L347" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="M347" t="s">
         <v>2</v>
@@ -13265,7 +13407,7 @@
         <v>0</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C349" t="s">
         <v>100</v>
@@ -13292,10 +13434,10 @@
         <v>2</v>
       </c>
       <c r="K349" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L349" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M349" t="s">
         <v>2</v>
@@ -13315,7 +13457,7 @@
         <v>0</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C350" t="s">
         <v>100</v>
@@ -13333,7 +13475,7 @@
         <v>2</v>
       </c>
       <c r="H350" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>2</v>
@@ -13345,7 +13487,7 @@
         <v>192</v>
       </c>
       <c r="L350" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M350" t="s">
         <v>2</v>
@@ -13365,7 +13507,7 @@
         <v>0</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C351" t="s">
         <v>100</v>
@@ -13383,7 +13525,7 @@
         <v>2</v>
       </c>
       <c r="H351" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="I351" s="2" t="s">
         <v>2</v>
@@ -13395,7 +13537,7 @@
         <v>192</v>
       </c>
       <c r="L351" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M351" t="s">
         <v>2</v>
@@ -13415,7 +13557,7 @@
         <v>0</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C353" t="s">
         <v>100</v>
@@ -13442,10 +13584,10 @@
         <v>2</v>
       </c>
       <c r="K353" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L353" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M353" t="s">
         <v>2</v>
@@ -13465,7 +13607,7 @@
         <v>0</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C354" t="s">
         <v>100</v>
@@ -13483,7 +13625,7 @@
         <v>2</v>
       </c>
       <c r="H354" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I354" s="2" t="s">
         <v>2</v>
@@ -13495,7 +13637,7 @@
         <v>192</v>
       </c>
       <c r="L354" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M354" t="s">
         <v>2</v>
@@ -13515,7 +13657,7 @@
         <v>0</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C355" t="s">
         <v>100</v>
@@ -13533,7 +13675,7 @@
         <v>2</v>
       </c>
       <c r="H355" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="I355" s="2" t="s">
         <v>2</v>
@@ -13545,7 +13687,7 @@
         <v>192</v>
       </c>
       <c r="L355" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M355" t="s">
         <v>2</v>
@@ -13565,7 +13707,7 @@
         <v>0</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C357" t="s">
         <v>100</v>
@@ -13592,10 +13734,10 @@
         <v>2</v>
       </c>
       <c r="K357" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L357" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M357" t="s">
         <v>2</v>
@@ -13615,7 +13757,7 @@
         <v>0</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C358" t="s">
         <v>100</v>
@@ -13633,7 +13775,7 @@
         <v>2</v>
       </c>
       <c r="H358" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>2</v>
@@ -13645,7 +13787,7 @@
         <v>192</v>
       </c>
       <c r="L358" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M358" t="s">
         <v>2</v>
@@ -13665,7 +13807,7 @@
         <v>0</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C359" t="s">
         <v>100</v>
@@ -13683,7 +13825,7 @@
         <v>2</v>
       </c>
       <c r="H359" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>2</v>
@@ -13695,7 +13837,7 @@
         <v>192</v>
       </c>
       <c r="L359" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="M359" t="s">
         <v>2</v>
@@ -13718,7 +13860,7 @@
         <v>0</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C361" t="s">
         <v>100</v>
@@ -13745,10 +13887,10 @@
         <v>2</v>
       </c>
       <c r="K361" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L361" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M361" t="s">
         <v>2</v>
@@ -13768,7 +13910,7 @@
         <v>0</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C362" t="s">
         <v>100</v>
@@ -13786,7 +13928,7 @@
         <v>2</v>
       </c>
       <c r="H362" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>2</v>
@@ -13798,7 +13940,7 @@
         <v>192</v>
       </c>
       <c r="L362" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M362" t="s">
         <v>2</v>
@@ -13818,7 +13960,7 @@
         <v>0</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C363" t="s">
         <v>100</v>
@@ -13836,7 +13978,7 @@
         <v>2</v>
       </c>
       <c r="H363" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>2</v>
@@ -13848,7 +13990,7 @@
         <v>192</v>
       </c>
       <c r="L363" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M363" t="s">
         <v>2</v>
@@ -13872,7 +14014,7 @@
         <v>0</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C365" t="s">
         <v>100</v>
@@ -13899,10 +14041,10 @@
         <v>2</v>
       </c>
       <c r="K365" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L365" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M365" t="s">
         <v>2</v>
@@ -13922,7 +14064,7 @@
         <v>0</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C366" t="s">
         <v>100</v>
@@ -13940,7 +14082,7 @@
         <v>2</v>
       </c>
       <c r="H366" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>2</v>
@@ -13952,7 +14094,7 @@
         <v>192</v>
       </c>
       <c r="L366" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M366" t="s">
         <v>2</v>
@@ -13972,7 +14114,7 @@
         <v>0</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C367" t="s">
         <v>100</v>
@@ -13990,7 +14132,7 @@
         <v>2</v>
       </c>
       <c r="H367" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>2</v>
@@ -14002,7 +14144,7 @@
         <v>192</v>
       </c>
       <c r="L367" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="M367" t="s">
         <v>2</v>
@@ -14026,7 +14168,7 @@
         <v>0</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C369" t="s">
         <v>100</v>
@@ -14053,10 +14195,10 @@
         <v>2</v>
       </c>
       <c r="K369" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L369" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M369" t="s">
         <v>2</v>
@@ -14076,7 +14218,7 @@
         <v>0</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C370" t="s">
         <v>100</v>
@@ -14094,7 +14236,7 @@
         <v>2</v>
       </c>
       <c r="H370" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>2</v>
@@ -14106,7 +14248,7 @@
         <v>192</v>
       </c>
       <c r="L370" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M370" t="s">
         <v>2</v>
@@ -14126,7 +14268,7 @@
         <v>0</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C371" t="s">
         <v>100</v>
@@ -14144,7 +14286,7 @@
         <v>2</v>
       </c>
       <c r="H371" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="I371" s="2" t="s">
         <v>2</v>
@@ -14156,7 +14298,7 @@
         <v>192</v>
       </c>
       <c r="L371" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M371" t="s">
         <v>2</v>
@@ -14181,7 +14323,7 @@
         <v>0</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C373" t="s">
         <v>100</v>
@@ -14208,10 +14350,10 @@
         <v>2</v>
       </c>
       <c r="K373" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L373" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M373" t="s">
         <v>2</v>
@@ -14231,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C374" t="s">
         <v>100</v>
@@ -14249,7 +14391,7 @@
         <v>2</v>
       </c>
       <c r="H374" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>2</v>
@@ -14261,7 +14403,7 @@
         <v>192</v>
       </c>
       <c r="L374" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M374" t="s">
         <v>2</v>
@@ -14281,7 +14423,7 @@
         <v>0</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C375" t="s">
         <v>100</v>
@@ -14299,7 +14441,7 @@
         <v>2</v>
       </c>
       <c r="H375" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="I375" s="2" t="s">
         <v>2</v>
@@ -14311,7 +14453,7 @@
         <v>192</v>
       </c>
       <c r="L375" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M375" t="s">
         <v>2</v>
@@ -14331,7 +14473,7 @@
         <v>0</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C377" t="s">
         <v>100</v>
@@ -14358,10 +14500,10 @@
         <v>2</v>
       </c>
       <c r="K377" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L377" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M377" t="s">
         <v>2</v>
@@ -14381,7 +14523,7 @@
         <v>0</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C378" t="s">
         <v>100</v>
@@ -14399,7 +14541,7 @@
         <v>2</v>
       </c>
       <c r="H378" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>2</v>
@@ -14411,7 +14553,7 @@
         <v>192</v>
       </c>
       <c r="L378" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M378" t="s">
         <v>2</v>
@@ -14431,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C379" t="s">
         <v>100</v>
@@ -14449,7 +14591,7 @@
         <v>2</v>
       </c>
       <c r="H379" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="I379" s="2" t="s">
         <v>2</v>
@@ -14461,7 +14603,7 @@
         <v>192</v>
       </c>
       <c r="L379" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M379" t="s">
         <v>2</v>
@@ -14481,7 +14623,7 @@
         <v>0</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C381" t="s">
         <v>100</v>
@@ -14508,10 +14650,10 @@
         <v>2</v>
       </c>
       <c r="K381" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L381" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M381" t="s">
         <v>2</v>
@@ -14531,7 +14673,7 @@
         <v>0</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C382" t="s">
         <v>100</v>
@@ -14549,7 +14691,7 @@
         <v>2</v>
       </c>
       <c r="H382" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>2</v>
@@ -14561,7 +14703,7 @@
         <v>192</v>
       </c>
       <c r="L382" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M382" t="s">
         <v>2</v>
@@ -14581,7 +14723,7 @@
         <v>0</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C383" t="s">
         <v>100</v>
@@ -14599,7 +14741,7 @@
         <v>2</v>
       </c>
       <c r="H383" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="I383" s="2" t="s">
         <v>2</v>
@@ -14611,7 +14753,7 @@
         <v>192</v>
       </c>
       <c r="L383" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M383" t="s">
         <v>2</v>
@@ -14634,7 +14776,7 @@
         <v>0</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C385" t="s">
         <v>100</v>
@@ -14661,10 +14803,10 @@
         <v>2</v>
       </c>
       <c r="K385" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L385" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M385" t="s">
         <v>2</v>
@@ -14684,7 +14826,7 @@
         <v>0</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C386" t="s">
         <v>100</v>
@@ -14702,7 +14844,7 @@
         <v>2</v>
       </c>
       <c r="H386" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>2</v>
@@ -14714,7 +14856,7 @@
         <v>192</v>
       </c>
       <c r="L386" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M386" t="s">
         <v>2</v>
@@ -14734,7 +14876,7 @@
         <v>0</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C387" t="s">
         <v>100</v>
@@ -14752,7 +14894,7 @@
         <v>2</v>
       </c>
       <c r="H387" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>2</v>
@@ -14764,7 +14906,7 @@
         <v>192</v>
       </c>
       <c r="L387" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M387" t="s">
         <v>2</v>
@@ -14787,7 +14929,7 @@
         <v>0</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C389" t="s">
         <v>100</v>
@@ -14814,10 +14956,10 @@
         <v>2</v>
       </c>
       <c r="K389" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L389" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M389" t="s">
         <v>2</v>
@@ -14837,7 +14979,7 @@
         <v>0</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C390" t="s">
         <v>100</v>
@@ -14855,7 +14997,7 @@
         <v>2</v>
       </c>
       <c r="H390" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>2</v>
@@ -14867,7 +15009,7 @@
         <v>192</v>
       </c>
       <c r="L390" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M390" t="s">
         <v>2</v>
@@ -14887,7 +15029,7 @@
         <v>0</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C391" t="s">
         <v>100</v>
@@ -14905,7 +15047,7 @@
         <v>2</v>
       </c>
       <c r="H391" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>2</v>
@@ -14917,7 +15059,7 @@
         <v>192</v>
       </c>
       <c r="L391" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="M391" t="s">
         <v>2</v>
@@ -14940,7 +15082,7 @@
         <v>0</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C393" t="s">
         <v>100</v>
@@ -14967,10 +15109,10 @@
         <v>2</v>
       </c>
       <c r="K393" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L393" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M393" t="s">
         <v>2</v>
@@ -14990,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C394" t="s">
         <v>100</v>
@@ -15008,7 +15150,7 @@
         <v>2</v>
       </c>
       <c r="H394" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="I394" t="s">
         <v>2</v>
@@ -15020,7 +15162,7 @@
         <v>192</v>
       </c>
       <c r="L394" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M394" t="s">
         <v>2</v>
@@ -15040,7 +15182,7 @@
         <v>0</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C395" t="s">
         <v>100</v>
@@ -15058,7 +15200,7 @@
         <v>2</v>
       </c>
       <c r="H395" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="I395" t="s">
         <v>2</v>
@@ -15070,7 +15212,7 @@
         <v>192</v>
       </c>
       <c r="L395" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M395" t="s">
         <v>2</v>
@@ -15090,7 +15232,7 @@
         <v>0</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C397" t="s">
         <v>100</v>
@@ -15117,10 +15259,10 @@
         <v>2</v>
       </c>
       <c r="K397" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L397" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M397" t="s">
         <v>2</v>
@@ -15140,7 +15282,7 @@
         <v>0</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C398" t="s">
         <v>100</v>
@@ -15158,7 +15300,7 @@
         <v>2</v>
       </c>
       <c r="H398" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="I398" t="s">
         <v>2</v>
@@ -15170,7 +15312,7 @@
         <v>192</v>
       </c>
       <c r="L398" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M398" t="s">
         <v>2</v>
@@ -15190,7 +15332,7 @@
         <v>0</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C399" t="s">
         <v>100</v>
@@ -15208,7 +15350,7 @@
         <v>2</v>
       </c>
       <c r="H399" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="I399" t="s">
         <v>2</v>
@@ -15220,7 +15362,7 @@
         <v>192</v>
       </c>
       <c r="L399" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="M399" t="s">
         <v>2</v>
@@ -15240,7 +15382,7 @@
         <v>0</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C401" t="s">
         <v>100</v>
@@ -15267,10 +15409,10 @@
         <v>2</v>
       </c>
       <c r="K401" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L401" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M401" t="s">
         <v>2</v>
@@ -15290,7 +15432,7 @@
         <v>0</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C402" t="s">
         <v>100</v>
@@ -15317,10 +15459,10 @@
         <v>2</v>
       </c>
       <c r="K402" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L402" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="M402" t="s">
         <v>2</v>
@@ -16059,10 +16201,10 @@
         <v>2</v>
       </c>
       <c r="H454" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="I454" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="J454" t="s">
         <v>2</v>
@@ -16103,16 +16245,16 @@
         <v>2</v>
       </c>
       <c r="F455" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G455" t="s">
         <v>2</v>
       </c>
       <c r="H455" t="s">
+        <v>261</v>
+      </c>
+      <c r="I455" t="s">
         <v>262</v>
-      </c>
-      <c r="I455" t="s">
-        <v>263</v>
       </c>
       <c r="J455">
         <v>1</v>
@@ -16153,16 +16295,16 @@
         <v>2</v>
       </c>
       <c r="F456" t="s">
+        <v>249</v>
+      </c>
+      <c r="G456" t="s">
+        <v>2</v>
+      </c>
+      <c r="H456" t="s">
         <v>250</v>
       </c>
-      <c r="G456" t="s">
-        <v>2</v>
-      </c>
-      <c r="H456" t="s">
-        <v>251</v>
-      </c>
       <c r="I456" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="J456">
         <v>0</v>
@@ -16203,16 +16345,16 @@
         <v>2</v>
       </c>
       <c r="F457" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G457" t="s">
         <v>2</v>
       </c>
       <c r="H457" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I457" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="J457">
         <v>1</v>
@@ -16253,16 +16395,16 @@
         <v>2</v>
       </c>
       <c r="F458" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G458" t="s">
         <v>2</v>
       </c>
       <c r="H458" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="I458" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="J458">
         <v>1</v>
@@ -16303,16 +16445,16 @@
         <v>2</v>
       </c>
       <c r="F459" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G459" t="s">
         <v>2</v>
       </c>
       <c r="H459" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="I459" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="J459">
         <v>1</v>
@@ -16353,16 +16495,16 @@
         <v>2</v>
       </c>
       <c r="F460" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G460" t="s">
         <v>2</v>
       </c>
       <c r="H460" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="I460" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J460">
         <v>1</v>
@@ -16403,16 +16545,16 @@
         <v>2</v>
       </c>
       <c r="F461" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G461" t="s">
         <v>2</v>
       </c>
       <c r="H461" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="I461" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J461">
         <v>1</v>
@@ -16453,16 +16595,16 @@
         <v>2</v>
       </c>
       <c r="F462" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G462" t="s">
         <v>2</v>
       </c>
       <c r="H462" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="I462" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="J462">
         <v>1</v>
@@ -16503,16 +16645,16 @@
         <v>2</v>
       </c>
       <c r="F463" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G463" t="s">
         <v>2</v>
       </c>
       <c r="H463" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="I463" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J463">
         <v>0</v>
@@ -16553,16 +16695,16 @@
         <v>2</v>
       </c>
       <c r="F464" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G464" t="s">
         <v>2</v>
       </c>
       <c r="H464" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I464" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="J464">
         <v>1</v>
@@ -16603,16 +16745,16 @@
         <v>2</v>
       </c>
       <c r="F465" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G465" t="s">
         <v>2</v>
       </c>
       <c r="H465" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="I465" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="J465">
         <v>0</v>
@@ -16653,16 +16795,16 @@
         <v>2</v>
       </c>
       <c r="F466" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G466" t="s">
         <v>2</v>
       </c>
       <c r="H466" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="I466" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="J466">
         <v>0</v>
@@ -16691,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="B468" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C468" t="s">
         <v>101</v>
@@ -16718,10 +16860,10 @@
         <v>2</v>
       </c>
       <c r="K468" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L468" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M468" t="s">
         <v>2</v>
@@ -16741,7 +16883,7 @@
         <v>0</v>
       </c>
       <c r="B469" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C469" t="s">
         <v>101</v>
@@ -16759,10 +16901,10 @@
         <v>2</v>
       </c>
       <c r="H469" t="s">
+        <v>500</v>
+      </c>
+      <c r="I469" t="s">
         <v>501</v>
-      </c>
-      <c r="I469" t="s">
-        <v>502</v>
       </c>
       <c r="J469" t="s">
         <v>2</v>
@@ -16771,7 +16913,7 @@
         <v>10</v>
       </c>
       <c r="L469" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M469" t="s">
         <v>2</v>
@@ -16791,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="B471" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C471" t="s">
         <v>101</v>
@@ -16818,10 +16960,10 @@
         <v>2</v>
       </c>
       <c r="K471" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L471" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M471" t="s">
         <v>2</v>
@@ -16841,7 +16983,7 @@
         <v>0</v>
       </c>
       <c r="B472" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C472" t="s">
         <v>101</v>
@@ -16853,16 +16995,16 @@
         <v>2</v>
       </c>
       <c r="F472" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G472" t="s">
         <v>2</v>
       </c>
       <c r="H472" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I472" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J472">
         <v>1</v>
@@ -16871,7 +17013,7 @@
         <v>15</v>
       </c>
       <c r="L472" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M472" t="s">
         <v>2</v>
@@ -16891,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="B473" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C473" t="s">
         <v>101</v>
@@ -16903,16 +17045,16 @@
         <v>2</v>
       </c>
       <c r="F473" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G473" t="s">
         <v>2</v>
       </c>
       <c r="H473" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I473" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="J473">
         <v>0</v>
@@ -16921,7 +17063,7 @@
         <v>15</v>
       </c>
       <c r="L473" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M473" t="s">
         <v>2</v>
@@ -16941,7 +17083,7 @@
         <v>0</v>
       </c>
       <c r="B474" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C474" t="s">
         <v>101</v>
@@ -16953,16 +17095,16 @@
         <v>2</v>
       </c>
       <c r="F474" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G474" t="s">
         <v>2</v>
       </c>
       <c r="H474" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I474" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="J474">
         <v>1</v>
@@ -16971,7 +17113,7 @@
         <v>15</v>
       </c>
       <c r="L474" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M474" t="s">
         <v>2</v>
@@ -16991,7 +17133,7 @@
         <v>0</v>
       </c>
       <c r="B475" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C475" t="s">
         <v>101</v>
@@ -17003,16 +17145,16 @@
         <v>2</v>
       </c>
       <c r="F475" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G475" t="s">
         <v>2</v>
       </c>
       <c r="H475" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I475" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="J475">
         <v>0</v>
@@ -17021,7 +17163,7 @@
         <v>15</v>
       </c>
       <c r="L475" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M475" t="s">
         <v>2</v>
@@ -17041,7 +17183,7 @@
         <v>0</v>
       </c>
       <c r="B476" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C476" t="s">
         <v>101</v>
@@ -17053,16 +17195,16 @@
         <v>2</v>
       </c>
       <c r="F476" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G476" t="s">
         <v>2</v>
       </c>
       <c r="H476" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I476" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="J476">
         <v>1</v>
@@ -17071,7 +17213,7 @@
         <v>15</v>
       </c>
       <c r="L476" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M476" t="s">
         <v>2</v>
@@ -17091,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="B477" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C477" t="s">
         <v>101</v>
@@ -17103,16 +17245,16 @@
         <v>2</v>
       </c>
       <c r="F477" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G477" t="s">
         <v>2</v>
       </c>
       <c r="H477" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I477" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="J477">
         <v>2</v>
@@ -17121,7 +17263,7 @@
         <v>15</v>
       </c>
       <c r="L477" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M477" t="s">
         <v>2</v>
@@ -17141,7 +17283,7 @@
         <v>0</v>
       </c>
       <c r="B478" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C478" t="s">
         <v>101</v>
@@ -17153,16 +17295,16 @@
         <v>2</v>
       </c>
       <c r="F478" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G478" t="s">
         <v>2</v>
       </c>
       <c r="H478" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I478" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="J478">
         <v>1</v>
@@ -17171,7 +17313,7 @@
         <v>15</v>
       </c>
       <c r="L478" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M478" t="s">
         <v>2</v>
@@ -17191,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="B479" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C479" t="s">
         <v>101</v>
@@ -17203,16 +17345,16 @@
         <v>2</v>
       </c>
       <c r="F479" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G479" t="s">
         <v>2</v>
       </c>
       <c r="H479" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I479" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="J479">
         <v>0</v>
@@ -17221,7 +17363,7 @@
         <v>15</v>
       </c>
       <c r="L479" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M479" t="s">
         <v>2</v>
@@ -17241,7 +17383,7 @@
         <v>0</v>
       </c>
       <c r="B480" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C480" t="s">
         <v>101</v>
@@ -17253,16 +17395,16 @@
         <v>2</v>
       </c>
       <c r="F480" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G480" t="s">
         <v>2</v>
       </c>
       <c r="H480" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I480" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="J480">
         <v>2</v>
@@ -17271,7 +17413,7 @@
         <v>15</v>
       </c>
       <c r="L480" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M480" t="s">
         <v>2</v>
@@ -17291,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="B481" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C481" t="s">
         <v>101</v>
@@ -17303,16 +17445,16 @@
         <v>2</v>
       </c>
       <c r="F481" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G481" t="s">
         <v>2</v>
       </c>
       <c r="H481" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I481" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="J481">
         <v>1</v>
@@ -17321,7 +17463,7 @@
         <v>15</v>
       </c>
       <c r="L481" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M481" t="s">
         <v>2</v>
@@ -17341,7 +17483,7 @@
         <v>0</v>
       </c>
       <c r="B482" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C482" t="s">
         <v>101</v>
@@ -17353,16 +17495,16 @@
         <v>2</v>
       </c>
       <c r="F482" t="s">
+        <v>534</v>
+      </c>
+      <c r="G482" t="s">
+        <v>2</v>
+      </c>
+      <c r="H482" t="s">
         <v>535</v>
       </c>
-      <c r="G482" t="s">
-        <v>2</v>
-      </c>
-      <c r="H482" t="s">
+      <c r="I482" t="s">
         <v>536</v>
-      </c>
-      <c r="I482" t="s">
-        <v>537</v>
       </c>
       <c r="J482" t="s">
         <v>2</v>
@@ -17371,7 +17513,7 @@
         <v>10</v>
       </c>
       <c r="L482" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="M482" t="s">
         <v>2</v>
@@ -17391,7 +17533,7 @@
         <v>0</v>
       </c>
       <c r="B484" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C484" t="s">
         <v>101</v>
@@ -17418,10 +17560,10 @@
         <v>2</v>
       </c>
       <c r="K484" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L484" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M484" t="s">
         <v>2</v>
@@ -17441,7 +17583,7 @@
         <v>0</v>
       </c>
       <c r="B485" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C485" t="s">
         <v>101</v>
@@ -17459,10 +17601,10 @@
         <v>2</v>
       </c>
       <c r="H485" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I485" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J485">
         <v>0</v>
@@ -17471,7 +17613,7 @@
         <v>15</v>
       </c>
       <c r="L485" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M485" t="s">
         <v>2</v>
@@ -17491,7 +17633,7 @@
         <v>0</v>
       </c>
       <c r="B486" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C486" t="s">
         <v>101</v>
@@ -17509,10 +17651,10 @@
         <v>2</v>
       </c>
       <c r="H486" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I486" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="J486">
         <v>1</v>
@@ -17521,7 +17663,7 @@
         <v>15</v>
       </c>
       <c r="L486" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="M486" t="s">
         <v>2</v>
@@ -17541,7 +17683,7 @@
         <v>0</v>
       </c>
       <c r="B488" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C488" t="s">
         <v>101</v>
@@ -17568,10 +17710,10 @@
         <v>2</v>
       </c>
       <c r="K488" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L488" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M488" t="s">
         <v>2</v>
@@ -17591,7 +17733,7 @@
         <v>0</v>
       </c>
       <c r="B489" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C489" t="s">
         <v>101</v>
@@ -17609,10 +17751,10 @@
         <v>2</v>
       </c>
       <c r="H489" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I489" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="J489">
         <v>1</v>
@@ -17621,7 +17763,7 @@
         <v>15</v>
       </c>
       <c r="L489" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M489" t="s">
         <v>2</v>
@@ -17641,7 +17783,7 @@
         <v>0</v>
       </c>
       <c r="B490" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C490" t="s">
         <v>101</v>
@@ -17659,10 +17801,10 @@
         <v>2</v>
       </c>
       <c r="H490" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I490" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="J490">
         <v>1</v>
@@ -17671,7 +17813,7 @@
         <v>15</v>
       </c>
       <c r="L490" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M490" t="s">
         <v>2</v>
@@ -17691,7 +17833,7 @@
         <v>0</v>
       </c>
       <c r="B492" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C492" t="s">
         <v>101</v>
@@ -17718,10 +17860,10 @@
         <v>2</v>
       </c>
       <c r="K492" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L492" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="M492" t="s">
         <v>2</v>
@@ -17741,7 +17883,7 @@
         <v>0</v>
       </c>
       <c r="B493" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C493" t="s">
         <v>101</v>
@@ -17753,16 +17895,16 @@
         <v>2</v>
       </c>
       <c r="F493" t="s">
+        <v>549</v>
+      </c>
+      <c r="G493" t="s">
+        <v>2</v>
+      </c>
+      <c r="H493" t="s">
+        <v>553</v>
+      </c>
+      <c r="I493" t="s">
         <v>550</v>
-      </c>
-      <c r="G493" t="s">
-        <v>2</v>
-      </c>
-      <c r="H493" t="s">
-        <v>554</v>
-      </c>
-      <c r="I493" t="s">
-        <v>551</v>
       </c>
       <c r="J493">
         <v>1</v>
@@ -17771,7 +17913,7 @@
         <v>15</v>
       </c>
       <c r="L493" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M493" t="s">
         <v>2</v>
@@ -17791,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="B494" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C494" t="s">
         <v>101</v>
@@ -17809,19 +17951,19 @@
         <v>2</v>
       </c>
       <c r="H494" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I494" t="s">
+        <v>554</v>
+      </c>
+      <c r="J494">
+        <v>0</v>
+      </c>
+      <c r="K494" t="s">
+        <v>15</v>
+      </c>
+      <c r="L494" t="s">
         <v>555</v>
-      </c>
-      <c r="J494">
-        <v>0</v>
-      </c>
-      <c r="K494" t="s">
-        <v>15</v>
-      </c>
-      <c r="L494" t="s">
-        <v>556</v>
       </c>
       <c r="M494" t="s">
         <v>2</v>
@@ -17841,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="B495" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C495" t="s">
         <v>101</v>
@@ -17859,19 +18001,19 @@
         <v>2</v>
       </c>
       <c r="H495" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I495" t="s">
+        <v>554</v>
+      </c>
+      <c r="J495">
+        <v>2</v>
+      </c>
+      <c r="K495" t="s">
+        <v>15</v>
+      </c>
+      <c r="L495" t="s">
         <v>555</v>
-      </c>
-      <c r="J495">
-        <v>2</v>
-      </c>
-      <c r="K495" t="s">
-        <v>15</v>
-      </c>
-      <c r="L495" t="s">
-        <v>556</v>
       </c>
       <c r="M495" t="s">
         <v>2</v>
@@ -17891,7 +18033,7 @@
         <v>0</v>
       </c>
       <c r="B497" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C497" t="s">
         <v>101</v>
@@ -17918,10 +18060,10 @@
         <v>2</v>
       </c>
       <c r="K497" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L497" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="M497" t="s">
         <v>2</v>
@@ -17941,7 +18083,7 @@
         <v>0</v>
       </c>
       <c r="B498" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C498" t="s">
         <v>101</v>
@@ -17953,16 +18095,16 @@
         <v>2</v>
       </c>
       <c r="F498" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="G498" t="s">
         <v>2</v>
       </c>
       <c r="H498" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I498" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="J498">
         <v>1</v>
@@ -17971,7 +18113,7 @@
         <v>15</v>
       </c>
       <c r="L498" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M498" t="s">
         <v>2</v>
@@ -17991,7 +18133,7 @@
         <v>0</v>
       </c>
       <c r="B499" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C499" t="s">
         <v>101</v>
@@ -18003,16 +18145,16 @@
         <v>2</v>
       </c>
       <c r="F499" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="G499" t="s">
         <v>2</v>
       </c>
       <c r="H499" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I499" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="J499">
         <v>0</v>
@@ -18021,7 +18163,7 @@
         <v>15</v>
       </c>
       <c r="L499" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M499" t="s">
         <v>2</v>
@@ -18044,7 +18186,7 @@
         <v>0</v>
       </c>
       <c r="B501" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C501" t="s">
         <v>101</v>
@@ -18071,10 +18213,10 @@
         <v>2</v>
       </c>
       <c r="K501" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L501" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="M501" t="s">
         <v>2</v>
@@ -18094,7 +18236,7 @@
         <v>0</v>
       </c>
       <c r="B502" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C502" t="s">
         <v>101</v>
@@ -18112,10 +18254,10 @@
         <v>2</v>
       </c>
       <c r="H502" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I502" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="J502">
         <v>0</v>
@@ -18124,7 +18266,7 @@
         <v>15</v>
       </c>
       <c r="L502" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M502" t="s">
         <v>2</v>
@@ -18144,7 +18286,7 @@
         <v>0</v>
       </c>
       <c r="B503" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C503" t="s">
         <v>101</v>
@@ -18162,10 +18304,10 @@
         <v>2</v>
       </c>
       <c r="H503" t="s">
+        <v>566</v>
+      </c>
+      <c r="I503" t="s">
         <v>567</v>
-      </c>
-      <c r="I503" t="s">
-        <v>568</v>
       </c>
       <c r="J503">
         <v>1</v>
@@ -18174,7 +18316,7 @@
         <v>15</v>
       </c>
       <c r="L503" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="M503" t="s">
         <v>2</v>
@@ -18194,7 +18336,7 @@
         <v>0</v>
       </c>
       <c r="B505" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C505" t="s">
         <v>101</v>
@@ -18221,10 +18363,10 @@
         <v>2</v>
       </c>
       <c r="K505" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="L505" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M505" t="s">
         <v>2</v>
@@ -18244,7 +18386,7 @@
         <v>0</v>
       </c>
       <c r="B506" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C506" t="s">
         <v>101</v>
@@ -18262,10 +18404,10 @@
         <v>2</v>
       </c>
       <c r="H506" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I506" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="J506">
         <v>0</v>
@@ -18274,7 +18416,7 @@
         <v>15</v>
       </c>
       <c r="L506" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M506" t="s">
         <v>2</v>
@@ -18294,7 +18436,7 @@
         <v>0</v>
       </c>
       <c r="B507" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C507" t="s">
         <v>101</v>
@@ -18312,10 +18454,10 @@
         <v>2</v>
       </c>
       <c r="H507" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I507" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J507">
         <v>0</v>
@@ -18324,7 +18466,7 @@
         <v>15</v>
       </c>
       <c r="L507" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M507" t="s">
         <v>2</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B57BAE71-46C6-3745-8AB6-63D560E1824B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8454403-240C-F542-91D0-2ABF697AEA68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4948" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4996" uniqueCount="598">
   <si>
     <t>A1</t>
   </si>
@@ -1822,6 +1822,18 @@
   </si>
   <si>
     <t>a1_day4_test_9</t>
+  </si>
+  <si>
+    <t>dictation</t>
+  </si>
+  <si>
+    <t>Milk  حليب:  I drink milk before sleeping  انا اشرب الحليب قبل النوم;Numbers  ارقام : I know numbers in Italian  اعلم الارقام بالايطالية;Olive  زيتون : I eat olive during breakfast  اكل زيتون على الفطور;People ناس  : There are many people in here  هناك الكثير من الناس هنا;Queen ملكة : The queen died last year الملكة ماتت العام الماضي;Rainbow قوس قزح : There is a rainbow outside  هناك قوس قزح بالخارج;Spoon  حساء  : Soup is eaten with a spoon  الحساء يأكل بالملعقة;Turtle  سلحفاة :  Turtles walk so slow السلاحف يمشون ببطئ;Umbrella   مظلة :  Don’t forget your umbrella لاتنسى مظلتك;Voice  صوت  : She has a nice voice لديها صوت جميل;Water  ماء : Water is so important الماء مهم جدا;Yogurt لبن : We need to bring Yogurt نحتاج الى شراء اللبن</t>
+  </si>
+  <si>
+    <t>Don’t forget your umbrella لاتنسى مظلتك;Water is so important الماء مهم جدا;She has a nice voice لديها صوت جميل;There are many people in here  هناك الكثير من الناس هنا</t>
+  </si>
+  <si>
+    <t>Lina wakes up early. She drinks a glass of milk. She likes milk very much.;Lina sees her pet turtle in the garden. The turtle is slow but cute. Lina counts the flowers in the garden. The number of flowers is five.;Lina goes to the kitchen. She takes a spoon and eats yogurt for breakfast.; She also eats some olives. Olives are the best .</t>
   </si>
 </sst>
 </file>
@@ -2211,10 +2223,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
-  <dimension ref="A4:P507"/>
+  <dimension ref="A4:P506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H2" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
+    <sheetView tabSelected="1" topLeftCell="H320" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="P333" sqref="P333"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6036,7 +6048,7 @@
         <v>2</v>
       </c>
       <c r="K103" t="s">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="L103" t="s">
         <v>2</v>
@@ -6186,7 +6198,7 @@
         <v>2</v>
       </c>
       <c r="K106" t="s">
-        <v>18</v>
+        <v>594</v>
       </c>
       <c r="L106" t="s">
         <v>2</v>
@@ -12802,6 +12814,206 @@
         <v>2</v>
       </c>
     </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>0</v>
+      </c>
+      <c r="B330" t="s">
+        <v>11</v>
+      </c>
+      <c r="C330" t="s">
+        <v>100</v>
+      </c>
+      <c r="D330" t="s">
+        <v>2</v>
+      </c>
+      <c r="E330" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F330" t="s">
+        <v>13</v>
+      </c>
+      <c r="G330" t="s">
+        <v>2</v>
+      </c>
+      <c r="H330" t="s">
+        <v>595</v>
+      </c>
+      <c r="I330" t="s">
+        <v>2</v>
+      </c>
+      <c r="J330" t="s">
+        <v>2</v>
+      </c>
+      <c r="K330" t="s">
+        <v>11</v>
+      </c>
+      <c r="L330" t="s">
+        <v>2</v>
+      </c>
+      <c r="M330" t="s">
+        <v>2</v>
+      </c>
+      <c r="N330" t="s">
+        <v>2</v>
+      </c>
+      <c r="O330" t="s">
+        <v>2</v>
+      </c>
+      <c r="P330" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>0</v>
+      </c>
+      <c r="B331" t="s">
+        <v>11</v>
+      </c>
+      <c r="C331" t="s">
+        <v>100</v>
+      </c>
+      <c r="D331" t="s">
+        <v>2</v>
+      </c>
+      <c r="E331" t="s">
+        <v>2</v>
+      </c>
+      <c r="F331" t="s">
+        <v>12</v>
+      </c>
+      <c r="G331" t="s">
+        <v>2</v>
+      </c>
+      <c r="H331" t="s">
+        <v>596</v>
+      </c>
+      <c r="I331" t="s">
+        <v>2</v>
+      </c>
+      <c r="J331" t="s">
+        <v>2</v>
+      </c>
+      <c r="K331" t="s">
+        <v>11</v>
+      </c>
+      <c r="L331" t="s">
+        <v>2</v>
+      </c>
+      <c r="M331" t="s">
+        <v>2</v>
+      </c>
+      <c r="N331" t="s">
+        <v>2</v>
+      </c>
+      <c r="O331" t="s">
+        <v>2</v>
+      </c>
+      <c r="P331" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>0</v>
+      </c>
+      <c r="B332" t="s">
+        <v>18</v>
+      </c>
+      <c r="C332" t="s">
+        <v>100</v>
+      </c>
+      <c r="D332" t="s">
+        <v>2</v>
+      </c>
+      <c r="E332" t="s">
+        <v>2</v>
+      </c>
+      <c r="F332" t="s">
+        <v>2</v>
+      </c>
+      <c r="G332" t="s">
+        <v>2</v>
+      </c>
+      <c r="H332" t="s">
+        <v>597</v>
+      </c>
+      <c r="I332" t="s">
+        <v>2</v>
+      </c>
+      <c r="J332" t="s">
+        <v>2</v>
+      </c>
+      <c r="K332" t="s">
+        <v>594</v>
+      </c>
+      <c r="L332" t="s">
+        <v>2</v>
+      </c>
+      <c r="M332" t="s">
+        <v>2</v>
+      </c>
+      <c r="N332" t="s">
+        <v>2</v>
+      </c>
+      <c r="O332" t="s">
+        <v>2</v>
+      </c>
+      <c r="P332" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>0</v>
+      </c>
+      <c r="B334" t="s">
+        <v>210</v>
+      </c>
+      <c r="C334" t="s">
+        <v>100</v>
+      </c>
+      <c r="D334" t="s">
+        <v>2</v>
+      </c>
+      <c r="E334" t="s">
+        <v>2</v>
+      </c>
+      <c r="F334" t="s">
+        <v>240</v>
+      </c>
+      <c r="G334" t="s">
+        <v>2</v>
+      </c>
+      <c r="H334" t="s">
+        <v>2</v>
+      </c>
+      <c r="I334" t="s">
+        <v>584</v>
+      </c>
+      <c r="J334">
+        <v>1</v>
+      </c>
+      <c r="K334" t="s">
+        <v>15</v>
+      </c>
+      <c r="L334" t="s">
+        <v>2</v>
+      </c>
+      <c r="M334" t="s">
+        <v>2</v>
+      </c>
+      <c r="N334" t="s">
+        <v>2</v>
+      </c>
+      <c r="O334" t="s">
+        <v>2</v>
+      </c>
+      <c r="P334" t="s">
+        <v>585</v>
+      </c>
+    </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
         <v>0</v>
@@ -12828,10 +13040,10 @@
         <v>2</v>
       </c>
       <c r="I335" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="J335">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K335" t="s">
         <v>15</v>
@@ -12849,7 +13061,7 @@
         <v>2</v>
       </c>
       <c r="P335" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -12878,10 +13090,10 @@
         <v>2</v>
       </c>
       <c r="I336" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="J336">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K336" t="s">
         <v>15</v>
@@ -12899,7 +13111,7 @@
         <v>2</v>
       </c>
       <c r="P336" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
@@ -12928,7 +13140,7 @@
         <v>2</v>
       </c>
       <c r="I337" t="s">
-        <v>582</v>
+        <v>241</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -12949,7 +13161,7 @@
         <v>2</v>
       </c>
       <c r="P337" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -12978,10 +13190,10 @@
         <v>2</v>
       </c>
       <c r="I338" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="J338">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K338" t="s">
         <v>15</v>
@@ -12999,7 +13211,7 @@
         <v>2</v>
       </c>
       <c r="P338" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
@@ -13028,10 +13240,10 @@
         <v>2</v>
       </c>
       <c r="I339" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="J339">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K339" t="s">
         <v>15</v>
@@ -13049,7 +13261,7 @@
         <v>2</v>
       </c>
       <c r="P339" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
@@ -13078,10 +13290,10 @@
         <v>2</v>
       </c>
       <c r="I340" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="J340">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K340" t="s">
         <v>15</v>
@@ -13099,7 +13311,7 @@
         <v>2</v>
       </c>
       <c r="P340" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -13128,10 +13340,10 @@
         <v>2</v>
       </c>
       <c r="I341" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J341">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K341" t="s">
         <v>15</v>
@@ -13149,7 +13361,7 @@
         <v>2</v>
       </c>
       <c r="P341" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
@@ -13178,10 +13390,10 @@
         <v>2</v>
       </c>
       <c r="I342" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="J342">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K342" t="s">
         <v>15</v>
@@ -13199,60 +13411,60 @@
         <v>2</v>
       </c>
       <c r="P342" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="343" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A343" t="s">
-        <v>0</v>
-      </c>
-      <c r="B343" t="s">
-        <v>210</v>
-      </c>
-      <c r="C343" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" t="s">
+        <v>0</v>
+      </c>
+      <c r="B344" s="3" t="s">
+        <v>576</v>
+      </c>
+      <c r="C344" t="s">
         <v>100</v>
       </c>
-      <c r="D343" t="s">
-        <v>2</v>
-      </c>
-      <c r="E343" t="s">
-        <v>2</v>
-      </c>
-      <c r="F343" t="s">
-        <v>240</v>
-      </c>
-      <c r="G343" t="s">
-        <v>2</v>
-      </c>
-      <c r="H343" t="s">
-        <v>2</v>
-      </c>
-      <c r="I343" t="s">
-        <v>245</v>
-      </c>
-      <c r="J343">
-        <v>1</v>
-      </c>
-      <c r="K343" t="s">
-        <v>15</v>
-      </c>
-      <c r="L343" t="s">
-        <v>2</v>
-      </c>
-      <c r="M343" t="s">
-        <v>2</v>
-      </c>
-      <c r="N343" t="s">
-        <v>2</v>
-      </c>
-      <c r="O343" t="s">
-        <v>2</v>
-      </c>
-      <c r="P343" t="s">
-        <v>593</v>
-      </c>
-    </row>
-    <row r="345" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D344" t="s">
+        <v>2</v>
+      </c>
+      <c r="E344" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F344" t="s">
+        <v>2</v>
+      </c>
+      <c r="G344" t="s">
+        <v>2</v>
+      </c>
+      <c r="H344" t="s">
+        <v>2</v>
+      </c>
+      <c r="I344" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J344" t="s">
+        <v>2</v>
+      </c>
+      <c r="K344" t="s">
+        <v>274</v>
+      </c>
+      <c r="L344" t="s">
+        <v>484</v>
+      </c>
+      <c r="M344" t="s">
+        <v>2</v>
+      </c>
+      <c r="N344" t="s">
+        <v>2</v>
+      </c>
+      <c r="O344" t="s">
+        <v>2</v>
+      </c>
+      <c r="P344" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A345" t="s">
         <v>0</v>
       </c>
@@ -13265,17 +13477,17 @@
       <c r="D345" t="s">
         <v>2</v>
       </c>
-      <c r="E345" s="1" t="s">
+      <c r="E345" t="s">
         <v>2</v>
       </c>
       <c r="F345" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G345" t="s">
         <v>2</v>
       </c>
       <c r="H345" t="s">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="I345" s="2" t="s">
         <v>2</v>
@@ -13284,7 +13496,7 @@
         <v>2</v>
       </c>
       <c r="K345" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L345" t="s">
         <v>484</v>
@@ -13319,13 +13531,13 @@
         <v>2</v>
       </c>
       <c r="F346" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G346" t="s">
         <v>2</v>
       </c>
       <c r="H346" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I346" s="2" t="s">
         <v>2</v>
@@ -13352,57 +13564,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="347" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A347" t="s">
-        <v>0</v>
-      </c>
-      <c r="B347" s="3" t="s">
+    <row r="348" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>0</v>
+      </c>
+      <c r="B348" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C347" t="s">
+      <c r="C348" t="s">
         <v>100</v>
       </c>
-      <c r="D347" t="s">
-        <v>2</v>
-      </c>
-      <c r="E347" t="s">
-        <v>2</v>
-      </c>
-      <c r="F347" t="s">
-        <v>194</v>
-      </c>
-      <c r="G347" t="s">
-        <v>2</v>
-      </c>
-      <c r="H347" t="s">
-        <v>457</v>
-      </c>
-      <c r="I347" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J347" t="s">
-        <v>2</v>
-      </c>
-      <c r="K347" t="s">
-        <v>192</v>
-      </c>
-      <c r="L347" t="s">
-        <v>484</v>
-      </c>
-      <c r="M347" t="s">
-        <v>2</v>
-      </c>
-      <c r="N347" t="s">
-        <v>2</v>
-      </c>
-      <c r="O347" t="s">
-        <v>2</v>
-      </c>
-      <c r="P347" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="349" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D348" t="s">
+        <v>2</v>
+      </c>
+      <c r="E348" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F348" t="s">
+        <v>2</v>
+      </c>
+      <c r="G348" t="s">
+        <v>2</v>
+      </c>
+      <c r="H348" t="s">
+        <v>2</v>
+      </c>
+      <c r="I348" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J348" t="s">
+        <v>2</v>
+      </c>
+      <c r="K348" t="s">
+        <v>274</v>
+      </c>
+      <c r="L348" t="s">
+        <v>485</v>
+      </c>
+      <c r="M348" t="s">
+        <v>2</v>
+      </c>
+      <c r="N348" t="s">
+        <v>2</v>
+      </c>
+      <c r="O348" t="s">
+        <v>2</v>
+      </c>
+      <c r="P348" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="349" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A349" t="s">
         <v>0</v>
       </c>
@@ -13415,17 +13627,17 @@
       <c r="D349" t="s">
         <v>2</v>
       </c>
-      <c r="E349" s="1" t="s">
+      <c r="E349" t="s">
         <v>2</v>
       </c>
       <c r="F349" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G349" t="s">
         <v>2</v>
       </c>
       <c r="H349" t="s">
-        <v>2</v>
+        <v>458</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>2</v>
@@ -13434,7 +13646,7 @@
         <v>2</v>
       </c>
       <c r="K349" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L349" t="s">
         <v>485</v>
@@ -13469,13 +13681,13 @@
         <v>2</v>
       </c>
       <c r="F350" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G350" t="s">
         <v>2</v>
       </c>
       <c r="H350" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>2</v>
@@ -13502,57 +13714,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="351" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A351" t="s">
-        <v>0</v>
-      </c>
-      <c r="B351" s="3" t="s">
+    <row r="352" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>0</v>
+      </c>
+      <c r="B352" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C351" t="s">
+      <c r="C352" t="s">
         <v>100</v>
       </c>
-      <c r="D351" t="s">
-        <v>2</v>
-      </c>
-      <c r="E351" t="s">
-        <v>2</v>
-      </c>
-      <c r="F351" t="s">
-        <v>194</v>
-      </c>
-      <c r="G351" t="s">
-        <v>2</v>
-      </c>
-      <c r="H351" t="s">
-        <v>459</v>
-      </c>
-      <c r="I351" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J351" t="s">
-        <v>2</v>
-      </c>
-      <c r="K351" t="s">
-        <v>192</v>
-      </c>
-      <c r="L351" t="s">
-        <v>485</v>
-      </c>
-      <c r="M351" t="s">
-        <v>2</v>
-      </c>
-      <c r="N351" t="s">
-        <v>2</v>
-      </c>
-      <c r="O351" t="s">
-        <v>2</v>
-      </c>
-      <c r="P351" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="353" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D352" t="s">
+        <v>2</v>
+      </c>
+      <c r="E352" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F352" t="s">
+        <v>2</v>
+      </c>
+      <c r="G352" t="s">
+        <v>2</v>
+      </c>
+      <c r="H352" t="s">
+        <v>2</v>
+      </c>
+      <c r="I352" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J352" t="s">
+        <v>2</v>
+      </c>
+      <c r="K352" t="s">
+        <v>274</v>
+      </c>
+      <c r="L352" t="s">
+        <v>486</v>
+      </c>
+      <c r="M352" t="s">
+        <v>2</v>
+      </c>
+      <c r="N352" t="s">
+        <v>2</v>
+      </c>
+      <c r="O352" t="s">
+        <v>2</v>
+      </c>
+      <c r="P352" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="353" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
         <v>0</v>
       </c>
@@ -13565,17 +13777,17 @@
       <c r="D353" t="s">
         <v>2</v>
       </c>
-      <c r="E353" s="1" t="s">
+      <c r="E353" t="s">
         <v>2</v>
       </c>
       <c r="F353" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G353" t="s">
         <v>2</v>
       </c>
       <c r="H353" t="s">
-        <v>2</v>
+        <v>460</v>
       </c>
       <c r="I353" s="2" t="s">
         <v>2</v>
@@ -13584,7 +13796,7 @@
         <v>2</v>
       </c>
       <c r="K353" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L353" t="s">
         <v>486</v>
@@ -13619,13 +13831,13 @@
         <v>2</v>
       </c>
       <c r="F354" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G354" t="s">
         <v>2</v>
       </c>
       <c r="H354" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I354" s="2" t="s">
         <v>2</v>
@@ -13652,57 +13864,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="355" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A355" t="s">
-        <v>0</v>
-      </c>
-      <c r="B355" s="3" t="s">
+    <row r="356" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>0</v>
+      </c>
+      <c r="B356" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C355" t="s">
+      <c r="C356" t="s">
         <v>100</v>
       </c>
-      <c r="D355" t="s">
-        <v>2</v>
-      </c>
-      <c r="E355" t="s">
-        <v>2</v>
-      </c>
-      <c r="F355" t="s">
-        <v>194</v>
-      </c>
-      <c r="G355" t="s">
-        <v>2</v>
-      </c>
-      <c r="H355" t="s">
-        <v>461</v>
-      </c>
-      <c r="I355" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J355" t="s">
-        <v>2</v>
-      </c>
-      <c r="K355" t="s">
-        <v>192</v>
-      </c>
-      <c r="L355" t="s">
-        <v>486</v>
-      </c>
-      <c r="M355" t="s">
-        <v>2</v>
-      </c>
-      <c r="N355" t="s">
-        <v>2</v>
-      </c>
-      <c r="O355" t="s">
-        <v>2</v>
-      </c>
-      <c r="P355" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="357" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D356" t="s">
+        <v>2</v>
+      </c>
+      <c r="E356" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F356" t="s">
+        <v>2</v>
+      </c>
+      <c r="G356" t="s">
+        <v>2</v>
+      </c>
+      <c r="H356" t="s">
+        <v>2</v>
+      </c>
+      <c r="I356" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J356" t="s">
+        <v>2</v>
+      </c>
+      <c r="K356" t="s">
+        <v>274</v>
+      </c>
+      <c r="L356" t="s">
+        <v>487</v>
+      </c>
+      <c r="M356" t="s">
+        <v>2</v>
+      </c>
+      <c r="N356" t="s">
+        <v>2</v>
+      </c>
+      <c r="O356" t="s">
+        <v>2</v>
+      </c>
+      <c r="P356" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="357" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>0</v>
       </c>
@@ -13715,17 +13927,17 @@
       <c r="D357" t="s">
         <v>2</v>
       </c>
-      <c r="E357" s="1" t="s">
+      <c r="E357" t="s">
         <v>2</v>
       </c>
       <c r="F357" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G357" t="s">
         <v>2</v>
       </c>
       <c r="H357" t="s">
-        <v>2</v>
+        <v>462</v>
       </c>
       <c r="I357" s="2" t="s">
         <v>2</v>
@@ -13734,7 +13946,7 @@
         <v>2</v>
       </c>
       <c r="K357" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L357" t="s">
         <v>487</v>
@@ -13769,13 +13981,13 @@
         <v>2</v>
       </c>
       <c r="F358" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G358" t="s">
         <v>2</v>
       </c>
       <c r="H358" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>2</v>
@@ -13803,59 +14015,59 @@
       </c>
     </row>
     <row r="359" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A359" t="s">
-        <v>0</v>
-      </c>
-      <c r="B359" s="3" t="s">
+      <c r="P359" s="3"/>
+    </row>
+    <row r="360" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>0</v>
+      </c>
+      <c r="B360" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C359" t="s">
+      <c r="C360" t="s">
         <v>100</v>
       </c>
-      <c r="D359" t="s">
-        <v>2</v>
-      </c>
-      <c r="E359" t="s">
-        <v>2</v>
-      </c>
-      <c r="F359" t="s">
-        <v>194</v>
-      </c>
-      <c r="G359" t="s">
-        <v>2</v>
-      </c>
-      <c r="H359" t="s">
-        <v>463</v>
-      </c>
-      <c r="I359" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J359" t="s">
-        <v>2</v>
-      </c>
-      <c r="K359" t="s">
-        <v>192</v>
-      </c>
-      <c r="L359" t="s">
-        <v>487</v>
-      </c>
-      <c r="M359" t="s">
-        <v>2</v>
-      </c>
-      <c r="N359" t="s">
-        <v>2</v>
-      </c>
-      <c r="O359" t="s">
-        <v>2</v>
-      </c>
-      <c r="P359" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="360" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P360" s="3"/>
-    </row>
-    <row r="361" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D360" t="s">
+        <v>2</v>
+      </c>
+      <c r="E360" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F360" t="s">
+        <v>2</v>
+      </c>
+      <c r="G360" t="s">
+        <v>2</v>
+      </c>
+      <c r="H360" t="s">
+        <v>2</v>
+      </c>
+      <c r="I360" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J360" t="s">
+        <v>2</v>
+      </c>
+      <c r="K360" t="s">
+        <v>274</v>
+      </c>
+      <c r="L360" t="s">
+        <v>488</v>
+      </c>
+      <c r="M360" t="s">
+        <v>2</v>
+      </c>
+      <c r="N360" t="s">
+        <v>2</v>
+      </c>
+      <c r="O360" t="s">
+        <v>2</v>
+      </c>
+      <c r="P360" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="361" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>0</v>
       </c>
@@ -13868,17 +14080,17 @@
       <c r="D361" t="s">
         <v>2</v>
       </c>
-      <c r="E361" s="1" t="s">
+      <c r="E361" t="s">
         <v>2</v>
       </c>
       <c r="F361" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G361" t="s">
         <v>2</v>
       </c>
       <c r="H361" t="s">
-        <v>2</v>
+        <v>464</v>
       </c>
       <c r="I361" s="2" t="s">
         <v>2</v>
@@ -13887,7 +14099,7 @@
         <v>2</v>
       </c>
       <c r="K361" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L361" t="s">
         <v>488</v>
@@ -13922,13 +14134,13 @@
         <v>2</v>
       </c>
       <c r="F362" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G362" t="s">
         <v>2</v>
       </c>
       <c r="H362" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>2</v>
@@ -13956,60 +14168,60 @@
       </c>
     </row>
     <row r="363" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A363" t="s">
-        <v>0</v>
-      </c>
-      <c r="B363" s="3" t="s">
+      <c r="I363" s="2"/>
+      <c r="P363" s="3"/>
+    </row>
+    <row r="364" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>0</v>
+      </c>
+      <c r="B364" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C363" t="s">
+      <c r="C364" t="s">
         <v>100</v>
       </c>
-      <c r="D363" t="s">
-        <v>2</v>
-      </c>
-      <c r="E363" t="s">
-        <v>2</v>
-      </c>
-      <c r="F363" t="s">
-        <v>194</v>
-      </c>
-      <c r="G363" t="s">
-        <v>2</v>
-      </c>
-      <c r="H363" t="s">
-        <v>465</v>
-      </c>
-      <c r="I363" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J363" t="s">
-        <v>2</v>
-      </c>
-      <c r="K363" t="s">
-        <v>192</v>
-      </c>
-      <c r="L363" t="s">
-        <v>488</v>
-      </c>
-      <c r="M363" t="s">
-        <v>2</v>
-      </c>
-      <c r="N363" t="s">
-        <v>2</v>
-      </c>
-      <c r="O363" t="s">
-        <v>2</v>
-      </c>
-      <c r="P363" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="364" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I364" s="2"/>
-      <c r="P364" s="3"/>
-    </row>
-    <row r="365" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D364" t="s">
+        <v>2</v>
+      </c>
+      <c r="E364" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F364" t="s">
+        <v>2</v>
+      </c>
+      <c r="G364" t="s">
+        <v>2</v>
+      </c>
+      <c r="H364" t="s">
+        <v>2</v>
+      </c>
+      <c r="I364" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J364" t="s">
+        <v>2</v>
+      </c>
+      <c r="K364" t="s">
+        <v>274</v>
+      </c>
+      <c r="L364" t="s">
+        <v>489</v>
+      </c>
+      <c r="M364" t="s">
+        <v>2</v>
+      </c>
+      <c r="N364" t="s">
+        <v>2</v>
+      </c>
+      <c r="O364" t="s">
+        <v>2</v>
+      </c>
+      <c r="P364" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="365" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
         <v>0</v>
       </c>
@@ -14022,17 +14234,17 @@
       <c r="D365" t="s">
         <v>2</v>
       </c>
-      <c r="E365" s="1" t="s">
+      <c r="E365" t="s">
         <v>2</v>
       </c>
       <c r="F365" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G365" t="s">
         <v>2</v>
       </c>
       <c r="H365" t="s">
-        <v>2</v>
+        <v>466</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>2</v>
@@ -14041,7 +14253,7 @@
         <v>2</v>
       </c>
       <c r="K365" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L365" t="s">
         <v>489</v>
@@ -14076,13 +14288,13 @@
         <v>2</v>
       </c>
       <c r="F366" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G366" t="s">
         <v>2</v>
       </c>
       <c r="H366" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>2</v>
@@ -14110,60 +14322,60 @@
       </c>
     </row>
     <row r="367" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A367" t="s">
-        <v>0</v>
-      </c>
-      <c r="B367" s="3" t="s">
+      <c r="I367" s="2"/>
+      <c r="P367" s="3"/>
+    </row>
+    <row r="368" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>0</v>
+      </c>
+      <c r="B368" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C367" t="s">
+      <c r="C368" t="s">
         <v>100</v>
       </c>
-      <c r="D367" t="s">
-        <v>2</v>
-      </c>
-      <c r="E367" t="s">
-        <v>2</v>
-      </c>
-      <c r="F367" t="s">
-        <v>194</v>
-      </c>
-      <c r="G367" t="s">
-        <v>2</v>
-      </c>
-      <c r="H367" t="s">
-        <v>467</v>
-      </c>
-      <c r="I367" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J367" t="s">
-        <v>2</v>
-      </c>
-      <c r="K367" t="s">
-        <v>192</v>
-      </c>
-      <c r="L367" t="s">
-        <v>489</v>
-      </c>
-      <c r="M367" t="s">
-        <v>2</v>
-      </c>
-      <c r="N367" t="s">
-        <v>2</v>
-      </c>
-      <c r="O367" t="s">
-        <v>2</v>
-      </c>
-      <c r="P367" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="368" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="I368" s="2"/>
-      <c r="P368" s="3"/>
-    </row>
-    <row r="369" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D368" t="s">
+        <v>2</v>
+      </c>
+      <c r="E368" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F368" t="s">
+        <v>2</v>
+      </c>
+      <c r="G368" t="s">
+        <v>2</v>
+      </c>
+      <c r="H368" t="s">
+        <v>2</v>
+      </c>
+      <c r="I368" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J368" t="s">
+        <v>2</v>
+      </c>
+      <c r="K368" t="s">
+        <v>274</v>
+      </c>
+      <c r="L368" t="s">
+        <v>490</v>
+      </c>
+      <c r="M368" t="s">
+        <v>2</v>
+      </c>
+      <c r="N368" t="s">
+        <v>2</v>
+      </c>
+      <c r="O368" t="s">
+        <v>2</v>
+      </c>
+      <c r="P368" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
         <v>0</v>
       </c>
@@ -14176,17 +14388,17 @@
       <c r="D369" t="s">
         <v>2</v>
       </c>
-      <c r="E369" s="1" t="s">
+      <c r="E369" t="s">
         <v>2</v>
       </c>
       <c r="F369" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G369" t="s">
         <v>2</v>
       </c>
       <c r="H369" t="s">
-        <v>2</v>
+        <v>468</v>
       </c>
       <c r="I369" s="2" t="s">
         <v>2</v>
@@ -14195,7 +14407,7 @@
         <v>2</v>
       </c>
       <c r="K369" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L369" t="s">
         <v>490</v>
@@ -14230,13 +14442,13 @@
         <v>2</v>
       </c>
       <c r="F370" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G370" t="s">
         <v>2</v>
       </c>
       <c r="H370" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>2</v>
@@ -14264,61 +14476,61 @@
       </c>
     </row>
     <row r="371" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A371" t="s">
-        <v>0</v>
-      </c>
-      <c r="B371" s="3" t="s">
+      <c r="E371" s="1"/>
+      <c r="I371" s="2"/>
+      <c r="P371" s="3"/>
+    </row>
+    <row r="372" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>0</v>
+      </c>
+      <c r="B372" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C371" t="s">
+      <c r="C372" t="s">
         <v>100</v>
       </c>
-      <c r="D371" t="s">
-        <v>2</v>
-      </c>
-      <c r="E371" t="s">
-        <v>2</v>
-      </c>
-      <c r="F371" t="s">
-        <v>194</v>
-      </c>
-      <c r="G371" t="s">
-        <v>2</v>
-      </c>
-      <c r="H371" t="s">
-        <v>469</v>
-      </c>
-      <c r="I371" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J371" t="s">
-        <v>2</v>
-      </c>
-      <c r="K371" t="s">
-        <v>192</v>
-      </c>
-      <c r="L371" t="s">
-        <v>490</v>
-      </c>
-      <c r="M371" t="s">
-        <v>2</v>
-      </c>
-      <c r="N371" t="s">
-        <v>2</v>
-      </c>
-      <c r="O371" t="s">
-        <v>2</v>
-      </c>
-      <c r="P371" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="372" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="E372" s="1"/>
-      <c r="I372" s="2"/>
-      <c r="P372" s="3"/>
-    </row>
-    <row r="373" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D372" t="s">
+        <v>2</v>
+      </c>
+      <c r="E372" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F372" t="s">
+        <v>2</v>
+      </c>
+      <c r="G372" t="s">
+        <v>2</v>
+      </c>
+      <c r="H372" t="s">
+        <v>2</v>
+      </c>
+      <c r="I372" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J372" t="s">
+        <v>2</v>
+      </c>
+      <c r="K372" t="s">
+        <v>274</v>
+      </c>
+      <c r="L372" t="s">
+        <v>491</v>
+      </c>
+      <c r="M372" t="s">
+        <v>2</v>
+      </c>
+      <c r="N372" t="s">
+        <v>2</v>
+      </c>
+      <c r="O372" t="s">
+        <v>2</v>
+      </c>
+      <c r="P372" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
         <v>0</v>
       </c>
@@ -14331,17 +14543,17 @@
       <c r="D373" t="s">
         <v>2</v>
       </c>
-      <c r="E373" s="1" t="s">
+      <c r="E373" t="s">
         <v>2</v>
       </c>
       <c r="F373" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G373" t="s">
         <v>2</v>
       </c>
       <c r="H373" t="s">
-        <v>2</v>
+        <v>470</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>2</v>
@@ -14350,7 +14562,7 @@
         <v>2</v>
       </c>
       <c r="K373" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L373" t="s">
         <v>491</v>
@@ -14385,13 +14597,13 @@
         <v>2</v>
       </c>
       <c r="F374" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G374" t="s">
         <v>2</v>
       </c>
       <c r="H374" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>2</v>
@@ -14418,57 +14630,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="375" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A375" t="s">
-        <v>0</v>
-      </c>
-      <c r="B375" s="3" t="s">
+    <row r="376" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A376" t="s">
+        <v>0</v>
+      </c>
+      <c r="B376" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C375" t="s">
+      <c r="C376" t="s">
         <v>100</v>
       </c>
-      <c r="D375" t="s">
-        <v>2</v>
-      </c>
-      <c r="E375" t="s">
-        <v>2</v>
-      </c>
-      <c r="F375" t="s">
-        <v>194</v>
-      </c>
-      <c r="G375" t="s">
-        <v>2</v>
-      </c>
-      <c r="H375" t="s">
-        <v>471</v>
-      </c>
-      <c r="I375" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J375" t="s">
-        <v>2</v>
-      </c>
-      <c r="K375" t="s">
-        <v>192</v>
-      </c>
-      <c r="L375" t="s">
-        <v>491</v>
-      </c>
-      <c r="M375" t="s">
-        <v>2</v>
-      </c>
-      <c r="N375" t="s">
-        <v>2</v>
-      </c>
-      <c r="O375" t="s">
-        <v>2</v>
-      </c>
-      <c r="P375" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="377" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D376" t="s">
+        <v>2</v>
+      </c>
+      <c r="E376" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F376" t="s">
+        <v>2</v>
+      </c>
+      <c r="G376" t="s">
+        <v>2</v>
+      </c>
+      <c r="H376" t="s">
+        <v>2</v>
+      </c>
+      <c r="I376" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J376" t="s">
+        <v>2</v>
+      </c>
+      <c r="K376" t="s">
+        <v>274</v>
+      </c>
+      <c r="L376" t="s">
+        <v>492</v>
+      </c>
+      <c r="M376" t="s">
+        <v>2</v>
+      </c>
+      <c r="N376" t="s">
+        <v>2</v>
+      </c>
+      <c r="O376" t="s">
+        <v>2</v>
+      </c>
+      <c r="P376" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="377" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
         <v>0</v>
       </c>
@@ -14481,17 +14693,17 @@
       <c r="D377" t="s">
         <v>2</v>
       </c>
-      <c r="E377" s="1" t="s">
+      <c r="E377" t="s">
         <v>2</v>
       </c>
       <c r="F377" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G377" t="s">
         <v>2</v>
       </c>
       <c r="H377" t="s">
-        <v>2</v>
+        <v>472</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>2</v>
@@ -14500,7 +14712,7 @@
         <v>2</v>
       </c>
       <c r="K377" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L377" t="s">
         <v>492</v>
@@ -14535,13 +14747,13 @@
         <v>2</v>
       </c>
       <c r="F378" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G378" t="s">
         <v>2</v>
       </c>
       <c r="H378" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>2</v>
@@ -14568,57 +14780,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="379" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A379" t="s">
-        <v>0</v>
-      </c>
-      <c r="B379" s="3" t="s">
+    <row r="380" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A380" t="s">
+        <v>0</v>
+      </c>
+      <c r="B380" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C379" t="s">
+      <c r="C380" t="s">
         <v>100</v>
       </c>
-      <c r="D379" t="s">
-        <v>2</v>
-      </c>
-      <c r="E379" t="s">
-        <v>2</v>
-      </c>
-      <c r="F379" t="s">
-        <v>194</v>
-      </c>
-      <c r="G379" t="s">
-        <v>2</v>
-      </c>
-      <c r="H379" t="s">
-        <v>473</v>
-      </c>
-      <c r="I379" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J379" t="s">
-        <v>2</v>
-      </c>
-      <c r="K379" t="s">
-        <v>192</v>
-      </c>
-      <c r="L379" t="s">
-        <v>492</v>
-      </c>
-      <c r="M379" t="s">
-        <v>2</v>
-      </c>
-      <c r="N379" t="s">
-        <v>2</v>
-      </c>
-      <c r="O379" t="s">
-        <v>2</v>
-      </c>
-      <c r="P379" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="381" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D380" t="s">
+        <v>2</v>
+      </c>
+      <c r="E380" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F380" t="s">
+        <v>2</v>
+      </c>
+      <c r="G380" t="s">
+        <v>2</v>
+      </c>
+      <c r="H380" t="s">
+        <v>2</v>
+      </c>
+      <c r="I380" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J380" t="s">
+        <v>2</v>
+      </c>
+      <c r="K380" t="s">
+        <v>274</v>
+      </c>
+      <c r="L380" t="s">
+        <v>493</v>
+      </c>
+      <c r="M380" t="s">
+        <v>2</v>
+      </c>
+      <c r="N380" t="s">
+        <v>2</v>
+      </c>
+      <c r="O380" t="s">
+        <v>2</v>
+      </c>
+      <c r="P380" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
         <v>0</v>
       </c>
@@ -14631,17 +14843,17 @@
       <c r="D381" t="s">
         <v>2</v>
       </c>
-      <c r="E381" s="1" t="s">
+      <c r="E381" t="s">
         <v>2</v>
       </c>
       <c r="F381" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G381" t="s">
         <v>2</v>
       </c>
       <c r="H381" t="s">
-        <v>2</v>
+        <v>474</v>
       </c>
       <c r="I381" s="2" t="s">
         <v>2</v>
@@ -14650,7 +14862,7 @@
         <v>2</v>
       </c>
       <c r="K381" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L381" t="s">
         <v>493</v>
@@ -14685,13 +14897,13 @@
         <v>2</v>
       </c>
       <c r="F382" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G382" t="s">
         <v>2</v>
       </c>
       <c r="H382" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>2</v>
@@ -14719,59 +14931,59 @@
       </c>
     </row>
     <row r="383" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A383" t="s">
-        <v>0</v>
-      </c>
-      <c r="B383" s="3" t="s">
+      <c r="P383" s="3"/>
+    </row>
+    <row r="384" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A384" t="s">
+        <v>0</v>
+      </c>
+      <c r="B384" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C383" t="s">
+      <c r="C384" t="s">
         <v>100</v>
       </c>
-      <c r="D383" t="s">
-        <v>2</v>
-      </c>
-      <c r="E383" t="s">
-        <v>2</v>
-      </c>
-      <c r="F383" t="s">
-        <v>194</v>
-      </c>
-      <c r="G383" t="s">
-        <v>2</v>
-      </c>
-      <c r="H383" t="s">
-        <v>475</v>
-      </c>
-      <c r="I383" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J383" t="s">
-        <v>2</v>
-      </c>
-      <c r="K383" t="s">
-        <v>192</v>
-      </c>
-      <c r="L383" t="s">
-        <v>493</v>
-      </c>
-      <c r="M383" t="s">
-        <v>2</v>
-      </c>
-      <c r="N383" t="s">
-        <v>2</v>
-      </c>
-      <c r="O383" t="s">
-        <v>2</v>
-      </c>
-      <c r="P383" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="384" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P384" s="3"/>
-    </row>
-    <row r="385" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D384" t="s">
+        <v>2</v>
+      </c>
+      <c r="E384" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F384" t="s">
+        <v>2</v>
+      </c>
+      <c r="G384" t="s">
+        <v>2</v>
+      </c>
+      <c r="H384" t="s">
+        <v>2</v>
+      </c>
+      <c r="I384" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J384" t="s">
+        <v>2</v>
+      </c>
+      <c r="K384" t="s">
+        <v>274</v>
+      </c>
+      <c r="L384" t="s">
+        <v>494</v>
+      </c>
+      <c r="M384" t="s">
+        <v>2</v>
+      </c>
+      <c r="N384" t="s">
+        <v>2</v>
+      </c>
+      <c r="O384" t="s">
+        <v>2</v>
+      </c>
+      <c r="P384" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="385" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A385" t="s">
         <v>0</v>
       </c>
@@ -14784,17 +14996,17 @@
       <c r="D385" t="s">
         <v>2</v>
       </c>
-      <c r="E385" s="1" t="s">
+      <c r="E385" t="s">
         <v>2</v>
       </c>
       <c r="F385" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G385" t="s">
         <v>2</v>
       </c>
       <c r="H385" t="s">
-        <v>2</v>
+        <v>476</v>
       </c>
       <c r="I385" s="2" t="s">
         <v>2</v>
@@ -14803,7 +15015,7 @@
         <v>2</v>
       </c>
       <c r="K385" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L385" t="s">
         <v>494</v>
@@ -14838,13 +15050,13 @@
         <v>2</v>
       </c>
       <c r="F386" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G386" t="s">
         <v>2</v>
       </c>
       <c r="H386" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>2</v>
@@ -14872,59 +15084,59 @@
       </c>
     </row>
     <row r="387" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A387" t="s">
-        <v>0</v>
-      </c>
-      <c r="B387" s="3" t="s">
+      <c r="P387" s="3"/>
+    </row>
+    <row r="388" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A388" t="s">
+        <v>0</v>
+      </c>
+      <c r="B388" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C387" t="s">
+      <c r="C388" t="s">
         <v>100</v>
       </c>
-      <c r="D387" t="s">
-        <v>2</v>
-      </c>
-      <c r="E387" t="s">
-        <v>2</v>
-      </c>
-      <c r="F387" t="s">
-        <v>194</v>
-      </c>
-      <c r="G387" t="s">
-        <v>2</v>
-      </c>
-      <c r="H387" t="s">
-        <v>477</v>
-      </c>
-      <c r="I387" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J387" t="s">
-        <v>2</v>
-      </c>
-      <c r="K387" t="s">
-        <v>192</v>
-      </c>
-      <c r="L387" t="s">
-        <v>494</v>
-      </c>
-      <c r="M387" t="s">
-        <v>2</v>
-      </c>
-      <c r="N387" t="s">
-        <v>2</v>
-      </c>
-      <c r="O387" t="s">
-        <v>2</v>
-      </c>
-      <c r="P387" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="388" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P388" s="3"/>
-    </row>
-    <row r="389" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D388" t="s">
+        <v>2</v>
+      </c>
+      <c r="E388" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F388" t="s">
+        <v>2</v>
+      </c>
+      <c r="G388" t="s">
+        <v>2</v>
+      </c>
+      <c r="H388" t="s">
+        <v>2</v>
+      </c>
+      <c r="I388" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J388" t="s">
+        <v>2</v>
+      </c>
+      <c r="K388" t="s">
+        <v>274</v>
+      </c>
+      <c r="L388" t="s">
+        <v>495</v>
+      </c>
+      <c r="M388" t="s">
+        <v>2</v>
+      </c>
+      <c r="N388" t="s">
+        <v>2</v>
+      </c>
+      <c r="O388" t="s">
+        <v>2</v>
+      </c>
+      <c r="P388" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="389" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A389" t="s">
         <v>0</v>
       </c>
@@ -14937,17 +15149,17 @@
       <c r="D389" t="s">
         <v>2</v>
       </c>
-      <c r="E389" s="1" t="s">
+      <c r="E389" t="s">
         <v>2</v>
       </c>
       <c r="F389" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G389" t="s">
         <v>2</v>
       </c>
       <c r="H389" t="s">
-        <v>2</v>
+        <v>478</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>2</v>
@@ -14956,7 +15168,7 @@
         <v>2</v>
       </c>
       <c r="K389" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L389" t="s">
         <v>495</v>
@@ -14991,13 +15203,13 @@
         <v>2</v>
       </c>
       <c r="F390" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G390" t="s">
         <v>2</v>
       </c>
       <c r="H390" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>2</v>
@@ -15025,57 +15237,57 @@
       </c>
     </row>
     <row r="391" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A391" t="s">
-        <v>0</v>
-      </c>
-      <c r="B391" s="3" t="s">
+      <c r="P391" s="3"/>
+    </row>
+    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A392" t="s">
+        <v>0</v>
+      </c>
+      <c r="B392" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C391" t="s">
+      <c r="C392" t="s">
         <v>100</v>
       </c>
-      <c r="D391" t="s">
-        <v>2</v>
-      </c>
-      <c r="E391" t="s">
-        <v>2</v>
-      </c>
-      <c r="F391" t="s">
-        <v>194</v>
-      </c>
-      <c r="G391" t="s">
-        <v>2</v>
-      </c>
-      <c r="H391" t="s">
-        <v>479</v>
-      </c>
-      <c r="I391" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J391" t="s">
-        <v>2</v>
-      </c>
-      <c r="K391" t="s">
-        <v>192</v>
-      </c>
-      <c r="L391" t="s">
-        <v>495</v>
-      </c>
-      <c r="M391" t="s">
-        <v>2</v>
-      </c>
-      <c r="N391" t="s">
-        <v>2</v>
-      </c>
-      <c r="O391" t="s">
-        <v>2</v>
-      </c>
-      <c r="P391" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="392" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P392" s="3"/>
+      <c r="D392" t="s">
+        <v>2</v>
+      </c>
+      <c r="E392" t="s">
+        <v>2</v>
+      </c>
+      <c r="F392" t="s">
+        <v>2</v>
+      </c>
+      <c r="G392" t="s">
+        <v>2</v>
+      </c>
+      <c r="H392" t="s">
+        <v>2</v>
+      </c>
+      <c r="I392" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J392" t="s">
+        <v>2</v>
+      </c>
+      <c r="K392" t="s">
+        <v>274</v>
+      </c>
+      <c r="L392" t="s">
+        <v>496</v>
+      </c>
+      <c r="M392" t="s">
+        <v>2</v>
+      </c>
+      <c r="N392" t="s">
+        <v>2</v>
+      </c>
+      <c r="O392" t="s">
+        <v>2</v>
+      </c>
+      <c r="P392" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="393" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A393" t="s">
@@ -15094,22 +15306,22 @@
         <v>2</v>
       </c>
       <c r="F393" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G393" t="s">
         <v>2</v>
       </c>
       <c r="H393" t="s">
-        <v>2</v>
-      </c>
-      <c r="I393" s="2" t="s">
+        <v>480</v>
+      </c>
+      <c r="I393" t="s">
         <v>2</v>
       </c>
       <c r="J393" t="s">
         <v>2</v>
       </c>
       <c r="K393" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L393" t="s">
         <v>496</v>
@@ -15123,7 +15335,7 @@
       <c r="O393" t="s">
         <v>2</v>
       </c>
-      <c r="P393" s="3" t="s">
+      <c r="P393" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15144,13 +15356,13 @@
         <v>2</v>
       </c>
       <c r="F394" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G394" t="s">
         <v>2</v>
       </c>
       <c r="H394" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I394" t="s">
         <v>2</v>
@@ -15177,53 +15389,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="395" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A395" t="s">
-        <v>0</v>
-      </c>
-      <c r="B395" s="3" t="s">
+    <row r="396" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A396" t="s">
+        <v>0</v>
+      </c>
+      <c r="B396" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C395" t="s">
+      <c r="C396" t="s">
         <v>100</v>
       </c>
-      <c r="D395" t="s">
-        <v>2</v>
-      </c>
-      <c r="E395" t="s">
-        <v>2</v>
-      </c>
-      <c r="F395" t="s">
-        <v>194</v>
-      </c>
-      <c r="G395" t="s">
-        <v>2</v>
-      </c>
-      <c r="H395" t="s">
-        <v>481</v>
-      </c>
-      <c r="I395" t="s">
-        <v>2</v>
-      </c>
-      <c r="J395" t="s">
-        <v>2</v>
-      </c>
-      <c r="K395" t="s">
-        <v>192</v>
-      </c>
-      <c r="L395" t="s">
-        <v>496</v>
-      </c>
-      <c r="M395" t="s">
-        <v>2</v>
-      </c>
-      <c r="N395" t="s">
-        <v>2</v>
-      </c>
-      <c r="O395" t="s">
-        <v>2</v>
-      </c>
-      <c r="P395" t="s">
+      <c r="D396" t="s">
+        <v>2</v>
+      </c>
+      <c r="E396" t="s">
+        <v>2</v>
+      </c>
+      <c r="F396" t="s">
+        <v>2</v>
+      </c>
+      <c r="G396" t="s">
+        <v>2</v>
+      </c>
+      <c r="H396" t="s">
+        <v>2</v>
+      </c>
+      <c r="I396" t="s">
+        <v>2</v>
+      </c>
+      <c r="J396" t="s">
+        <v>2</v>
+      </c>
+      <c r="K396" t="s">
+        <v>274</v>
+      </c>
+      <c r="L396" t="s">
+        <v>497</v>
+      </c>
+      <c r="M396" t="s">
+        <v>2</v>
+      </c>
+      <c r="N396" t="s">
+        <v>2</v>
+      </c>
+      <c r="O396" t="s">
+        <v>2</v>
+      </c>
+      <c r="P396" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15244,13 +15456,13 @@
         <v>2</v>
       </c>
       <c r="F397" t="s">
-        <v>2</v>
+        <v>190</v>
       </c>
       <c r="G397" t="s">
         <v>2</v>
       </c>
       <c r="H397" t="s">
-        <v>2</v>
+        <v>482</v>
       </c>
       <c r="I397" t="s">
         <v>2</v>
@@ -15259,7 +15471,7 @@
         <v>2</v>
       </c>
       <c r="K397" t="s">
-        <v>274</v>
+        <v>192</v>
       </c>
       <c r="L397" t="s">
         <v>497</v>
@@ -15294,13 +15506,13 @@
         <v>2</v>
       </c>
       <c r="F398" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="G398" t="s">
         <v>2</v>
       </c>
       <c r="H398" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I398" t="s">
         <v>2</v>
@@ -15327,53 +15539,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="399" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A399" t="s">
-        <v>0</v>
-      </c>
-      <c r="B399" s="3" t="s">
+    <row r="400" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A400" t="s">
+        <v>0</v>
+      </c>
+      <c r="B400" s="3" t="s">
         <v>576</v>
       </c>
-      <c r="C399" t="s">
+      <c r="C400" t="s">
         <v>100</v>
       </c>
-      <c r="D399" t="s">
-        <v>2</v>
-      </c>
-      <c r="E399" t="s">
-        <v>2</v>
-      </c>
-      <c r="F399" t="s">
-        <v>194</v>
-      </c>
-      <c r="G399" t="s">
-        <v>2</v>
-      </c>
-      <c r="H399" t="s">
-        <v>483</v>
-      </c>
-      <c r="I399" t="s">
-        <v>2</v>
-      </c>
-      <c r="J399" t="s">
-        <v>2</v>
-      </c>
-      <c r="K399" t="s">
-        <v>192</v>
-      </c>
-      <c r="L399" t="s">
-        <v>497</v>
-      </c>
-      <c r="M399" t="s">
-        <v>2</v>
-      </c>
-      <c r="N399" t="s">
-        <v>2</v>
-      </c>
-      <c r="O399" t="s">
-        <v>2</v>
-      </c>
-      <c r="P399" t="s">
+      <c r="D400" t="s">
+        <v>2</v>
+      </c>
+      <c r="E400" t="s">
+        <v>2</v>
+      </c>
+      <c r="F400" t="s">
+        <v>2</v>
+      </c>
+      <c r="G400" t="s">
+        <v>2</v>
+      </c>
+      <c r="H400" t="s">
+        <v>2</v>
+      </c>
+      <c r="I400" t="s">
+        <v>2</v>
+      </c>
+      <c r="J400" t="s">
+        <v>2</v>
+      </c>
+      <c r="K400" t="s">
+        <v>274</v>
+      </c>
+      <c r="L400" t="s">
+        <v>498</v>
+      </c>
+      <c r="M400" t="s">
+        <v>2</v>
+      </c>
+      <c r="N400" t="s">
+        <v>2</v>
+      </c>
+      <c r="O400" t="s">
+        <v>2</v>
+      </c>
+      <c r="P400" t="s">
         <v>2</v>
       </c>
     </row>
@@ -15427,58 +15639,58 @@
         <v>2</v>
       </c>
     </row>
-    <row r="402" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A402" t="s">
-        <v>0</v>
-      </c>
-      <c r="B402" s="3" t="s">
-        <v>576</v>
-      </c>
-      <c r="C402" t="s">
-        <v>100</v>
-      </c>
-      <c r="D402" t="s">
-        <v>2</v>
-      </c>
-      <c r="E402" t="s">
-        <v>2</v>
-      </c>
-      <c r="F402" t="s">
-        <v>2</v>
-      </c>
-      <c r="G402" t="s">
-        <v>2</v>
-      </c>
-      <c r="H402" t="s">
-        <v>2</v>
-      </c>
-      <c r="I402" t="s">
-        <v>2</v>
-      </c>
-      <c r="J402" t="s">
-        <v>2</v>
-      </c>
-      <c r="K402" t="s">
-        <v>274</v>
-      </c>
-      <c r="L402" t="s">
-        <v>498</v>
-      </c>
-      <c r="M402" t="s">
-        <v>2</v>
-      </c>
-      <c r="N402" t="s">
-        <v>2</v>
-      </c>
-      <c r="O402" t="s">
-        <v>2</v>
-      </c>
-      <c r="P402" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="439" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="440" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="439" spans="1:16" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A439" t="s">
+        <v>0</v>
+      </c>
+      <c r="B439" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" t="s">
+        <v>101</v>
+      </c>
+      <c r="D439" t="s">
+        <v>2</v>
+      </c>
+      <c r="E439" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F439" t="s">
+        <v>19</v>
+      </c>
+      <c r="G439" t="s">
+        <v>2</v>
+      </c>
+      <c r="H439" t="s">
+        <v>103</v>
+      </c>
+      <c r="I439" t="s">
+        <v>2</v>
+      </c>
+      <c r="J439" t="s">
+        <v>2</v>
+      </c>
+      <c r="K439" t="s">
+        <v>11</v>
+      </c>
+      <c r="L439" t="s">
+        <v>2</v>
+      </c>
+      <c r="M439" t="s">
+        <v>2</v>
+      </c>
+      <c r="N439" t="s">
+        <v>2</v>
+      </c>
+      <c r="O439" t="s">
+        <v>2</v>
+      </c>
+      <c r="P439" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="440" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A440" t="s">
         <v>0</v>
       </c>
@@ -15486,22 +15698,22 @@
         <v>11</v>
       </c>
       <c r="C440" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D440" t="s">
         <v>2</v>
       </c>
-      <c r="E440" s="1" t="s">
-        <v>3</v>
+      <c r="E440" t="s">
+        <v>2</v>
       </c>
       <c r="F440" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="G440" t="s">
         <v>2</v>
       </c>
       <c r="H440" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I440" t="s">
         <v>2</v>
@@ -15536,7 +15748,7 @@
         <v>11</v>
       </c>
       <c r="C441" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D441" t="s">
         <v>2</v>
@@ -15545,13 +15757,13 @@
         <v>2</v>
       </c>
       <c r="F441" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="G441" t="s">
         <v>2</v>
       </c>
       <c r="H441" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="I441" t="s">
         <v>2</v>
@@ -15583,7 +15795,7 @@
         <v>0</v>
       </c>
       <c r="B442" t="s">
-        <v>11</v>
+        <v>208</v>
       </c>
       <c r="C442" t="s">
         <v>101</v>
@@ -15595,13 +15807,13 @@
         <v>2</v>
       </c>
       <c r="F442" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G442" t="s">
         <v>2</v>
       </c>
       <c r="H442" t="s">
-        <v>140</v>
+        <v>2</v>
       </c>
       <c r="I442" t="s">
         <v>2</v>
@@ -15610,19 +15822,19 @@
         <v>2</v>
       </c>
       <c r="K442" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="L442" t="s">
-        <v>2</v>
+        <v>105</v>
       </c>
       <c r="M442" t="s">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="N442" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="O442" t="s">
-        <v>2</v>
+        <v>108</v>
       </c>
       <c r="P442" t="s">
         <v>2</v>
@@ -15645,34 +15857,34 @@
         <v>2</v>
       </c>
       <c r="F443" t="s">
-        <v>2</v>
+        <v>109</v>
       </c>
       <c r="G443" t="s">
-        <v>2</v>
+        <v>110</v>
       </c>
       <c r="H443" t="s">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="I443" t="s">
-        <v>2</v>
-      </c>
-      <c r="J443" t="s">
-        <v>2</v>
+        <v>112</v>
+      </c>
+      <c r="J443">
+        <v>1</v>
       </c>
       <c r="K443" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="L443" t="s">
-        <v>105</v>
+        <v>2</v>
       </c>
       <c r="M443" t="s">
-        <v>106</v>
+        <v>2</v>
       </c>
       <c r="N443" t="s">
-        <v>107</v>
+        <v>2</v>
       </c>
       <c r="O443" t="s">
-        <v>108</v>
+        <v>2</v>
       </c>
       <c r="P443" t="s">
         <v>2</v>
@@ -15695,16 +15907,16 @@
         <v>2</v>
       </c>
       <c r="F444" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="G444" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H444" t="s">
-        <v>111</v>
+        <v>2</v>
       </c>
       <c r="I444" t="s">
-        <v>112</v>
+        <v>131</v>
       </c>
       <c r="J444">
         <v>1</v>
@@ -15745,16 +15957,16 @@
         <v>2</v>
       </c>
       <c r="F445" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G445" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="H445" t="s">
         <v>2</v>
       </c>
       <c r="I445" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J445">
         <v>1</v>
@@ -15795,16 +16007,16 @@
         <v>2</v>
       </c>
       <c r="F446" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G446" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H446" t="s">
         <v>2</v>
       </c>
       <c r="I446" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="J446">
         <v>1</v>
@@ -15845,16 +16057,16 @@
         <v>2</v>
       </c>
       <c r="F447" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G447" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H447" t="s">
         <v>2</v>
       </c>
       <c r="I447" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="J447">
         <v>1</v>
@@ -15895,16 +16107,16 @@
         <v>2</v>
       </c>
       <c r="F448" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G448" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H448" t="s">
         <v>2</v>
       </c>
       <c r="I448" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="J448">
         <v>1</v>
@@ -15945,19 +16157,19 @@
         <v>2</v>
       </c>
       <c r="F449" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G449" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H449" t="s">
         <v>2</v>
       </c>
       <c r="I449" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J449">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K449" t="s">
         <v>15</v>
@@ -15995,19 +16207,19 @@
         <v>2</v>
       </c>
       <c r="F450" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="G450" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="H450" t="s">
         <v>2</v>
       </c>
       <c r="I450" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J450">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K450" t="s">
         <v>15</v>
@@ -16045,16 +16257,16 @@
         <v>2</v>
       </c>
       <c r="F451" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G451" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H451" t="s">
         <v>2</v>
       </c>
       <c r="I451" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="J451">
         <v>1</v>
@@ -16095,16 +16307,16 @@
         <v>2</v>
       </c>
       <c r="F452" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G452" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H452" t="s">
         <v>2</v>
       </c>
       <c r="I452" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="J452">
         <v>1</v>
@@ -16133,7 +16345,7 @@
         <v>0</v>
       </c>
       <c r="B453" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C453" t="s">
         <v>101</v>
@@ -16145,22 +16357,22 @@
         <v>2</v>
       </c>
       <c r="F453" t="s">
-        <v>129</v>
+        <v>237</v>
       </c>
       <c r="G453" t="s">
-        <v>130</v>
+        <v>2</v>
       </c>
       <c r="H453" t="s">
-        <v>2</v>
+        <v>248</v>
       </c>
       <c r="I453" t="s">
-        <v>139</v>
-      </c>
-      <c r="J453">
-        <v>1</v>
+        <v>247</v>
+      </c>
+      <c r="J453" t="s">
+        <v>2</v>
       </c>
       <c r="K453" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L453" t="s">
         <v>2</v>
@@ -16195,22 +16407,22 @@
         <v>2</v>
       </c>
       <c r="F454" t="s">
-        <v>237</v>
+        <v>249</v>
       </c>
       <c r="G454" t="s">
         <v>2</v>
       </c>
       <c r="H454" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
       <c r="I454" t="s">
-        <v>247</v>
-      </c>
-      <c r="J454" t="s">
-        <v>2</v>
+        <v>262</v>
+      </c>
+      <c r="J454">
+        <v>1</v>
       </c>
       <c r="K454" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="L454" t="s">
         <v>2</v>
@@ -16251,13 +16463,13 @@
         <v>2</v>
       </c>
       <c r="H455" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="I455" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="J455">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K455" t="s">
         <v>15</v>
@@ -16301,13 +16513,13 @@
         <v>2</v>
       </c>
       <c r="H456" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I456" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J456">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K456" t="s">
         <v>15</v>
@@ -16351,10 +16563,10 @@
         <v>2</v>
       </c>
       <c r="H457" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="I457" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="J457">
         <v>1</v>
@@ -16401,10 +16613,10 @@
         <v>2</v>
       </c>
       <c r="H458" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="I458" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="J458">
         <v>1</v>
@@ -16451,10 +16663,10 @@
         <v>2</v>
       </c>
       <c r="H459" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="I459" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="J459">
         <v>1</v>
@@ -16501,10 +16713,10 @@
         <v>2</v>
       </c>
       <c r="H460" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I460" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="J460">
         <v>1</v>
@@ -16551,7 +16763,7 @@
         <v>2</v>
       </c>
       <c r="H461" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="I461" t="s">
         <v>268</v>
@@ -16601,13 +16813,13 @@
         <v>2</v>
       </c>
       <c r="H462" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="I462" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="J462">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K462" t="s">
         <v>15</v>
@@ -16651,13 +16863,13 @@
         <v>2</v>
       </c>
       <c r="H463" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I463" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="J463">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K463" t="s">
         <v>15</v>
@@ -16701,13 +16913,13 @@
         <v>2</v>
       </c>
       <c r="H464" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I464" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="J464">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K464" t="s">
         <v>15</v>
@@ -16751,10 +16963,10 @@
         <v>2</v>
       </c>
       <c r="H465" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I465" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="J465">
         <v>0</v>
@@ -16778,53 +16990,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="466" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A466" t="s">
-        <v>0</v>
-      </c>
-      <c r="B466" t="s">
-        <v>210</v>
-      </c>
-      <c r="C466" t="s">
+    <row r="467" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A467" t="s">
+        <v>0</v>
+      </c>
+      <c r="B467" t="s">
+        <v>273</v>
+      </c>
+      <c r="C467" t="s">
         <v>101</v>
       </c>
-      <c r="D466" t="s">
-        <v>2</v>
-      </c>
-      <c r="E466" t="s">
-        <v>2</v>
-      </c>
-      <c r="F466" t="s">
-        <v>249</v>
-      </c>
-      <c r="G466" t="s">
-        <v>2</v>
-      </c>
-      <c r="H466" t="s">
-        <v>259</v>
-      </c>
-      <c r="I466" t="s">
-        <v>272</v>
-      </c>
-      <c r="J466">
-        <v>0</v>
-      </c>
-      <c r="K466" t="s">
-        <v>15</v>
-      </c>
-      <c r="L466" t="s">
-        <v>2</v>
-      </c>
-      <c r="M466" t="s">
-        <v>2</v>
-      </c>
-      <c r="N466" t="s">
-        <v>2</v>
-      </c>
-      <c r="O466" t="s">
-        <v>2</v>
-      </c>
-      <c r="P466" t="s">
+      <c r="D467" t="s">
+        <v>2</v>
+      </c>
+      <c r="E467" t="s">
+        <v>2</v>
+      </c>
+      <c r="F467" t="s">
+        <v>2</v>
+      </c>
+      <c r="G467" t="s">
+        <v>2</v>
+      </c>
+      <c r="H467" t="s">
+        <v>2</v>
+      </c>
+      <c r="I467" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J467" t="s">
+        <v>2</v>
+      </c>
+      <c r="K467" t="s">
+        <v>274</v>
+      </c>
+      <c r="L467" t="s">
+        <v>499</v>
+      </c>
+      <c r="M467" t="s">
+        <v>2</v>
+      </c>
+      <c r="N467" t="s">
+        <v>2</v>
+      </c>
+      <c r="O467" t="s">
+        <v>2</v>
+      </c>
+      <c r="P467" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16845,86 +17057,86 @@
         <v>2</v>
       </c>
       <c r="F468" t="s">
-        <v>2</v>
+        <v>237</v>
       </c>
       <c r="G468" t="s">
         <v>2</v>
       </c>
       <c r="H468" t="s">
-        <v>2</v>
-      </c>
-      <c r="I468" s="2" t="s">
-        <v>2</v>
+        <v>500</v>
+      </c>
+      <c r="I468" t="s">
+        <v>501</v>
       </c>
       <c r="J468" t="s">
         <v>2</v>
       </c>
       <c r="K468" t="s">
+        <v>10</v>
+      </c>
+      <c r="L468" t="s">
+        <v>502</v>
+      </c>
+      <c r="M468" t="s">
+        <v>2</v>
+      </c>
+      <c r="N468" t="s">
+        <v>2</v>
+      </c>
+      <c r="O468" t="s">
+        <v>2</v>
+      </c>
+      <c r="P468" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="470" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A470" t="s">
+        <v>0</v>
+      </c>
+      <c r="B470" t="s">
+        <v>273</v>
+      </c>
+      <c r="C470" t="s">
+        <v>101</v>
+      </c>
+      <c r="D470" t="s">
+        <v>2</v>
+      </c>
+      <c r="E470" t="s">
+        <v>2</v>
+      </c>
+      <c r="F470" t="s">
+        <v>2</v>
+      </c>
+      <c r="G470" t="s">
+        <v>2</v>
+      </c>
+      <c r="H470" t="s">
+        <v>2</v>
+      </c>
+      <c r="I470" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J470" t="s">
+        <v>2</v>
+      </c>
+      <c r="K470" t="s">
         <v>274</v>
       </c>
-      <c r="L468" t="s">
-        <v>499</v>
-      </c>
-      <c r="M468" t="s">
-        <v>2</v>
-      </c>
-      <c r="N468" t="s">
-        <v>2</v>
-      </c>
-      <c r="O468" t="s">
-        <v>2</v>
-      </c>
-      <c r="P468" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="469" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A469" t="s">
-        <v>0</v>
-      </c>
-      <c r="B469" t="s">
-        <v>273</v>
-      </c>
-      <c r="C469" t="s">
-        <v>101</v>
-      </c>
-      <c r="D469" t="s">
-        <v>2</v>
-      </c>
-      <c r="E469" t="s">
-        <v>2</v>
-      </c>
-      <c r="F469" t="s">
-        <v>237</v>
-      </c>
-      <c r="G469" t="s">
-        <v>2</v>
-      </c>
-      <c r="H469" t="s">
-        <v>500</v>
-      </c>
-      <c r="I469" t="s">
-        <v>501</v>
-      </c>
-      <c r="J469" t="s">
-        <v>2</v>
-      </c>
-      <c r="K469" t="s">
-        <v>10</v>
-      </c>
-      <c r="L469" t="s">
-        <v>502</v>
-      </c>
-      <c r="M469" t="s">
-        <v>2</v>
-      </c>
-      <c r="N469" t="s">
-        <v>2</v>
-      </c>
-      <c r="O469" t="s">
-        <v>2</v>
-      </c>
-      <c r="P469" s="3" t="s">
+      <c r="L470" t="s">
+        <v>503</v>
+      </c>
+      <c r="M470" t="s">
+        <v>2</v>
+      </c>
+      <c r="N470" t="s">
+        <v>2</v>
+      </c>
+      <c r="O470" t="s">
+        <v>2</v>
+      </c>
+      <c r="P470" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -16945,25 +17157,25 @@
         <v>2</v>
       </c>
       <c r="F471" t="s">
-        <v>2</v>
+        <v>505</v>
       </c>
       <c r="G471" t="s">
         <v>2</v>
       </c>
       <c r="H471" t="s">
-        <v>2</v>
-      </c>
-      <c r="I471" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J471" t="s">
-        <v>2</v>
+        <v>515</v>
+      </c>
+      <c r="I471" t="s">
+        <v>525</v>
+      </c>
+      <c r="J471">
+        <v>1</v>
       </c>
       <c r="K471" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L471" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="M471" t="s">
         <v>2</v>
@@ -16995,19 +17207,19 @@
         <v>2</v>
       </c>
       <c r="F472" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="G472" t="s">
         <v>2</v>
       </c>
       <c r="H472" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I472" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="J472">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K472" t="s">
         <v>15</v>
@@ -17045,19 +17257,19 @@
         <v>2</v>
       </c>
       <c r="F473" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G473" t="s">
         <v>2</v>
       </c>
       <c r="H473" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I473" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="J473">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K473" t="s">
         <v>15</v>
@@ -17095,19 +17307,19 @@
         <v>2</v>
       </c>
       <c r="F474" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G474" t="s">
         <v>2</v>
       </c>
       <c r="H474" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I474" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="J474">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K474" t="s">
         <v>15</v>
@@ -17145,19 +17357,19 @@
         <v>2</v>
       </c>
       <c r="F475" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="G475" t="s">
         <v>2</v>
       </c>
       <c r="H475" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I475" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="J475">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K475" t="s">
         <v>15</v>
@@ -17195,19 +17407,19 @@
         <v>2</v>
       </c>
       <c r="F476" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="G476" t="s">
         <v>2</v>
       </c>
       <c r="H476" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I476" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="J476">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K476" t="s">
         <v>15</v>
@@ -17245,19 +17457,19 @@
         <v>2</v>
       </c>
       <c r="F477" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G477" t="s">
         <v>2</v>
       </c>
       <c r="H477" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I477" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="J477">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K477" t="s">
         <v>15</v>
@@ -17295,19 +17507,19 @@
         <v>2</v>
       </c>
       <c r="F478" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G478" t="s">
         <v>2</v>
       </c>
       <c r="H478" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I478" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="J478">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K478" t="s">
         <v>15</v>
@@ -17345,19 +17557,19 @@
         <v>2</v>
       </c>
       <c r="F479" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="G479" t="s">
         <v>2</v>
       </c>
       <c r="H479" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I479" t="s">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="J479">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K479" t="s">
         <v>15</v>
@@ -17395,19 +17607,19 @@
         <v>2</v>
       </c>
       <c r="F480" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="G480" t="s">
         <v>2</v>
       </c>
       <c r="H480" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I480" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="J480">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K480" t="s">
         <v>15</v>
@@ -17445,25 +17657,25 @@
         <v>2</v>
       </c>
       <c r="F481" t="s">
-        <v>514</v>
+        <v>534</v>
       </c>
       <c r="G481" t="s">
         <v>2</v>
       </c>
       <c r="H481" t="s">
-        <v>524</v>
+        <v>535</v>
       </c>
       <c r="I481" t="s">
-        <v>533</v>
-      </c>
-      <c r="J481">
-        <v>1</v>
+        <v>536</v>
+      </c>
+      <c r="J481" t="s">
+        <v>2</v>
       </c>
       <c r="K481" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="L481" t="s">
-        <v>504</v>
+        <v>537</v>
       </c>
       <c r="M481" t="s">
         <v>2</v>
@@ -17474,57 +17686,57 @@
       <c r="O481" t="s">
         <v>2</v>
       </c>
-      <c r="P481" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="482" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A482" t="s">
-        <v>0</v>
-      </c>
-      <c r="B482" t="s">
+      <c r="P481" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="483" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A483" t="s">
+        <v>0</v>
+      </c>
+      <c r="B483" t="s">
         <v>273</v>
       </c>
-      <c r="C482" t="s">
+      <c r="C483" t="s">
         <v>101</v>
       </c>
-      <c r="D482" t="s">
-        <v>2</v>
-      </c>
-      <c r="E482" t="s">
-        <v>2</v>
-      </c>
-      <c r="F482" t="s">
-        <v>534</v>
-      </c>
-      <c r="G482" t="s">
-        <v>2</v>
-      </c>
-      <c r="H482" t="s">
-        <v>535</v>
-      </c>
-      <c r="I482" t="s">
-        <v>536</v>
-      </c>
-      <c r="J482" t="s">
-        <v>2</v>
-      </c>
-      <c r="K482" t="s">
-        <v>10</v>
-      </c>
-      <c r="L482" t="s">
-        <v>537</v>
-      </c>
-      <c r="M482" t="s">
-        <v>2</v>
-      </c>
-      <c r="N482" t="s">
-        <v>2</v>
-      </c>
-      <c r="O482" t="s">
-        <v>2</v>
-      </c>
-      <c r="P482" t="s">
+      <c r="D483" t="s">
+        <v>2</v>
+      </c>
+      <c r="E483" t="s">
+        <v>2</v>
+      </c>
+      <c r="F483" t="s">
+        <v>2</v>
+      </c>
+      <c r="G483" t="s">
+        <v>2</v>
+      </c>
+      <c r="H483" t="s">
+        <v>2</v>
+      </c>
+      <c r="I483" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J483" t="s">
+        <v>2</v>
+      </c>
+      <c r="K483" t="s">
+        <v>274</v>
+      </c>
+      <c r="L483" t="s">
+        <v>538</v>
+      </c>
+      <c r="M483" t="s">
+        <v>2</v>
+      </c>
+      <c r="N483" t="s">
+        <v>2</v>
+      </c>
+      <c r="O483" t="s">
+        <v>2</v>
+      </c>
+      <c r="P483" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -17551,19 +17763,19 @@
         <v>2</v>
       </c>
       <c r="H484" t="s">
-        <v>2</v>
-      </c>
-      <c r="I484" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J484" t="s">
-        <v>2</v>
+        <v>539</v>
+      </c>
+      <c r="I484" t="s">
+        <v>545</v>
+      </c>
+      <c r="J484">
+        <v>0</v>
       </c>
       <c r="K484" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L484" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="M484" t="s">
         <v>2</v>
@@ -17601,13 +17813,13 @@
         <v>2</v>
       </c>
       <c r="H485" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="I485" t="s">
         <v>545</v>
       </c>
       <c r="J485">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K485" t="s">
         <v>15</v>
@@ -17628,53 +17840,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="486" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A486" t="s">
-        <v>0</v>
-      </c>
-      <c r="B486" t="s">
+    <row r="487" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A487" t="s">
+        <v>0</v>
+      </c>
+      <c r="B487" t="s">
         <v>273</v>
       </c>
-      <c r="C486" t="s">
+      <c r="C487" t="s">
         <v>101</v>
       </c>
-      <c r="D486" t="s">
-        <v>2</v>
-      </c>
-      <c r="E486" t="s">
-        <v>2</v>
-      </c>
-      <c r="F486" t="s">
-        <v>2</v>
-      </c>
-      <c r="G486" t="s">
-        <v>2</v>
-      </c>
-      <c r="H486" t="s">
-        <v>540</v>
-      </c>
-      <c r="I486" t="s">
-        <v>545</v>
-      </c>
-      <c r="J486">
-        <v>1</v>
-      </c>
-      <c r="K486" t="s">
-        <v>15</v>
-      </c>
-      <c r="L486" t="s">
-        <v>541</v>
-      </c>
-      <c r="M486" t="s">
-        <v>2</v>
-      </c>
-      <c r="N486" t="s">
-        <v>2</v>
-      </c>
-      <c r="O486" t="s">
-        <v>2</v>
-      </c>
-      <c r="P486" s="3" t="s">
+      <c r="D487" t="s">
+        <v>2</v>
+      </c>
+      <c r="E487" t="s">
+        <v>2</v>
+      </c>
+      <c r="F487" t="s">
+        <v>2</v>
+      </c>
+      <c r="G487" t="s">
+        <v>2</v>
+      </c>
+      <c r="H487" t="s">
+        <v>2</v>
+      </c>
+      <c r="I487" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J487" t="s">
+        <v>2</v>
+      </c>
+      <c r="K487" t="s">
+        <v>274</v>
+      </c>
+      <c r="L487" t="s">
+        <v>542</v>
+      </c>
+      <c r="M487" t="s">
+        <v>2</v>
+      </c>
+      <c r="N487" t="s">
+        <v>2</v>
+      </c>
+      <c r="O487" t="s">
+        <v>2</v>
+      </c>
+      <c r="P487" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -17701,19 +17913,19 @@
         <v>2</v>
       </c>
       <c r="H488" t="s">
-        <v>2</v>
-      </c>
-      <c r="I488" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J488" t="s">
-        <v>2</v>
+        <v>543</v>
+      </c>
+      <c r="I488" t="s">
+        <v>548</v>
+      </c>
+      <c r="J488">
+        <v>1</v>
       </c>
       <c r="K488" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L488" t="s">
-        <v>542</v>
+        <v>547</v>
       </c>
       <c r="M488" t="s">
         <v>2</v>
@@ -17751,10 +17963,10 @@
         <v>2</v>
       </c>
       <c r="H489" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I489" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="J489">
         <v>1</v>
@@ -17778,53 +17990,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="490" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A490" t="s">
-        <v>0</v>
-      </c>
-      <c r="B490" t="s">
+    <row r="491" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A491" t="s">
+        <v>0</v>
+      </c>
+      <c r="B491" t="s">
         <v>273</v>
       </c>
-      <c r="C490" t="s">
+      <c r="C491" t="s">
         <v>101</v>
       </c>
-      <c r="D490" t="s">
-        <v>2</v>
-      </c>
-      <c r="E490" t="s">
-        <v>2</v>
-      </c>
-      <c r="F490" t="s">
-        <v>2</v>
-      </c>
-      <c r="G490" t="s">
-        <v>2</v>
-      </c>
-      <c r="H490" t="s">
-        <v>544</v>
-      </c>
-      <c r="I490" t="s">
-        <v>546</v>
-      </c>
-      <c r="J490">
-        <v>1</v>
-      </c>
-      <c r="K490" t="s">
-        <v>15</v>
-      </c>
-      <c r="L490" t="s">
-        <v>547</v>
-      </c>
-      <c r="M490" t="s">
-        <v>2</v>
-      </c>
-      <c r="N490" t="s">
-        <v>2</v>
-      </c>
-      <c r="O490" t="s">
-        <v>2</v>
-      </c>
-      <c r="P490" s="3" t="s">
+      <c r="D491" t="s">
+        <v>2</v>
+      </c>
+      <c r="E491" t="s">
+        <v>2</v>
+      </c>
+      <c r="F491" t="s">
+        <v>2</v>
+      </c>
+      <c r="G491" t="s">
+        <v>2</v>
+      </c>
+      <c r="H491" t="s">
+        <v>2</v>
+      </c>
+      <c r="I491" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J491" t="s">
+        <v>2</v>
+      </c>
+      <c r="K491" t="s">
+        <v>274</v>
+      </c>
+      <c r="L491" t="s">
+        <v>556</v>
+      </c>
+      <c r="M491" t="s">
+        <v>2</v>
+      </c>
+      <c r="N491" t="s">
+        <v>2</v>
+      </c>
+      <c r="O491" t="s">
+        <v>2</v>
+      </c>
+      <c r="P491" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -17845,25 +18057,25 @@
         <v>2</v>
       </c>
       <c r="F492" t="s">
-        <v>2</v>
+        <v>549</v>
       </c>
       <c r="G492" t="s">
         <v>2</v>
       </c>
       <c r="H492" t="s">
-        <v>2</v>
-      </c>
-      <c r="I492" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J492" t="s">
-        <v>2</v>
+        <v>553</v>
+      </c>
+      <c r="I492" t="s">
+        <v>550</v>
+      </c>
+      <c r="J492">
+        <v>1</v>
       </c>
       <c r="K492" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L492" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="M492" t="s">
         <v>2</v>
@@ -17895,19 +18107,19 @@
         <v>2</v>
       </c>
       <c r="F493" t="s">
-        <v>549</v>
+        <v>2</v>
       </c>
       <c r="G493" t="s">
         <v>2</v>
       </c>
       <c r="H493" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="I493" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="J493">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K493" t="s">
         <v>15</v>
@@ -17951,13 +18163,13 @@
         <v>2</v>
       </c>
       <c r="H494" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I494" t="s">
         <v>554</v>
       </c>
       <c r="J494">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K494" t="s">
         <v>15</v>
@@ -17978,53 +18190,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="495" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A495" t="s">
-        <v>0</v>
-      </c>
-      <c r="B495" t="s">
+    <row r="496" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A496" t="s">
+        <v>0</v>
+      </c>
+      <c r="B496" t="s">
         <v>273</v>
       </c>
-      <c r="C495" t="s">
+      <c r="C496" t="s">
         <v>101</v>
       </c>
-      <c r="D495" t="s">
-        <v>2</v>
-      </c>
-      <c r="E495" t="s">
-        <v>2</v>
-      </c>
-      <c r="F495" t="s">
-        <v>2</v>
-      </c>
-      <c r="G495" t="s">
-        <v>2</v>
-      </c>
-      <c r="H495" t="s">
-        <v>552</v>
-      </c>
-      <c r="I495" t="s">
-        <v>554</v>
-      </c>
-      <c r="J495">
-        <v>2</v>
-      </c>
-      <c r="K495" t="s">
-        <v>15</v>
-      </c>
-      <c r="L495" t="s">
-        <v>555</v>
-      </c>
-      <c r="M495" t="s">
-        <v>2</v>
-      </c>
-      <c r="N495" t="s">
-        <v>2</v>
-      </c>
-      <c r="O495" t="s">
-        <v>2</v>
-      </c>
-      <c r="P495" s="3" t="s">
+      <c r="D496" t="s">
+        <v>2</v>
+      </c>
+      <c r="E496" t="s">
+        <v>2</v>
+      </c>
+      <c r="F496" t="s">
+        <v>2</v>
+      </c>
+      <c r="G496" t="s">
+        <v>2</v>
+      </c>
+      <c r="H496" t="s">
+        <v>2</v>
+      </c>
+      <c r="I496" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J496" t="s">
+        <v>2</v>
+      </c>
+      <c r="K496" t="s">
+        <v>274</v>
+      </c>
+      <c r="L496" t="s">
+        <v>563</v>
+      </c>
+      <c r="M496" t="s">
+        <v>2</v>
+      </c>
+      <c r="N496" t="s">
+        <v>2</v>
+      </c>
+      <c r="O496" t="s">
+        <v>2</v>
+      </c>
+      <c r="P496" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18045,25 +18257,25 @@
         <v>2</v>
       </c>
       <c r="F497" t="s">
-        <v>2</v>
+        <v>557</v>
       </c>
       <c r="G497" t="s">
         <v>2</v>
       </c>
       <c r="H497" t="s">
-        <v>2</v>
-      </c>
-      <c r="I497" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J497" t="s">
-        <v>2</v>
+        <v>559</v>
+      </c>
+      <c r="I497" t="s">
+        <v>561</v>
+      </c>
+      <c r="J497">
+        <v>1</v>
       </c>
       <c r="K497" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L497" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M497" t="s">
         <v>2</v>
@@ -18095,19 +18307,19 @@
         <v>2</v>
       </c>
       <c r="F498" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="G498" t="s">
         <v>2</v>
       </c>
       <c r="H498" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="I498" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="J498">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K498" t="s">
         <v>15</v>
@@ -18129,57 +18341,57 @@
       </c>
     </row>
     <row r="499" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A499" t="s">
-        <v>0</v>
-      </c>
-      <c r="B499" t="s">
+      <c r="P499" s="3"/>
+    </row>
+    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A500" t="s">
+        <v>0</v>
+      </c>
+      <c r="B500" t="s">
         <v>273</v>
       </c>
-      <c r="C499" t="s">
+      <c r="C500" t="s">
         <v>101</v>
       </c>
-      <c r="D499" t="s">
-        <v>2</v>
-      </c>
-      <c r="E499" t="s">
-        <v>2</v>
-      </c>
-      <c r="F499" t="s">
-        <v>558</v>
-      </c>
-      <c r="G499" t="s">
-        <v>2</v>
-      </c>
-      <c r="H499" t="s">
-        <v>560</v>
-      </c>
-      <c r="I499" t="s">
-        <v>562</v>
-      </c>
-      <c r="J499">
-        <v>0</v>
-      </c>
-      <c r="K499" t="s">
-        <v>15</v>
-      </c>
-      <c r="L499" t="s">
-        <v>564</v>
-      </c>
-      <c r="M499" t="s">
-        <v>2</v>
-      </c>
-      <c r="N499" t="s">
-        <v>2</v>
-      </c>
-      <c r="O499" t="s">
-        <v>2</v>
-      </c>
-      <c r="P499" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="500" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="P500" s="3"/>
+      <c r="D500" t="s">
+        <v>2</v>
+      </c>
+      <c r="E500" t="s">
+        <v>2</v>
+      </c>
+      <c r="F500" t="s">
+        <v>2</v>
+      </c>
+      <c r="G500" t="s">
+        <v>2</v>
+      </c>
+      <c r="H500" t="s">
+        <v>2</v>
+      </c>
+      <c r="I500" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J500" t="s">
+        <v>2</v>
+      </c>
+      <c r="K500" t="s">
+        <v>274</v>
+      </c>
+      <c r="L500" t="s">
+        <v>568</v>
+      </c>
+      <c r="M500" t="s">
+        <v>2</v>
+      </c>
+      <c r="N500" t="s">
+        <v>2</v>
+      </c>
+      <c r="O500" t="s">
+        <v>2</v>
+      </c>
+      <c r="P500" s="3" t="s">
+        <v>2</v>
+      </c>
     </row>
     <row r="501" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
@@ -18204,19 +18416,19 @@
         <v>2</v>
       </c>
       <c r="H501" t="s">
-        <v>2</v>
-      </c>
-      <c r="I501" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J501" t="s">
-        <v>2</v>
+        <v>565</v>
+      </c>
+      <c r="I501" t="s">
+        <v>567</v>
+      </c>
+      <c r="J501">
+        <v>0</v>
       </c>
       <c r="K501" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L501" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="M501" t="s">
         <v>2</v>
@@ -18254,13 +18466,13 @@
         <v>2</v>
       </c>
       <c r="H502" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="I502" t="s">
         <v>567</v>
       </c>
       <c r="J502">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K502" t="s">
         <v>15</v>
@@ -18281,53 +18493,53 @@
         <v>2</v>
       </c>
     </row>
-    <row r="503" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A503" t="s">
-        <v>0</v>
-      </c>
-      <c r="B503" t="s">
+    <row r="504" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A504" t="s">
+        <v>0</v>
+      </c>
+      <c r="B504" t="s">
         <v>273</v>
       </c>
-      <c r="C503" t="s">
+      <c r="C504" t="s">
         <v>101</v>
       </c>
-      <c r="D503" t="s">
-        <v>2</v>
-      </c>
-      <c r="E503" t="s">
-        <v>2</v>
-      </c>
-      <c r="F503" t="s">
-        <v>2</v>
-      </c>
-      <c r="G503" t="s">
-        <v>2</v>
-      </c>
-      <c r="H503" t="s">
-        <v>566</v>
-      </c>
-      <c r="I503" t="s">
-        <v>567</v>
-      </c>
-      <c r="J503">
-        <v>1</v>
-      </c>
-      <c r="K503" t="s">
-        <v>15</v>
-      </c>
-      <c r="L503" t="s">
-        <v>569</v>
-      </c>
-      <c r="M503" t="s">
-        <v>2</v>
-      </c>
-      <c r="N503" t="s">
-        <v>2</v>
-      </c>
-      <c r="O503" t="s">
-        <v>2</v>
-      </c>
-      <c r="P503" s="3" t="s">
+      <c r="D504" t="s">
+        <v>2</v>
+      </c>
+      <c r="E504" t="s">
+        <v>2</v>
+      </c>
+      <c r="F504" t="s">
+        <v>2</v>
+      </c>
+      <c r="G504" t="s">
+        <v>2</v>
+      </c>
+      <c r="H504" t="s">
+        <v>2</v>
+      </c>
+      <c r="I504" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J504" t="s">
+        <v>2</v>
+      </c>
+      <c r="K504" t="s">
+        <v>274</v>
+      </c>
+      <c r="L504" t="s">
+        <v>574</v>
+      </c>
+      <c r="M504" t="s">
+        <v>2</v>
+      </c>
+      <c r="N504" t="s">
+        <v>2</v>
+      </c>
+      <c r="O504" t="s">
+        <v>2</v>
+      </c>
+      <c r="P504" s="3" t="s">
         <v>2</v>
       </c>
     </row>
@@ -18354,19 +18566,19 @@
         <v>2</v>
       </c>
       <c r="H505" t="s">
-        <v>2</v>
-      </c>
-      <c r="I505" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="J505" t="s">
-        <v>2</v>
+        <v>570</v>
+      </c>
+      <c r="I505" t="s">
+        <v>572</v>
+      </c>
+      <c r="J505">
+        <v>0</v>
       </c>
       <c r="K505" t="s">
-        <v>274</v>
+        <v>15</v>
       </c>
       <c r="L505" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="M505" t="s">
         <v>2</v>
@@ -18404,10 +18616,10 @@
         <v>2</v>
       </c>
       <c r="H506" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="I506" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J506">
         <v>0</v>
@@ -18428,56 +18640,6 @@
         <v>2</v>
       </c>
       <c r="P506" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="507" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A507" t="s">
-        <v>0</v>
-      </c>
-      <c r="B507" t="s">
-        <v>273</v>
-      </c>
-      <c r="C507" t="s">
-        <v>101</v>
-      </c>
-      <c r="D507" t="s">
-        <v>2</v>
-      </c>
-      <c r="E507" t="s">
-        <v>2</v>
-      </c>
-      <c r="F507" t="s">
-        <v>2</v>
-      </c>
-      <c r="G507" t="s">
-        <v>2</v>
-      </c>
-      <c r="H507" t="s">
-        <v>571</v>
-      </c>
-      <c r="I507" t="s">
-        <v>573</v>
-      </c>
-      <c r="J507">
-        <v>0</v>
-      </c>
-      <c r="K507" t="s">
-        <v>15</v>
-      </c>
-      <c r="L507" t="s">
-        <v>575</v>
-      </c>
-      <c r="M507" t="s">
-        <v>2</v>
-      </c>
-      <c r="N507" t="s">
-        <v>2</v>
-      </c>
-      <c r="O507" t="s">
-        <v>2</v>
-      </c>
-      <c r="P507" s="3" t="s">
         <v>2</v>
       </c>
     </row>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{634A9C79-0ADB-1747-B8AF-0300CE0C9A90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB6E075-ABE3-E645-9AC4-7B69504ED14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="2860" windowWidth="33600" windowHeight="20500" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -618,33 +618,6 @@
     <t>Select the correct preposition to complete the sentence based on the given translation:</t>
   </si>
   <si>
-    <t>Your house is ________ my house منزلك  بجانب منزلي</t>
-  </si>
-  <si>
-    <t>Don’t sit ______ to me  لا تجلس بجانبي</t>
-  </si>
-  <si>
-    <t>He is _____the door. هو عند الباب</t>
-  </si>
-  <si>
-    <t>He is _____ the office now. هو في المكتب الآن</t>
-  </si>
-  <si>
-    <t>The shoes are _____ the bed. الأحذية تحت السرير</t>
-  </si>
-  <si>
-    <t>There is a stain ____ your shirt. هناك بقعة على قميصك</t>
-  </si>
-  <si>
-    <t>The painting is ____ the wall. اللوحة على الحائط</t>
-  </si>
-  <si>
-    <t>She lives _____ New York. هي تعيش في نيويورك</t>
-  </si>
-  <si>
-    <t>The keys are _____ the drawer. المفاتيح في الدرج</t>
-  </si>
-  <si>
     <t>in;on;under;at;next to</t>
   </si>
   <si>
@@ -675,21 +648,6 @@
     <t>on; in; by; at; for</t>
   </si>
   <si>
-    <t>The cat jumped _____ the box. القطة قفزت إلى داخل الصندوق</t>
-  </si>
-  <si>
-    <t>This package is _____ my friend  هذه الحزمة من صديقي​</t>
-  </si>
-  <si>
-    <t>We walked ______ the forest. نحن مشينا عبر الغابة​</t>
-  </si>
-  <si>
-    <t>He jumped ______the window.    هو قفز من النافذة​</t>
-  </si>
-  <si>
-    <t>She traveled _____ Paris last summer  هي سافرت إلى باريس الصيف الماضي</t>
-  </si>
-  <si>
     <t>to;from;into;out of ;through</t>
   </si>
   <si>
@@ -750,15 +708,9 @@
     <t>She gave _____  the instructions.</t>
   </si>
   <si>
-    <t>She asked _____  to join the team. (هن)</t>
-  </si>
-  <si>
     <t>_____  said “ no we didn’t like it “.</t>
   </si>
   <si>
-    <t>The movie was great. Did you like _____ ? (هو/هي لغير العاقل)</t>
-  </si>
-  <si>
     <t>They didn't invite _____ to the party.</t>
   </si>
   <si>
@@ -804,21 +756,9 @@
     <t xml:space="preserve">Nouns </t>
   </si>
   <si>
-    <t>The _____ is barking ال____ ينبح</t>
-  </si>
-  <si>
-    <t>Can I borrow your ____ ? هل يمكنني استعارة ______</t>
-  </si>
-  <si>
-    <t>The ____ has long blonde hair ____ لديها شعر اشقر طويل</t>
-  </si>
-  <si>
     <t>He is a very kind _____</t>
   </si>
   <si>
-    <t>They have one _____ هم لديهم ____</t>
-  </si>
-  <si>
     <t>The book is on the ____</t>
   </si>
   <si>
@@ -846,21 +786,6 @@
     <t>حول الأسماء إلى ضمائر في الجمل التالية:​</t>
   </si>
   <si>
-    <t>Ahmed is a good student. احمد</t>
-  </si>
-  <si>
-    <t>Maria and I are going to the cinema. ماريا وأنا</t>
-  </si>
-  <si>
-    <t xml:space="preserve">My sister is visiting us. أختي </t>
-  </si>
-  <si>
-    <t>The cat is sleeping on the couch. القط</t>
-  </si>
-  <si>
-    <t>The children are playing outside. الأطفال</t>
-  </si>
-  <si>
     <t>we;he;it</t>
   </si>
   <si>
@@ -876,21 +801,6 @@
     <t>he;she;you</t>
   </si>
   <si>
-    <t>I ____ a student انا تلميذ</t>
-  </si>
-  <si>
-    <t>I ____ a book انا اقرأ كتاب</t>
-  </si>
-  <si>
-    <t>He ______ his homework هو يقوم بواجبه المنزلي</t>
-  </si>
-  <si>
-    <t>She ______ speak Turkish هي يمكنها التحدث التركية</t>
-  </si>
-  <si>
-    <t>They _____ one cat هم لديهم قطة واحدة</t>
-  </si>
-  <si>
     <t>am;read;say</t>
   </si>
   <si>
@@ -930,18 +840,6 @@
     <t>Preposition</t>
   </si>
   <si>
-    <t>The cat is _____ the table القطة _____ الطاولة</t>
-  </si>
-  <si>
-    <t>The dog is _____ the table الكلب _____ الطاولة</t>
-  </si>
-  <si>
-    <t>The table is ____ the dog and the cat الطاولة ___ الكلب و القطة</t>
-  </si>
-  <si>
-    <t>The pencil is _____ the bag القلم _____ الحقيبة</t>
-  </si>
-  <si>
     <t>under; in;on</t>
   </si>
   <si>
@@ -951,18 +849,6 @@
     <t xml:space="preserve">Conjunctions </t>
   </si>
   <si>
-    <t>Sarah ____ Lina are going to the park سارة __ لينا ذاهبون الى البارك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Do you want to drink coffee ____ tea ? هل تريد ان تشرب الشاي __ القهوة </t>
-  </si>
-  <si>
-    <t>I got a gift ___ you اشتريت هدية ل____</t>
-  </si>
-  <si>
-    <t>I didn’t go to school today ____ I was sick. لم اذهب الى المدرسة اليوم ل___ي كنت مرضا</t>
-  </si>
-  <si>
     <t>and;or</t>
   </si>
   <si>
@@ -972,9 +858,6 @@
     <t>while;but</t>
   </si>
   <si>
-    <t>I want to buy a new dress ____ I don’t have money. اريد ان اشتري فستانا جديدا ___ ليس معي مال</t>
-  </si>
-  <si>
     <t>Small and Capital Letters</t>
   </si>
   <si>
@@ -1122,33 +1005,6 @@
     <t>Prepositions Examples</t>
   </si>
   <si>
-    <t>The dog is _____ the table  الكلب تحت الطاولة</t>
-  </si>
-  <si>
-    <t>My boss is ______ the office   رئيسي في المكتب</t>
-  </si>
-  <si>
-    <t>The mug is _____ the table   الكوب على الطاولة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">I live _____ Turkey       اعيش في تركيا </t>
-  </si>
-  <si>
-    <t>There is so much dirt ____ the bed  هناك الكثير من الوسخ تحت الفراش</t>
-  </si>
-  <si>
-    <t>The cat is ____ the house  القطة في المنزل</t>
-  </si>
-  <si>
-    <t>The portrait is _____ the wall   الصورة على الحائط</t>
-  </si>
-  <si>
-    <t>My house is _____ yours    منزلي بجانب منزلك</t>
-  </si>
-  <si>
-    <t>There is someone waiting ____ the door  هناك شخص ينتظر عند الباب</t>
-  </si>
-  <si>
     <t>on; at; under</t>
   </si>
   <si>
@@ -1176,15 +1032,6 @@
     <t>Prepositions Of Time</t>
   </si>
   <si>
-    <t>I was born ______ September ولدت في ايلول</t>
-  </si>
-  <si>
-    <t>I have a test ____ Monday لدي امتحان يوم الاثنين</t>
-  </si>
-  <si>
-    <t>She has been studying _____ three hours هي تدرس منذ ثلاث ساعات</t>
-  </si>
-  <si>
     <t>in; for; at</t>
   </si>
   <si>
@@ -1197,27 +1044,6 @@
     <t>in; on; by</t>
   </si>
   <si>
-    <t xml:space="preserve"> We have been married ____ 20 years نحن متزوجون لمدة 20 سنة</t>
-  </si>
-  <si>
-    <t>I have a doctor appointment _____ 3:00 لدي موعد عند الطبيب عند 3</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> I will be at the station _____ 1:00 ساكون عند المحطة على 1;</t>
-  </si>
-  <si>
-    <t>I graduated _____ 2022 تخرجت في 202</t>
-  </si>
-  <si>
-    <t>Our anniversary is ______ January 6th عيد زواجنا في 6</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Make sure to submit the homework ______ Friday احرص على ارسال الوظيفة قبل الجمعة</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> will be back from school ______ noon سارجع من المدرسة قبل الظهر</t>
-  </si>
-  <si>
     <t>at; by; in</t>
   </si>
   <si>
@@ -1233,27 +1059,6 @@
     <t>Prepositions of Movement</t>
   </si>
   <si>
-    <t>She is going _____ the store.  هي ذاهبة إلى المتجر​</t>
-  </si>
-  <si>
-    <t>The mouse ran ____ the hole. الفأر ركض إلى داخل الثقب​</t>
-  </si>
-  <si>
-    <t>She walked ______the room. هي خرجت من الغرفة​</t>
-  </si>
-  <si>
-    <t xml:space="preserve">She traveled _____ Paris last summer  هي سافرت إلى باريس الصيف الماضي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The light came ______ the window.      الضوء دخل عبر النافذة </t>
-  </si>
-  <si>
-    <t xml:space="preserve">He came _____ the office. هو جاء من المكتب </t>
-  </si>
-  <si>
-    <t xml:space="preserve">The cat jumped _____ the box. القطة قفزت إلى داخل الصندوق </t>
-  </si>
-  <si>
     <t>to; from; into</t>
   </si>
   <si>
@@ -1284,33 +1089,6 @@
     <t>Other Prepositions</t>
   </si>
   <si>
-    <t>They are talking ______ you هم يتكلمون عنك</t>
-  </si>
-  <si>
-    <t>Can you come _____ me ? هل يمكنك ان تأتي معي</t>
-  </si>
-  <si>
-    <t>I am cooking ______ you ان اطبخ لك</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> He is playing _____ his friends. هو يلعب مع أصدقائه</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> The cover ____ the book. غطاء الكتاب</t>
-  </si>
-  <si>
-    <t xml:space="preserve">That book is _____ a poor girl . الكتاب عن بنت فقيرة </t>
-  </si>
-  <si>
-    <t>The color ____the car is red. لون السيارة أحمر</t>
-  </si>
-  <si>
-    <t>This gift is _____ you. هذا الهدية لك</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The girl is writing _____ my pen البنت تكتب بقلمي </t>
-  </si>
-  <si>
     <t>with; about; for</t>
   </si>
   <si>
@@ -1615,12 +1393,6 @@
   </si>
   <si>
     <t>Her,he;He,her;He;he</t>
-  </si>
-  <si>
-    <t xml:space="preserve">_______ is a very strong man .  _____ رجل قوي </t>
-  </si>
-  <si>
-    <t xml:space="preserve">______ is a very beautiful lady. _____ فتاة جميلة جدا </t>
   </si>
   <si>
     <t>_______ is talking to _____ .</t>
@@ -1883,6 +1655,234 @@
   </si>
   <si>
     <t>Special =  ______ ;اشياء =  ______ ;bed =  ______ ;Home =  ______ ;Happy =  ______ </t>
+  </si>
+  <si>
+    <t>The _____ is barking0ال____ ينبح</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The ____ has long blonde hair 0____لديها شعر اشقر طويل </t>
+  </si>
+  <si>
+    <t>They have one _____ 0هم لديهم ____</t>
+  </si>
+  <si>
+    <t>Ahmed is a good student. 0احمد</t>
+  </si>
+  <si>
+    <t>The children are playing outside. 0الأطفال</t>
+  </si>
+  <si>
+    <t>Maria and I are going to the cinema. 0ماريا وأنا</t>
+  </si>
+  <si>
+    <t>The cat is sleeping on the couch. 0القط</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My sister is visiting us. 0أختي </t>
+  </si>
+  <si>
+    <t>I ____ a student 0انا تلميذ</t>
+  </si>
+  <si>
+    <t>I ____ a book 0انا اقرأ كتاب</t>
+  </si>
+  <si>
+    <t>He ______ his homework 0هو يقوم بواجبه المنزلي</t>
+  </si>
+  <si>
+    <t>She ______ speak Turkish 0هي يمكنها التحدث التركية</t>
+  </si>
+  <si>
+    <t>They _____ one cat 0هم لديهم قطة واحدة</t>
+  </si>
+  <si>
+    <t>The cat is _____ the table 0القطة _____ الطاولة</t>
+  </si>
+  <si>
+    <t>The dog is _____ the table 0الكلب _____ الطاولة</t>
+  </si>
+  <si>
+    <t>The table is ____ the dog and the cat 0الطاولة ___ الكلب و القطة</t>
+  </si>
+  <si>
+    <t>The pencil is _____ the bag 0القلم _____ الحقيبة</t>
+  </si>
+  <si>
+    <t>Sarah ____ Lina are going to the park 0سارة __ لينا ذاهبون الى البارك</t>
+  </si>
+  <si>
+    <t>I didn’t go to school today ____ I was sick. 0لم اذهب الى المدرسة اليوم ل___ي كنت مرضا</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Do you want to drink coffee ____ tea ? 0هل تريد ان تشرب الشاي __ القهوة؟ </t>
+  </si>
+  <si>
+    <t>I got a gift ___ you 0اشتريت هدية ل____</t>
+  </si>
+  <si>
+    <t>I want to buy a new dress ____ I don’t have money. 0اريد ان اشتري فستانا جديدا ___ ليس معي مال</t>
+  </si>
+  <si>
+    <t>The keys are _____ the drawer. 0المفاتيح في الدرج</t>
+  </si>
+  <si>
+    <t>She lives _____ New York. 0هي تعيش في نيويورك</t>
+  </si>
+  <si>
+    <t>The painting is ____ the wall. 0اللوحة على الحائط</t>
+  </si>
+  <si>
+    <t>There is a stain ____ your shirt. 0هناك بقعة على قميصك</t>
+  </si>
+  <si>
+    <t>The shoes are _____ the bed. 0الأحذية تحت السرير</t>
+  </si>
+  <si>
+    <t>He is _____ the office now. 0هو في المكتب الآن</t>
+  </si>
+  <si>
+    <t>He is _____the door. 0هو عند الباب</t>
+  </si>
+  <si>
+    <t>Your house is ________ my house 0منزلك  بجانب منزلي</t>
+  </si>
+  <si>
+    <t>The cat jumped _____ the box. 0القطة قفزت إلى داخل الصندوق</t>
+  </si>
+  <si>
+    <t>This package is _____ my friend  0هذه الحزمة من صديقي​</t>
+  </si>
+  <si>
+    <t>We walked ______ the forest. 0نحن مشينا عبر الغابة​</t>
+  </si>
+  <si>
+    <t>He jumped ______the window.    0هو قفز من النافذة​</t>
+  </si>
+  <si>
+    <t>She traveled _____ Paris last summer  0هي سافرت إلى باريس الصيف الماضي</t>
+  </si>
+  <si>
+    <t>The dog is _____ the table  0الكلب تحت الطاولة</t>
+  </si>
+  <si>
+    <t>Don’t sit ______ to me  0لا تجلس بجانبي</t>
+  </si>
+  <si>
+    <t>My boss is ______ the office   0رئيسي في المكتب</t>
+  </si>
+  <si>
+    <t>The mug is _____ the table   0الكوب على الطاولة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I live _____ Turkey       0اعيش في تركيا </t>
+  </si>
+  <si>
+    <t>There is so much dirt ____ the bed  0هناك الكثير من الوسخ تحت الفراش</t>
+  </si>
+  <si>
+    <t>The cat is ____ the house  0القطة في المنزل</t>
+  </si>
+  <si>
+    <t>The portrait is _____ the wall  0 الصورة على الحائط</t>
+  </si>
+  <si>
+    <t>My house is _____ yours    0منزلي بجانب منزلك</t>
+  </si>
+  <si>
+    <t>There is someone waiting ____ the door  0هناك شخص ينتظر عند الباب</t>
+  </si>
+  <si>
+    <t>I was born ______ September 0ولدت في ايلول</t>
+  </si>
+  <si>
+    <t>I have a test ____ Monday 0لدي امتحان يوم الاثنين</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> We have been married ____ 20 years 0نحن متزوجون لمدة 20 سنة</t>
+  </si>
+  <si>
+    <t>I have a doctor appointment _____ 3:00 0لدي موعد عند الطبيب عند 3</t>
+  </si>
+  <si>
+    <t>Our anniversary is ______ January 6th 0عيد زواجنا في 6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I will be at the station _____ 1:00 0ساكون عند المحطة على 1</t>
+  </si>
+  <si>
+    <t>I graduated _____ 2022 0تخرجت في 2022</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Make sure to submit the homework ______ Friday 0احرص على ارسال الوظيفة قبل الجمعة</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> will be back from school ______ noon 0سارجع من المدرسة قبل الظهر</t>
+  </si>
+  <si>
+    <t>She has been studying _____ three hours 0هي تدرس منذ ثلاث ساعات</t>
+  </si>
+  <si>
+    <t>She is going _____ the store.  هي ذاهبة إلى المتجر​0</t>
+  </si>
+  <si>
+    <t>The mouse ran ____ the hole. 0الفأر ركض إلى داخل الثقب​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">She traveled _____ Paris last summer  0هي سافرت إلى باريس الصيف الماضي </t>
+  </si>
+  <si>
+    <t>She walked ______the room. 0هي خرجت من الغرفة​</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The light came ______ the window.      0الضوء دخل عبر النافذة </t>
+  </si>
+  <si>
+    <t xml:space="preserve">He came _____ the office. 0هو جاء من المكتب </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The cat jumped _____ the box. 0القطة قفزت إلى داخل الصندوق </t>
+  </si>
+  <si>
+    <t>I am cooking ______ you 0ان اطبخ لك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">That book is _____ a poor girl . 0الكتاب عن بنت فقيرة </t>
+  </si>
+  <si>
+    <t>The color ____the car is red. 0لون السيارة أحمر</t>
+  </si>
+  <si>
+    <t>This gift is _____ you. 0هذا الهدية لك</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The girl is writing _____ my pen 0البنت تكتب بقلمي </t>
+  </si>
+  <si>
+    <t>They are talking ______ you 0هم يتكلمون عنك</t>
+  </si>
+  <si>
+    <t>The movie was great. Did you like _____ ? 0(هو/هي لغير العاقل)</t>
+  </si>
+  <si>
+    <t>She asked _____  to join the team. 0(هن)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">_______ is a very strong man .  0_____ رجل قوي </t>
+  </si>
+  <si>
+    <t xml:space="preserve">______ is a very beautiful lady. 0_____ فتاة جميلة جدا </t>
+  </si>
+  <si>
+    <t>Can I borrow your ____ ?0هل يمكنني استعارة  ______؟</t>
+  </si>
+  <si>
+    <t>Can you come _____ me ? 0هل يمكنك ان تأتي معي؟</t>
+  </si>
+  <si>
+    <t>He is playing _____ his friends. 0هو يلعب مع أصدقائه</t>
+  </si>
+  <si>
+    <t>The cover ____ the book. 0غطاء الكتاب</t>
   </si>
 </sst>
 </file>
@@ -2281,8 +2281,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:P506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H296" sqref="H296"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2301,7 +2301,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2316,7 +2316,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>568</v>
+        <v>492</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
@@ -2351,7 +2351,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -2366,7 +2366,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>569</v>
+        <v>493</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -2401,7 +2401,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -2416,7 +2416,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -2451,7 +2451,7 @@
         <v>188</v>
       </c>
       <c r="C7" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -2501,7 +2501,7 @@
         <v>188</v>
       </c>
       <c r="C8" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2551,7 +2551,7 @@
         <v>188</v>
       </c>
       <c r="C9" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2601,7 +2601,7 @@
         <v>188</v>
       </c>
       <c r="C10" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2651,7 +2651,7 @@
         <v>188</v>
       </c>
       <c r="C11" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2701,7 +2701,7 @@
         <v>188</v>
       </c>
       <c r="C12" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2751,7 +2751,7 @@
         <v>188</v>
       </c>
       <c r="C13" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -2801,7 +2801,7 @@
         <v>188</v>
       </c>
       <c r="C14" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -2851,7 +2851,7 @@
         <v>188</v>
       </c>
       <c r="C15" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -2901,7 +2901,7 @@
         <v>188</v>
       </c>
       <c r="C16" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -2916,7 +2916,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>596</v>
+        <v>520</v>
       </c>
       <c r="I16" t="s">
         <v>78</v>
@@ -2951,7 +2951,7 @@
         <v>189</v>
       </c>
       <c r="C17" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -3001,7 +3001,7 @@
         <v>189</v>
       </c>
       <c r="C18" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -3051,7 +3051,7 @@
         <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -3101,7 +3101,7 @@
         <v>189</v>
       </c>
       <c r="C20" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -3116,7 +3116,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>289</v>
+        <v>259</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>133</v>
@@ -3151,7 +3151,7 @@
         <v>189</v>
       </c>
       <c r="C21" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -3166,7 +3166,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>290</v>
+        <v>260</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>134</v>
@@ -3201,7 +3201,7 @@
         <v>189</v>
       </c>
       <c r="C22" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -3216,7 +3216,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>291</v>
+        <v>261</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>135</v>
@@ -3251,7 +3251,7 @@
         <v>189</v>
       </c>
       <c r="C23" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -3301,7 +3301,7 @@
         <v>189</v>
       </c>
       <c r="C24" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -3351,7 +3351,7 @@
         <v>189</v>
       </c>
       <c r="C25" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -3401,7 +3401,7 @@
         <v>189</v>
       </c>
       <c r="C26" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -3416,7 +3416,7 @@
         <v>140</v>
       </c>
       <c r="H26" t="s">
-        <v>588</v>
+        <v>512</v>
       </c>
       <c r="I26" t="s">
         <v>141</v>
@@ -3451,7 +3451,7 @@
         <v>189</v>
       </c>
       <c r="C27" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -3490,7 +3490,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.2">
@@ -3501,7 +3501,7 @@
         <v>189</v>
       </c>
       <c r="C28" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -3540,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.2">
@@ -3551,7 +3551,7 @@
         <v>189</v>
       </c>
       <c r="C29" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -3601,7 +3601,7 @@
         <v>189</v>
       </c>
       <c r="C30" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -3651,7 +3651,7 @@
         <v>189</v>
       </c>
       <c r="C31" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -3701,7 +3701,7 @@
         <v>189</v>
       </c>
       <c r="C32" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>189</v>
       </c>
       <c r="C33" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -3801,7 +3801,7 @@
         <v>189</v>
       </c>
       <c r="C34" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -3851,7 +3851,7 @@
         <v>189</v>
       </c>
       <c r="C35" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -3866,7 +3866,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>589</v>
+        <v>513</v>
       </c>
       <c r="I35" t="s">
         <v>163</v>
@@ -3901,7 +3901,7 @@
         <v>189</v>
       </c>
       <c r="C36" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -3951,7 +3951,7 @@
         <v>189</v>
       </c>
       <c r="C37" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -4001,7 +4001,7 @@
         <v>189</v>
       </c>
       <c r="C38" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -4051,7 +4051,7 @@
         <v>189</v>
       </c>
       <c r="C39" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -4101,7 +4101,7 @@
         <v>189</v>
       </c>
       <c r="C40" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -4116,7 +4116,7 @@
         <v>1</v>
       </c>
       <c r="H40" t="s">
-        <v>590</v>
+        <v>514</v>
       </c>
       <c r="I40" t="s">
         <v>156</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="B41" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C41" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -4175,7 +4175,7 @@
         <v>1</v>
       </c>
       <c r="K41" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L41" t="s">
         <v>1</v>
@@ -4198,10 +4198,10 @@
         <v>0</v>
       </c>
       <c r="B42" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C42" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -4225,10 +4225,10 @@
         <v>1</v>
       </c>
       <c r="K42" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L42" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M42" t="s">
         <v>1</v>
@@ -4248,10 +4248,10 @@
         <v>0</v>
       </c>
       <c r="B43" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C43" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -4266,10 +4266,10 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>254</v>
+        <v>521</v>
       </c>
       <c r="I43" s="2" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="J43">
         <v>0</v>
@@ -4278,7 +4278,7 @@
         <v>13</v>
       </c>
       <c r="L43" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M43" t="s">
         <v>1</v>
@@ -4298,10 +4298,10 @@
         <v>0</v>
       </c>
       <c r="B44" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C44" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -4316,10 +4316,10 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>255</v>
+        <v>593</v>
       </c>
       <c r="I44" s="2" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
       <c r="J44">
         <v>2</v>
@@ -4328,7 +4328,7 @@
         <v>13</v>
       </c>
       <c r="L44" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M44" t="s">
         <v>1</v>
@@ -4348,10 +4348,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C45" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -4366,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>256</v>
+        <v>522</v>
       </c>
       <c r="I45" s="2" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="J45">
         <v>1</v>
@@ -4378,7 +4378,7 @@
         <v>13</v>
       </c>
       <c r="L45" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M45" t="s">
         <v>1</v>
@@ -4398,10 +4398,10 @@
         <v>0</v>
       </c>
       <c r="B46" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C46" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -4416,10 +4416,10 @@
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="I46" s="2" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="J46">
         <v>0</v>
@@ -4428,7 +4428,7 @@
         <v>13</v>
       </c>
       <c r="L46" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M46" t="s">
         <v>1</v>
@@ -4448,10 +4448,10 @@
         <v>0</v>
       </c>
       <c r="B47" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C47" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -4466,10 +4466,10 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>258</v>
+        <v>523</v>
       </c>
       <c r="I47" s="2" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="J47">
         <v>0</v>
@@ -4478,7 +4478,7 @@
         <v>13</v>
       </c>
       <c r="L47" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M47" t="s">
         <v>1</v>
@@ -4498,10 +4498,10 @@
         <v>0</v>
       </c>
       <c r="B48" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C48" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -4516,10 +4516,10 @@
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
       <c r="I48" s="2" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="J48">
         <v>2</v>
@@ -4528,7 +4528,7 @@
         <v>13</v>
       </c>
       <c r="L48" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="M48" t="s">
         <v>1</v>
@@ -4551,10 +4551,10 @@
         <v>0</v>
       </c>
       <c r="B50" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C50" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -4578,10 +4578,10 @@
         <v>1</v>
       </c>
       <c r="K50" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L50" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M50" t="s">
         <v>1</v>
@@ -4601,10 +4601,10 @@
         <v>0</v>
       </c>
       <c r="B51" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C51" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -4616,13 +4616,13 @@
         <v>1</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H51" t="s">
-        <v>268</v>
+        <v>524</v>
       </c>
       <c r="I51" s="2" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="J51">
         <v>1</v>
@@ -4631,7 +4631,7 @@
         <v>13</v>
       </c>
       <c r="L51" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M51" t="s">
         <v>1</v>
@@ -4651,10 +4651,10 @@
         <v>0</v>
       </c>
       <c r="B52" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C52" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -4666,13 +4666,13 @@
         <v>1</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H52" t="s">
-        <v>272</v>
+        <v>525</v>
       </c>
       <c r="I52" s="2" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="J52">
         <v>0</v>
@@ -4681,7 +4681,7 @@
         <v>13</v>
       </c>
       <c r="L52" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M52" t="s">
         <v>1</v>
@@ -4701,10 +4701,10 @@
         <v>0</v>
       </c>
       <c r="B53" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C53" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -4716,13 +4716,13 @@
         <v>1</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H53" t="s">
-        <v>269</v>
+        <v>526</v>
       </c>
       <c r="I53" s="2" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="J53">
         <v>2</v>
@@ -4731,7 +4731,7 @@
         <v>13</v>
       </c>
       <c r="L53" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M53" t="s">
         <v>1</v>
@@ -4751,28 +4751,28 @@
         <v>0</v>
       </c>
       <c r="B54" t="s">
+        <v>235</v>
+      </c>
+      <c r="C54" t="s">
+        <v>506</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>1</v>
+      </c>
+      <c r="F54" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" t="s">
+        <v>247</v>
+      </c>
+      <c r="H54" t="s">
+        <v>527</v>
+      </c>
+      <c r="I54" s="2" t="s">
         <v>251</v>
-      </c>
-      <c r="C54" t="s">
-        <v>582</v>
-      </c>
-      <c r="D54" t="s">
-        <v>1</v>
-      </c>
-      <c r="E54" t="s">
-        <v>1</v>
-      </c>
-      <c r="F54" t="s">
-        <v>1</v>
-      </c>
-      <c r="G54" t="s">
-        <v>267</v>
-      </c>
-      <c r="H54" t="s">
-        <v>271</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>276</v>
       </c>
       <c r="J54">
         <v>0</v>
@@ -4781,7 +4781,7 @@
         <v>13</v>
       </c>
       <c r="L54" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M54" t="s">
         <v>1</v>
@@ -4801,10 +4801,10 @@
         <v>0</v>
       </c>
       <c r="B55" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C55" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -4816,13 +4816,13 @@
         <v>1</v>
       </c>
       <c r="G55" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="H55" t="s">
-        <v>270</v>
+        <v>528</v>
       </c>
       <c r="I55" s="2" t="s">
-        <v>277</v>
+        <v>252</v>
       </c>
       <c r="J55">
         <v>1</v>
@@ -4831,7 +4831,7 @@
         <v>13</v>
       </c>
       <c r="L55" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="M55" t="s">
         <v>1</v>
@@ -4851,10 +4851,10 @@
         <v>0</v>
       </c>
       <c r="B57" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C57" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -4878,10 +4878,10 @@
         <v>1</v>
       </c>
       <c r="K57" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L57" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M57" t="s">
         <v>1</v>
@@ -4901,10 +4901,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C58" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -4919,10 +4919,10 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>278</v>
+        <v>529</v>
       </c>
       <c r="I58" s="2" t="s">
-        <v>287</v>
+        <v>257</v>
       </c>
       <c r="J58">
         <v>2</v>
@@ -4931,7 +4931,7 @@
         <v>13</v>
       </c>
       <c r="L58" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M58" t="s">
         <v>1</v>
@@ -4951,10 +4951,10 @@
         <v>0</v>
       </c>
       <c r="B59" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C59" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -4969,10 +4969,10 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>279</v>
+        <v>530</v>
       </c>
       <c r="I59" s="2" t="s">
-        <v>283</v>
+        <v>253</v>
       </c>
       <c r="J59">
         <v>1</v>
@@ -4981,7 +4981,7 @@
         <v>13</v>
       </c>
       <c r="L59" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M59" t="s">
         <v>1</v>
@@ -5001,10 +5001,10 @@
         <v>0</v>
       </c>
       <c r="B60" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C60" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -5019,10 +5019,10 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>280</v>
+        <v>531</v>
       </c>
       <c r="I60" s="2" t="s">
-        <v>284</v>
+        <v>254</v>
       </c>
       <c r="J60">
         <v>0</v>
@@ -5031,7 +5031,7 @@
         <v>13</v>
       </c>
       <c r="L60" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M60" t="s">
         <v>1</v>
@@ -5051,10 +5051,10 @@
         <v>0</v>
       </c>
       <c r="B61" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C61" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -5069,10 +5069,10 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>281</v>
+        <v>532</v>
       </c>
       <c r="I61" s="2" t="s">
-        <v>285</v>
+        <v>255</v>
       </c>
       <c r="J61">
         <v>0</v>
@@ -5081,7 +5081,7 @@
         <v>13</v>
       </c>
       <c r="L61" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M61" t="s">
         <v>1</v>
@@ -5101,10 +5101,10 @@
         <v>0</v>
       </c>
       <c r="B62" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C62" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -5119,10 +5119,10 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>282</v>
+        <v>533</v>
       </c>
       <c r="I62" s="2" t="s">
-        <v>286</v>
+        <v>256</v>
       </c>
       <c r="J62">
         <v>0</v>
@@ -5131,7 +5131,7 @@
         <v>13</v>
       </c>
       <c r="L62" t="s">
-        <v>288</v>
+        <v>258</v>
       </c>
       <c r="M62" t="s">
         <v>1</v>
@@ -5154,10 +5154,10 @@
         <v>0</v>
       </c>
       <c r="B64" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C64" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -5181,10 +5181,10 @@
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L64" t="s">
-        <v>292</v>
+        <v>262</v>
       </c>
       <c r="M64" t="s">
         <v>1</v>
@@ -5216,10 +5216,10 @@
         <v>0</v>
       </c>
       <c r="B69" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C69" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D69" t="s">
         <v>1</v>
@@ -5243,10 +5243,10 @@
         <v>1</v>
       </c>
       <c r="K69" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L69" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M69" t="s">
         <v>1</v>
@@ -5266,10 +5266,10 @@
         <v>0</v>
       </c>
       <c r="B70" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C70" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D70" t="s">
         <v>1</v>
@@ -5284,10 +5284,10 @@
         <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>591</v>
+        <v>515</v>
       </c>
       <c r="I70" t="s">
-        <v>294</v>
+        <v>264</v>
       </c>
       <c r="J70" t="s">
         <v>1</v>
@@ -5296,7 +5296,7 @@
         <v>8</v>
       </c>
       <c r="L70" t="s">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="M70" t="s">
         <v>1</v>
@@ -5320,10 +5320,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C72" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -5347,10 +5347,10 @@
         <v>1</v>
       </c>
       <c r="K72" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L72" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M72" t="s">
         <v>1</v>
@@ -5370,10 +5370,10 @@
         <v>0</v>
       </c>
       <c r="B73" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C73" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D73" t="s">
         <v>1</v>
@@ -5388,10 +5388,10 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>296</v>
+        <v>534</v>
       </c>
       <c r="I73" s="2" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
       <c r="J73">
         <v>2</v>
@@ -5400,7 +5400,7 @@
         <v>13</v>
       </c>
       <c r="L73" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M73" t="s">
         <v>1</v>
@@ -5412,7 +5412,7 @@
         <v>1</v>
       </c>
       <c r="P73" s="3" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.2">
@@ -5420,10 +5420,10 @@
         <v>0</v>
       </c>
       <c r="B74" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C74" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -5438,10 +5438,10 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>297</v>
+        <v>535</v>
       </c>
       <c r="I74" s="2" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="J74">
         <v>0</v>
@@ -5450,7 +5450,7 @@
         <v>13</v>
       </c>
       <c r="L74" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M74" t="s">
         <v>1</v>
@@ -5462,7 +5462,7 @@
         <v>1</v>
       </c>
       <c r="P74" s="3" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.2">
@@ -5470,10 +5470,10 @@
         <v>0</v>
       </c>
       <c r="B75" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C75" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -5488,7 +5488,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>298</v>
+        <v>536</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>146</v>
@@ -5500,7 +5500,7 @@
         <v>13</v>
       </c>
       <c r="L75" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M75" t="s">
         <v>1</v>
@@ -5512,7 +5512,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>550</v>
+        <v>474</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.2">
@@ -5520,10 +5520,10 @@
         <v>0</v>
       </c>
       <c r="B76" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C76" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -5538,10 +5538,10 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>299</v>
+        <v>537</v>
       </c>
       <c r="I76" s="2" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="J76">
         <v>1</v>
@@ -5550,7 +5550,7 @@
         <v>13</v>
       </c>
       <c r="L76" t="s">
-        <v>295</v>
+        <v>265</v>
       </c>
       <c r="M76" t="s">
         <v>1</v>
@@ -5562,7 +5562,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>551</v>
+        <v>475</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.2">
@@ -5573,10 +5573,10 @@
         <v>0</v>
       </c>
       <c r="B78" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C78" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -5600,10 +5600,10 @@
         <v>1</v>
       </c>
       <c r="K78" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L78" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M78" t="s">
         <v>1</v>
@@ -5623,10 +5623,10 @@
         <v>0</v>
       </c>
       <c r="B79" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C79" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D79" t="s">
         <v>1</v>
@@ -5641,10 +5641,10 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>303</v>
+        <v>538</v>
       </c>
       <c r="I79" s="2" t="s">
-        <v>307</v>
+        <v>269</v>
       </c>
       <c r="J79">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>13</v>
       </c>
       <c r="L79" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M79" t="s">
         <v>1</v>
@@ -5673,10 +5673,10 @@
         <v>0</v>
       </c>
       <c r="B80" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C80" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -5691,10 +5691,10 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>306</v>
+        <v>539</v>
       </c>
       <c r="I80" s="2" t="s">
-        <v>308</v>
+        <v>270</v>
       </c>
       <c r="J80">
         <v>1</v>
@@ -5703,7 +5703,7 @@
         <v>13</v>
       </c>
       <c r="L80" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M80" t="s">
         <v>1</v>
@@ -5723,10 +5723,10 @@
         <v>0</v>
       </c>
       <c r="B81" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C81" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -5741,7 +5741,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>304</v>
+        <v>540</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>149</v>
@@ -5753,7 +5753,7 @@
         <v>13</v>
       </c>
       <c r="L81" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M81" t="s">
         <v>1</v>
@@ -5773,10 +5773,10 @@
         <v>0</v>
       </c>
       <c r="B82" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C82" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -5791,7 +5791,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>305</v>
+        <v>541</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>152</v>
@@ -5803,7 +5803,7 @@
         <v>13</v>
       </c>
       <c r="L82" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M82" t="s">
         <v>1</v>
@@ -5823,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C83" t="s">
-        <v>582</v>
+        <v>506</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -5841,10 +5841,10 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>310</v>
+        <v>542</v>
       </c>
       <c r="I83" s="2" t="s">
-        <v>309</v>
+        <v>271</v>
       </c>
       <c r="J83">
         <v>1</v>
@@ -5853,7 +5853,7 @@
         <v>13</v>
       </c>
       <c r="L83" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
       <c r="M83" t="s">
         <v>1</v>
@@ -5930,7 +5930,7 @@
         <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D100" t="s">
         <v>1</v>
@@ -5945,7 +5945,7 @@
         <v>1</v>
       </c>
       <c r="H100" t="s">
-        <v>571</v>
+        <v>495</v>
       </c>
       <c r="I100" s="2" t="s">
         <v>1</v>
@@ -5980,7 +5980,7 @@
         <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D101" t="s">
         <v>1</v>
@@ -5995,7 +5995,7 @@
         <v>1</v>
       </c>
       <c r="H101" t="s">
-        <v>572</v>
+        <v>496</v>
       </c>
       <c r="I101" s="2" t="s">
         <v>1</v>
@@ -6030,7 +6030,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6045,7 +6045,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>570</v>
+        <v>494</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>1</v>
@@ -6077,10 +6077,10 @@
         <v>0</v>
       </c>
       <c r="B103" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C103" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6104,7 +6104,7 @@
         <v>1</v>
       </c>
       <c r="K103" t="s">
-        <v>566</v>
+        <v>490</v>
       </c>
       <c r="L103" t="s">
         <v>1</v>
@@ -6130,7 +6130,7 @@
         <v>189</v>
       </c>
       <c r="C104" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6180,7 +6180,7 @@
         <v>189</v>
       </c>
       <c r="C105" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -6230,7 +6230,7 @@
         <v>189</v>
       </c>
       <c r="C106" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6254,7 +6254,7 @@
         <v>1</v>
       </c>
       <c r="K106" t="s">
-        <v>566</v>
+        <v>490</v>
       </c>
       <c r="L106" t="s">
         <v>1</v>
@@ -6280,7 +6280,7 @@
         <v>189</v>
       </c>
       <c r="C107" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -6330,7 +6330,7 @@
         <v>189</v>
       </c>
       <c r="C108" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6380,7 +6380,7 @@
         <v>189</v>
       </c>
       <c r="C109" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -6430,7 +6430,7 @@
         <v>189</v>
       </c>
       <c r="C110" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -6480,7 +6480,7 @@
         <v>190</v>
       </c>
       <c r="C111" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -6530,7 +6530,7 @@
         <v>190</v>
       </c>
       <c r="C112" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -6581,10 +6581,10 @@
         <v>0</v>
       </c>
       <c r="B114" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C114" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -6608,10 +6608,10 @@
         <v>1</v>
       </c>
       <c r="K114" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L114" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M114" t="s">
         <v>1</v>
@@ -6631,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="B115" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C115" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D115" t="s">
         <v>1</v>
@@ -6649,10 +6649,10 @@
         <v>1</v>
       </c>
       <c r="H115" t="s">
-        <v>312</v>
+        <v>273</v>
       </c>
       <c r="I115" s="2" t="s">
-        <v>316</v>
+        <v>277</v>
       </c>
       <c r="J115">
         <v>1</v>
@@ -6661,7 +6661,7 @@
         <v>13</v>
       </c>
       <c r="L115" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M115" t="s">
         <v>1</v>
@@ -6681,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C116" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -6699,10 +6699,10 @@
         <v>1</v>
       </c>
       <c r="H116" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I116" s="2" t="s">
-        <v>317</v>
+        <v>278</v>
       </c>
       <c r="J116">
         <v>0</v>
@@ -6711,7 +6711,7 @@
         <v>13</v>
       </c>
       <c r="L116" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M116" t="s">
         <v>1</v>
@@ -6731,10 +6731,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C117" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -6749,10 +6749,10 @@
         <v>1</v>
       </c>
       <c r="H117" t="s">
-        <v>314</v>
+        <v>275</v>
       </c>
       <c r="I117" s="2" t="s">
-        <v>318</v>
+        <v>279</v>
       </c>
       <c r="J117">
         <v>0</v>
@@ -6761,7 +6761,7 @@
         <v>13</v>
       </c>
       <c r="L117" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M117" t="s">
         <v>1</v>
@@ -6781,10 +6781,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C118" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -6799,10 +6799,10 @@
         <v>1</v>
       </c>
       <c r="H118" t="s">
-        <v>315</v>
+        <v>276</v>
       </c>
       <c r="I118" s="2" t="s">
-        <v>319</v>
+        <v>280</v>
       </c>
       <c r="J118">
         <v>0</v>
@@ -6811,7 +6811,7 @@
         <v>13</v>
       </c>
       <c r="L118" t="s">
-        <v>311</v>
+        <v>272</v>
       </c>
       <c r="M118" t="s">
         <v>1</v>
@@ -6834,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C120" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -6861,10 +6861,10 @@
         <v>1</v>
       </c>
       <c r="K120" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L120" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="M120" t="s">
         <v>1</v>
@@ -6884,10 +6884,10 @@
         <v>0</v>
       </c>
       <c r="B121" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C121" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D121" t="s">
         <v>1</v>
@@ -6902,7 +6902,7 @@
         <v>1</v>
       </c>
       <c r="H121" t="s">
-        <v>321</v>
+        <v>282</v>
       </c>
       <c r="I121" s="2" t="s">
         <v>1</v>
@@ -6914,7 +6914,7 @@
         <v>172</v>
       </c>
       <c r="L121" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="M121" t="s">
         <v>1</v>
@@ -6934,10 +6934,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C122" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -6952,7 +6952,7 @@
         <v>1</v>
       </c>
       <c r="H122" t="s">
-        <v>322</v>
+        <v>283</v>
       </c>
       <c r="I122" s="2" t="s">
         <v>1</v>
@@ -6964,7 +6964,7 @@
         <v>172</v>
       </c>
       <c r="L122" t="s">
-        <v>320</v>
+        <v>281</v>
       </c>
       <c r="M122" t="s">
         <v>1</v>
@@ -6984,10 +6984,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C124" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7011,10 +7011,10 @@
         <v>1</v>
       </c>
       <c r="K124" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L124" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="M124" t="s">
         <v>1</v>
@@ -7034,10 +7034,10 @@
         <v>0</v>
       </c>
       <c r="B125" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C125" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D125" t="s">
         <v>1</v>
@@ -7052,7 +7052,7 @@
         <v>1</v>
       </c>
       <c r="H125" t="s">
-        <v>323</v>
+        <v>284</v>
       </c>
       <c r="I125" s="2" t="s">
         <v>1</v>
@@ -7064,7 +7064,7 @@
         <v>172</v>
       </c>
       <c r="L125" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="M125" t="s">
         <v>1</v>
@@ -7084,10 +7084,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C126" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7102,7 +7102,7 @@
         <v>1</v>
       </c>
       <c r="H126" t="s">
-        <v>324</v>
+        <v>285</v>
       </c>
       <c r="I126" s="2" t="s">
         <v>1</v>
@@ -7114,7 +7114,7 @@
         <v>172</v>
       </c>
       <c r="L126" t="s">
-        <v>345</v>
+        <v>306</v>
       </c>
       <c r="M126" t="s">
         <v>1</v>
@@ -7134,10 +7134,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C128" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7161,10 +7161,10 @@
         <v>1</v>
       </c>
       <c r="K128" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L128" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M128" t="s">
         <v>1</v>
@@ -7184,10 +7184,10 @@
         <v>0</v>
       </c>
       <c r="B129" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C129" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D129" t="s">
         <v>1</v>
@@ -7202,7 +7202,7 @@
         <v>1</v>
       </c>
       <c r="H129" t="s">
-        <v>325</v>
+        <v>286</v>
       </c>
       <c r="I129" s="2" t="s">
         <v>1</v>
@@ -7214,7 +7214,7 @@
         <v>172</v>
       </c>
       <c r="L129" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M129" t="s">
         <v>1</v>
@@ -7234,10 +7234,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C130" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7252,7 +7252,7 @@
         <v>1</v>
       </c>
       <c r="H130" t="s">
-        <v>326</v>
+        <v>287</v>
       </c>
       <c r="I130" s="2" t="s">
         <v>1</v>
@@ -7264,7 +7264,7 @@
         <v>172</v>
       </c>
       <c r="L130" t="s">
-        <v>346</v>
+        <v>307</v>
       </c>
       <c r="M130" t="s">
         <v>1</v>
@@ -7284,10 +7284,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C132" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7311,10 +7311,10 @@
         <v>1</v>
       </c>
       <c r="K132" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L132" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="M132" t="s">
         <v>1</v>
@@ -7334,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="B133" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C133" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D133" t="s">
         <v>1</v>
@@ -7352,7 +7352,7 @@
         <v>1</v>
       </c>
       <c r="H133" t="s">
-        <v>327</v>
+        <v>288</v>
       </c>
       <c r="I133" s="2" t="s">
         <v>1</v>
@@ -7364,7 +7364,7 @@
         <v>172</v>
       </c>
       <c r="L133" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="M133" t="s">
         <v>1</v>
@@ -7384,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C134" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -7402,7 +7402,7 @@
         <v>1</v>
       </c>
       <c r="H134" t="s">
-        <v>328</v>
+        <v>289</v>
       </c>
       <c r="I134" s="2" t="s">
         <v>1</v>
@@ -7414,7 +7414,7 @@
         <v>172</v>
       </c>
       <c r="L134" t="s">
-        <v>347</v>
+        <v>308</v>
       </c>
       <c r="M134" t="s">
         <v>1</v>
@@ -7437,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C136" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -7464,10 +7464,10 @@
         <v>1</v>
       </c>
       <c r="K136" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L136" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M136" t="s">
         <v>1</v>
@@ -7487,10 +7487,10 @@
         <v>0</v>
       </c>
       <c r="B137" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C137" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D137" t="s">
         <v>1</v>
@@ -7505,7 +7505,7 @@
         <v>1</v>
       </c>
       <c r="H137" t="s">
-        <v>329</v>
+        <v>290</v>
       </c>
       <c r="I137" s="2" t="s">
         <v>1</v>
@@ -7517,7 +7517,7 @@
         <v>172</v>
       </c>
       <c r="L137" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M137" t="s">
         <v>1</v>
@@ -7537,10 +7537,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C138" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -7555,7 +7555,7 @@
         <v>1</v>
       </c>
       <c r="H138" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="I138" s="2" t="s">
         <v>1</v>
@@ -7567,7 +7567,7 @@
         <v>172</v>
       </c>
       <c r="L138" t="s">
-        <v>348</v>
+        <v>309</v>
       </c>
       <c r="M138" t="s">
         <v>1</v>
@@ -7591,10 +7591,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C140" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -7618,10 +7618,10 @@
         <v>1</v>
       </c>
       <c r="K140" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L140" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="M140" t="s">
         <v>1</v>
@@ -7641,10 +7641,10 @@
         <v>0</v>
       </c>
       <c r="B141" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C141" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D141" t="s">
         <v>1</v>
@@ -7659,7 +7659,7 @@
         <v>1</v>
       </c>
       <c r="H141" t="s">
-        <v>331</v>
+        <v>292</v>
       </c>
       <c r="I141" s="2" t="s">
         <v>1</v>
@@ -7671,7 +7671,7 @@
         <v>172</v>
       </c>
       <c r="L141" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="M141" t="s">
         <v>1</v>
@@ -7691,10 +7691,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C142" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -7709,7 +7709,7 @@
         <v>1</v>
       </c>
       <c r="H142" t="s">
-        <v>332</v>
+        <v>293</v>
       </c>
       <c r="I142" s="2" t="s">
         <v>1</v>
@@ -7721,7 +7721,7 @@
         <v>172</v>
       </c>
       <c r="L142" t="s">
-        <v>349</v>
+        <v>310</v>
       </c>
       <c r="M142" t="s">
         <v>1</v>
@@ -7745,10 +7745,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C144" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -7772,10 +7772,10 @@
         <v>1</v>
       </c>
       <c r="K144" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L144" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="M144" t="s">
         <v>1</v>
@@ -7795,10 +7795,10 @@
         <v>0</v>
       </c>
       <c r="B145" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C145" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D145" t="s">
         <v>1</v>
@@ -7813,7 +7813,7 @@
         <v>1</v>
       </c>
       <c r="H145" t="s">
-        <v>333</v>
+        <v>294</v>
       </c>
       <c r="I145" s="2" t="s">
         <v>1</v>
@@ -7825,7 +7825,7 @@
         <v>172</v>
       </c>
       <c r="L145" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="M145" t="s">
         <v>1</v>
@@ -7845,10 +7845,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C146" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -7863,7 +7863,7 @@
         <v>1</v>
       </c>
       <c r="H146" t="s">
-        <v>334</v>
+        <v>295</v>
       </c>
       <c r="I146" s="2" t="s">
         <v>1</v>
@@ -7875,7 +7875,7 @@
         <v>172</v>
       </c>
       <c r="L146" t="s">
-        <v>350</v>
+        <v>311</v>
       </c>
       <c r="M146" t="s">
         <v>1</v>
@@ -7900,10 +7900,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C148" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -7927,10 +7927,10 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L148" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M148" t="s">
         <v>1</v>
@@ -7950,10 +7950,10 @@
         <v>0</v>
       </c>
       <c r="B149" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C149" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D149" t="s">
         <v>1</v>
@@ -7968,7 +7968,7 @@
         <v>1</v>
       </c>
       <c r="H149" t="s">
-        <v>336</v>
+        <v>297</v>
       </c>
       <c r="I149" s="2" t="s">
         <v>1</v>
@@ -7980,7 +7980,7 @@
         <v>172</v>
       </c>
       <c r="L149" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M149" t="s">
         <v>1</v>
@@ -8000,10 +8000,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C150" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -8018,7 +8018,7 @@
         <v>1</v>
       </c>
       <c r="H150" t="s">
-        <v>335</v>
+        <v>296</v>
       </c>
       <c r="I150" s="2" t="s">
         <v>1</v>
@@ -8030,7 +8030,7 @@
         <v>172</v>
       </c>
       <c r="L150" t="s">
-        <v>351</v>
+        <v>312</v>
       </c>
       <c r="M150" t="s">
         <v>1</v>
@@ -8050,10 +8050,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C152" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -8077,10 +8077,10 @@
         <v>1</v>
       </c>
       <c r="K152" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L152" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="M152" t="s">
         <v>1</v>
@@ -8100,10 +8100,10 @@
         <v>0</v>
       </c>
       <c r="B153" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C153" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D153" t="s">
         <v>1</v>
@@ -8118,7 +8118,7 @@
         <v>1</v>
       </c>
       <c r="H153" t="s">
-        <v>337</v>
+        <v>298</v>
       </c>
       <c r="I153" s="2" t="s">
         <v>1</v>
@@ -8130,7 +8130,7 @@
         <v>172</v>
       </c>
       <c r="L153" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="M153" t="s">
         <v>1</v>
@@ -8150,10 +8150,10 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C154" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8168,7 +8168,7 @@
         <v>1</v>
       </c>
       <c r="H154" t="s">
-        <v>338</v>
+        <v>299</v>
       </c>
       <c r="I154" s="2" t="s">
         <v>1</v>
@@ -8180,7 +8180,7 @@
         <v>172</v>
       </c>
       <c r="L154" t="s">
-        <v>352</v>
+        <v>313</v>
       </c>
       <c r="M154" t="s">
         <v>1</v>
@@ -8200,10 +8200,10 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C156" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -8227,10 +8227,10 @@
         <v>1</v>
       </c>
       <c r="K156" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L156" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M156" t="s">
         <v>1</v>
@@ -8250,10 +8250,10 @@
         <v>0</v>
       </c>
       <c r="B157" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C157" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D157" t="s">
         <v>1</v>
@@ -8268,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="H157" t="s">
-        <v>339</v>
+        <v>300</v>
       </c>
       <c r="I157" s="2" t="s">
         <v>1</v>
@@ -8280,7 +8280,7 @@
         <v>172</v>
       </c>
       <c r="L157" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M157" t="s">
         <v>1</v>
@@ -8300,10 +8300,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C158" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -8318,7 +8318,7 @@
         <v>1</v>
       </c>
       <c r="H158" t="s">
-        <v>340</v>
+        <v>301</v>
       </c>
       <c r="I158" s="2" t="s">
         <v>1</v>
@@ -8330,7 +8330,7 @@
         <v>172</v>
       </c>
       <c r="L158" t="s">
-        <v>353</v>
+        <v>314</v>
       </c>
       <c r="M158" t="s">
         <v>1</v>
@@ -8353,10 +8353,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C160" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -8380,10 +8380,10 @@
         <v>1</v>
       </c>
       <c r="K160" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L160" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="M160" t="s">
         <v>1</v>
@@ -8403,10 +8403,10 @@
         <v>0</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C161" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D161" t="s">
         <v>1</v>
@@ -8421,7 +8421,7 @@
         <v>1</v>
       </c>
       <c r="H161" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="I161" s="2" t="s">
         <v>1</v>
@@ -8433,7 +8433,7 @@
         <v>172</v>
       </c>
       <c r="L161" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="M161" t="s">
         <v>1</v>
@@ -8453,10 +8453,10 @@
         <v>0</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C162" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -8471,7 +8471,7 @@
         <v>1</v>
       </c>
       <c r="H162" t="s">
-        <v>342</v>
+        <v>303</v>
       </c>
       <c r="I162" s="2" t="s">
         <v>1</v>
@@ -8483,7 +8483,7 @@
         <v>172</v>
       </c>
       <c r="L162" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="M162" t="s">
         <v>1</v>
@@ -8506,10 +8506,10 @@
         <v>0</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C164" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -8533,10 +8533,10 @@
         <v>1</v>
       </c>
       <c r="K164" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L164" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="M164" t="s">
         <v>1</v>
@@ -8556,10 +8556,10 @@
         <v>0</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C165" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D165" t="s">
         <v>1</v>
@@ -8574,7 +8574,7 @@
         <v>1</v>
       </c>
       <c r="H165" t="s">
-        <v>343</v>
+        <v>304</v>
       </c>
       <c r="I165" s="2" t="s">
         <v>1</v>
@@ -8586,7 +8586,7 @@
         <v>172</v>
       </c>
       <c r="L165" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="M165" t="s">
         <v>1</v>
@@ -8606,10 +8606,10 @@
         <v>0</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C166" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -8624,7 +8624,7 @@
         <v>1</v>
       </c>
       <c r="H166" t="s">
-        <v>344</v>
+        <v>305</v>
       </c>
       <c r="I166" s="2" t="s">
         <v>1</v>
@@ -8636,7 +8636,7 @@
         <v>172</v>
       </c>
       <c r="L166" t="s">
-        <v>355</v>
+        <v>316</v>
       </c>
       <c r="M166" t="s">
         <v>1</v>
@@ -8659,10 +8659,10 @@
         <v>0</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C168" t="s">
-        <v>583</v>
+        <v>507</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -8677,7 +8677,7 @@
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>357</v>
+        <v>318</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>1</v>
@@ -8689,7 +8689,7 @@
         <v>172</v>
       </c>
       <c r="L168" t="s">
-        <v>356</v>
+        <v>317</v>
       </c>
       <c r="M168" t="s">
         <v>1</v>
@@ -8778,7 +8778,7 @@
         <v>9</v>
       </c>
       <c r="C211" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D211" t="s">
         <v>1</v>
@@ -8793,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="H211" t="s">
-        <v>573</v>
+        <v>497</v>
       </c>
       <c r="I211" t="s">
         <v>1</v>
@@ -8828,7 +8828,7 @@
         <v>9</v>
       </c>
       <c r="C212" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D212" t="s">
         <v>1</v>
@@ -8843,7 +8843,7 @@
         <v>1</v>
       </c>
       <c r="H212" t="s">
-        <v>574</v>
+        <v>498</v>
       </c>
       <c r="I212" t="s">
         <v>1</v>
@@ -8878,7 +8878,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>575</v>
+        <v>499</v>
       </c>
       <c r="I213" t="s">
         <v>1</v>
@@ -8928,7 +8928,7 @@
         <v>188</v>
       </c>
       <c r="C214" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -8978,7 +8978,7 @@
         <v>188</v>
       </c>
       <c r="C215" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -9028,7 +9028,7 @@
         <v>188</v>
       </c>
       <c r="C216" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D216" t="s">
         <v>1</v>
@@ -9078,7 +9078,7 @@
         <v>188</v>
       </c>
       <c r="C217" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -9128,7 +9128,7 @@
         <v>188</v>
       </c>
       <c r="C218" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D218" t="s">
         <v>1</v>
@@ -9178,7 +9178,7 @@
         <v>188</v>
       </c>
       <c r="C219" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -9228,7 +9228,7 @@
         <v>188</v>
       </c>
       <c r="C220" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -9278,7 +9278,7 @@
         <v>188</v>
       </c>
       <c r="C221" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -9328,7 +9328,7 @@
         <v>188</v>
       </c>
       <c r="C222" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -9378,7 +9378,7 @@
         <v>188</v>
       </c>
       <c r="C223" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -9428,7 +9428,7 @@
         <v>188</v>
       </c>
       <c r="C224" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -9478,7 +9478,7 @@
         <v>188</v>
       </c>
       <c r="C225" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -9528,7 +9528,7 @@
         <v>188</v>
       </c>
       <c r="C226" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -9578,7 +9578,7 @@
         <v>190</v>
       </c>
       <c r="C227" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -9593,10 +9593,10 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>200</v>
+        <v>543</v>
       </c>
       <c r="I227" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J227">
         <v>0</v>
@@ -9628,7 +9628,7 @@
         <v>190</v>
       </c>
       <c r="C228" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -9643,10 +9643,10 @@
         <v>1</v>
       </c>
       <c r="H228" t="s">
-        <v>199</v>
+        <v>544</v>
       </c>
       <c r="I228" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J228">
         <v>0</v>
@@ -9678,7 +9678,7 @@
         <v>190</v>
       </c>
       <c r="C229" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
@@ -9693,10 +9693,10 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>198</v>
+        <v>545</v>
       </c>
       <c r="I229" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J229">
         <v>1</v>
@@ -9728,7 +9728,7 @@
         <v>190</v>
       </c>
       <c r="C230" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D230" t="s">
         <v>1</v>
@@ -9743,10 +9743,10 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>197</v>
+        <v>546</v>
       </c>
       <c r="I230" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J230">
         <v>1</v>
@@ -9778,7 +9778,7 @@
         <v>190</v>
       </c>
       <c r="C231" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
@@ -9793,10 +9793,10 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>196</v>
+        <v>547</v>
       </c>
       <c r="I231" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J231">
         <v>2</v>
@@ -9828,7 +9828,7 @@
         <v>190</v>
       </c>
       <c r="C232" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D232" t="s">
         <v>1</v>
@@ -9843,10 +9843,10 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>195</v>
+        <v>548</v>
       </c>
       <c r="I232" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J232">
         <v>3</v>
@@ -9878,7 +9878,7 @@
         <v>190</v>
       </c>
       <c r="C233" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D233" t="s">
         <v>1</v>
@@ -9893,10 +9893,10 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>194</v>
+        <v>549</v>
       </c>
       <c r="I233" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="J233">
         <v>3</v>
@@ -9928,7 +9928,7 @@
         <v>190</v>
       </c>
       <c r="C234" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D234" t="s">
         <v>1</v>
@@ -9943,10 +9943,10 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
+        <v>550</v>
+      </c>
+      <c r="I234" t="s">
         <v>192</v>
-      </c>
-      <c r="I234" t="s">
-        <v>201</v>
       </c>
       <c r="J234">
         <v>4</v>
@@ -9978,7 +9978,7 @@
         <v>190</v>
       </c>
       <c r="C235" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D235" t="s">
         <v>1</v>
@@ -9987,16 +9987,16 @@
         <v>1</v>
       </c>
       <c r="F235" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G235" t="s">
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="I235" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J235">
         <v>1</v>
@@ -10028,7 +10028,7 @@
         <v>190</v>
       </c>
       <c r="C236" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D236" t="s">
         <v>1</v>
@@ -10037,16 +10037,16 @@
         <v>1</v>
       </c>
       <c r="F236" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G236" t="s">
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="I236" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J236">
         <v>1</v>
@@ -10078,7 +10078,7 @@
         <v>190</v>
       </c>
       <c r="C237" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D237" t="s">
         <v>1</v>
@@ -10087,16 +10087,16 @@
         <v>1</v>
       </c>
       <c r="F237" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G237" t="s">
         <v>1</v>
       </c>
       <c r="H237" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="I237" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J237">
         <v>0</v>
@@ -10128,7 +10128,7 @@
         <v>190</v>
       </c>
       <c r="C238" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D238" t="s">
         <v>1</v>
@@ -10137,16 +10137,16 @@
         <v>1</v>
       </c>
       <c r="F238" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G238" t="s">
         <v>1</v>
       </c>
       <c r="H238" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="I238" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J238">
         <v>2</v>
@@ -10178,7 +10178,7 @@
         <v>190</v>
       </c>
       <c r="C239" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D239" t="s">
         <v>1</v>
@@ -10187,16 +10187,16 @@
         <v>1</v>
       </c>
       <c r="F239" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G239" t="s">
         <v>1</v>
       </c>
       <c r="H239" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="I239" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J239">
         <v>3</v>
@@ -10228,7 +10228,7 @@
         <v>190</v>
       </c>
       <c r="C240" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D240" t="s">
         <v>1</v>
@@ -10237,16 +10237,16 @@
         <v>1</v>
       </c>
       <c r="F240" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G240" t="s">
         <v>1</v>
       </c>
       <c r="H240" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="I240" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J240">
         <v>4</v>
@@ -10278,7 +10278,7 @@
         <v>190</v>
       </c>
       <c r="C241" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D241" t="s">
         <v>1</v>
@@ -10287,16 +10287,16 @@
         <v>1</v>
       </c>
       <c r="F241" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="G241" t="s">
         <v>1</v>
       </c>
       <c r="H241" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="I241" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="J241">
         <v>4</v>
@@ -10328,7 +10328,7 @@
         <v>190</v>
       </c>
       <c r="C242" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D242" t="s">
         <v>1</v>
@@ -10343,10 +10343,10 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>211</v>
+        <v>551</v>
       </c>
       <c r="I242" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J242">
         <v>2</v>
@@ -10378,7 +10378,7 @@
         <v>190</v>
       </c>
       <c r="C243" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D243" t="s">
         <v>1</v>
@@ -10393,10 +10393,10 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>212</v>
+        <v>552</v>
       </c>
       <c r="I243" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J243">
         <v>1</v>
@@ -10428,7 +10428,7 @@
         <v>190</v>
       </c>
       <c r="C244" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D244" t="s">
         <v>1</v>
@@ -10443,10 +10443,10 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>213</v>
+        <v>553</v>
       </c>
       <c r="I244" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J244">
         <v>4</v>
@@ -10478,7 +10478,7 @@
         <v>190</v>
       </c>
       <c r="C245" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D245" t="s">
         <v>1</v>
@@ -10493,10 +10493,10 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="I245" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J245">
         <v>3</v>
@@ -10528,7 +10528,7 @@
         <v>190</v>
       </c>
       <c r="C246" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D246" t="s">
         <v>1</v>
@@ -10543,10 +10543,10 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>215</v>
+        <v>555</v>
       </c>
       <c r="I246" t="s">
-        <v>216</v>
+        <v>202</v>
       </c>
       <c r="J246">
         <v>0</v>
@@ -10578,7 +10578,7 @@
         <v>190</v>
       </c>
       <c r="C247" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D247" t="s">
         <v>1</v>
@@ -10587,16 +10587,16 @@
         <v>1</v>
       </c>
       <c r="F247" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G247" t="s">
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>592</v>
+        <v>516</v>
       </c>
       <c r="I247" t="s">
-        <v>218</v>
+        <v>204</v>
       </c>
       <c r="J247" t="s">
         <v>1</v>
@@ -10625,10 +10625,10 @@
         <v>0</v>
       </c>
       <c r="B249" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C249" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D249" t="s">
         <v>1</v>
@@ -10652,10 +10652,10 @@
         <v>1</v>
       </c>
       <c r="K249" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L249" t="s">
-        <v>358</v>
+        <v>319</v>
       </c>
       <c r="M249" t="s">
         <v>1</v>
@@ -10675,10 +10675,10 @@
         <v>0</v>
       </c>
       <c r="B250" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C250" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D250" t="s">
         <v>1</v>
@@ -10702,10 +10702,10 @@
         <v>1</v>
       </c>
       <c r="K250" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L250" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M250" t="s">
         <v>1</v>
@@ -10725,10 +10725,10 @@
         <v>0</v>
       </c>
       <c r="B251" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C251" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D251" t="s">
         <v>1</v>
@@ -10743,10 +10743,10 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>360</v>
+        <v>556</v>
       </c>
       <c r="I251" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="J251">
         <v>2</v>
@@ -10755,7 +10755,7 @@
         <v>13</v>
       </c>
       <c r="L251" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M251" t="s">
         <v>1</v>
@@ -10767,7 +10767,7 @@
         <v>1</v>
       </c>
       <c r="P251" t="s">
-        <v>552</v>
+        <v>476</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.2">
@@ -10775,10 +10775,10 @@
         <v>0</v>
       </c>
       <c r="B252" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C252" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D252" t="s">
         <v>1</v>
@@ -10793,10 +10793,10 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>193</v>
+        <v>557</v>
       </c>
       <c r="I252" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="J252">
         <v>2</v>
@@ -10805,7 +10805,7 @@
         <v>13</v>
       </c>
       <c r="L252" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M252" t="s">
         <v>1</v>
@@ -10825,10 +10825,10 @@
         <v>0</v>
       </c>
       <c r="B253" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C253" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D253" t="s">
         <v>1</v>
@@ -10843,10 +10843,10 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>361</v>
+        <v>558</v>
       </c>
       <c r="I253" t="s">
-        <v>371</v>
+        <v>323</v>
       </c>
       <c r="J253">
         <v>1</v>
@@ -10855,7 +10855,7 @@
         <v>13</v>
       </c>
       <c r="L253" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M253" t="s">
         <v>1</v>
@@ -10875,10 +10875,10 @@
         <v>0</v>
       </c>
       <c r="B254" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C254" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -10893,10 +10893,10 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>362</v>
+        <v>559</v>
       </c>
       <c r="I254" t="s">
-        <v>372</v>
+        <v>324</v>
       </c>
       <c r="J254">
         <v>0</v>
@@ -10905,7 +10905,7 @@
         <v>13</v>
       </c>
       <c r="L254" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M254" t="s">
         <v>1</v>
@@ -10917,7 +10917,7 @@
         <v>1</v>
       </c>
       <c r="P254" t="s">
-        <v>553</v>
+        <v>477</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.2">
@@ -10925,10 +10925,10 @@
         <v>0</v>
       </c>
       <c r="B255" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C255" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -10943,10 +10943,10 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>363</v>
+        <v>560</v>
       </c>
       <c r="I255" t="s">
-        <v>373</v>
+        <v>325</v>
       </c>
       <c r="J255">
         <v>0</v>
@@ -10955,7 +10955,7 @@
         <v>13</v>
       </c>
       <c r="L255" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M255" t="s">
         <v>1</v>
@@ -10975,10 +10975,10 @@
         <v>0</v>
       </c>
       <c r="B256" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C256" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D256" t="s">
         <v>1</v>
@@ -10993,10 +10993,10 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>364</v>
+        <v>561</v>
       </c>
       <c r="I256" t="s">
-        <v>369</v>
+        <v>321</v>
       </c>
       <c r="J256">
         <v>2</v>
@@ -11005,7 +11005,7 @@
         <v>13</v>
       </c>
       <c r="L256" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M256" t="s">
         <v>1</v>
@@ -11025,10 +11025,10 @@
         <v>0</v>
       </c>
       <c r="B257" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C257" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
@@ -11043,10 +11043,10 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>365</v>
+        <v>562</v>
       </c>
       <c r="I257" t="s">
-        <v>370</v>
+        <v>322</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -11055,7 +11055,7 @@
         <v>13</v>
       </c>
       <c r="L257" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M257" t="s">
         <v>1</v>
@@ -11075,10 +11075,10 @@
         <v>0</v>
       </c>
       <c r="B258" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C258" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -11093,10 +11093,10 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>366</v>
+        <v>563</v>
       </c>
       <c r="I258" t="s">
-        <v>374</v>
+        <v>326</v>
       </c>
       <c r="J258">
         <v>0</v>
@@ -11105,7 +11105,7 @@
         <v>13</v>
       </c>
       <c r="L258" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M258" t="s">
         <v>1</v>
@@ -11125,10 +11125,10 @@
         <v>0</v>
       </c>
       <c r="B259" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C259" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
@@ -11143,10 +11143,10 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>367</v>
+        <v>564</v>
       </c>
       <c r="I259" t="s">
-        <v>375</v>
+        <v>327</v>
       </c>
       <c r="J259">
         <v>2</v>
@@ -11155,7 +11155,7 @@
         <v>13</v>
       </c>
       <c r="L259" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M259" t="s">
         <v>1</v>
@@ -11175,10 +11175,10 @@
         <v>0</v>
       </c>
       <c r="B260" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C260" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D260" t="s">
         <v>1</v>
@@ -11193,10 +11193,10 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>368</v>
+        <v>565</v>
       </c>
       <c r="I260" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="J260">
         <v>2</v>
@@ -11205,7 +11205,7 @@
         <v>13</v>
       </c>
       <c r="L260" t="s">
-        <v>359</v>
+        <v>320</v>
       </c>
       <c r="M260" t="s">
         <v>1</v>
@@ -11225,10 +11225,10 @@
         <v>0</v>
       </c>
       <c r="B263" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C263" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D263" t="s">
         <v>1</v>
@@ -11252,10 +11252,10 @@
         <v>1</v>
       </c>
       <c r="K263" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L263" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M263" t="s">
         <v>1</v>
@@ -11275,10 +11275,10 @@
         <v>0</v>
       </c>
       <c r="B264" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C264" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D264" t="s">
         <v>1</v>
@@ -11302,10 +11302,10 @@
         <v>1</v>
       </c>
       <c r="K264" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L264" t="s">
-        <v>395</v>
+        <v>337</v>
       </c>
       <c r="M264" t="s">
         <v>1</v>
@@ -11325,10 +11325,10 @@
         <v>0</v>
       </c>
       <c r="B265" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C265" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D265" t="s">
         <v>1</v>
@@ -11343,10 +11343,10 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>378</v>
+        <v>566</v>
       </c>
       <c r="I265" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="J265">
         <v>0</v>
@@ -11355,7 +11355,7 @@
         <v>13</v>
       </c>
       <c r="L265" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M265" t="s">
         <v>1</v>
@@ -11375,10 +11375,10 @@
         <v>0</v>
       </c>
       <c r="B266" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C266" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D266" t="s">
         <v>1</v>
@@ -11393,10 +11393,10 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>379</v>
+        <v>567</v>
       </c>
       <c r="I266" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="J266">
         <v>1</v>
@@ -11405,7 +11405,7 @@
         <v>13</v>
       </c>
       <c r="L266" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M266" t="s">
         <v>1</v>
@@ -11425,10 +11425,10 @@
         <v>0</v>
       </c>
       <c r="B267" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C267" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D267" t="s">
         <v>1</v>
@@ -11443,10 +11443,10 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>385</v>
+        <v>568</v>
       </c>
       <c r="I267" t="s">
-        <v>381</v>
+        <v>330</v>
       </c>
       <c r="J267">
         <v>1</v>
@@ -11455,7 +11455,7 @@
         <v>13</v>
       </c>
       <c r="L267" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M267" t="s">
         <v>1</v>
@@ -11475,10 +11475,10 @@
         <v>0</v>
       </c>
       <c r="B268" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C268" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -11493,10 +11493,10 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>386</v>
+        <v>569</v>
       </c>
       <c r="I268" t="s">
-        <v>382</v>
+        <v>331</v>
       </c>
       <c r="J268">
         <v>0</v>
@@ -11505,7 +11505,7 @@
         <v>13</v>
       </c>
       <c r="L268" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M268" t="s">
         <v>1</v>
@@ -11525,10 +11525,10 @@
         <v>0</v>
       </c>
       <c r="B269" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C269" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -11543,10 +11543,10 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>387</v>
+        <v>571</v>
       </c>
       <c r="I269" t="s">
-        <v>383</v>
+        <v>332</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -11555,7 +11555,7 @@
         <v>13</v>
       </c>
       <c r="L269" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M269" t="s">
         <v>1</v>
@@ -11575,10 +11575,10 @@
         <v>0</v>
       </c>
       <c r="B270" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C270" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D270" t="s">
         <v>1</v>
@@ -11593,10 +11593,10 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>388</v>
+        <v>572</v>
       </c>
       <c r="I270" t="s">
-        <v>376</v>
+        <v>328</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -11605,7 +11605,7 @@
         <v>13</v>
       </c>
       <c r="L270" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M270" t="s">
         <v>1</v>
@@ -11625,10 +11625,10 @@
         <v>0</v>
       </c>
       <c r="B271" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C271" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -11643,10 +11643,10 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>389</v>
+        <v>570</v>
       </c>
       <c r="I271" t="s">
-        <v>384</v>
+        <v>333</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -11655,7 +11655,7 @@
         <v>13</v>
       </c>
       <c r="L271" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M271" t="s">
         <v>1</v>
@@ -11675,10 +11675,10 @@
         <v>0</v>
       </c>
       <c r="B272" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C272" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D272" t="s">
         <v>1</v>
@@ -11693,10 +11693,10 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>390</v>
+        <v>573</v>
       </c>
       <c r="I272" t="s">
-        <v>393</v>
+        <v>335</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -11705,7 +11705,7 @@
         <v>13</v>
       </c>
       <c r="L272" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M272" t="s">
         <v>1</v>
@@ -11725,10 +11725,10 @@
         <v>0</v>
       </c>
       <c r="B273" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C273" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D273" t="s">
         <v>1</v>
@@ -11743,10 +11743,10 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>391</v>
+        <v>574</v>
       </c>
       <c r="I273" t="s">
-        <v>392</v>
+        <v>334</v>
       </c>
       <c r="J273">
         <v>1</v>
@@ -11755,7 +11755,7 @@
         <v>13</v>
       </c>
       <c r="L273" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M273" t="s">
         <v>1</v>
@@ -11775,10 +11775,10 @@
         <v>0</v>
       </c>
       <c r="B274" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C274" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D274" t="s">
         <v>1</v>
@@ -11793,10 +11793,10 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>380</v>
+        <v>575</v>
       </c>
       <c r="I274" t="s">
-        <v>394</v>
+        <v>336</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -11805,7 +11805,7 @@
         <v>13</v>
       </c>
       <c r="L274" t="s">
-        <v>377</v>
+        <v>329</v>
       </c>
       <c r="M274" t="s">
         <v>1</v>
@@ -11825,10 +11825,10 @@
         <v>0</v>
       </c>
       <c r="B276" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C276" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D276" t="s">
         <v>1</v>
@@ -11852,10 +11852,10 @@
         <v>1</v>
       </c>
       <c r="K276" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L276" t="s">
-        <v>396</v>
+        <v>338</v>
       </c>
       <c r="M276" t="s">
         <v>1</v>
@@ -11875,10 +11875,10 @@
         <v>0</v>
       </c>
       <c r="B277" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C277" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D277" t="s">
         <v>1</v>
@@ -11893,10 +11893,10 @@
         <v>1</v>
       </c>
       <c r="H277" t="s">
-        <v>397</v>
+        <v>576</v>
       </c>
       <c r="I277" t="s">
-        <v>404</v>
+        <v>339</v>
       </c>
       <c r="J277">
         <v>0</v>
@@ -11905,7 +11905,7 @@
         <v>13</v>
       </c>
       <c r="L277" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M277" t="s">
         <v>1</v>
@@ -11925,10 +11925,10 @@
         <v>0</v>
       </c>
       <c r="B278" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C278" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D278" t="s">
         <v>1</v>
@@ -11943,10 +11943,10 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>213</v>
+        <v>553</v>
       </c>
       <c r="I278" t="s">
-        <v>405</v>
+        <v>340</v>
       </c>
       <c r="J278">
         <v>0</v>
@@ -11955,7 +11955,7 @@
         <v>13</v>
       </c>
       <c r="L278" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M278" t="s">
         <v>1</v>
@@ -11975,10 +11975,10 @@
         <v>0</v>
       </c>
       <c r="B279" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C279" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -11993,10 +11993,10 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>398</v>
+        <v>577</v>
       </c>
       <c r="I279" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>13</v>
       </c>
       <c r="L279" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M279" t="s">
         <v>1</v>
@@ -12025,10 +12025,10 @@
         <v>0</v>
       </c>
       <c r="B280" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C280" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D280" t="s">
         <v>1</v>
@@ -12043,10 +12043,10 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>214</v>
+        <v>554</v>
       </c>
       <c r="I280" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -12055,7 +12055,7 @@
         <v>13</v>
       </c>
       <c r="L280" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M280" t="s">
         <v>1</v>
@@ -12075,10 +12075,10 @@
         <v>0</v>
       </c>
       <c r="B281" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C281" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D281" t="s">
         <v>1</v>
@@ -12093,10 +12093,10 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>400</v>
+        <v>578</v>
       </c>
       <c r="I281" t="s">
-        <v>408</v>
+        <v>343</v>
       </c>
       <c r="J281">
         <v>2</v>
@@ -12105,7 +12105,7 @@
         <v>13</v>
       </c>
       <c r="L281" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M281" t="s">
         <v>1</v>
@@ -12125,10 +12125,10 @@
         <v>0</v>
       </c>
       <c r="B282" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C282" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D282" t="s">
         <v>1</v>
@@ -12143,10 +12143,10 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>212</v>
+        <v>552</v>
       </c>
       <c r="I282" t="s">
-        <v>409</v>
+        <v>344</v>
       </c>
       <c r="J282">
         <v>1</v>
@@ -12155,7 +12155,7 @@
         <v>13</v>
       </c>
       <c r="L282" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M282" t="s">
         <v>1</v>
@@ -12175,10 +12175,10 @@
         <v>0</v>
       </c>
       <c r="B283" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C283" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -12193,10 +12193,10 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>399</v>
+        <v>579</v>
       </c>
       <c r="I283" t="s">
-        <v>407</v>
+        <v>342</v>
       </c>
       <c r="J283">
         <v>1</v>
@@ -12205,7 +12205,7 @@
         <v>13</v>
       </c>
       <c r="L283" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M283" t="s">
         <v>1</v>
@@ -12225,10 +12225,10 @@
         <v>0</v>
       </c>
       <c r="B284" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C284" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D284" t="s">
         <v>1</v>
@@ -12243,10 +12243,10 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>401</v>
+        <v>580</v>
       </c>
       <c r="I284" t="s">
-        <v>410</v>
+        <v>345</v>
       </c>
       <c r="J284">
         <v>1</v>
@@ -12255,7 +12255,7 @@
         <v>13</v>
       </c>
       <c r="L284" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M284" t="s">
         <v>1</v>
@@ -12275,10 +12275,10 @@
         <v>0</v>
       </c>
       <c r="B285" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C285" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D285" t="s">
         <v>1</v>
@@ -12293,10 +12293,10 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>402</v>
+        <v>581</v>
       </c>
       <c r="I285" t="s">
-        <v>411</v>
+        <v>346</v>
       </c>
       <c r="J285">
         <v>1</v>
@@ -12305,7 +12305,7 @@
         <v>13</v>
       </c>
       <c r="L285" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M285" t="s">
         <v>1</v>
@@ -12325,10 +12325,10 @@
         <v>0</v>
       </c>
       <c r="B286" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C286" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D286" t="s">
         <v>1</v>
@@ -12343,10 +12343,10 @@
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>403</v>
+        <v>582</v>
       </c>
       <c r="I286" t="s">
-        <v>406</v>
+        <v>341</v>
       </c>
       <c r="J286">
         <v>0</v>
@@ -12355,7 +12355,7 @@
         <v>13</v>
       </c>
       <c r="L286" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M286" t="s">
         <v>1</v>
@@ -12375,10 +12375,10 @@
         <v>0</v>
       </c>
       <c r="B288" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C288" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D288" t="s">
         <v>1</v>
@@ -12402,10 +12402,10 @@
         <v>1</v>
       </c>
       <c r="K288" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L288" t="s">
-        <v>413</v>
+        <v>348</v>
       </c>
       <c r="M288" t="s">
         <v>1</v>
@@ -12425,10 +12425,10 @@
         <v>0</v>
       </c>
       <c r="B289" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C289" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D289" t="s">
         <v>1</v>
@@ -12443,10 +12443,10 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>415</v>
+        <v>594</v>
       </c>
       <c r="I289" t="s">
-        <v>423</v>
+        <v>349</v>
       </c>
       <c r="J289">
         <v>0</v>
@@ -12455,7 +12455,7 @@
         <v>13</v>
       </c>
       <c r="L289" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M289" t="s">
         <v>1</v>
@@ -12475,10 +12475,10 @@
         <v>0</v>
       </c>
       <c r="B290" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C290" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D290" t="s">
         <v>1</v>
@@ -12493,10 +12493,10 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>416</v>
+        <v>583</v>
       </c>
       <c r="I290" t="s">
-        <v>425</v>
+        <v>351</v>
       </c>
       <c r="J290">
         <v>1</v>
@@ -12505,7 +12505,7 @@
         <v>13</v>
       </c>
       <c r="L290" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M290" t="s">
         <v>1</v>
@@ -12525,10 +12525,10 @@
         <v>0</v>
       </c>
       <c r="B291" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C291" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D291" t="s">
         <v>1</v>
@@ -12543,10 +12543,10 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>417</v>
+        <v>595</v>
       </c>
       <c r="I291" t="s">
-        <v>426</v>
+        <v>352</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -12555,7 +12555,7 @@
         <v>13</v>
       </c>
       <c r="L291" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M291" t="s">
         <v>1</v>
@@ -12575,10 +12575,10 @@
         <v>0</v>
       </c>
       <c r="B292" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C292" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D292" t="s">
         <v>1</v>
@@ -12593,10 +12593,10 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>418</v>
+        <v>596</v>
       </c>
       <c r="I292" t="s">
-        <v>427</v>
+        <v>353</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -12605,7 +12605,7 @@
         <v>13</v>
       </c>
       <c r="L292" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M292" t="s">
         <v>1</v>
@@ -12625,28 +12625,28 @@
         <v>0</v>
       </c>
       <c r="B293" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C293" t="s">
+        <v>508</v>
+      </c>
+      <c r="D293" t="s">
+        <v>1</v>
+      </c>
+      <c r="E293" t="s">
+        <v>1</v>
+      </c>
+      <c r="F293" t="s">
+        <v>1</v>
+      </c>
+      <c r="G293" t="s">
+        <v>1</v>
+      </c>
+      <c r="H293" t="s">
         <v>584</v>
       </c>
-      <c r="D293" t="s">
-        <v>1</v>
-      </c>
-      <c r="E293" t="s">
-        <v>1</v>
-      </c>
-      <c r="F293" t="s">
-        <v>1</v>
-      </c>
-      <c r="G293" t="s">
-        <v>1</v>
-      </c>
-      <c r="H293" t="s">
-        <v>419</v>
-      </c>
       <c r="I293" t="s">
-        <v>428</v>
+        <v>354</v>
       </c>
       <c r="J293">
         <v>1</v>
@@ -12655,7 +12655,7 @@
         <v>13</v>
       </c>
       <c r="L293" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M293" t="s">
         <v>1</v>
@@ -12675,10 +12675,10 @@
         <v>0</v>
       </c>
       <c r="B294" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C294" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D294" t="s">
         <v>1</v>
@@ -12693,10 +12693,10 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>420</v>
+        <v>585</v>
       </c>
       <c r="I294" t="s">
-        <v>429</v>
+        <v>355</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -12705,7 +12705,7 @@
         <v>13</v>
       </c>
       <c r="L294" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M294" t="s">
         <v>1</v>
@@ -12725,10 +12725,10 @@
         <v>0</v>
       </c>
       <c r="B295" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C295" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -12743,10 +12743,10 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>421</v>
+        <v>586</v>
       </c>
       <c r="I295" t="s">
-        <v>430</v>
+        <v>356</v>
       </c>
       <c r="J295">
         <v>2</v>
@@ -12755,7 +12755,7 @@
         <v>13</v>
       </c>
       <c r="L295" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M295" t="s">
         <v>1</v>
@@ -12775,10 +12775,10 @@
         <v>0</v>
       </c>
       <c r="B296" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C296" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D296" t="s">
         <v>1</v>
@@ -12793,10 +12793,10 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>422</v>
+        <v>587</v>
       </c>
       <c r="I296" t="s">
-        <v>424</v>
+        <v>350</v>
       </c>
       <c r="J296">
         <v>1</v>
@@ -12805,7 +12805,7 @@
         <v>13</v>
       </c>
       <c r="L296" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M296" t="s">
         <v>1</v>
@@ -12825,10 +12825,10 @@
         <v>0</v>
       </c>
       <c r="B297" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C297" t="s">
-        <v>584</v>
+        <v>508</v>
       </c>
       <c r="D297" t="s">
         <v>1</v>
@@ -12843,10 +12843,10 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>414</v>
+        <v>588</v>
       </c>
       <c r="I297" t="s">
-        <v>431</v>
+        <v>357</v>
       </c>
       <c r="J297">
         <v>0</v>
@@ -12855,7 +12855,7 @@
         <v>13</v>
       </c>
       <c r="L297" t="s">
-        <v>412</v>
+        <v>347</v>
       </c>
       <c r="M297" t="s">
         <v>1</v>
@@ -12878,7 +12878,7 @@
         <v>9</v>
       </c>
       <c r="C330" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D330" t="s">
         <v>1</v>
@@ -12893,7 +12893,7 @@
         <v>1</v>
       </c>
       <c r="H330" t="s">
-        <v>577</v>
+        <v>501</v>
       </c>
       <c r="I330" t="s">
         <v>1</v>
@@ -12928,7 +12928,7 @@
         <v>9</v>
       </c>
       <c r="C331" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D331" t="s">
         <v>1</v>
@@ -12943,7 +12943,7 @@
         <v>1</v>
       </c>
       <c r="H331" t="s">
-        <v>576</v>
+        <v>500</v>
       </c>
       <c r="I331" t="s">
         <v>1</v>
@@ -12975,10 +12975,10 @@
         <v>0</v>
       </c>
       <c r="B332" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C332" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>567</v>
+        <v>491</v>
       </c>
       <c r="I332" t="s">
         <v>1</v>
@@ -13002,7 +13002,7 @@
         <v>1</v>
       </c>
       <c r="K332" t="s">
-        <v>566</v>
+        <v>490</v>
       </c>
       <c r="L332" t="s">
         <v>1</v>
@@ -13028,7 +13028,7 @@
         <v>190</v>
       </c>
       <c r="C334" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -13037,7 +13037,7 @@
         <v>1</v>
       </c>
       <c r="F334" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G334" t="s">
         <v>1</v>
@@ -13046,7 +13046,7 @@
         <v>1</v>
       </c>
       <c r="I334" t="s">
-        <v>556</v>
+        <v>480</v>
       </c>
       <c r="J334">
         <v>1</v>
@@ -13067,7 +13067,7 @@
         <v>1</v>
       </c>
       <c r="P334" t="s">
-        <v>557</v>
+        <v>481</v>
       </c>
     </row>
     <row r="335" spans="1:16" x14ac:dyDescent="0.2">
@@ -13078,7 +13078,7 @@
         <v>190</v>
       </c>
       <c r="C335" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D335" t="s">
         <v>1</v>
@@ -13087,7 +13087,7 @@
         <v>1</v>
       </c>
       <c r="F335" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G335" t="s">
         <v>1</v>
@@ -13096,7 +13096,7 @@
         <v>1</v>
       </c>
       <c r="I335" t="s">
-        <v>555</v>
+        <v>479</v>
       </c>
       <c r="J335">
         <v>2</v>
@@ -13117,7 +13117,7 @@
         <v>1</v>
       </c>
       <c r="P335" t="s">
-        <v>558</v>
+        <v>482</v>
       </c>
     </row>
     <row r="336" spans="1:16" x14ac:dyDescent="0.2">
@@ -13128,7 +13128,7 @@
         <v>190</v>
       </c>
       <c r="C336" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D336" t="s">
         <v>1</v>
@@ -13137,7 +13137,7 @@
         <v>1</v>
       </c>
       <c r="F336" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G336" t="s">
         <v>1</v>
@@ -13146,7 +13146,7 @@
         <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>554</v>
+        <v>478</v>
       </c>
       <c r="J336">
         <v>0</v>
@@ -13167,7 +13167,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>559</v>
+        <v>483</v>
       </c>
     </row>
     <row r="337" spans="1:16" x14ac:dyDescent="0.2">
@@ -13178,7 +13178,7 @@
         <v>190</v>
       </c>
       <c r="C337" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D337" t="s">
         <v>1</v>
@@ -13187,7 +13187,7 @@
         <v>1</v>
       </c>
       <c r="F337" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G337" t="s">
         <v>1</v>
@@ -13196,7 +13196,7 @@
         <v>1</v>
       </c>
       <c r="I337" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="J337">
         <v>0</v>
@@ -13217,7 +13217,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>560</v>
+        <v>484</v>
       </c>
     </row>
     <row r="338" spans="1:16" x14ac:dyDescent="0.2">
@@ -13228,7 +13228,7 @@
         <v>190</v>
       </c>
       <c r="C338" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D338" t="s">
         <v>1</v>
@@ -13237,7 +13237,7 @@
         <v>1</v>
       </c>
       <c r="F338" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G338" t="s">
         <v>1</v>
@@ -13246,7 +13246,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>221</v>
+        <v>207</v>
       </c>
       <c r="J338">
         <v>1</v>
@@ -13267,7 +13267,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>561</v>
+        <v>485</v>
       </c>
     </row>
     <row r="339" spans="1:16" x14ac:dyDescent="0.2">
@@ -13278,7 +13278,7 @@
         <v>190</v>
       </c>
       <c r="C339" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D339" t="s">
         <v>1</v>
@@ -13287,7 +13287,7 @@
         <v>1</v>
       </c>
       <c r="F339" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G339" t="s">
         <v>1</v>
@@ -13296,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="I339" t="s">
-        <v>222</v>
+        <v>208</v>
       </c>
       <c r="J339">
         <v>2</v>
@@ -13317,7 +13317,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>562</v>
+        <v>486</v>
       </c>
     </row>
     <row r="340" spans="1:16" x14ac:dyDescent="0.2">
@@ -13328,7 +13328,7 @@
         <v>190</v>
       </c>
       <c r="C340" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D340" t="s">
         <v>1</v>
@@ -13337,7 +13337,7 @@
         <v>1</v>
       </c>
       <c r="F340" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G340" t="s">
         <v>1</v>
@@ -13346,7 +13346,7 @@
         <v>1</v>
       </c>
       <c r="I340" t="s">
-        <v>225</v>
+        <v>211</v>
       </c>
       <c r="J340">
         <v>0</v>
@@ -13367,7 +13367,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>563</v>
+        <v>487</v>
       </c>
     </row>
     <row r="341" spans="1:16" x14ac:dyDescent="0.2">
@@ -13378,7 +13378,7 @@
         <v>190</v>
       </c>
       <c r="C341" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D341" t="s">
         <v>1</v>
@@ -13387,7 +13387,7 @@
         <v>1</v>
       </c>
       <c r="F341" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G341" t="s">
         <v>1</v>
@@ -13396,7 +13396,7 @@
         <v>1</v>
       </c>
       <c r="I341" t="s">
-        <v>223</v>
+        <v>209</v>
       </c>
       <c r="J341">
         <v>2</v>
@@ -13417,7 +13417,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>564</v>
+        <v>488</v>
       </c>
     </row>
     <row r="342" spans="1:16" x14ac:dyDescent="0.2">
@@ -13428,7 +13428,7 @@
         <v>190</v>
       </c>
       <c r="C342" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D342" t="s">
         <v>1</v>
@@ -13437,7 +13437,7 @@
         <v>1</v>
       </c>
       <c r="F342" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="G342" t="s">
         <v>1</v>
@@ -13446,7 +13446,7 @@
         <v>1</v>
       </c>
       <c r="I342" t="s">
-        <v>224</v>
+        <v>210</v>
       </c>
       <c r="J342">
         <v>1</v>
@@ -13467,7 +13467,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>565</v>
+        <v>489</v>
       </c>
     </row>
     <row r="344" spans="1:16" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -13475,10 +13475,10 @@
         <v>0</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C344" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D344" t="s">
         <v>1</v>
@@ -13502,10 +13502,10 @@
         <v>1</v>
       </c>
       <c r="K344" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L344" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="M344" t="s">
         <v>1</v>
@@ -13525,10 +13525,10 @@
         <v>0</v>
       </c>
       <c r="B345" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C345" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D345" t="s">
         <v>1</v>
@@ -13543,7 +13543,7 @@
         <v>1</v>
       </c>
       <c r="H345" t="s">
-        <v>432</v>
+        <v>358</v>
       </c>
       <c r="I345" s="2" t="s">
         <v>1</v>
@@ -13555,7 +13555,7 @@
         <v>172</v>
       </c>
       <c r="L345" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="M345" t="s">
         <v>1</v>
@@ -13575,10 +13575,10 @@
         <v>0</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C346" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D346" t="s">
         <v>1</v>
@@ -13593,7 +13593,7 @@
         <v>1</v>
       </c>
       <c r="H346" t="s">
-        <v>433</v>
+        <v>359</v>
       </c>
       <c r="I346" s="2" t="s">
         <v>1</v>
@@ -13605,7 +13605,7 @@
         <v>172</v>
       </c>
       <c r="L346" t="s">
-        <v>460</v>
+        <v>386</v>
       </c>
       <c r="M346" t="s">
         <v>1</v>
@@ -13625,10 +13625,10 @@
         <v>0</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C348" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D348" t="s">
         <v>1</v>
@@ -13652,10 +13652,10 @@
         <v>1</v>
       </c>
       <c r="K348" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L348" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="M348" t="s">
         <v>1</v>
@@ -13675,10 +13675,10 @@
         <v>0</v>
       </c>
       <c r="B349" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C349" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D349" t="s">
         <v>1</v>
@@ -13693,7 +13693,7 @@
         <v>1</v>
       </c>
       <c r="H349" t="s">
-        <v>434</v>
+        <v>360</v>
       </c>
       <c r="I349" s="2" t="s">
         <v>1</v>
@@ -13705,7 +13705,7 @@
         <v>172</v>
       </c>
       <c r="L349" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="M349" t="s">
         <v>1</v>
@@ -13725,10 +13725,10 @@
         <v>0</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C350" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D350" t="s">
         <v>1</v>
@@ -13743,7 +13743,7 @@
         <v>1</v>
       </c>
       <c r="H350" t="s">
-        <v>435</v>
+        <v>361</v>
       </c>
       <c r="I350" s="2" t="s">
         <v>1</v>
@@ -13755,7 +13755,7 @@
         <v>172</v>
       </c>
       <c r="L350" t="s">
-        <v>461</v>
+        <v>387</v>
       </c>
       <c r="M350" t="s">
         <v>1</v>
@@ -13775,10 +13775,10 @@
         <v>0</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C352" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D352" t="s">
         <v>1</v>
@@ -13802,10 +13802,10 @@
         <v>1</v>
       </c>
       <c r="K352" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L352" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="M352" t="s">
         <v>1</v>
@@ -13825,10 +13825,10 @@
         <v>0</v>
       </c>
       <c r="B353" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C353" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D353" t="s">
         <v>1</v>
@@ -13843,7 +13843,7 @@
         <v>1</v>
       </c>
       <c r="H353" t="s">
-        <v>436</v>
+        <v>362</v>
       </c>
       <c r="I353" s="2" t="s">
         <v>1</v>
@@ -13855,7 +13855,7 @@
         <v>172</v>
       </c>
       <c r="L353" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="M353" t="s">
         <v>1</v>
@@ -13875,10 +13875,10 @@
         <v>0</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C354" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D354" t="s">
         <v>1</v>
@@ -13893,7 +13893,7 @@
         <v>1</v>
       </c>
       <c r="H354" t="s">
-        <v>437</v>
+        <v>363</v>
       </c>
       <c r="I354" s="2" t="s">
         <v>1</v>
@@ -13905,7 +13905,7 @@
         <v>172</v>
       </c>
       <c r="L354" t="s">
-        <v>462</v>
+        <v>388</v>
       </c>
       <c r="M354" t="s">
         <v>1</v>
@@ -13925,10 +13925,10 @@
         <v>0</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C356" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -13952,10 +13952,10 @@
         <v>1</v>
       </c>
       <c r="K356" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L356" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="M356" t="s">
         <v>1</v>
@@ -13975,10 +13975,10 @@
         <v>0</v>
       </c>
       <c r="B357" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C357" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D357" t="s">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="H357" t="s">
-        <v>438</v>
+        <v>364</v>
       </c>
       <c r="I357" s="2" t="s">
         <v>1</v>
@@ -14005,7 +14005,7 @@
         <v>172</v>
       </c>
       <c r="L357" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="M357" t="s">
         <v>1</v>
@@ -14025,10 +14025,10 @@
         <v>0</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C358" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D358" t="s">
         <v>1</v>
@@ -14043,7 +14043,7 @@
         <v>1</v>
       </c>
       <c r="H358" t="s">
-        <v>439</v>
+        <v>365</v>
       </c>
       <c r="I358" s="2" t="s">
         <v>1</v>
@@ -14055,7 +14055,7 @@
         <v>172</v>
       </c>
       <c r="L358" t="s">
-        <v>463</v>
+        <v>389</v>
       </c>
       <c r="M358" t="s">
         <v>1</v>
@@ -14078,10 +14078,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C360" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D360" t="s">
         <v>1</v>
@@ -14105,10 +14105,10 @@
         <v>1</v>
       </c>
       <c r="K360" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L360" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="M360" t="s">
         <v>1</v>
@@ -14128,10 +14128,10 @@
         <v>0</v>
       </c>
       <c r="B361" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C361" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D361" t="s">
         <v>1</v>
@@ -14146,7 +14146,7 @@
         <v>1</v>
       </c>
       <c r="H361" t="s">
-        <v>440</v>
+        <v>366</v>
       </c>
       <c r="I361" s="2" t="s">
         <v>1</v>
@@ -14158,7 +14158,7 @@
         <v>172</v>
       </c>
       <c r="L361" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="M361" t="s">
         <v>1</v>
@@ -14178,10 +14178,10 @@
         <v>0</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C362" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D362" t="s">
         <v>1</v>
@@ -14196,7 +14196,7 @@
         <v>1</v>
       </c>
       <c r="H362" t="s">
-        <v>441</v>
+        <v>367</v>
       </c>
       <c r="I362" s="2" t="s">
         <v>1</v>
@@ -14208,7 +14208,7 @@
         <v>172</v>
       </c>
       <c r="L362" t="s">
-        <v>464</v>
+        <v>390</v>
       </c>
       <c r="M362" t="s">
         <v>1</v>
@@ -14232,10 +14232,10 @@
         <v>0</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C364" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -14259,10 +14259,10 @@
         <v>1</v>
       </c>
       <c r="K364" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L364" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="M364" t="s">
         <v>1</v>
@@ -14282,10 +14282,10 @@
         <v>0</v>
       </c>
       <c r="B365" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C365" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D365" t="s">
         <v>1</v>
@@ -14300,7 +14300,7 @@
         <v>1</v>
       </c>
       <c r="H365" t="s">
-        <v>442</v>
+        <v>368</v>
       </c>
       <c r="I365" s="2" t="s">
         <v>1</v>
@@ -14312,7 +14312,7 @@
         <v>172</v>
       </c>
       <c r="L365" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="M365" t="s">
         <v>1</v>
@@ -14332,10 +14332,10 @@
         <v>0</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C366" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D366" t="s">
         <v>1</v>
@@ -14350,7 +14350,7 @@
         <v>1</v>
       </c>
       <c r="H366" t="s">
-        <v>443</v>
+        <v>369</v>
       </c>
       <c r="I366" s="2" t="s">
         <v>1</v>
@@ -14362,7 +14362,7 @@
         <v>172</v>
       </c>
       <c r="L366" t="s">
-        <v>465</v>
+        <v>391</v>
       </c>
       <c r="M366" t="s">
         <v>1</v>
@@ -14386,10 +14386,10 @@
         <v>0</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C368" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D368" t="s">
         <v>1</v>
@@ -14413,10 +14413,10 @@
         <v>1</v>
       </c>
       <c r="K368" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L368" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="M368" t="s">
         <v>1</v>
@@ -14436,10 +14436,10 @@
         <v>0</v>
       </c>
       <c r="B369" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C369" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D369" t="s">
         <v>1</v>
@@ -14454,7 +14454,7 @@
         <v>1</v>
       </c>
       <c r="H369" t="s">
-        <v>444</v>
+        <v>370</v>
       </c>
       <c r="I369" s="2" t="s">
         <v>1</v>
@@ -14466,7 +14466,7 @@
         <v>172</v>
       </c>
       <c r="L369" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="M369" t="s">
         <v>1</v>
@@ -14486,10 +14486,10 @@
         <v>0</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C370" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D370" t="s">
         <v>1</v>
@@ -14504,7 +14504,7 @@
         <v>1</v>
       </c>
       <c r="H370" t="s">
-        <v>445</v>
+        <v>371</v>
       </c>
       <c r="I370" s="2" t="s">
         <v>1</v>
@@ -14516,7 +14516,7 @@
         <v>172</v>
       </c>
       <c r="L370" t="s">
-        <v>466</v>
+        <v>392</v>
       </c>
       <c r="M370" t="s">
         <v>1</v>
@@ -14541,10 +14541,10 @@
         <v>0</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C372" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D372" t="s">
         <v>1</v>
@@ -14568,10 +14568,10 @@
         <v>1</v>
       </c>
       <c r="K372" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L372" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="M372" t="s">
         <v>1</v>
@@ -14591,10 +14591,10 @@
         <v>0</v>
       </c>
       <c r="B373" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C373" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D373" t="s">
         <v>1</v>
@@ -14609,7 +14609,7 @@
         <v>1</v>
       </c>
       <c r="H373" t="s">
-        <v>446</v>
+        <v>372</v>
       </c>
       <c r="I373" s="2" t="s">
         <v>1</v>
@@ -14621,7 +14621,7 @@
         <v>172</v>
       </c>
       <c r="L373" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="M373" t="s">
         <v>1</v>
@@ -14641,10 +14641,10 @@
         <v>0</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C374" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D374" t="s">
         <v>1</v>
@@ -14659,7 +14659,7 @@
         <v>1</v>
       </c>
       <c r="H374" t="s">
-        <v>447</v>
+        <v>373</v>
       </c>
       <c r="I374" s="2" t="s">
         <v>1</v>
@@ -14671,7 +14671,7 @@
         <v>172</v>
       </c>
       <c r="L374" t="s">
-        <v>467</v>
+        <v>393</v>
       </c>
       <c r="M374" t="s">
         <v>1</v>
@@ -14691,10 +14691,10 @@
         <v>0</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C376" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D376" t="s">
         <v>1</v>
@@ -14718,10 +14718,10 @@
         <v>1</v>
       </c>
       <c r="K376" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L376" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="M376" t="s">
         <v>1</v>
@@ -14741,10 +14741,10 @@
         <v>0</v>
       </c>
       <c r="B377" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C377" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D377" t="s">
         <v>1</v>
@@ -14759,7 +14759,7 @@
         <v>1</v>
       </c>
       <c r="H377" t="s">
-        <v>448</v>
+        <v>374</v>
       </c>
       <c r="I377" s="2" t="s">
         <v>1</v>
@@ -14771,7 +14771,7 @@
         <v>172</v>
       </c>
       <c r="L377" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="M377" t="s">
         <v>1</v>
@@ -14791,10 +14791,10 @@
         <v>0</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C378" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D378" t="s">
         <v>1</v>
@@ -14809,7 +14809,7 @@
         <v>1</v>
       </c>
       <c r="H378" t="s">
-        <v>449</v>
+        <v>375</v>
       </c>
       <c r="I378" s="2" t="s">
         <v>1</v>
@@ -14821,7 +14821,7 @@
         <v>172</v>
       </c>
       <c r="L378" t="s">
-        <v>468</v>
+        <v>394</v>
       </c>
       <c r="M378" t="s">
         <v>1</v>
@@ -14841,10 +14841,10 @@
         <v>0</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C380" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D380" t="s">
         <v>1</v>
@@ -14868,10 +14868,10 @@
         <v>1</v>
       </c>
       <c r="K380" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L380" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M380" t="s">
         <v>1</v>
@@ -14891,10 +14891,10 @@
         <v>0</v>
       </c>
       <c r="B381" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C381" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D381" t="s">
         <v>1</v>
@@ -14909,7 +14909,7 @@
         <v>1</v>
       </c>
       <c r="H381" t="s">
-        <v>450</v>
+        <v>376</v>
       </c>
       <c r="I381" s="2" t="s">
         <v>1</v>
@@ -14921,7 +14921,7 @@
         <v>172</v>
       </c>
       <c r="L381" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M381" t="s">
         <v>1</v>
@@ -14941,10 +14941,10 @@
         <v>0</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C382" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D382" t="s">
         <v>1</v>
@@ -14959,7 +14959,7 @@
         <v>1</v>
       </c>
       <c r="H382" t="s">
-        <v>451</v>
+        <v>377</v>
       </c>
       <c r="I382" s="2" t="s">
         <v>1</v>
@@ -14971,7 +14971,7 @@
         <v>172</v>
       </c>
       <c r="L382" t="s">
-        <v>469</v>
+        <v>395</v>
       </c>
       <c r="M382" t="s">
         <v>1</v>
@@ -14994,10 +14994,10 @@
         <v>0</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C384" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D384" t="s">
         <v>1</v>
@@ -15021,10 +15021,10 @@
         <v>1</v>
       </c>
       <c r="K384" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L384" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="M384" t="s">
         <v>1</v>
@@ -15044,10 +15044,10 @@
         <v>0</v>
       </c>
       <c r="B385" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C385" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D385" t="s">
         <v>1</v>
@@ -15062,7 +15062,7 @@
         <v>1</v>
       </c>
       <c r="H385" t="s">
-        <v>452</v>
+        <v>378</v>
       </c>
       <c r="I385" s="2" t="s">
         <v>1</v>
@@ -15074,7 +15074,7 @@
         <v>172</v>
       </c>
       <c r="L385" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="M385" t="s">
         <v>1</v>
@@ -15094,10 +15094,10 @@
         <v>0</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C386" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D386" t="s">
         <v>1</v>
@@ -15112,7 +15112,7 @@
         <v>1</v>
       </c>
       <c r="H386" t="s">
-        <v>453</v>
+        <v>379</v>
       </c>
       <c r="I386" s="2" t="s">
         <v>1</v>
@@ -15124,7 +15124,7 @@
         <v>172</v>
       </c>
       <c r="L386" t="s">
-        <v>470</v>
+        <v>396</v>
       </c>
       <c r="M386" t="s">
         <v>1</v>
@@ -15147,10 +15147,10 @@
         <v>0</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C388" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D388" t="s">
         <v>1</v>
@@ -15174,10 +15174,10 @@
         <v>1</v>
       </c>
       <c r="K388" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L388" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="M388" t="s">
         <v>1</v>
@@ -15197,10 +15197,10 @@
         <v>0</v>
       </c>
       <c r="B389" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C389" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D389" t="s">
         <v>1</v>
@@ -15215,7 +15215,7 @@
         <v>1</v>
       </c>
       <c r="H389" t="s">
-        <v>454</v>
+        <v>380</v>
       </c>
       <c r="I389" s="2" t="s">
         <v>1</v>
@@ -15227,7 +15227,7 @@
         <v>172</v>
       </c>
       <c r="L389" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="M389" t="s">
         <v>1</v>
@@ -15247,10 +15247,10 @@
         <v>0</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C390" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D390" t="s">
         <v>1</v>
@@ -15265,7 +15265,7 @@
         <v>1</v>
       </c>
       <c r="H390" t="s">
-        <v>455</v>
+        <v>381</v>
       </c>
       <c r="I390" s="2" t="s">
         <v>1</v>
@@ -15277,7 +15277,7 @@
         <v>172</v>
       </c>
       <c r="L390" t="s">
-        <v>471</v>
+        <v>397</v>
       </c>
       <c r="M390" t="s">
         <v>1</v>
@@ -15300,10 +15300,10 @@
         <v>0</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C392" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D392" t="s">
         <v>1</v>
@@ -15327,10 +15327,10 @@
         <v>1</v>
       </c>
       <c r="K392" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L392" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="M392" t="s">
         <v>1</v>
@@ -15350,10 +15350,10 @@
         <v>0</v>
       </c>
       <c r="B393" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C393" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D393" t="s">
         <v>1</v>
@@ -15368,7 +15368,7 @@
         <v>1</v>
       </c>
       <c r="H393" t="s">
-        <v>456</v>
+        <v>382</v>
       </c>
       <c r="I393" t="s">
         <v>1</v>
@@ -15380,7 +15380,7 @@
         <v>172</v>
       </c>
       <c r="L393" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="M393" t="s">
         <v>1</v>
@@ -15400,10 +15400,10 @@
         <v>0</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C394" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D394" t="s">
         <v>1</v>
@@ -15418,7 +15418,7 @@
         <v>1</v>
       </c>
       <c r="H394" t="s">
-        <v>457</v>
+        <v>383</v>
       </c>
       <c r="I394" t="s">
         <v>1</v>
@@ -15430,7 +15430,7 @@
         <v>172</v>
       </c>
       <c r="L394" t="s">
-        <v>472</v>
+        <v>398</v>
       </c>
       <c r="M394" t="s">
         <v>1</v>
@@ -15450,10 +15450,10 @@
         <v>0</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C396" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D396" t="s">
         <v>1</v>
@@ -15477,10 +15477,10 @@
         <v>1</v>
       </c>
       <c r="K396" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L396" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="M396" t="s">
         <v>1</v>
@@ -15500,10 +15500,10 @@
         <v>0</v>
       </c>
       <c r="B397" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C397" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D397" t="s">
         <v>1</v>
@@ -15518,7 +15518,7 @@
         <v>1</v>
       </c>
       <c r="H397" t="s">
-        <v>458</v>
+        <v>384</v>
       </c>
       <c r="I397" t="s">
         <v>1</v>
@@ -15530,7 +15530,7 @@
         <v>172</v>
       </c>
       <c r="L397" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="M397" t="s">
         <v>1</v>
@@ -15550,10 +15550,10 @@
         <v>0</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C398" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D398" t="s">
         <v>1</v>
@@ -15568,7 +15568,7 @@
         <v>1</v>
       </c>
       <c r="H398" t="s">
-        <v>459</v>
+        <v>385</v>
       </c>
       <c r="I398" t="s">
         <v>1</v>
@@ -15580,7 +15580,7 @@
         <v>172</v>
       </c>
       <c r="L398" t="s">
-        <v>473</v>
+        <v>399</v>
       </c>
       <c r="M398" t="s">
         <v>1</v>
@@ -15600,10 +15600,10 @@
         <v>0</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C400" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D400" t="s">
         <v>1</v>
@@ -15627,10 +15627,10 @@
         <v>1</v>
       </c>
       <c r="K400" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L400" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="M400" t="s">
         <v>1</v>
@@ -15650,10 +15650,10 @@
         <v>0</v>
       </c>
       <c r="B401" s="3" t="s">
-        <v>581</v>
+        <v>505</v>
       </c>
       <c r="C401" t="s">
-        <v>585</v>
+        <v>509</v>
       </c>
       <c r="D401" t="s">
         <v>1</v>
@@ -15677,10 +15677,10 @@
         <v>1</v>
       </c>
       <c r="K401" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L401" t="s">
-        <v>474</v>
+        <v>400</v>
       </c>
       <c r="M401" t="s">
         <v>1</v>
@@ -15704,7 +15704,7 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D439" t="s">
         <v>1</v>
@@ -15719,7 +15719,7 @@
         <v>1</v>
       </c>
       <c r="H439" t="s">
-        <v>578</v>
+        <v>502</v>
       </c>
       <c r="I439" t="s">
         <v>1</v>
@@ -15754,7 +15754,7 @@
         <v>9</v>
       </c>
       <c r="C440" t="s">
-        <v>587</v>
+        <v>511</v>
       </c>
       <c r="D440" t="s">
         <v>1</v>
@@ -15769,7 +15769,7 @@
         <v>1</v>
       </c>
       <c r="H440" t="s">
-        <v>579</v>
+        <v>503</v>
       </c>
       <c r="I440" t="s">
         <v>1</v>
@@ -15804,7 +15804,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -15819,7 +15819,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>580</v>
+        <v>504</v>
       </c>
       <c r="I441" t="s">
         <v>1</v>
@@ -15854,7 +15854,7 @@
         <v>188</v>
       </c>
       <c r="C442" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -15904,7 +15904,7 @@
         <v>188</v>
       </c>
       <c r="C443" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -15954,7 +15954,7 @@
         <v>188</v>
       </c>
       <c r="C444" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -16004,7 +16004,7 @@
         <v>188</v>
       </c>
       <c r="C445" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -16054,7 +16054,7 @@
         <v>188</v>
       </c>
       <c r="C446" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -16104,7 +16104,7 @@
         <v>188</v>
       </c>
       <c r="C447" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -16154,7 +16154,7 @@
         <v>188</v>
       </c>
       <c r="C448" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -16204,7 +16204,7 @@
         <v>188</v>
       </c>
       <c r="C449" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -16254,7 +16254,7 @@
         <v>188</v>
       </c>
       <c r="C450" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -16304,7 +16304,7 @@
         <v>188</v>
       </c>
       <c r="C451" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -16354,7 +16354,7 @@
         <v>188</v>
       </c>
       <c r="C452" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -16404,7 +16404,7 @@
         <v>190</v>
       </c>
       <c r="C453" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -16413,16 +16413,16 @@
         <v>1</v>
       </c>
       <c r="F453" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G453" t="s">
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>593</v>
+        <v>517</v>
       </c>
       <c r="I453" t="s">
-        <v>226</v>
+        <v>212</v>
       </c>
       <c r="J453" t="s">
         <v>1</v>
@@ -16454,7 +16454,7 @@
         <v>190</v>
       </c>
       <c r="C454" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -16463,16 +16463,16 @@
         <v>1</v>
       </c>
       <c r="F454" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G454" t="s">
         <v>1</v>
       </c>
       <c r="H454" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
       <c r="I454" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="J454">
         <v>1</v>
@@ -16504,7 +16504,7 @@
         <v>190</v>
       </c>
       <c r="C455" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -16513,16 +16513,16 @@
         <v>1</v>
       </c>
       <c r="F455" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G455" t="s">
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>228</v>
+        <v>214</v>
       </c>
       <c r="I455" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="J455">
         <v>0</v>
@@ -16554,7 +16554,7 @@
         <v>190</v>
       </c>
       <c r="C456" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -16563,16 +16563,16 @@
         <v>1</v>
       </c>
       <c r="F456" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G456" t="s">
         <v>1</v>
       </c>
       <c r="H456" t="s">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="I456" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="J456">
         <v>1</v>
@@ -16604,7 +16604,7 @@
         <v>190</v>
       </c>
       <c r="C457" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D457" t="s">
         <v>1</v>
@@ -16613,16 +16613,16 @@
         <v>1</v>
       </c>
       <c r="F457" t="s">
+        <v>213</v>
+      </c>
+      <c r="G457" t="s">
+        <v>1</v>
+      </c>
+      <c r="H457" t="s">
+        <v>216</v>
+      </c>
+      <c r="I457" t="s">
         <v>227</v>
-      </c>
-      <c r="G457" t="s">
-        <v>1</v>
-      </c>
-      <c r="H457" t="s">
-        <v>230</v>
-      </c>
-      <c r="I457" t="s">
-        <v>243</v>
       </c>
       <c r="J457">
         <v>1</v>
@@ -16654,7 +16654,7 @@
         <v>190</v>
       </c>
       <c r="C458" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -16663,16 +16663,16 @@
         <v>1</v>
       </c>
       <c r="F458" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G458" t="s">
         <v>1</v>
       </c>
       <c r="H458" t="s">
-        <v>231</v>
+        <v>217</v>
       </c>
       <c r="I458" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="J458">
         <v>1</v>
@@ -16704,7 +16704,7 @@
         <v>190</v>
       </c>
       <c r="C459" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D459" t="s">
         <v>1</v>
@@ -16713,16 +16713,16 @@
         <v>1</v>
       </c>
       <c r="F459" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G459" t="s">
         <v>1</v>
       </c>
       <c r="H459" t="s">
-        <v>232</v>
+        <v>218</v>
       </c>
       <c r="I459" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="J459">
         <v>1</v>
@@ -16754,7 +16754,7 @@
         <v>190</v>
       </c>
       <c r="C460" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -16763,16 +16763,16 @@
         <v>1</v>
       </c>
       <c r="F460" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G460" t="s">
         <v>1</v>
       </c>
       <c r="H460" t="s">
-        <v>233</v>
+        <v>219</v>
       </c>
       <c r="I460" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J460">
         <v>1</v>
@@ -16804,7 +16804,7 @@
         <v>190</v>
       </c>
       <c r="C461" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -16813,16 +16813,16 @@
         <v>1</v>
       </c>
       <c r="F461" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G461" t="s">
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>238</v>
+        <v>589</v>
       </c>
       <c r="I461" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J461">
         <v>1</v>
@@ -16854,7 +16854,7 @@
         <v>190</v>
       </c>
       <c r="C462" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -16863,16 +16863,16 @@
         <v>1</v>
       </c>
       <c r="F462" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G462" t="s">
         <v>1</v>
       </c>
       <c r="H462" t="s">
-        <v>234</v>
+        <v>220</v>
       </c>
       <c r="I462" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="J462">
         <v>0</v>
@@ -16904,7 +16904,7 @@
         <v>190</v>
       </c>
       <c r="C463" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -16913,16 +16913,16 @@
         <v>1</v>
       </c>
       <c r="F463" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G463" t="s">
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>235</v>
+        <v>221</v>
       </c>
       <c r="I463" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J463">
         <v>1</v>
@@ -16954,7 +16954,7 @@
         <v>190</v>
       </c>
       <c r="C464" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -16963,16 +16963,16 @@
         <v>1</v>
       </c>
       <c r="F464" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G464" t="s">
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>236</v>
+        <v>590</v>
       </c>
       <c r="I464" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="J464">
         <v>0</v>
@@ -17004,7 +17004,7 @@
         <v>190</v>
       </c>
       <c r="C465" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D465" t="s">
         <v>1</v>
@@ -17013,16 +17013,16 @@
         <v>1</v>
       </c>
       <c r="F465" t="s">
-        <v>227</v>
+        <v>213</v>
       </c>
       <c r="G465" t="s">
         <v>1</v>
       </c>
       <c r="H465" t="s">
-        <v>237</v>
+        <v>222</v>
       </c>
       <c r="I465" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J465">
         <v>0</v>
@@ -17051,10 +17051,10 @@
         <v>0</v>
       </c>
       <c r="B467" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C467" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -17078,10 +17078,10 @@
         <v>1</v>
       </c>
       <c r="K467" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L467" t="s">
-        <v>475</v>
+        <v>401</v>
       </c>
       <c r="M467" t="s">
         <v>1</v>
@@ -17101,10 +17101,10 @@
         <v>0</v>
       </c>
       <c r="B468" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C468" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D468" t="s">
         <v>1</v>
@@ -17113,16 +17113,16 @@
         <v>1</v>
       </c>
       <c r="F468" t="s">
-        <v>217</v>
+        <v>203</v>
       </c>
       <c r="G468" t="s">
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>594</v>
+        <v>518</v>
       </c>
       <c r="I468" t="s">
-        <v>476</v>
+        <v>402</v>
       </c>
       <c r="J468" t="s">
         <v>1</v>
@@ -17131,7 +17131,7 @@
         <v>8</v>
       </c>
       <c r="L468" t="s">
-        <v>477</v>
+        <v>403</v>
       </c>
       <c r="M468" t="s">
         <v>1</v>
@@ -17151,10 +17151,10 @@
         <v>0</v>
       </c>
       <c r="B470" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C470" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D470" t="s">
         <v>1</v>
@@ -17178,10 +17178,10 @@
         <v>1</v>
       </c>
       <c r="K470" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L470" t="s">
-        <v>478</v>
+        <v>404</v>
       </c>
       <c r="M470" t="s">
         <v>1</v>
@@ -17201,10 +17201,10 @@
         <v>0</v>
       </c>
       <c r="B471" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C471" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D471" t="s">
         <v>1</v>
@@ -17213,16 +17213,16 @@
         <v>1</v>
       </c>
       <c r="F471" t="s">
-        <v>480</v>
+        <v>406</v>
       </c>
       <c r="G471" t="s">
         <v>1</v>
       </c>
       <c r="H471" t="s">
-        <v>490</v>
+        <v>416</v>
       </c>
       <c r="I471" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="J471">
         <v>1</v>
@@ -17231,7 +17231,7 @@
         <v>13</v>
       </c>
       <c r="L471" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M471" t="s">
         <v>1</v>
@@ -17251,10 +17251,10 @@
         <v>0</v>
       </c>
       <c r="B472" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C472" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D472" t="s">
         <v>1</v>
@@ -17263,16 +17263,16 @@
         <v>1</v>
       </c>
       <c r="F472" t="s">
-        <v>481</v>
+        <v>407</v>
       </c>
       <c r="G472" t="s">
         <v>1</v>
       </c>
       <c r="H472" t="s">
-        <v>491</v>
+        <v>417</v>
       </c>
       <c r="I472" t="s">
-        <v>501</v>
+        <v>427</v>
       </c>
       <c r="J472">
         <v>0</v>
@@ -17281,7 +17281,7 @@
         <v>13</v>
       </c>
       <c r="L472" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M472" t="s">
         <v>1</v>
@@ -17301,10 +17301,10 @@
         <v>0</v>
       </c>
       <c r="B473" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C473" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D473" t="s">
         <v>1</v>
@@ -17313,16 +17313,16 @@
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>482</v>
+        <v>408</v>
       </c>
       <c r="G473" t="s">
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="I473" t="s">
-        <v>502</v>
+        <v>428</v>
       </c>
       <c r="J473">
         <v>1</v>
@@ -17331,7 +17331,7 @@
         <v>13</v>
       </c>
       <c r="L473" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M473" t="s">
         <v>1</v>
@@ -17351,10 +17351,10 @@
         <v>0</v>
       </c>
       <c r="B474" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C474" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D474" t="s">
         <v>1</v>
@@ -17363,16 +17363,16 @@
         <v>1</v>
       </c>
       <c r="F474" t="s">
-        <v>483</v>
+        <v>409</v>
       </c>
       <c r="G474" t="s">
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>493</v>
+        <v>419</v>
       </c>
       <c r="I474" t="s">
-        <v>503</v>
+        <v>429</v>
       </c>
       <c r="J474">
         <v>0</v>
@@ -17381,7 +17381,7 @@
         <v>13</v>
       </c>
       <c r="L474" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M474" t="s">
         <v>1</v>
@@ -17401,10 +17401,10 @@
         <v>0</v>
       </c>
       <c r="B475" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C475" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D475" t="s">
         <v>1</v>
@@ -17413,16 +17413,16 @@
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>484</v>
+        <v>410</v>
       </c>
       <c r="G475" t="s">
         <v>1</v>
       </c>
       <c r="H475" t="s">
-        <v>494</v>
+        <v>420</v>
       </c>
       <c r="I475" t="s">
-        <v>504</v>
+        <v>430</v>
       </c>
       <c r="J475">
         <v>1</v>
@@ -17431,7 +17431,7 @@
         <v>13</v>
       </c>
       <c r="L475" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M475" t="s">
         <v>1</v>
@@ -17451,10 +17451,10 @@
         <v>0</v>
       </c>
       <c r="B476" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C476" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -17463,16 +17463,16 @@
         <v>1</v>
       </c>
       <c r="F476" t="s">
-        <v>485</v>
+        <v>411</v>
       </c>
       <c r="G476" t="s">
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>495</v>
+        <v>421</v>
       </c>
       <c r="I476" t="s">
-        <v>505</v>
+        <v>431</v>
       </c>
       <c r="J476">
         <v>2</v>
@@ -17481,7 +17481,7 @@
         <v>13</v>
       </c>
       <c r="L476" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M476" t="s">
         <v>1</v>
@@ -17501,10 +17501,10 @@
         <v>0</v>
       </c>
       <c r="B477" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C477" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D477" t="s">
         <v>1</v>
@@ -17513,16 +17513,16 @@
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>486</v>
+        <v>412</v>
       </c>
       <c r="G477" t="s">
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>496</v>
+        <v>422</v>
       </c>
       <c r="I477" t="s">
-        <v>507</v>
+        <v>433</v>
       </c>
       <c r="J477">
         <v>1</v>
@@ -17531,7 +17531,7 @@
         <v>13</v>
       </c>
       <c r="L477" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M477" t="s">
         <v>1</v>
@@ -17551,10 +17551,10 @@
         <v>0</v>
       </c>
       <c r="B478" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C478" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D478" t="s">
         <v>1</v>
@@ -17563,16 +17563,16 @@
         <v>1</v>
       </c>
       <c r="F478" t="s">
-        <v>487</v>
+        <v>413</v>
       </c>
       <c r="G478" t="s">
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>497</v>
+        <v>423</v>
       </c>
       <c r="I478" t="s">
-        <v>500</v>
+        <v>426</v>
       </c>
       <c r="J478">
         <v>0</v>
@@ -17581,7 +17581,7 @@
         <v>13</v>
       </c>
       <c r="L478" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M478" t="s">
         <v>1</v>
@@ -17601,10 +17601,10 @@
         <v>0</v>
       </c>
       <c r="B479" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C479" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D479" t="s">
         <v>1</v>
@@ -17613,16 +17613,16 @@
         <v>1</v>
       </c>
       <c r="F479" t="s">
-        <v>488</v>
+        <v>414</v>
       </c>
       <c r="G479" t="s">
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>498</v>
+        <v>424</v>
       </c>
       <c r="I479" t="s">
-        <v>506</v>
+        <v>432</v>
       </c>
       <c r="J479">
         <v>2</v>
@@ -17631,7 +17631,7 @@
         <v>13</v>
       </c>
       <c r="L479" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M479" t="s">
         <v>1</v>
@@ -17651,10 +17651,10 @@
         <v>0</v>
       </c>
       <c r="B480" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C480" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D480" t="s">
         <v>1</v>
@@ -17663,16 +17663,16 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>489</v>
+        <v>415</v>
       </c>
       <c r="G480" t="s">
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>499</v>
+        <v>425</v>
       </c>
       <c r="I480" t="s">
-        <v>508</v>
+        <v>434</v>
       </c>
       <c r="J480">
         <v>1</v>
@@ -17681,7 +17681,7 @@
         <v>13</v>
       </c>
       <c r="L480" t="s">
-        <v>479</v>
+        <v>405</v>
       </c>
       <c r="M480" t="s">
         <v>1</v>
@@ -17701,10 +17701,10 @@
         <v>0</v>
       </c>
       <c r="B481" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C481" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D481" t="s">
         <v>1</v>
@@ -17713,16 +17713,16 @@
         <v>1</v>
       </c>
       <c r="F481" t="s">
-        <v>509</v>
+        <v>435</v>
       </c>
       <c r="G481" t="s">
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>595</v>
+        <v>519</v>
       </c>
       <c r="I481" t="s">
-        <v>510</v>
+        <v>436</v>
       </c>
       <c r="J481" t="s">
         <v>1</v>
@@ -17731,7 +17731,7 @@
         <v>8</v>
       </c>
       <c r="L481" t="s">
-        <v>511</v>
+        <v>437</v>
       </c>
       <c r="M481" t="s">
         <v>1</v>
@@ -17751,10 +17751,10 @@
         <v>0</v>
       </c>
       <c r="B483" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C483" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D483" t="s">
         <v>1</v>
@@ -17778,10 +17778,10 @@
         <v>1</v>
       </c>
       <c r="K483" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L483" t="s">
-        <v>512</v>
+        <v>438</v>
       </c>
       <c r="M483" t="s">
         <v>1</v>
@@ -17801,10 +17801,10 @@
         <v>0</v>
       </c>
       <c r="B484" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C484" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D484" t="s">
         <v>1</v>
@@ -17819,10 +17819,10 @@
         <v>1</v>
       </c>
       <c r="H484" t="s">
-        <v>513</v>
+        <v>439</v>
       </c>
       <c r="I484" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="J484">
         <v>0</v>
@@ -17831,7 +17831,7 @@
         <v>13</v>
       </c>
       <c r="L484" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="M484" t="s">
         <v>1</v>
@@ -17851,10 +17851,10 @@
         <v>0</v>
       </c>
       <c r="B485" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C485" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D485" t="s">
         <v>1</v>
@@ -17869,10 +17869,10 @@
         <v>1</v>
       </c>
       <c r="H485" t="s">
-        <v>514</v>
+        <v>440</v>
       </c>
       <c r="I485" t="s">
-        <v>519</v>
+        <v>445</v>
       </c>
       <c r="J485">
         <v>1</v>
@@ -17881,7 +17881,7 @@
         <v>13</v>
       </c>
       <c r="L485" t="s">
-        <v>515</v>
+        <v>441</v>
       </c>
       <c r="M485" t="s">
         <v>1</v>
@@ -17901,10 +17901,10 @@
         <v>0</v>
       </c>
       <c r="B487" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C487" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D487" t="s">
         <v>1</v>
@@ -17928,10 +17928,10 @@
         <v>1</v>
       </c>
       <c r="K487" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L487" t="s">
-        <v>516</v>
+        <v>442</v>
       </c>
       <c r="M487" t="s">
         <v>1</v>
@@ -17951,10 +17951,10 @@
         <v>0</v>
       </c>
       <c r="B488" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C488" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D488" t="s">
         <v>1</v>
@@ -17969,10 +17969,10 @@
         <v>1</v>
       </c>
       <c r="H488" t="s">
-        <v>517</v>
+        <v>443</v>
       </c>
       <c r="I488" t="s">
-        <v>522</v>
+        <v>448</v>
       </c>
       <c r="J488">
         <v>1</v>
@@ -17981,7 +17981,7 @@
         <v>13</v>
       </c>
       <c r="L488" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="M488" t="s">
         <v>1</v>
@@ -18001,10 +18001,10 @@
         <v>0</v>
       </c>
       <c r="B489" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C489" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D489" t="s">
         <v>1</v>
@@ -18019,10 +18019,10 @@
         <v>1</v>
       </c>
       <c r="H489" t="s">
-        <v>518</v>
+        <v>444</v>
       </c>
       <c r="I489" t="s">
-        <v>520</v>
+        <v>446</v>
       </c>
       <c r="J489">
         <v>1</v>
@@ -18031,7 +18031,7 @@
         <v>13</v>
       </c>
       <c r="L489" t="s">
-        <v>521</v>
+        <v>447</v>
       </c>
       <c r="M489" t="s">
         <v>1</v>
@@ -18051,10 +18051,10 @@
         <v>0</v>
       </c>
       <c r="B491" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C491" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D491" t="s">
         <v>1</v>
@@ -18078,10 +18078,10 @@
         <v>1</v>
       </c>
       <c r="K491" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L491" t="s">
-        <v>530</v>
+        <v>454</v>
       </c>
       <c r="M491" t="s">
         <v>1</v>
@@ -18101,10 +18101,10 @@
         <v>0</v>
       </c>
       <c r="B492" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C492" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D492" t="s">
         <v>1</v>
@@ -18113,16 +18113,16 @@
         <v>1</v>
       </c>
       <c r="F492" t="s">
-        <v>523</v>
+        <v>449</v>
       </c>
       <c r="G492" t="s">
         <v>1</v>
       </c>
       <c r="H492" t="s">
-        <v>527</v>
+        <v>451</v>
       </c>
       <c r="I492" t="s">
-        <v>524</v>
+        <v>450</v>
       </c>
       <c r="J492">
         <v>1</v>
@@ -18131,7 +18131,7 @@
         <v>13</v>
       </c>
       <c r="L492" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="M492" t="s">
         <v>1</v>
@@ -18151,10 +18151,10 @@
         <v>0</v>
       </c>
       <c r="B493" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C493" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D493" t="s">
         <v>1</v>
@@ -18169,10 +18169,10 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>525</v>
+        <v>591</v>
       </c>
       <c r="I493" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="J493">
         <v>0</v>
@@ -18181,7 +18181,7 @@
         <v>13</v>
       </c>
       <c r="L493" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="M493" t="s">
         <v>1</v>
@@ -18201,10 +18201,10 @@
         <v>0</v>
       </c>
       <c r="B494" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C494" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D494" t="s">
         <v>1</v>
@@ -18219,10 +18219,10 @@
         <v>1</v>
       </c>
       <c r="H494" t="s">
-        <v>526</v>
+        <v>592</v>
       </c>
       <c r="I494" t="s">
-        <v>528</v>
+        <v>452</v>
       </c>
       <c r="J494">
         <v>2</v>
@@ -18231,7 +18231,7 @@
         <v>13</v>
       </c>
       <c r="L494" t="s">
-        <v>529</v>
+        <v>453</v>
       </c>
       <c r="M494" t="s">
         <v>1</v>
@@ -18251,10 +18251,10 @@
         <v>0</v>
       </c>
       <c r="B496" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C496" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D496" t="s">
         <v>1</v>
@@ -18278,10 +18278,10 @@
         <v>1</v>
       </c>
       <c r="K496" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L496" t="s">
-        <v>537</v>
+        <v>461</v>
       </c>
       <c r="M496" t="s">
         <v>1</v>
@@ -18301,10 +18301,10 @@
         <v>0</v>
       </c>
       <c r="B497" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C497" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D497" t="s">
         <v>1</v>
@@ -18313,16 +18313,16 @@
         <v>1</v>
       </c>
       <c r="F497" t="s">
-        <v>531</v>
+        <v>455</v>
       </c>
       <c r="G497" t="s">
         <v>1</v>
       </c>
       <c r="H497" t="s">
-        <v>533</v>
+        <v>457</v>
       </c>
       <c r="I497" t="s">
-        <v>535</v>
+        <v>459</v>
       </c>
       <c r="J497">
         <v>1</v>
@@ -18331,7 +18331,7 @@
         <v>13</v>
       </c>
       <c r="L497" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="M497" t="s">
         <v>1</v>
@@ -18351,10 +18351,10 @@
         <v>0</v>
       </c>
       <c r="B498" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C498" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D498" t="s">
         <v>1</v>
@@ -18363,16 +18363,16 @@
         <v>1</v>
       </c>
       <c r="F498" t="s">
-        <v>532</v>
+        <v>456</v>
       </c>
       <c r="G498" t="s">
         <v>1</v>
       </c>
       <c r="H498" t="s">
-        <v>534</v>
+        <v>458</v>
       </c>
       <c r="I498" t="s">
-        <v>536</v>
+        <v>460</v>
       </c>
       <c r="J498">
         <v>0</v>
@@ -18381,7 +18381,7 @@
         <v>13</v>
       </c>
       <c r="L498" t="s">
-        <v>538</v>
+        <v>462</v>
       </c>
       <c r="M498" t="s">
         <v>1</v>
@@ -18404,10 +18404,10 @@
         <v>0</v>
       </c>
       <c r="B500" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C500" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D500" t="s">
         <v>1</v>
@@ -18431,10 +18431,10 @@
         <v>1</v>
       </c>
       <c r="K500" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L500" t="s">
-        <v>542</v>
+        <v>466</v>
       </c>
       <c r="M500" t="s">
         <v>1</v>
@@ -18454,10 +18454,10 @@
         <v>0</v>
       </c>
       <c r="B501" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C501" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D501" t="s">
         <v>1</v>
@@ -18472,10 +18472,10 @@
         <v>1</v>
       </c>
       <c r="H501" t="s">
-        <v>539</v>
+        <v>463</v>
       </c>
       <c r="I501" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="J501">
         <v>0</v>
@@ -18484,7 +18484,7 @@
         <v>13</v>
       </c>
       <c r="L501" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="M501" t="s">
         <v>1</v>
@@ -18504,10 +18504,10 @@
         <v>0</v>
       </c>
       <c r="B502" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C502" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D502" t="s">
         <v>1</v>
@@ -18522,10 +18522,10 @@
         <v>1</v>
       </c>
       <c r="H502" t="s">
-        <v>540</v>
+        <v>464</v>
       </c>
       <c r="I502" t="s">
-        <v>541</v>
+        <v>465</v>
       </c>
       <c r="J502">
         <v>1</v>
@@ -18534,7 +18534,7 @@
         <v>13</v>
       </c>
       <c r="L502" t="s">
-        <v>543</v>
+        <v>467</v>
       </c>
       <c r="M502" t="s">
         <v>1</v>
@@ -18554,10 +18554,10 @@
         <v>0</v>
       </c>
       <c r="B504" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C504" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D504" t="s">
         <v>1</v>
@@ -18581,10 +18581,10 @@
         <v>1</v>
       </c>
       <c r="K504" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
       <c r="L504" t="s">
-        <v>548</v>
+        <v>472</v>
       </c>
       <c r="M504" t="s">
         <v>1</v>
@@ -18604,10 +18604,10 @@
         <v>0</v>
       </c>
       <c r="B505" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C505" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D505" t="s">
         <v>1</v>
@@ -18622,10 +18622,10 @@
         <v>1</v>
       </c>
       <c r="H505" t="s">
-        <v>544</v>
+        <v>468</v>
       </c>
       <c r="I505" t="s">
-        <v>546</v>
+        <v>470</v>
       </c>
       <c r="J505">
         <v>0</v>
@@ -18634,7 +18634,7 @@
         <v>13</v>
       </c>
       <c r="L505" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="M505" t="s">
         <v>1</v>
@@ -18654,10 +18654,10 @@
         <v>0</v>
       </c>
       <c r="B506" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="C506" t="s">
-        <v>586</v>
+        <v>510</v>
       </c>
       <c r="D506" t="s">
         <v>1</v>
@@ -18672,10 +18672,10 @@
         <v>1</v>
       </c>
       <c r="H506" t="s">
-        <v>545</v>
+        <v>469</v>
       </c>
       <c r="I506" t="s">
-        <v>547</v>
+        <v>471</v>
       </c>
       <c r="J506">
         <v>0</v>
@@ -18684,7 +18684,7 @@
         <v>13</v>
       </c>
       <c r="L506" t="s">
-        <v>549</v>
+        <v>473</v>
       </c>
       <c r="M506" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C71E4745-F52F-F549-B47E-E3483E9A646B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8D0723-2258-F446-BFC0-7C11194AEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19300" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -1579,9 +1579,6 @@
   </si>
   <si>
     <t xml:space="preserve"> اسبوع  =  ______; مدرسة = ______ ;ذكية = ______</t>
-  </si>
-  <si>
-    <t>With whom did Ali share his story? ______ ; They all agreed that learning English is ______ ;Where did Ali run? ______​; "غداء" ;______ "ام"______</t>
   </si>
   <si>
     <t>She is ______ happy0هي سعيدة جدا ; She is waiting for you ______0هي تنتظرك هنا; She ______ eats eggs0هي لا تأكل بيض ابدا;I will ______ love you0انا سأحبك دائما</t>
@@ -1886,6 +1883,9 @@
   </si>
   <si>
     <t>Write the following in your notebook.</t>
+  </si>
+  <si>
+    <t>With whom did Ali share his story? ______; They all agreed that learning English is ______; Where did Ali run? ______; غداء ______; ام ______</t>
   </si>
 </sst>
 </file>
@@ -2284,8 +2284,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:P506"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H112" sqref="H112"/>
+    <sheetView tabSelected="1" topLeftCell="F31" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H40" sqref="H40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2919,7 +2919,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I16" t="s">
         <v>78</v>
@@ -4096,7 +4096,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>0</v>
       </c>
@@ -4118,8 +4118,8 @@
       <c r="G40" t="s">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
-        <v>513</v>
+      <c r="H40" s="1" t="s">
+        <v>597</v>
       </c>
       <c r="I40" t="s">
         <v>156</v>
@@ -4269,7 +4269,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>239</v>
@@ -4319,7 +4319,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>240</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>241</v>
@@ -4469,7 +4469,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>243</v>
@@ -4622,7 +4622,7 @@
         <v>246</v>
       </c>
       <c r="H51" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>247</v>
@@ -4672,7 +4672,7 @@
         <v>246</v>
       </c>
       <c r="H52" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>248</v>
@@ -4722,7 +4722,7 @@
         <v>246</v>
       </c>
       <c r="H53" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>249</v>
@@ -4772,7 +4772,7 @@
         <v>246</v>
       </c>
       <c r="H54" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>250</v>
@@ -4822,7 +4822,7 @@
         <v>246</v>
       </c>
       <c r="H55" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>251</v>
@@ -4922,7 +4922,7 @@
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I58" s="2" t="s">
         <v>256</v>
@@ -4972,7 +4972,7 @@
         <v>1</v>
       </c>
       <c r="H59" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I59" s="2" t="s">
         <v>252</v>
@@ -5022,7 +5022,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>253</v>
@@ -5072,7 +5072,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>254</v>
@@ -5122,7 +5122,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>255</v>
@@ -5287,7 +5287,7 @@
         <v>140</v>
       </c>
       <c r="H70" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I70" t="s">
         <v>263</v>
@@ -5391,7 +5391,7 @@
         <v>1</v>
       </c>
       <c r="H73" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I73" s="2" t="s">
         <v>265</v>
@@ -5441,7 +5441,7 @@
         <v>1</v>
       </c>
       <c r="H74" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I74" s="2" t="s">
         <v>266</v>
@@ -5491,7 +5491,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>146</v>
@@ -5541,7 +5541,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>266</v>
@@ -5644,7 +5644,7 @@
         <v>1</v>
       </c>
       <c r="H79" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I79" s="2" t="s">
         <v>268</v>
@@ -5694,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="H80" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I80" s="2" t="s">
         <v>269</v>
@@ -5744,7 +5744,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>149</v>
@@ -5794,7 +5794,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>152</v>
@@ -5844,7 +5844,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>270</v>
@@ -5909,7 +5909,7 @@
         <v>235</v>
       </c>
       <c r="L85" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="M85" t="s">
         <v>1</v>
@@ -6239,7 +6239,7 @@
         <v>1</v>
       </c>
       <c r="F105" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G105" t="s">
         <v>1</v>
@@ -6996,7 +6996,7 @@
         <v>1</v>
       </c>
       <c r="F122" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G122" t="s">
         <v>1</v>
@@ -7146,7 +7146,7 @@
         <v>1</v>
       </c>
       <c r="F126" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G126" t="s">
         <v>1</v>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="F130" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G130" t="s">
         <v>1</v>
@@ -7446,7 +7446,7 @@
         <v>1</v>
       </c>
       <c r="F134" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G134" t="s">
         <v>1</v>
@@ -7599,7 +7599,7 @@
         <v>1</v>
       </c>
       <c r="F138" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G138" t="s">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="F142" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G142" t="s">
         <v>1</v>
@@ -7907,7 +7907,7 @@
         <v>1</v>
       </c>
       <c r="F146" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G146" t="s">
         <v>1</v>
@@ -8062,7 +8062,7 @@
         <v>1</v>
       </c>
       <c r="F150" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G150" t="s">
         <v>1</v>
@@ -8212,7 +8212,7 @@
         <v>1</v>
       </c>
       <c r="F154" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G154" t="s">
         <v>1</v>
@@ -8362,7 +8362,7 @@
         <v>1</v>
       </c>
       <c r="F158" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G158" t="s">
         <v>1</v>
@@ -8515,7 +8515,7 @@
         <v>1</v>
       </c>
       <c r="F162" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G162" t="s">
         <v>1</v>
@@ -8668,7 +8668,7 @@
         <v>1</v>
       </c>
       <c r="F166" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G166" t="s">
         <v>1</v>
@@ -9782,7 +9782,7 @@
         <v>1</v>
       </c>
       <c r="H227" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I227" t="s">
         <v>191</v>
@@ -9832,7 +9832,7 @@
         <v>1</v>
       </c>
       <c r="H228" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I228" t="s">
         <v>191</v>
@@ -9882,7 +9882,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I229" t="s">
         <v>191</v>
@@ -9932,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I230" t="s">
         <v>191</v>
@@ -9982,7 +9982,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I231" t="s">
         <v>191</v>
@@ -10032,7 +10032,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I232" t="s">
         <v>191</v>
@@ -10082,7 +10082,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I233" t="s">
         <v>191</v>
@@ -10132,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I234" t="s">
         <v>191</v>
@@ -10532,7 +10532,7 @@
         <v>1</v>
       </c>
       <c r="H242" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I242" t="s">
         <v>201</v>
@@ -10582,7 +10582,7 @@
         <v>1</v>
       </c>
       <c r="H243" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I243" t="s">
         <v>201</v>
@@ -10632,7 +10632,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I244" t="s">
         <v>201</v>
@@ -10682,7 +10682,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I245" t="s">
         <v>201</v>
@@ -10732,7 +10732,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I246" t="s">
         <v>201</v>
@@ -10782,7 +10782,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I247" t="s">
         <v>203</v>
@@ -10932,7 +10932,7 @@
         <v>1</v>
       </c>
       <c r="H251" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I251" t="s">
         <v>320</v>
@@ -10982,7 +10982,7 @@
         <v>1</v>
       </c>
       <c r="H252" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I252" t="s">
         <v>321</v>
@@ -11032,7 +11032,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I253" t="s">
         <v>322</v>
@@ -11082,7 +11082,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I254" t="s">
         <v>323</v>
@@ -11132,7 +11132,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I255" t="s">
         <v>324</v>
@@ -11182,7 +11182,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I256" t="s">
         <v>320</v>
@@ -11232,7 +11232,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I257" t="s">
         <v>321</v>
@@ -11282,7 +11282,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I258" t="s">
         <v>325</v>
@@ -11332,7 +11332,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I259" t="s">
         <v>326</v>
@@ -11382,7 +11382,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I260" t="s">
         <v>327</v>
@@ -11532,7 +11532,7 @@
         <v>1</v>
       </c>
       <c r="H265" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I265" t="s">
         <v>332</v>
@@ -11582,7 +11582,7 @@
         <v>1</v>
       </c>
       <c r="H266" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I266" t="s">
         <v>327</v>
@@ -11632,7 +11632,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I267" t="s">
         <v>329</v>
@@ -11682,7 +11682,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I268" t="s">
         <v>330</v>
@@ -11732,7 +11732,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I269" t="s">
         <v>331</v>
@@ -11782,7 +11782,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I270" t="s">
         <v>327</v>
@@ -11832,7 +11832,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I271" t="s">
         <v>332</v>
@@ -11882,7 +11882,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I272" t="s">
         <v>334</v>
@@ -11932,7 +11932,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I273" t="s">
         <v>333</v>
@@ -11982,7 +11982,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I274" t="s">
         <v>335</v>
@@ -12082,7 +12082,7 @@
         <v>1</v>
       </c>
       <c r="H277" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I277" t="s">
         <v>338</v>
@@ -12132,7 +12132,7 @@
         <v>1</v>
       </c>
       <c r="H278" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I278" t="s">
         <v>339</v>
@@ -12182,7 +12182,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I279" t="s">
         <v>340</v>
@@ -12232,7 +12232,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I280" t="s">
         <v>341</v>
@@ -12282,7 +12282,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I281" t="s">
         <v>342</v>
@@ -12332,7 +12332,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I282" t="s">
         <v>343</v>
@@ -12382,7 +12382,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I283" t="s">
         <v>341</v>
@@ -12432,7 +12432,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I284" t="s">
         <v>344</v>
@@ -12482,7 +12482,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I285" t="s">
         <v>345</v>
@@ -12532,7 +12532,7 @@
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I286" t="s">
         <v>340</v>
@@ -12632,7 +12632,7 @@
         <v>1</v>
       </c>
       <c r="H289" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I289" t="s">
         <v>348</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="H290" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I290" t="s">
         <v>350</v>
@@ -12732,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I291" t="s">
         <v>351</v>
@@ -12782,7 +12782,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I292" t="s">
         <v>352</v>
@@ -12832,7 +12832,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I293" t="s">
         <v>353</v>
@@ -12882,7 +12882,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I294" t="s">
         <v>354</v>
@@ -12932,7 +12932,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I295" t="s">
         <v>355</v>
@@ -12982,7 +12982,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I296" t="s">
         <v>349</v>
@@ -13032,7 +13032,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I297" t="s">
         <v>356</v>
@@ -13776,7 +13776,7 @@
         <v>1</v>
       </c>
       <c r="F346" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G346" t="s">
         <v>1</v>
@@ -13926,7 +13926,7 @@
         <v>1</v>
       </c>
       <c r="F350" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G350" t="s">
         <v>1</v>
@@ -14076,7 +14076,7 @@
         <v>1</v>
       </c>
       <c r="F354" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G354" t="s">
         <v>1</v>
@@ -14226,7 +14226,7 @@
         <v>1</v>
       </c>
       <c r="F358" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G358" t="s">
         <v>1</v>
@@ -14379,7 +14379,7 @@
         <v>1</v>
       </c>
       <c r="F362" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G362" t="s">
         <v>1</v>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="F366" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G366" t="s">
         <v>1</v>
@@ -14687,7 +14687,7 @@
         <v>1</v>
       </c>
       <c r="F370" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G370" t="s">
         <v>1</v>
@@ -14842,7 +14842,7 @@
         <v>1</v>
       </c>
       <c r="F374" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G374" t="s">
         <v>1</v>
@@ -14992,7 +14992,7 @@
         <v>1</v>
       </c>
       <c r="F378" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G378" t="s">
         <v>1</v>
@@ -15142,7 +15142,7 @@
         <v>1</v>
       </c>
       <c r="F382" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G382" t="s">
         <v>1</v>
@@ -15295,7 +15295,7 @@
         <v>1</v>
       </c>
       <c r="F386" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G386" t="s">
         <v>1</v>
@@ -15448,7 +15448,7 @@
         <v>1</v>
       </c>
       <c r="F390" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G390" t="s">
         <v>1</v>
@@ -15601,7 +15601,7 @@
         <v>1</v>
       </c>
       <c r="F394" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G394" t="s">
         <v>1</v>
@@ -15751,7 +15751,7 @@
         <v>1</v>
       </c>
       <c r="F398" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="G398" t="s">
         <v>1</v>
@@ -16608,7 +16608,7 @@
         <v>1</v>
       </c>
       <c r="H453" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I453" t="s">
         <v>211</v>
@@ -17008,7 +17008,7 @@
         <v>1</v>
       </c>
       <c r="H461" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I461" t="s">
         <v>229</v>
@@ -17158,7 +17158,7 @@
         <v>1</v>
       </c>
       <c r="H464" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I464" t="s">
         <v>232</v>
@@ -17308,7 +17308,7 @@
         <v>1</v>
       </c>
       <c r="H468" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I468" t="s">
         <v>401</v>
@@ -17908,7 +17908,7 @@
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I481" t="s">
         <v>435</v>
@@ -18358,7 +18358,7 @@
         <v>1</v>
       </c>
       <c r="H493" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I493" t="s">
         <v>451</v>
@@ -18408,7 +18408,7 @@
         <v>1</v>
       </c>
       <c r="H494" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I494" t="s">
         <v>451</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FDD681E-005E-CB43-B3C7-644EAE8AF1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DE011-EE66-5B40-AF8F-B81236AA58B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="500" windowWidth="33600" windowHeight="19300" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -871,9 +871,6 @@
   </si>
   <si>
     <t>Aya and Judy;Aya and judy;aya and judy</t>
-  </si>
-  <si>
-    <t>you, You</t>
   </si>
   <si>
     <t>Ahmed;ahmed</t>
@@ -2063,6 +2060,9 @@
   </si>
   <si>
     <t>They decorated the wall with colorful balloons and streamers;​    They played games, danced to music, and enjoyed delicious snacks;​    Sara and Ali sat down and talked about their day</t>
+  </si>
+  <si>
+    <t>you;You</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G209" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H211" sqref="H211"/>
+    <sheetView tabSelected="1" topLeftCell="H102" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="I122" sqref="I122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2493,7 +2493,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2508,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I4" t="s">
         <v>1</v>
@@ -2546,7 +2546,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -2561,7 +2561,7 @@
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="I5" t="s">
         <v>1</v>
@@ -2599,7 +2599,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I6" t="s">
         <v>1</v>
@@ -2652,7 +2652,7 @@
         <v>186</v>
       </c>
       <c r="C7" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -2705,7 +2705,7 @@
         <v>186</v>
       </c>
       <c r="C8" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2758,7 +2758,7 @@
         <v>186</v>
       </c>
       <c r="C9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2811,7 +2811,7 @@
         <v>186</v>
       </c>
       <c r="C10" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2864,7 +2864,7 @@
         <v>186</v>
       </c>
       <c r="C11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2917,7 +2917,7 @@
         <v>186</v>
       </c>
       <c r="C12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2970,7 +2970,7 @@
         <v>186</v>
       </c>
       <c r="C13" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -3023,7 +3023,7 @@
         <v>186</v>
       </c>
       <c r="C14" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -3076,7 +3076,7 @@
         <v>186</v>
       </c>
       <c r="C15" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>186</v>
       </c>
       <c r="C16" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -3144,7 +3144,7 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I16" t="s">
         <v>78</v>
@@ -3182,7 +3182,7 @@
         <v>187</v>
       </c>
       <c r="C17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -3235,7 +3235,7 @@
         <v>187</v>
       </c>
       <c r="C18" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -3288,7 +3288,7 @@
         <v>187</v>
       </c>
       <c r="C19" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -3341,7 +3341,7 @@
         <v>187</v>
       </c>
       <c r="C20" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -3394,7 +3394,7 @@
         <v>187</v>
       </c>
       <c r="C21" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -3447,7 +3447,7 @@
         <v>187</v>
       </c>
       <c r="C22" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -3500,7 +3500,7 @@
         <v>187</v>
       </c>
       <c r="C23" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>187</v>
       </c>
       <c r="C24" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -3606,7 +3606,7 @@
         <v>187</v>
       </c>
       <c r="C25" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -3659,7 +3659,7 @@
         <v>187</v>
       </c>
       <c r="C26" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -3674,7 +3674,7 @@
         <v>139</v>
       </c>
       <c r="H26" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I26" t="s">
         <v>140</v>
@@ -3712,7 +3712,7 @@
         <v>187</v>
       </c>
       <c r="C27" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q27" t="s">
         <v>1</v>
@@ -3765,7 +3765,7 @@
         <v>187</v>
       </c>
       <c r="C28" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -3804,7 +3804,7 @@
         <v>1</v>
       </c>
       <c r="P28" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q28" t="s">
         <v>1</v>
@@ -3818,7 +3818,7 @@
         <v>187</v>
       </c>
       <c r="C29" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -3871,7 +3871,7 @@
         <v>187</v>
       </c>
       <c r="C30" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -3924,7 +3924,7 @@
         <v>187</v>
       </c>
       <c r="C31" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -3977,7 +3977,7 @@
         <v>187</v>
       </c>
       <c r="C32" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -4030,7 +4030,7 @@
         <v>187</v>
       </c>
       <c r="C33" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -4083,7 +4083,7 @@
         <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -4136,7 +4136,7 @@
         <v>187</v>
       </c>
       <c r="C35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I35" t="s">
         <v>162</v>
@@ -4189,7 +4189,7 @@
         <v>187</v>
       </c>
       <c r="C36" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -4242,7 +4242,7 @@
         <v>187</v>
       </c>
       <c r="C37" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -4295,7 +4295,7 @@
         <v>187</v>
       </c>
       <c r="C38" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -4348,7 +4348,7 @@
         <v>187</v>
       </c>
       <c r="C39" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -4401,7 +4401,7 @@
         <v>187</v>
       </c>
       <c r="C40" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I40" t="s">
         <v>155</v>
@@ -4454,7 +4454,7 @@
         <v>233</v>
       </c>
       <c r="C41" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>233</v>
       </c>
       <c r="C42" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -4560,7 +4560,7 @@
         <v>233</v>
       </c>
       <c r="C43" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>238</v>
@@ -4613,7 +4613,7 @@
         <v>233</v>
       </c>
       <c r="C44" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>239</v>
@@ -4666,7 +4666,7 @@
         <v>233</v>
       </c>
       <c r="C45" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>240</v>
@@ -4719,7 +4719,7 @@
         <v>233</v>
       </c>
       <c r="C46" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -4772,7 +4772,7 @@
         <v>233</v>
       </c>
       <c r="C47" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -4787,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>242</v>
@@ -4825,7 +4825,7 @@
         <v>233</v>
       </c>
       <c r="C48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -4881,7 +4881,7 @@
         <v>233</v>
       </c>
       <c r="C50" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -4934,7 +4934,7 @@
         <v>233</v>
       </c>
       <c r="C51" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -4949,7 +4949,7 @@
         <v>245</v>
       </c>
       <c r="H51" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>246</v>
@@ -4987,7 +4987,7 @@
         <v>233</v>
       </c>
       <c r="C52" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -5002,7 +5002,7 @@
         <v>245</v>
       </c>
       <c r="H52" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>247</v>
@@ -5040,7 +5040,7 @@
         <v>233</v>
       </c>
       <c r="C53" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -5055,7 +5055,7 @@
         <v>245</v>
       </c>
       <c r="H53" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>248</v>
@@ -5093,7 +5093,7 @@
         <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -5108,7 +5108,7 @@
         <v>245</v>
       </c>
       <c r="H54" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>249</v>
@@ -5146,7 +5146,7 @@
         <v>233</v>
       </c>
       <c r="C55" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -5161,7 +5161,7 @@
         <v>245</v>
       </c>
       <c r="H55" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>250</v>
@@ -5199,7 +5199,7 @@
         <v>233</v>
       </c>
       <c r="C57" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5252,7 +5252,7 @@
         <v>233</v>
       </c>
       <c r="C58" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>233</v>
       </c>
       <c r="C59" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5358,7 +5358,7 @@
         <v>233</v>
       </c>
       <c r="C60" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>255</v>
@@ -5411,7 +5411,7 @@
         <v>233</v>
       </c>
       <c r="C61" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>251</v>
@@ -5464,7 +5464,7 @@
         <v>233</v>
       </c>
       <c r="C62" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>252</v>
@@ -5517,7 +5517,7 @@
         <v>233</v>
       </c>
       <c r="C63" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>253</v>
@@ -5570,7 +5570,7 @@
         <v>233</v>
       </c>
       <c r="C64" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>254</v>
@@ -5626,7 +5626,7 @@
         <v>233</v>
       </c>
       <c r="C66" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5679,7 +5679,7 @@
         <v>233</v>
       </c>
       <c r="C67" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -5732,7 +5732,7 @@
         <v>233</v>
       </c>
       <c r="C68" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -5791,7 +5791,7 @@
         <v>233</v>
       </c>
       <c r="C71" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -5844,7 +5844,7 @@
         <v>233</v>
       </c>
       <c r="C72" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -5859,7 +5859,7 @@
         <v>139</v>
       </c>
       <c r="H72" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I72" t="s">
         <v>262</v>
@@ -5901,7 +5901,7 @@
         <v>233</v>
       </c>
       <c r="C74" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -5954,7 +5954,7 @@
         <v>233</v>
       </c>
       <c r="C75" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>264</v>
@@ -5993,7 +5993,7 @@
         <v>1</v>
       </c>
       <c r="P75" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q75" t="s">
         <v>1</v>
@@ -6007,7 +6007,7 @@
         <v>233</v>
       </c>
       <c r="C76" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>265</v>
@@ -6046,7 +6046,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q76" t="s">
         <v>1</v>
@@ -6060,7 +6060,7 @@
         <v>233</v>
       </c>
       <c r="C77" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>145</v>
@@ -6099,7 +6099,7 @@
         <v>1</v>
       </c>
       <c r="P77" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q77" t="s">
         <v>1</v>
@@ -6113,7 +6113,7 @@
         <v>233</v>
       </c>
       <c r="C78" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>265</v>
@@ -6152,7 +6152,7 @@
         <v>1</v>
       </c>
       <c r="P78" s="3" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="Q78" t="s">
         <v>1</v>
@@ -6169,7 +6169,7 @@
         <v>233</v>
       </c>
       <c r="C80" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6222,7 +6222,7 @@
         <v>233</v>
       </c>
       <c r="C81" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>267</v>
@@ -6275,7 +6275,7 @@
         <v>233</v>
       </c>
       <c r="C82" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>268</v>
@@ -6328,7 +6328,7 @@
         <v>233</v>
       </c>
       <c r="C83" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>148</v>
@@ -6381,7 +6381,7 @@
         <v>233</v>
       </c>
       <c r="C84" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>151</v>
@@ -6434,7 +6434,7 @@
         <v>233</v>
       </c>
       <c r="C85" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>269</v>
@@ -6490,7 +6490,7 @@
         <v>233</v>
       </c>
       <c r="C87" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -6517,7 +6517,7 @@
         <v>234</v>
       </c>
       <c r="L87" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M87" t="s">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6606,7 +6606,7 @@
         <v>1</v>
       </c>
       <c r="H102" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="I102" s="2" t="s">
         <v>1</v>
@@ -6644,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6659,7 +6659,7 @@
         <v>1</v>
       </c>
       <c r="H103" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="I103" s="2" t="s">
         <v>1</v>
@@ -6697,7 +6697,7 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6712,7 +6712,7 @@
         <v>1</v>
       </c>
       <c r="H104" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="I104" s="2" t="s">
         <v>1</v>
@@ -6747,10 +6747,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C105" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -6774,7 +6774,7 @@
         <v>1</v>
       </c>
       <c r="K105" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L105" t="s">
         <v>1</v>
@@ -6803,7 +6803,7 @@
         <v>187</v>
       </c>
       <c r="C106" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6856,7 +6856,7 @@
         <v>187</v>
       </c>
       <c r="C107" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G107" t="s">
         <v>1</v>
@@ -6909,7 +6909,7 @@
         <v>187</v>
       </c>
       <c r="C108" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>1</v>
       </c>
       <c r="K108" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L108" t="s">
         <v>1</v>
@@ -6962,7 +6962,7 @@
         <v>187</v>
       </c>
       <c r="C109" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -7015,7 +7015,7 @@
         <v>187</v>
       </c>
       <c r="C110" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -7068,7 +7068,7 @@
         <v>187</v>
       </c>
       <c r="C111" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -7121,7 +7121,7 @@
         <v>187</v>
       </c>
       <c r="C112" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -7174,7 +7174,7 @@
         <v>188</v>
       </c>
       <c r="C113" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -7227,7 +7227,7 @@
         <v>188</v>
       </c>
       <c r="C114" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -7281,10 +7281,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C116" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -7334,10 +7334,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C117" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -7387,10 +7387,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C118" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -7440,10 +7440,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C119" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>273</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>277</v>
+        <v>656</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7493,10 +7493,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C120" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -7514,7 +7514,7 @@
         <v>274</v>
       </c>
       <c r="I120" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="J120">
         <v>0</v>
@@ -7549,10 +7549,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C122" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -7579,7 +7579,7 @@
         <v>234</v>
       </c>
       <c r="L122" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M122" t="s">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -7602,10 +7602,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C123" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -7620,7 +7620,7 @@
         <v>1</v>
       </c>
       <c r="H123" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="I123" s="2" t="s">
         <v>1</v>
@@ -7632,7 +7632,7 @@
         <v>171</v>
       </c>
       <c r="L123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M123" t="s">
         <v>1</v>
@@ -7655,10 +7655,10 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C124" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7667,13 +7667,13 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G124" t="s">
         <v>1</v>
       </c>
       <c r="H124" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="I124" s="2" t="s">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>171</v>
       </c>
       <c r="L124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="M124" t="s">
         <v>1</v>
@@ -7708,10 +7708,10 @@
         <v>0</v>
       </c>
       <c r="B126" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C126" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7738,7 +7738,7 @@
         <v>234</v>
       </c>
       <c r="L126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M126" t="s">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -7761,10 +7761,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C127" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7779,7 +7779,7 @@
         <v>1</v>
       </c>
       <c r="H127" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="I127" s="2" t="s">
         <v>1</v>
@@ -7791,7 +7791,7 @@
         <v>171</v>
       </c>
       <c r="L127" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M127" t="s">
         <v>1</v>
@@ -7814,10 +7814,10 @@
         <v>0</v>
       </c>
       <c r="B128" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C128" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7826,13 +7826,13 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G128" t="s">
         <v>1</v>
       </c>
       <c r="H128" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="I128" s="2" t="s">
         <v>1</v>
@@ -7844,7 +7844,7 @@
         <v>171</v>
       </c>
       <c r="L128" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="M128" t="s">
         <v>1</v>
@@ -7867,10 +7867,10 @@
         <v>0</v>
       </c>
       <c r="B130" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C130" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7897,7 +7897,7 @@
         <v>234</v>
       </c>
       <c r="L130" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M130" t="s">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -7920,10 +7920,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C131" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -7938,7 +7938,7 @@
         <v>1</v>
       </c>
       <c r="H131" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="I131" s="2" t="s">
         <v>1</v>
@@ -7950,7 +7950,7 @@
         <v>171</v>
       </c>
       <c r="L131" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M131" t="s">
         <v>1</v>
@@ -7973,10 +7973,10 @@
         <v>0</v>
       </c>
       <c r="B132" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C132" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7985,13 +7985,13 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G132" t="s">
         <v>1</v>
       </c>
       <c r="H132" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I132" s="2" t="s">
         <v>1</v>
@@ -8003,7 +8003,7 @@
         <v>171</v>
       </c>
       <c r="L132" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="M132" t="s">
         <v>1</v>
@@ -8026,10 +8026,10 @@
         <v>0</v>
       </c>
       <c r="B134" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C134" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -8056,7 +8056,7 @@
         <v>234</v>
       </c>
       <c r="L134" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M134" t="s">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -8079,10 +8079,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C135" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -8097,7 +8097,7 @@
         <v>1</v>
       </c>
       <c r="H135" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="I135" s="2" t="s">
         <v>1</v>
@@ -8109,7 +8109,7 @@
         <v>171</v>
       </c>
       <c r="L135" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M135" t="s">
         <v>1</v>
@@ -8132,10 +8132,10 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C136" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -8144,13 +8144,13 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G136" t="s">
         <v>1</v>
       </c>
       <c r="H136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I136" s="2" t="s">
         <v>1</v>
@@ -8162,7 +8162,7 @@
         <v>171</v>
       </c>
       <c r="L136" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M136" t="s">
         <v>1</v>
@@ -8188,10 +8188,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C138" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -8218,7 +8218,7 @@
         <v>234</v>
       </c>
       <c r="L138" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M138" t="s">
         <v>1</v>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -8241,10 +8241,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C139" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -8259,7 +8259,7 @@
         <v>1</v>
       </c>
       <c r="H139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I139" s="2" t="s">
         <v>1</v>
@@ -8271,7 +8271,7 @@
         <v>171</v>
       </c>
       <c r="L139" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M139" t="s">
         <v>1</v>
@@ -8294,10 +8294,10 @@
         <v>0</v>
       </c>
       <c r="B140" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C140" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -8306,13 +8306,13 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G140" t="s">
         <v>1</v>
       </c>
       <c r="H140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="I140" s="2" t="s">
         <v>1</v>
@@ -8324,7 +8324,7 @@
         <v>171</v>
       </c>
       <c r="L140" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="M140" t="s">
         <v>1</v>
@@ -8351,10 +8351,10 @@
         <v>0</v>
       </c>
       <c r="B142" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C142" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -8381,7 +8381,7 @@
         <v>234</v>
       </c>
       <c r="L142" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M142" t="s">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -8404,10 +8404,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C143" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -8422,7 +8422,7 @@
         <v>1</v>
       </c>
       <c r="H143" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I143" s="2" t="s">
         <v>1</v>
@@ -8434,7 +8434,7 @@
         <v>171</v>
       </c>
       <c r="L143" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M143" t="s">
         <v>1</v>
@@ -8457,10 +8457,10 @@
         <v>0</v>
       </c>
       <c r="B144" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C144" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -8469,13 +8469,13 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G144" t="s">
         <v>1</v>
       </c>
       <c r="H144" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I144" s="2" t="s">
         <v>1</v>
@@ -8487,7 +8487,7 @@
         <v>171</v>
       </c>
       <c r="L144" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="M144" t="s">
         <v>1</v>
@@ -8514,10 +8514,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C146" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -8544,7 +8544,7 @@
         <v>234</v>
       </c>
       <c r="L146" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M146" t="s">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -8567,10 +8567,10 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C147" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -8585,7 +8585,7 @@
         <v>1</v>
       </c>
       <c r="H147" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I147" s="2" t="s">
         <v>1</v>
@@ -8597,7 +8597,7 @@
         <v>171</v>
       </c>
       <c r="L147" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M147" t="s">
         <v>1</v>
@@ -8620,10 +8620,10 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C148" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -8632,13 +8632,13 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G148" t="s">
         <v>1</v>
       </c>
       <c r="H148" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I148" s="2" t="s">
         <v>1</v>
@@ -8650,7 +8650,7 @@
         <v>171</v>
       </c>
       <c r="L148" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M148" t="s">
         <v>1</v>
@@ -8678,10 +8678,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C150" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -8708,7 +8708,7 @@
         <v>234</v>
       </c>
       <c r="L150" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M150" t="s">
         <v>1</v>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -8731,10 +8731,10 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C151" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -8749,7 +8749,7 @@
         <v>1</v>
       </c>
       <c r="H151" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I151" s="2" t="s">
         <v>1</v>
@@ -8761,7 +8761,7 @@
         <v>171</v>
       </c>
       <c r="L151" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M151" t="s">
         <v>1</v>
@@ -8784,10 +8784,10 @@
         <v>0</v>
       </c>
       <c r="B152" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C152" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -8796,13 +8796,13 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G152" t="s">
         <v>1</v>
       </c>
       <c r="H152" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="I152" s="2" t="s">
         <v>1</v>
@@ -8814,7 +8814,7 @@
         <v>171</v>
       </c>
       <c r="L152" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="M152" t="s">
         <v>1</v>
@@ -8837,10 +8837,10 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C154" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8867,7 +8867,7 @@
         <v>234</v>
       </c>
       <c r="L154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M154" t="s">
         <v>1</v>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -8890,10 +8890,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C155" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -8908,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="H155" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="I155" s="2" t="s">
         <v>1</v>
@@ -8920,7 +8920,7 @@
         <v>171</v>
       </c>
       <c r="L155" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M155" t="s">
         <v>1</v>
@@ -8943,10 +8943,10 @@
         <v>0</v>
       </c>
       <c r="B156" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C156" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -8955,13 +8955,13 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G156" t="s">
         <v>1</v>
       </c>
       <c r="H156" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="I156" s="2" t="s">
         <v>1</v>
@@ -8973,7 +8973,7 @@
         <v>171</v>
       </c>
       <c r="L156" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="M156" t="s">
         <v>1</v>
@@ -8996,10 +8996,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C158" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -9026,7 +9026,7 @@
         <v>234</v>
       </c>
       <c r="L158" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M158" t="s">
         <v>1</v>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -9049,10 +9049,10 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C159" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -9067,7 +9067,7 @@
         <v>1</v>
       </c>
       <c r="H159" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I159" s="2" t="s">
         <v>1</v>
@@ -9079,7 +9079,7 @@
         <v>171</v>
       </c>
       <c r="L159" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M159" t="s">
         <v>1</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="B160" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C160" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -9114,13 +9114,13 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G160" t="s">
         <v>1</v>
       </c>
       <c r="H160" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="I160" s="2" t="s">
         <v>1</v>
@@ -9132,7 +9132,7 @@
         <v>171</v>
       </c>
       <c r="L160" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="M160" t="s">
         <v>1</v>
@@ -9158,10 +9158,10 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C162" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -9188,7 +9188,7 @@
         <v>234</v>
       </c>
       <c r="L162" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M162" t="s">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="Q162" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -9211,10 +9211,10 @@
         <v>0</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C163" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -9229,7 +9229,7 @@
         <v>1</v>
       </c>
       <c r="H163" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="I163" s="2" t="s">
         <v>1</v>
@@ -9241,7 +9241,7 @@
         <v>171</v>
       </c>
       <c r="L163" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M163" t="s">
         <v>1</v>
@@ -9264,10 +9264,10 @@
         <v>0</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C164" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -9276,13 +9276,13 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G164" t="s">
         <v>1</v>
       </c>
       <c r="H164" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I164" s="2" t="s">
         <v>1</v>
@@ -9294,7 +9294,7 @@
         <v>171</v>
       </c>
       <c r="L164" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M164" t="s">
         <v>1</v>
@@ -9320,10 +9320,10 @@
         <v>0</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C166" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -9350,7 +9350,7 @@
         <v>234</v>
       </c>
       <c r="L166" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M166" t="s">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -9373,10 +9373,10 @@
         <v>0</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C167" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -9391,7 +9391,7 @@
         <v>1</v>
       </c>
       <c r="H167" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="I167" s="2" t="s">
         <v>1</v>
@@ -9403,7 +9403,7 @@
         <v>171</v>
       </c>
       <c r="L167" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M167" t="s">
         <v>1</v>
@@ -9426,10 +9426,10 @@
         <v>0</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C168" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -9438,13 +9438,13 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G168" t="s">
         <v>1</v>
       </c>
       <c r="H168" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I168" s="2" t="s">
         <v>1</v>
@@ -9456,7 +9456,7 @@
         <v>171</v>
       </c>
       <c r="L168" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="M168" t="s">
         <v>1</v>
@@ -9482,10 +9482,10 @@
         <v>0</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C170" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -9500,7 +9500,7 @@
         <v>1</v>
       </c>
       <c r="H170" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I170" s="2" t="s">
         <v>1</v>
@@ -9512,7 +9512,7 @@
         <v>171</v>
       </c>
       <c r="L170" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="M170" t="s">
         <v>1</v>
@@ -9539,10 +9539,10 @@
         <v>0</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C172" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -9569,7 +9569,7 @@
         <v>234</v>
       </c>
       <c r="L172" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M172" t="s">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9592,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C173" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -9622,7 +9622,7 @@
         <v>234</v>
       </c>
       <c r="L173" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M173" t="s">
         <v>1</v>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9645,10 +9645,10 @@
         <v>0</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C174" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -9675,7 +9675,7 @@
         <v>234</v>
       </c>
       <c r="L174" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M174" t="s">
         <v>1</v>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="Q174" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -9752,7 +9752,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -9767,7 +9767,7 @@
         <v>1</v>
       </c>
       <c r="H213" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="I213" t="s">
         <v>1</v>
@@ -9805,7 +9805,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -9820,7 +9820,7 @@
         <v>1</v>
       </c>
       <c r="H214" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="I214" t="s">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -9873,7 +9873,7 @@
         <v>1</v>
       </c>
       <c r="H215" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="I215" t="s">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>186</v>
       </c>
       <c r="C216" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D216" t="s">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>186</v>
       </c>
       <c r="C217" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -10017,7 +10017,7 @@
         <v>186</v>
       </c>
       <c r="C218" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D218" t="s">
         <v>1</v>
@@ -10070,7 +10070,7 @@
         <v>186</v>
       </c>
       <c r="C219" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -10123,7 +10123,7 @@
         <v>186</v>
       </c>
       <c r="C220" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>186</v>
       </c>
       <c r="C221" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         <v>186</v>
       </c>
       <c r="C222" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -10282,7 +10282,7 @@
         <v>186</v>
       </c>
       <c r="C223" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>186</v>
       </c>
       <c r="C224" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -10388,7 +10388,7 @@
         <v>186</v>
       </c>
       <c r="C225" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>186</v>
       </c>
       <c r="C226" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -10494,7 +10494,7 @@
         <v>186</v>
       </c>
       <c r="C227" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>186</v>
       </c>
       <c r="C228" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -10600,7 +10600,7 @@
         <v>188</v>
       </c>
       <c r="C229" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I229" t="s">
         <v>190</v>
@@ -10653,7 +10653,7 @@
         <v>188</v>
       </c>
       <c r="C230" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D230" t="s">
         <v>1</v>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I230" t="s">
         <v>190</v>
@@ -10706,7 +10706,7 @@
         <v>188</v>
       </c>
       <c r="C231" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I231" t="s">
         <v>190</v>
@@ -10759,7 +10759,7 @@
         <v>188</v>
       </c>
       <c r="C232" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D232" t="s">
         <v>1</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I232" t="s">
         <v>190</v>
@@ -10812,7 +10812,7 @@
         <v>188</v>
       </c>
       <c r="C233" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D233" t="s">
         <v>1</v>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I233" t="s">
         <v>190</v>
@@ -10865,7 +10865,7 @@
         <v>188</v>
       </c>
       <c r="C234" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D234" t="s">
         <v>1</v>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I234" t="s">
         <v>190</v>
@@ -10918,7 +10918,7 @@
         <v>188</v>
       </c>
       <c r="C235" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D235" t="s">
         <v>1</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I235" t="s">
         <v>190</v>
@@ -10971,7 +10971,7 @@
         <v>188</v>
       </c>
       <c r="C236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D236" t="s">
         <v>1</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I236" t="s">
         <v>190</v>
@@ -11024,7 +11024,7 @@
         <v>188</v>
       </c>
       <c r="C237" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D237" t="s">
         <v>1</v>
@@ -11077,7 +11077,7 @@
         <v>188</v>
       </c>
       <c r="C238" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D238" t="s">
         <v>1</v>
@@ -11130,7 +11130,7 @@
         <v>188</v>
       </c>
       <c r="C239" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D239" t="s">
         <v>1</v>
@@ -11183,7 +11183,7 @@
         <v>188</v>
       </c>
       <c r="C240" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D240" t="s">
         <v>1</v>
@@ -11236,7 +11236,7 @@
         <v>188</v>
       </c>
       <c r="C241" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D241" t="s">
         <v>1</v>
@@ -11289,7 +11289,7 @@
         <v>188</v>
       </c>
       <c r="C242" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D242" t="s">
         <v>1</v>
@@ -11342,7 +11342,7 @@
         <v>188</v>
       </c>
       <c r="C243" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D243" t="s">
         <v>1</v>
@@ -11395,7 +11395,7 @@
         <v>188</v>
       </c>
       <c r="C244" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D244" t="s">
         <v>1</v>
@@ -11410,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I244" t="s">
         <v>200</v>
@@ -11448,7 +11448,7 @@
         <v>188</v>
       </c>
       <c r="C245" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D245" t="s">
         <v>1</v>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I245" t="s">
         <v>200</v>
@@ -11501,7 +11501,7 @@
         <v>188</v>
       </c>
       <c r="C246" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D246" t="s">
         <v>1</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I246" t="s">
         <v>200</v>
@@ -11554,7 +11554,7 @@
         <v>188</v>
       </c>
       <c r="C247" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D247" t="s">
         <v>1</v>
@@ -11569,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I247" t="s">
         <v>200</v>
@@ -11607,7 +11607,7 @@
         <v>188</v>
       </c>
       <c r="C248" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D248" t="s">
         <v>1</v>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I248" t="s">
         <v>200</v>
@@ -11660,7 +11660,7 @@
         <v>188</v>
       </c>
       <c r="C249" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D249" t="s">
         <v>1</v>
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I249" t="s">
         <v>202</v>
@@ -11713,7 +11713,7 @@
         <v>233</v>
       </c>
       <c r="C251" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D251" t="s">
         <v>1</v>
@@ -11740,7 +11740,7 @@
         <v>234</v>
       </c>
       <c r="L251" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="M251" t="s">
         <v>1</v>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
@@ -11766,7 +11766,7 @@
         <v>233</v>
       </c>
       <c r="C252" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D252" t="s">
         <v>1</v>
@@ -11793,7 +11793,7 @@
         <v>234</v>
       </c>
       <c r="L252" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M252" t="s">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
         <v>233</v>
       </c>
       <c r="C253" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D253" t="s">
         <v>1</v>
@@ -11834,10 +11834,10 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I253" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J253">
         <v>2</v>
@@ -11846,7 +11846,7 @@
         <v>13</v>
       </c>
       <c r="L253" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M253" t="s">
         <v>1</v>
@@ -11858,7 +11858,7 @@
         <v>1</v>
       </c>
       <c r="P253" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="Q253" t="s">
         <v>1</v>
@@ -11872,7 +11872,7 @@
         <v>233</v>
       </c>
       <c r="C254" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -11887,10 +11887,10 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I254" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J254">
         <v>2</v>
@@ -11899,7 +11899,7 @@
         <v>13</v>
       </c>
       <c r="L254" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M254" t="s">
         <v>1</v>
@@ -11925,7 +11925,7 @@
         <v>233</v>
       </c>
       <c r="C255" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -11940,10 +11940,10 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I255" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="J255">
         <v>1</v>
@@ -11952,7 +11952,7 @@
         <v>13</v>
       </c>
       <c r="L255" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M255" t="s">
         <v>1</v>
@@ -11978,7 +11978,7 @@
         <v>233</v>
       </c>
       <c r="C256" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D256" t="s">
         <v>1</v>
@@ -11993,10 +11993,10 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I256" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="J256">
         <v>0</v>
@@ -12005,7 +12005,7 @@
         <v>13</v>
       </c>
       <c r="L256" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M256" t="s">
         <v>1</v>
@@ -12017,7 +12017,7 @@
         <v>1</v>
       </c>
       <c r="P256" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="Q256" t="s">
         <v>1</v>
@@ -12031,7 +12031,7 @@
         <v>233</v>
       </c>
       <c r="C257" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
@@ -12046,10 +12046,10 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I257" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="J257">
         <v>0</v>
@@ -12058,7 +12058,7 @@
         <v>13</v>
       </c>
       <c r="L257" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M257" t="s">
         <v>1</v>
@@ -12084,7 +12084,7 @@
         <v>233</v>
       </c>
       <c r="C258" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -12099,10 +12099,10 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I258" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="J258">
         <v>2</v>
@@ -12111,7 +12111,7 @@
         <v>13</v>
       </c>
       <c r="L258" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M258" t="s">
         <v>1</v>
@@ -12137,7 +12137,7 @@
         <v>233</v>
       </c>
       <c r="C259" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
@@ -12152,10 +12152,10 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I259" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J259">
         <v>0</v>
@@ -12164,7 +12164,7 @@
         <v>13</v>
       </c>
       <c r="L259" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M259" t="s">
         <v>1</v>
@@ -12190,7 +12190,7 @@
         <v>233</v>
       </c>
       <c r="C260" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D260" t="s">
         <v>1</v>
@@ -12205,10 +12205,10 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I260" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="J260">
         <v>0</v>
@@ -12217,7 +12217,7 @@
         <v>13</v>
       </c>
       <c r="L260" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M260" t="s">
         <v>1</v>
@@ -12243,7 +12243,7 @@
         <v>233</v>
       </c>
       <c r="C261" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D261" t="s">
         <v>1</v>
@@ -12258,10 +12258,10 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I261" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="J261">
         <v>2</v>
@@ -12270,7 +12270,7 @@
         <v>13</v>
       </c>
       <c r="L261" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M261" t="s">
         <v>1</v>
@@ -12296,7 +12296,7 @@
         <v>233</v>
       </c>
       <c r="C262" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D262" t="s">
         <v>1</v>
@@ -12311,10 +12311,10 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I262" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J262">
         <v>2</v>
@@ -12323,7 +12323,7 @@
         <v>13</v>
       </c>
       <c r="L262" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M262" t="s">
         <v>1</v>
@@ -12349,7 +12349,7 @@
         <v>233</v>
       </c>
       <c r="C265" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D265" t="s">
         <v>1</v>
@@ -12376,7 +12376,7 @@
         <v>234</v>
       </c>
       <c r="L265" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M265" t="s">
         <v>1</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
         <v>233</v>
       </c>
       <c r="C266" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D266" t="s">
         <v>1</v>
@@ -12429,7 +12429,7 @@
         <v>234</v>
       </c>
       <c r="L266" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="M266" t="s">
         <v>1</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
@@ -12455,7 +12455,7 @@
         <v>233</v>
       </c>
       <c r="C267" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D267" t="s">
         <v>1</v>
@@ -12470,10 +12470,10 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I267" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J267">
         <v>0</v>
@@ -12482,7 +12482,7 @@
         <v>13</v>
       </c>
       <c r="L267" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M267" t="s">
         <v>1</v>
@@ -12508,7 +12508,7 @@
         <v>233</v>
       </c>
       <c r="C268" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -12523,10 +12523,10 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I268" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J268">
         <v>1</v>
@@ -12535,7 +12535,7 @@
         <v>13</v>
       </c>
       <c r="L268" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M268" t="s">
         <v>1</v>
@@ -12561,7 +12561,7 @@
         <v>233</v>
       </c>
       <c r="C269" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -12576,10 +12576,10 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I269" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J269">
         <v>1</v>
@@ -12588,7 +12588,7 @@
         <v>13</v>
       </c>
       <c r="L269" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M269" t="s">
         <v>1</v>
@@ -12614,7 +12614,7 @@
         <v>233</v>
       </c>
       <c r="C270" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D270" t="s">
         <v>1</v>
@@ -12629,10 +12629,10 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I270" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="J270">
         <v>0</v>
@@ -12641,7 +12641,7 @@
         <v>13</v>
       </c>
       <c r="L270" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M270" t="s">
         <v>1</v>
@@ -12667,7 +12667,7 @@
         <v>233</v>
       </c>
       <c r="C271" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -12682,10 +12682,10 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I271" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J271">
         <v>1</v>
@@ -12694,7 +12694,7 @@
         <v>13</v>
       </c>
       <c r="L271" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M271" t="s">
         <v>1</v>
@@ -12720,7 +12720,7 @@
         <v>233</v>
       </c>
       <c r="C272" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D272" t="s">
         <v>1</v>
@@ -12735,10 +12735,10 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I272" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="J272">
         <v>0</v>
@@ -12747,7 +12747,7 @@
         <v>13</v>
       </c>
       <c r="L272" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M272" t="s">
         <v>1</v>
@@ -12773,7 +12773,7 @@
         <v>233</v>
       </c>
       <c r="C273" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D273" t="s">
         <v>1</v>
@@ -12788,10 +12788,10 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I273" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="J273">
         <v>1</v>
@@ -12800,7 +12800,7 @@
         <v>13</v>
       </c>
       <c r="L273" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M273" t="s">
         <v>1</v>
@@ -12826,7 +12826,7 @@
         <v>233</v>
       </c>
       <c r="C274" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D274" t="s">
         <v>1</v>
@@ -12841,10 +12841,10 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I274" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="J274">
         <v>0</v>
@@ -12853,7 +12853,7 @@
         <v>13</v>
       </c>
       <c r="L274" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M274" t="s">
         <v>1</v>
@@ -12879,7 +12879,7 @@
         <v>233</v>
       </c>
       <c r="C275" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D275" t="s">
         <v>1</v>
@@ -12894,10 +12894,10 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I275" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J275">
         <v>1</v>
@@ -12906,7 +12906,7 @@
         <v>13</v>
       </c>
       <c r="L275" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M275" t="s">
         <v>1</v>
@@ -12932,7 +12932,7 @@
         <v>233</v>
       </c>
       <c r="C276" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D276" t="s">
         <v>1</v>
@@ -12947,10 +12947,10 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I276" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="J276">
         <v>0</v>
@@ -12959,7 +12959,7 @@
         <v>13</v>
       </c>
       <c r="L276" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="M276" t="s">
         <v>1</v>
@@ -12985,7 +12985,7 @@
         <v>233</v>
       </c>
       <c r="C278" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D278" t="s">
         <v>1</v>
@@ -13012,7 +13012,7 @@
         <v>234</v>
       </c>
       <c r="L278" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="M278" t="s">
         <v>1</v>
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
@@ -13038,7 +13038,7 @@
         <v>233</v>
       </c>
       <c r="C279" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -13053,10 +13053,10 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I279" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J279">
         <v>0</v>
@@ -13065,7 +13065,7 @@
         <v>13</v>
       </c>
       <c r="L279" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M279" t="s">
         <v>1</v>
@@ -13091,7 +13091,7 @@
         <v>233</v>
       </c>
       <c r="C280" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D280" t="s">
         <v>1</v>
@@ -13106,10 +13106,10 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I280" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J280">
         <v>0</v>
@@ -13118,7 +13118,7 @@
         <v>13</v>
       </c>
       <c r="L280" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M280" t="s">
         <v>1</v>
@@ -13144,7 +13144,7 @@
         <v>233</v>
       </c>
       <c r="C281" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D281" t="s">
         <v>1</v>
@@ -13159,10 +13159,10 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I281" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J281">
         <v>0</v>
@@ -13171,7 +13171,7 @@
         <v>13</v>
       </c>
       <c r="L281" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M281" t="s">
         <v>1</v>
@@ -13197,7 +13197,7 @@
         <v>233</v>
       </c>
       <c r="C282" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D282" t="s">
         <v>1</v>
@@ -13212,10 +13212,10 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I282" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J282">
         <v>0</v>
@@ -13224,7 +13224,7 @@
         <v>13</v>
       </c>
       <c r="L282" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M282" t="s">
         <v>1</v>
@@ -13250,7 +13250,7 @@
         <v>233</v>
       </c>
       <c r="C283" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -13265,10 +13265,10 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I283" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J283">
         <v>2</v>
@@ -13277,7 +13277,7 @@
         <v>13</v>
       </c>
       <c r="L283" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M283" t="s">
         <v>1</v>
@@ -13303,7 +13303,7 @@
         <v>233</v>
       </c>
       <c r="C284" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D284" t="s">
         <v>1</v>
@@ -13318,10 +13318,10 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I284" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J284">
         <v>1</v>
@@ -13330,7 +13330,7 @@
         <v>13</v>
       </c>
       <c r="L284" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M284" t="s">
         <v>1</v>
@@ -13356,7 +13356,7 @@
         <v>233</v>
       </c>
       <c r="C285" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D285" t="s">
         <v>1</v>
@@ -13371,10 +13371,10 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I285" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J285">
         <v>1</v>
@@ -13383,7 +13383,7 @@
         <v>13</v>
       </c>
       <c r="L285" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M285" t="s">
         <v>1</v>
@@ -13409,7 +13409,7 @@
         <v>233</v>
       </c>
       <c r="C286" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D286" t="s">
         <v>1</v>
@@ -13424,10 +13424,10 @@
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I286" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="J286">
         <v>1</v>
@@ -13436,7 +13436,7 @@
         <v>13</v>
       </c>
       <c r="L286" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M286" t="s">
         <v>1</v>
@@ -13462,7 +13462,7 @@
         <v>233</v>
       </c>
       <c r="C287" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D287" t="s">
         <v>1</v>
@@ -13477,10 +13477,10 @@
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I287" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="J287">
         <v>1</v>
@@ -13489,7 +13489,7 @@
         <v>13</v>
       </c>
       <c r="L287" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M287" t="s">
         <v>1</v>
@@ -13515,7 +13515,7 @@
         <v>233</v>
       </c>
       <c r="C288" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D288" t="s">
         <v>1</v>
@@ -13530,10 +13530,10 @@
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I288" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J288">
         <v>0</v>
@@ -13542,7 +13542,7 @@
         <v>13</v>
       </c>
       <c r="L288" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M288" t="s">
         <v>1</v>
@@ -13568,7 +13568,7 @@
         <v>233</v>
       </c>
       <c r="C290" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D290" t="s">
         <v>1</v>
@@ -13595,7 +13595,7 @@
         <v>234</v>
       </c>
       <c r="L290" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="M290" t="s">
         <v>1</v>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="Q290" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
@@ -13621,7 +13621,7 @@
         <v>233</v>
       </c>
       <c r="C291" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D291" t="s">
         <v>1</v>
@@ -13636,10 +13636,10 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I291" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="J291">
         <v>0</v>
@@ -13648,7 +13648,7 @@
         <v>13</v>
       </c>
       <c r="L291" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M291" t="s">
         <v>1</v>
@@ -13674,7 +13674,7 @@
         <v>233</v>
       </c>
       <c r="C292" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D292" t="s">
         <v>1</v>
@@ -13689,10 +13689,10 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I292" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J292">
         <v>1</v>
@@ -13701,7 +13701,7 @@
         <v>13</v>
       </c>
       <c r="L292" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M292" t="s">
         <v>1</v>
@@ -13727,7 +13727,7 @@
         <v>233</v>
       </c>
       <c r="C293" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D293" t="s">
         <v>1</v>
@@ -13742,10 +13742,10 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I293" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="J293">
         <v>0</v>
@@ -13754,7 +13754,7 @@
         <v>13</v>
       </c>
       <c r="L293" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M293" t="s">
         <v>1</v>
@@ -13780,7 +13780,7 @@
         <v>233</v>
       </c>
       <c r="C294" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D294" t="s">
         <v>1</v>
@@ -13795,10 +13795,10 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I294" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="J294">
         <v>1</v>
@@ -13807,7 +13807,7 @@
         <v>13</v>
       </c>
       <c r="L294" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M294" t="s">
         <v>1</v>
@@ -13833,7 +13833,7 @@
         <v>233</v>
       </c>
       <c r="C295" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -13848,10 +13848,10 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I295" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="J295">
         <v>1</v>
@@ -13860,7 +13860,7 @@
         <v>13</v>
       </c>
       <c r="L295" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M295" t="s">
         <v>1</v>
@@ -13886,7 +13886,7 @@
         <v>233</v>
       </c>
       <c r="C296" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D296" t="s">
         <v>1</v>
@@ -13901,10 +13901,10 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I296" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="J296">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>13</v>
       </c>
       <c r="L296" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M296" t="s">
         <v>1</v>
@@ -13939,7 +13939,7 @@
         <v>233</v>
       </c>
       <c r="C297" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D297" t="s">
         <v>1</v>
@@ -13954,10 +13954,10 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I297" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="J297">
         <v>2</v>
@@ -13966,7 +13966,7 @@
         <v>13</v>
       </c>
       <c r="L297" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M297" t="s">
         <v>1</v>
@@ -13992,7 +13992,7 @@
         <v>233</v>
       </c>
       <c r="C298" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D298" t="s">
         <v>1</v>
@@ -14007,10 +14007,10 @@
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I298" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="J298">
         <v>1</v>
@@ -14019,7 +14019,7 @@
         <v>13</v>
       </c>
       <c r="L298" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M298" t="s">
         <v>1</v>
@@ -14045,7 +14045,7 @@
         <v>233</v>
       </c>
       <c r="C299" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="D299" t="s">
         <v>1</v>
@@ -14060,10 +14060,10 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I299" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="J299">
         <v>0</v>
@@ -14072,7 +14072,7 @@
         <v>13</v>
       </c>
       <c r="L299" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="M299" t="s">
         <v>1</v>
@@ -14098,7 +14098,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -14113,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="H332" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="I332" t="s">
         <v>1</v>
@@ -14151,7 +14151,7 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D333" t="s">
         <v>1</v>
@@ -14166,7 +14166,7 @@
         <v>1</v>
       </c>
       <c r="H333" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="I333" t="s">
         <v>1</v>
@@ -14201,10 +14201,10 @@
         <v>0</v>
       </c>
       <c r="B334" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C334" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -14219,7 +14219,7 @@
         <v>1</v>
       </c>
       <c r="H334" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="I334" t="s">
         <v>1</v>
@@ -14228,7 +14228,7 @@
         <v>1</v>
       </c>
       <c r="K334" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L334" t="s">
         <v>1</v>
@@ -14257,7 +14257,7 @@
         <v>188</v>
       </c>
       <c r="C336" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D336" t="s">
         <v>1</v>
@@ -14275,7 +14275,7 @@
         <v>1</v>
       </c>
       <c r="I336" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="J336">
         <v>1</v>
@@ -14296,7 +14296,7 @@
         <v>1</v>
       </c>
       <c r="P336" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="Q336" t="s">
         <v>1</v>
@@ -14310,7 +14310,7 @@
         <v>188</v>
       </c>
       <c r="C337" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D337" t="s">
         <v>1</v>
@@ -14328,7 +14328,7 @@
         <v>1</v>
       </c>
       <c r="I337" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="J337">
         <v>2</v>
@@ -14349,7 +14349,7 @@
         <v>1</v>
       </c>
       <c r="P337" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="Q337" t="s">
         <v>1</v>
@@ -14363,7 +14363,7 @@
         <v>188</v>
       </c>
       <c r="C338" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D338" t="s">
         <v>1</v>
@@ -14381,7 +14381,7 @@
         <v>1</v>
       </c>
       <c r="I338" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="J338">
         <v>0</v>
@@ -14402,7 +14402,7 @@
         <v>1</v>
       </c>
       <c r="P338" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="Q338" t="s">
         <v>1</v>
@@ -14416,7 +14416,7 @@
         <v>188</v>
       </c>
       <c r="C339" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D339" t="s">
         <v>1</v>
@@ -14455,7 +14455,7 @@
         <v>1</v>
       </c>
       <c r="P339" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="Q339" t="s">
         <v>1</v>
@@ -14469,7 +14469,7 @@
         <v>188</v>
       </c>
       <c r="C340" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D340" t="s">
         <v>1</v>
@@ -14508,7 +14508,7 @@
         <v>1</v>
       </c>
       <c r="P340" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="Q340" t="s">
         <v>1</v>
@@ -14522,7 +14522,7 @@
         <v>188</v>
       </c>
       <c r="C341" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D341" t="s">
         <v>1</v>
@@ -14561,7 +14561,7 @@
         <v>1</v>
       </c>
       <c r="P341" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="Q341" t="s">
         <v>1</v>
@@ -14575,7 +14575,7 @@
         <v>188</v>
       </c>
       <c r="C342" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D342" t="s">
         <v>1</v>
@@ -14614,7 +14614,7 @@
         <v>1</v>
       </c>
       <c r="P342" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="Q342" t="s">
         <v>1</v>
@@ -14628,7 +14628,7 @@
         <v>188</v>
       </c>
       <c r="C343" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D343" t="s">
         <v>1</v>
@@ -14667,7 +14667,7 @@
         <v>1</v>
       </c>
       <c r="P343" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="Q343" t="s">
         <v>1</v>
@@ -14681,7 +14681,7 @@
         <v>188</v>
       </c>
       <c r="C344" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D344" t="s">
         <v>1</v>
@@ -14720,7 +14720,7 @@
         <v>1</v>
       </c>
       <c r="P344" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="Q344" t="s">
         <v>1</v>
@@ -14731,10 +14731,10 @@
         <v>0</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C346" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D346" t="s">
         <v>1</v>
@@ -14761,7 +14761,7 @@
         <v>234</v>
       </c>
       <c r="L346" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M346" t="s">
         <v>1</v>
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.2">
@@ -14784,10 +14784,10 @@
         <v>0</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C347" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D347" t="s">
         <v>1</v>
@@ -14802,7 +14802,7 @@
         <v>1</v>
       </c>
       <c r="H347" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I347" s="2" t="s">
         <v>1</v>
@@ -14814,7 +14814,7 @@
         <v>171</v>
       </c>
       <c r="L347" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M347" t="s">
         <v>1</v>
@@ -14837,10 +14837,10 @@
         <v>0</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C348" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D348" t="s">
         <v>1</v>
@@ -14849,13 +14849,13 @@
         <v>1</v>
       </c>
       <c r="F348" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G348" t="s">
         <v>1</v>
       </c>
       <c r="H348" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="I348" s="2" t="s">
         <v>1</v>
@@ -14867,7 +14867,7 @@
         <v>171</v>
       </c>
       <c r="L348" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="M348" t="s">
         <v>1</v>
@@ -14890,10 +14890,10 @@
         <v>0</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C350" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D350" t="s">
         <v>1</v>
@@ -14920,7 +14920,7 @@
         <v>234</v>
       </c>
       <c r="L350" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M350" t="s">
         <v>1</v>
@@ -14935,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="Q350" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.2">
@@ -14943,10 +14943,10 @@
         <v>0</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C351" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D351" t="s">
         <v>1</v>
@@ -14961,7 +14961,7 @@
         <v>1</v>
       </c>
       <c r="H351" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="I351" s="2" t="s">
         <v>1</v>
@@ -14973,7 +14973,7 @@
         <v>171</v>
       </c>
       <c r="L351" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M351" t="s">
         <v>1</v>
@@ -14996,10 +14996,10 @@
         <v>0</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C352" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D352" t="s">
         <v>1</v>
@@ -15008,13 +15008,13 @@
         <v>1</v>
       </c>
       <c r="F352" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G352" t="s">
         <v>1</v>
       </c>
       <c r="H352" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="I352" s="2" t="s">
         <v>1</v>
@@ -15026,7 +15026,7 @@
         <v>171</v>
       </c>
       <c r="L352" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="M352" t="s">
         <v>1</v>
@@ -15049,10 +15049,10 @@
         <v>0</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C354" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D354" t="s">
         <v>1</v>
@@ -15079,7 +15079,7 @@
         <v>234</v>
       </c>
       <c r="L354" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M354" t="s">
         <v>1</v>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.2">
@@ -15102,10 +15102,10 @@
         <v>0</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C355" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D355" t="s">
         <v>1</v>
@@ -15120,7 +15120,7 @@
         <v>1</v>
       </c>
       <c r="H355" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="I355" s="2" t="s">
         <v>1</v>
@@ -15132,7 +15132,7 @@
         <v>171</v>
       </c>
       <c r="L355" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M355" t="s">
         <v>1</v>
@@ -15155,10 +15155,10 @@
         <v>0</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C356" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -15167,13 +15167,13 @@
         <v>1</v>
       </c>
       <c r="F356" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G356" t="s">
         <v>1</v>
       </c>
       <c r="H356" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="I356" s="2" t="s">
         <v>1</v>
@@ -15185,7 +15185,7 @@
         <v>171</v>
       </c>
       <c r="L356" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="M356" t="s">
         <v>1</v>
@@ -15208,10 +15208,10 @@
         <v>0</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C358" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D358" t="s">
         <v>1</v>
@@ -15238,7 +15238,7 @@
         <v>234</v>
       </c>
       <c r="L358" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M358" t="s">
         <v>1</v>
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.2">
@@ -15261,10 +15261,10 @@
         <v>0</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C359" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D359" t="s">
         <v>1</v>
@@ -15279,7 +15279,7 @@
         <v>1</v>
       </c>
       <c r="H359" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="I359" s="2" t="s">
         <v>1</v>
@@ -15291,7 +15291,7 @@
         <v>171</v>
       </c>
       <c r="L359" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M359" t="s">
         <v>1</v>
@@ -15314,10 +15314,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C360" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D360" t="s">
         <v>1</v>
@@ -15326,13 +15326,13 @@
         <v>1</v>
       </c>
       <c r="F360" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G360" t="s">
         <v>1</v>
       </c>
       <c r="H360" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="I360" s="2" t="s">
         <v>1</v>
@@ -15344,7 +15344,7 @@
         <v>171</v>
       </c>
       <c r="L360" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M360" t="s">
         <v>1</v>
@@ -15370,10 +15370,10 @@
         <v>0</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C362" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D362" t="s">
         <v>1</v>
@@ -15400,7 +15400,7 @@
         <v>234</v>
       </c>
       <c r="L362" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M362" t="s">
         <v>1</v>
@@ -15415,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.2">
@@ -15423,10 +15423,10 @@
         <v>0</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C363" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D363" t="s">
         <v>1</v>
@@ -15441,7 +15441,7 @@
         <v>1</v>
       </c>
       <c r="H363" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="I363" s="2" t="s">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>171</v>
       </c>
       <c r="L363" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M363" t="s">
         <v>1</v>
@@ -15476,10 +15476,10 @@
         <v>0</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C364" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -15488,13 +15488,13 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G364" t="s">
         <v>1</v>
       </c>
       <c r="H364" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="I364" s="2" t="s">
         <v>1</v>
@@ -15506,7 +15506,7 @@
         <v>171</v>
       </c>
       <c r="L364" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="M364" t="s">
         <v>1</v>
@@ -15533,10 +15533,10 @@
         <v>0</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C366" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D366" t="s">
         <v>1</v>
@@ -15563,7 +15563,7 @@
         <v>234</v>
       </c>
       <c r="L366" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M366" t="s">
         <v>1</v>
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.2">
@@ -15586,10 +15586,10 @@
         <v>0</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C367" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D367" t="s">
         <v>1</v>
@@ -15604,7 +15604,7 @@
         <v>1</v>
       </c>
       <c r="H367" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="I367" s="2" t="s">
         <v>1</v>
@@ -15616,7 +15616,7 @@
         <v>171</v>
       </c>
       <c r="L367" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M367" t="s">
         <v>1</v>
@@ -15639,10 +15639,10 @@
         <v>0</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C368" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D368" t="s">
         <v>1</v>
@@ -15651,13 +15651,13 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G368" t="s">
         <v>1</v>
       </c>
       <c r="H368" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="I368" s="2" t="s">
         <v>1</v>
@@ -15669,7 +15669,7 @@
         <v>171</v>
       </c>
       <c r="L368" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="M368" t="s">
         <v>1</v>
@@ -15696,10 +15696,10 @@
         <v>0</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C370" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D370" t="s">
         <v>1</v>
@@ -15726,7 +15726,7 @@
         <v>234</v>
       </c>
       <c r="L370" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M370" t="s">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.2">
@@ -15749,10 +15749,10 @@
         <v>0</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C371" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D371" t="s">
         <v>1</v>
@@ -15767,7 +15767,7 @@
         <v>1</v>
       </c>
       <c r="H371" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="I371" s="2" t="s">
         <v>1</v>
@@ -15779,7 +15779,7 @@
         <v>171</v>
       </c>
       <c r="L371" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M371" t="s">
         <v>1</v>
@@ -15802,10 +15802,10 @@
         <v>0</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C372" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D372" t="s">
         <v>1</v>
@@ -15814,13 +15814,13 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G372" t="s">
         <v>1</v>
       </c>
       <c r="H372" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="I372" s="2" t="s">
         <v>1</v>
@@ -15832,7 +15832,7 @@
         <v>171</v>
       </c>
       <c r="L372" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="M372" t="s">
         <v>1</v>
@@ -15860,10 +15860,10 @@
         <v>0</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C374" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D374" t="s">
         <v>1</v>
@@ -15890,7 +15890,7 @@
         <v>234</v>
       </c>
       <c r="L374" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M374" t="s">
         <v>1</v>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="Q374" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
@@ -15913,10 +15913,10 @@
         <v>0</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C375" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D375" t="s">
         <v>1</v>
@@ -15931,7 +15931,7 @@
         <v>1</v>
       </c>
       <c r="H375" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="I375" s="2" t="s">
         <v>1</v>
@@ -15943,7 +15943,7 @@
         <v>171</v>
       </c>
       <c r="L375" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M375" t="s">
         <v>1</v>
@@ -15966,10 +15966,10 @@
         <v>0</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C376" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D376" t="s">
         <v>1</v>
@@ -15978,13 +15978,13 @@
         <v>1</v>
       </c>
       <c r="F376" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G376" t="s">
         <v>1</v>
       </c>
       <c r="H376" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="I376" s="2" t="s">
         <v>1</v>
@@ -15996,7 +15996,7 @@
         <v>171</v>
       </c>
       <c r="L376" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M376" t="s">
         <v>1</v>
@@ -16019,10 +16019,10 @@
         <v>0</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C378" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D378" t="s">
         <v>1</v>
@@ -16049,7 +16049,7 @@
         <v>234</v>
       </c>
       <c r="L378" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M378" t="s">
         <v>1</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.2">
@@ -16072,10 +16072,10 @@
         <v>0</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C379" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D379" t="s">
         <v>1</v>
@@ -16090,7 +16090,7 @@
         <v>1</v>
       </c>
       <c r="H379" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="I379" s="2" t="s">
         <v>1</v>
@@ -16102,7 +16102,7 @@
         <v>171</v>
       </c>
       <c r="L379" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M379" t="s">
         <v>1</v>
@@ -16125,10 +16125,10 @@
         <v>0</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C380" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D380" t="s">
         <v>1</v>
@@ -16137,13 +16137,13 @@
         <v>1</v>
       </c>
       <c r="F380" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G380" t="s">
         <v>1</v>
       </c>
       <c r="H380" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="I380" s="2" t="s">
         <v>1</v>
@@ -16155,7 +16155,7 @@
         <v>171</v>
       </c>
       <c r="L380" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="M380" t="s">
         <v>1</v>
@@ -16178,10 +16178,10 @@
         <v>0</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C382" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D382" t="s">
         <v>1</v>
@@ -16208,7 +16208,7 @@
         <v>234</v>
       </c>
       <c r="L382" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M382" t="s">
         <v>1</v>
@@ -16223,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.2">
@@ -16231,10 +16231,10 @@
         <v>0</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C383" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D383" t="s">
         <v>1</v>
@@ -16249,7 +16249,7 @@
         <v>1</v>
       </c>
       <c r="H383" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="I383" s="2" t="s">
         <v>1</v>
@@ -16261,7 +16261,7 @@
         <v>171</v>
       </c>
       <c r="L383" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M383" t="s">
         <v>1</v>
@@ -16284,10 +16284,10 @@
         <v>0</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C384" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D384" t="s">
         <v>1</v>
@@ -16296,13 +16296,13 @@
         <v>1</v>
       </c>
       <c r="F384" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G384" t="s">
         <v>1</v>
       </c>
       <c r="H384" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="I384" s="2" t="s">
         <v>1</v>
@@ -16314,7 +16314,7 @@
         <v>171</v>
       </c>
       <c r="L384" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="M384" t="s">
         <v>1</v>
@@ -16340,10 +16340,10 @@
         <v>0</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C386" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D386" t="s">
         <v>1</v>
@@ -16370,7 +16370,7 @@
         <v>234</v>
       </c>
       <c r="L386" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M386" t="s">
         <v>1</v>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="Q386" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.2">
@@ -16393,10 +16393,10 @@
         <v>0</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C387" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D387" t="s">
         <v>1</v>
@@ -16411,7 +16411,7 @@
         <v>1</v>
       </c>
       <c r="H387" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I387" s="2" t="s">
         <v>1</v>
@@ -16423,7 +16423,7 @@
         <v>171</v>
       </c>
       <c r="L387" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M387" t="s">
         <v>1</v>
@@ -16446,10 +16446,10 @@
         <v>0</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C388" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D388" t="s">
         <v>1</v>
@@ -16458,13 +16458,13 @@
         <v>1</v>
       </c>
       <c r="F388" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G388" t="s">
         <v>1</v>
       </c>
       <c r="H388" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="I388" s="2" t="s">
         <v>1</v>
@@ -16476,7 +16476,7 @@
         <v>171</v>
       </c>
       <c r="L388" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="M388" t="s">
         <v>1</v>
@@ -16502,10 +16502,10 @@
         <v>0</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C390" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D390" t="s">
         <v>1</v>
@@ -16532,7 +16532,7 @@
         <v>234</v>
       </c>
       <c r="L390" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M390" t="s">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="Q390" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.2">
@@ -16555,10 +16555,10 @@
         <v>0</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C391" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D391" t="s">
         <v>1</v>
@@ -16573,7 +16573,7 @@
         <v>1</v>
       </c>
       <c r="H391" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="I391" s="2" t="s">
         <v>1</v>
@@ -16585,7 +16585,7 @@
         <v>171</v>
       </c>
       <c r="L391" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M391" t="s">
         <v>1</v>
@@ -16608,10 +16608,10 @@
         <v>0</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C392" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D392" t="s">
         <v>1</v>
@@ -16620,13 +16620,13 @@
         <v>1</v>
       </c>
       <c r="F392" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G392" t="s">
         <v>1</v>
       </c>
       <c r="H392" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="I392" s="2" t="s">
         <v>1</v>
@@ -16638,7 +16638,7 @@
         <v>171</v>
       </c>
       <c r="L392" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M392" t="s">
         <v>1</v>
@@ -16664,10 +16664,10 @@
         <v>0</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C394" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D394" t="s">
         <v>1</v>
@@ -16694,7 +16694,7 @@
         <v>234</v>
       </c>
       <c r="L394" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M394" t="s">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="Q394" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.2">
@@ -16717,10 +16717,10 @@
         <v>0</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C395" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D395" t="s">
         <v>1</v>
@@ -16735,7 +16735,7 @@
         <v>1</v>
       </c>
       <c r="H395" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="I395" t="s">
         <v>1</v>
@@ -16747,7 +16747,7 @@
         <v>171</v>
       </c>
       <c r="L395" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M395" t="s">
         <v>1</v>
@@ -16770,10 +16770,10 @@
         <v>0</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C396" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D396" t="s">
         <v>1</v>
@@ -16782,13 +16782,13 @@
         <v>1</v>
       </c>
       <c r="F396" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G396" t="s">
         <v>1</v>
       </c>
       <c r="H396" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="I396" t="s">
         <v>1</v>
@@ -16800,7 +16800,7 @@
         <v>171</v>
       </c>
       <c r="L396" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="M396" t="s">
         <v>1</v>
@@ -16823,10 +16823,10 @@
         <v>0</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C398" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D398" t="s">
         <v>1</v>
@@ -16853,7 +16853,7 @@
         <v>234</v>
       </c>
       <c r="L398" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M398" t="s">
         <v>1</v>
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.2">
@@ -16876,10 +16876,10 @@
         <v>0</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C399" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D399" t="s">
         <v>1</v>
@@ -16894,7 +16894,7 @@
         <v>1</v>
       </c>
       <c r="H399" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I399" t="s">
         <v>1</v>
@@ -16906,7 +16906,7 @@
         <v>171</v>
       </c>
       <c r="L399" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M399" t="s">
         <v>1</v>
@@ -16929,10 +16929,10 @@
         <v>0</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C400" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D400" t="s">
         <v>1</v>
@@ -16941,13 +16941,13 @@
         <v>1</v>
       </c>
       <c r="F400" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="G400" t="s">
         <v>1</v>
       </c>
       <c r="H400" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I400" t="s">
         <v>1</v>
@@ -16959,7 +16959,7 @@
         <v>171</v>
       </c>
       <c r="L400" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="M400" t="s">
         <v>1</v>
@@ -16982,10 +16982,10 @@
         <v>0</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C402" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D402" t="s">
         <v>1</v>
@@ -17012,7 +17012,7 @@
         <v>234</v>
       </c>
       <c r="L402" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M402" t="s">
         <v>1</v>
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.2">
@@ -17035,10 +17035,10 @@
         <v>0</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C403" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="D403" t="s">
         <v>1</v>
@@ -17065,7 +17065,7 @@
         <v>234</v>
       </c>
       <c r="L403" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="M403" t="s">
         <v>1</v>
@@ -17080,7 +17080,7 @@
         <v>1</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17092,7 +17092,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -17107,7 +17107,7 @@
         <v>1</v>
       </c>
       <c r="H441" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="I441" t="s">
         <v>1</v>
@@ -17145,7 +17145,7 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -17160,7 +17160,7 @@
         <v>1</v>
       </c>
       <c r="H442" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="I442" t="s">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>1</v>
       </c>
       <c r="H443" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I443" t="s">
         <v>1</v>
@@ -17251,7 +17251,7 @@
         <v>186</v>
       </c>
       <c r="C444" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -17304,7 +17304,7 @@
         <v>186</v>
       </c>
       <c r="C445" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -17357,7 +17357,7 @@
         <v>186</v>
       </c>
       <c r="C446" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -17410,7 +17410,7 @@
         <v>186</v>
       </c>
       <c r="C447" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -17463,7 +17463,7 @@
         <v>186</v>
       </c>
       <c r="C448" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>186</v>
       </c>
       <c r="C449" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -17569,7 +17569,7 @@
         <v>186</v>
       </c>
       <c r="C450" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -17622,7 +17622,7 @@
         <v>186</v>
       </c>
       <c r="C451" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -17675,7 +17675,7 @@
         <v>186</v>
       </c>
       <c r="C452" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -17728,7 +17728,7 @@
         <v>186</v>
       </c>
       <c r="C453" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -17781,7 +17781,7 @@
         <v>186</v>
       </c>
       <c r="C454" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -17834,7 +17834,7 @@
         <v>188</v>
       </c>
       <c r="C455" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I455" t="s">
         <v>210</v>
@@ -17887,7 +17887,7 @@
         <v>188</v>
       </c>
       <c r="C456" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -17940,7 +17940,7 @@
         <v>188</v>
       </c>
       <c r="C457" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D457" t="s">
         <v>1</v>
@@ -17993,7 +17993,7 @@
         <v>188</v>
       </c>
       <c r="C458" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -18046,7 +18046,7 @@
         <v>188</v>
       </c>
       <c r="C459" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D459" t="s">
         <v>1</v>
@@ -18099,7 +18099,7 @@
         <v>188</v>
       </c>
       <c r="C460" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -18152,7 +18152,7 @@
         <v>188</v>
       </c>
       <c r="C461" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -18205,7 +18205,7 @@
         <v>188</v>
       </c>
       <c r="C462" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -18258,7 +18258,7 @@
         <v>188</v>
       </c>
       <c r="C463" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I463" t="s">
         <v>228</v>
@@ -18311,7 +18311,7 @@
         <v>188</v>
       </c>
       <c r="C464" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -18364,7 +18364,7 @@
         <v>188</v>
       </c>
       <c r="C465" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D465" t="s">
         <v>1</v>
@@ -18417,7 +18417,7 @@
         <v>188</v>
       </c>
       <c r="C466" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D466" t="s">
         <v>1</v>
@@ -18432,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I466" t="s">
         <v>231</v>
@@ -18470,7 +18470,7 @@
         <v>188</v>
       </c>
       <c r="C467" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -18523,7 +18523,7 @@
         <v>233</v>
       </c>
       <c r="C469" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D469" t="s">
         <v>1</v>
@@ -18550,7 +18550,7 @@
         <v>234</v>
       </c>
       <c r="L469" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="M469" t="s">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
       <c r="Q469" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.2">
@@ -18576,7 +18576,7 @@
         <v>233</v>
       </c>
       <c r="C470" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D470" t="s">
         <v>1</v>
@@ -18591,10 +18591,10 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I470" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="J470" t="s">
         <v>1</v>
@@ -18603,7 +18603,7 @@
         <v>8</v>
       </c>
       <c r="L470" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="M470" t="s">
         <v>1</v>
@@ -18629,7 +18629,7 @@
         <v>233</v>
       </c>
       <c r="C472" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D472" t="s">
         <v>1</v>
@@ -18656,7 +18656,7 @@
         <v>234</v>
       </c>
       <c r="L472" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="M472" t="s">
         <v>1</v>
@@ -18671,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="Q472" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.2">
@@ -18682,7 +18682,7 @@
         <v>233</v>
       </c>
       <c r="C473" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D473" t="s">
         <v>1</v>
@@ -18691,16 +18691,16 @@
         <v>1</v>
       </c>
       <c r="F473" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G473" t="s">
         <v>1</v>
       </c>
       <c r="H473" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="I473" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J473">
         <v>1</v>
@@ -18709,7 +18709,7 @@
         <v>13</v>
       </c>
       <c r="L473" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M473" t="s">
         <v>1</v>
@@ -18735,7 +18735,7 @@
         <v>233</v>
       </c>
       <c r="C474" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D474" t="s">
         <v>1</v>
@@ -18744,16 +18744,16 @@
         <v>1</v>
       </c>
       <c r="F474" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G474" t="s">
         <v>1</v>
       </c>
       <c r="H474" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="I474" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="J474">
         <v>0</v>
@@ -18762,7 +18762,7 @@
         <v>13</v>
       </c>
       <c r="L474" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M474" t="s">
         <v>1</v>
@@ -18788,7 +18788,7 @@
         <v>233</v>
       </c>
       <c r="C475" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D475" t="s">
         <v>1</v>
@@ -18797,16 +18797,16 @@
         <v>1</v>
       </c>
       <c r="F475" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G475" t="s">
         <v>1</v>
       </c>
       <c r="H475" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I475" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="J475">
         <v>1</v>
@@ -18815,7 +18815,7 @@
         <v>13</v>
       </c>
       <c r="L475" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M475" t="s">
         <v>1</v>
@@ -18841,7 +18841,7 @@
         <v>233</v>
       </c>
       <c r="C476" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -18850,16 +18850,16 @@
         <v>1</v>
       </c>
       <c r="F476" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G476" t="s">
         <v>1</v>
       </c>
       <c r="H476" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="I476" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="J476">
         <v>0</v>
@@ -18868,7 +18868,7 @@
         <v>13</v>
       </c>
       <c r="L476" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M476" t="s">
         <v>1</v>
@@ -18894,7 +18894,7 @@
         <v>233</v>
       </c>
       <c r="C477" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D477" t="s">
         <v>1</v>
@@ -18903,16 +18903,16 @@
         <v>1</v>
       </c>
       <c r="F477" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G477" t="s">
         <v>1</v>
       </c>
       <c r="H477" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="I477" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="J477">
         <v>1</v>
@@ -18921,7 +18921,7 @@
         <v>13</v>
       </c>
       <c r="L477" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M477" t="s">
         <v>1</v>
@@ -18947,7 +18947,7 @@
         <v>233</v>
       </c>
       <c r="C478" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D478" t="s">
         <v>1</v>
@@ -18956,16 +18956,16 @@
         <v>1</v>
       </c>
       <c r="F478" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G478" t="s">
         <v>1</v>
       </c>
       <c r="H478" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="I478" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J478">
         <v>2</v>
@@ -18974,7 +18974,7 @@
         <v>13</v>
       </c>
       <c r="L478" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M478" t="s">
         <v>1</v>
@@ -19000,7 +19000,7 @@
         <v>233</v>
       </c>
       <c r="C479" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D479" t="s">
         <v>1</v>
@@ -19009,16 +19009,16 @@
         <v>1</v>
       </c>
       <c r="F479" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G479" t="s">
         <v>1</v>
       </c>
       <c r="H479" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="I479" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J479">
         <v>1</v>
@@ -19027,7 +19027,7 @@
         <v>13</v>
       </c>
       <c r="L479" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M479" t="s">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         <v>233</v>
       </c>
       <c r="C480" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D480" t="s">
         <v>1</v>
@@ -19062,16 +19062,16 @@
         <v>1</v>
       </c>
       <c r="F480" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G480" t="s">
         <v>1</v>
       </c>
       <c r="H480" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="I480" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J480">
         <v>0</v>
@@ -19080,7 +19080,7 @@
         <v>13</v>
       </c>
       <c r="L480" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M480" t="s">
         <v>1</v>
@@ -19106,7 +19106,7 @@
         <v>233</v>
       </c>
       <c r="C481" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D481" t="s">
         <v>1</v>
@@ -19115,16 +19115,16 @@
         <v>1</v>
       </c>
       <c r="F481" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G481" t="s">
         <v>1</v>
       </c>
       <c r="H481" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="I481" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="J481">
         <v>2</v>
@@ -19133,7 +19133,7 @@
         <v>13</v>
       </c>
       <c r="L481" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M481" t="s">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>233</v>
       </c>
       <c r="C482" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D482" t="s">
         <v>1</v>
@@ -19168,16 +19168,16 @@
         <v>1</v>
       </c>
       <c r="F482" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G482" t="s">
         <v>1</v>
       </c>
       <c r="H482" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="I482" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="J482">
         <v>1</v>
@@ -19186,7 +19186,7 @@
         <v>13</v>
       </c>
       <c r="L482" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="M482" t="s">
         <v>1</v>
@@ -19212,7 +19212,7 @@
         <v>233</v>
       </c>
       <c r="C483" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D483" t="s">
         <v>1</v>
@@ -19221,16 +19221,16 @@
         <v>1</v>
       </c>
       <c r="F483" t="s">
+        <v>432</v>
+      </c>
+      <c r="G483" t="s">
+        <v>1</v>
+      </c>
+      <c r="H483" t="s">
+        <v>515</v>
+      </c>
+      <c r="I483" t="s">
         <v>433</v>
-      </c>
-      <c r="G483" t="s">
-        <v>1</v>
-      </c>
-      <c r="H483" t="s">
-        <v>516</v>
-      </c>
-      <c r="I483" t="s">
-        <v>434</v>
       </c>
       <c r="J483" t="s">
         <v>1</v>
@@ -19239,7 +19239,7 @@
         <v>8</v>
       </c>
       <c r="L483" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="M483" t="s">
         <v>1</v>
@@ -19265,7 +19265,7 @@
         <v>233</v>
       </c>
       <c r="C485" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D485" t="s">
         <v>1</v>
@@ -19292,7 +19292,7 @@
         <v>234</v>
       </c>
       <c r="L485" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="M485" t="s">
         <v>1</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="Q485" s="5" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.2">
@@ -19318,7 +19318,7 @@
         <v>233</v>
       </c>
       <c r="C486" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D486" t="s">
         <v>1</v>
@@ -19333,10 +19333,10 @@
         <v>1</v>
       </c>
       <c r="H486" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="I486" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J486">
         <v>0</v>
@@ -19345,7 +19345,7 @@
         <v>13</v>
       </c>
       <c r="L486" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M486" t="s">
         <v>1</v>
@@ -19371,7 +19371,7 @@
         <v>233</v>
       </c>
       <c r="C487" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D487" t="s">
         <v>1</v>
@@ -19386,10 +19386,10 @@
         <v>1</v>
       </c>
       <c r="H487" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="I487" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="J487">
         <v>1</v>
@@ -19398,7 +19398,7 @@
         <v>13</v>
       </c>
       <c r="L487" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="M487" t="s">
         <v>1</v>
@@ -19424,7 +19424,7 @@
         <v>233</v>
       </c>
       <c r="C489" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D489" t="s">
         <v>1</v>
@@ -19451,7 +19451,7 @@
         <v>234</v>
       </c>
       <c r="L489" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="M489" t="s">
         <v>1</v>
@@ -19466,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="Q489" s="5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.2">
@@ -19477,7 +19477,7 @@
         <v>233</v>
       </c>
       <c r="C490" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D490" t="s">
         <v>1</v>
@@ -19492,10 +19492,10 @@
         <v>1</v>
       </c>
       <c r="H490" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="I490" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="J490">
         <v>1</v>
@@ -19504,7 +19504,7 @@
         <v>13</v>
       </c>
       <c r="L490" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M490" t="s">
         <v>1</v>
@@ -19530,7 +19530,7 @@
         <v>233</v>
       </c>
       <c r="C491" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D491" t="s">
         <v>1</v>
@@ -19545,10 +19545,10 @@
         <v>1</v>
       </c>
       <c r="H491" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I491" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="J491">
         <v>1</v>
@@ -19557,7 +19557,7 @@
         <v>13</v>
       </c>
       <c r="L491" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="M491" t="s">
         <v>1</v>
@@ -19583,7 +19583,7 @@
         <v>233</v>
       </c>
       <c r="C493" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D493" t="s">
         <v>1</v>
@@ -19610,7 +19610,7 @@
         <v>234</v>
       </c>
       <c r="L493" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="M493" t="s">
         <v>1</v>
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="Q493" s="5" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.2">
@@ -19636,7 +19636,7 @@
         <v>233</v>
       </c>
       <c r="C494" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D494" t="s">
         <v>1</v>
@@ -19645,16 +19645,16 @@
         <v>1</v>
       </c>
       <c r="F494" t="s">
+        <v>446</v>
+      </c>
+      <c r="G494" t="s">
+        <v>1</v>
+      </c>
+      <c r="H494" t="s">
+        <v>448</v>
+      </c>
+      <c r="I494" t="s">
         <v>447</v>
-      </c>
-      <c r="G494" t="s">
-        <v>1</v>
-      </c>
-      <c r="H494" t="s">
-        <v>449</v>
-      </c>
-      <c r="I494" t="s">
-        <v>448</v>
       </c>
       <c r="J494">
         <v>1</v>
@@ -19663,7 +19663,7 @@
         <v>13</v>
       </c>
       <c r="L494" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M494" t="s">
         <v>1</v>
@@ -19689,7 +19689,7 @@
         <v>233</v>
       </c>
       <c r="C495" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D495" t="s">
         <v>1</v>
@@ -19704,10 +19704,10 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I495" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J495">
         <v>0</v>
@@ -19716,7 +19716,7 @@
         <v>13</v>
       </c>
       <c r="L495" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M495" t="s">
         <v>1</v>
@@ -19742,7 +19742,7 @@
         <v>233</v>
       </c>
       <c r="C496" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D496" t="s">
         <v>1</v>
@@ -19757,10 +19757,10 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I496" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J496">
         <v>2</v>
@@ -19769,7 +19769,7 @@
         <v>13</v>
       </c>
       <c r="L496" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M496" t="s">
         <v>1</v>
@@ -19795,7 +19795,7 @@
         <v>233</v>
       </c>
       <c r="C498" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D498" t="s">
         <v>1</v>
@@ -19822,7 +19822,7 @@
         <v>234</v>
       </c>
       <c r="L498" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="M498" t="s">
         <v>1</v>
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.2">
@@ -19848,7 +19848,7 @@
         <v>233</v>
       </c>
       <c r="C499" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D499" t="s">
         <v>1</v>
@@ -19857,16 +19857,16 @@
         <v>1</v>
       </c>
       <c r="F499" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G499" t="s">
         <v>1</v>
       </c>
       <c r="H499" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I499" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="J499">
         <v>1</v>
@@ -19875,7 +19875,7 @@
         <v>13</v>
       </c>
       <c r="L499" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M499" t="s">
         <v>1</v>
@@ -19901,7 +19901,7 @@
         <v>233</v>
       </c>
       <c r="C500" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D500" t="s">
         <v>1</v>
@@ -19910,16 +19910,16 @@
         <v>1</v>
       </c>
       <c r="F500" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G500" t="s">
         <v>1</v>
       </c>
       <c r="H500" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I500" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="J500">
         <v>0</v>
@@ -19928,7 +19928,7 @@
         <v>13</v>
       </c>
       <c r="L500" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="M500" t="s">
         <v>1</v>
@@ -19957,7 +19957,7 @@
         <v>233</v>
       </c>
       <c r="C502" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D502" t="s">
         <v>1</v>
@@ -19984,7 +19984,7 @@
         <v>234</v>
       </c>
       <c r="L502" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="M502" t="s">
         <v>1</v>
@@ -19999,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.2">
@@ -20010,7 +20010,7 @@
         <v>233</v>
       </c>
       <c r="C503" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D503" t="s">
         <v>1</v>
@@ -20025,10 +20025,10 @@
         <v>1</v>
       </c>
       <c r="H503" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="I503" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="J503">
         <v>0</v>
@@ -20037,7 +20037,7 @@
         <v>13</v>
       </c>
       <c r="L503" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M503" t="s">
         <v>1</v>
@@ -20063,7 +20063,7 @@
         <v>233</v>
       </c>
       <c r="C504" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D504" t="s">
         <v>1</v>
@@ -20078,10 +20078,10 @@
         <v>1</v>
       </c>
       <c r="H504" t="s">
+        <v>461</v>
+      </c>
+      <c r="I504" t="s">
         <v>462</v>
-      </c>
-      <c r="I504" t="s">
-        <v>463</v>
       </c>
       <c r="J504">
         <v>1</v>
@@ -20090,7 +20090,7 @@
         <v>13</v>
       </c>
       <c r="L504" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M504" t="s">
         <v>1</v>
@@ -20116,7 +20116,7 @@
         <v>233</v>
       </c>
       <c r="C506" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D506" t="s">
         <v>1</v>
@@ -20143,7 +20143,7 @@
         <v>234</v>
       </c>
       <c r="L506" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="M506" t="s">
         <v>1</v>
@@ -20158,7 +20158,7 @@
         <v>1</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.2">
@@ -20169,7 +20169,7 @@
         <v>233</v>
       </c>
       <c r="C507" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D507" t="s">
         <v>1</v>
@@ -20184,10 +20184,10 @@
         <v>1</v>
       </c>
       <c r="H507" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="I507" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="J507">
         <v>0</v>
@@ -20196,7 +20196,7 @@
         <v>13</v>
       </c>
       <c r="L507" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M507" t="s">
         <v>1</v>
@@ -20222,7 +20222,7 @@
         <v>233</v>
       </c>
       <c r="C508" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="D508" t="s">
         <v>1</v>
@@ -20237,10 +20237,10 @@
         <v>1</v>
       </c>
       <c r="H508" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="I508" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="J508">
         <v>0</v>
@@ -20249,7 +20249,7 @@
         <v>13</v>
       </c>
       <c r="L508" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M508" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{561DE011-EE66-5B40-AF8F-B81236AA58B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CACD16E-A413-7D49-9066-41A488455397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -2474,7 +2474,7 @@
   <dimension ref="A4:Q508"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H102" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="I122" sqref="I122"/>
+      <selection activeCell="H102" sqref="H102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3751,7 +3751,7 @@
         <v>1</v>
       </c>
       <c r="P27" s="3" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="Q27" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75EC2EAD-D276-2940-B2CF-DF23E11ECBFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2959B6-210A-1F4E-B4BE-D0C556C9C25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -2059,10 +2059,10 @@
     <t xml:space="preserve"> {{aThe children}} are playing outside.</t>
   </si>
   <si>
-    <t>She is waiting for you ______  0{{aهي تنتظرك {{هنا ; I will ______ love you 0{{انا سأحبك{{دائما</t>
-  </si>
-  <si>
-    <t>She is ______ happy 0 {{aهي سعيدة{{جدا ; She is waiting for you ______0{{aهي تنتظرك{{هنا; She ______ eats eggs0{{aهي لا تأكل بيض{{ابدا;I will ______ love you0{{aانا سأحبك{{دائما</t>
+    <t xml:space="preserve">She is ______ happy 0 هي سعيدة {{aجدا}} ; She is waiting for you ______ 0 هي تنتظرك {{aهنا}} ; She ______ eats eggs 0 هي لا تأكل البيض {{aابدا}} ; I will ______ love you 0 انا سأحبك {{aدائما}} </t>
+  </si>
+  <si>
+    <t>She is waiting for you ______ 0 هي تنتظرك {{aهنا}} ; I will ______ love you 0 انا سأحبك {{aدائما}}</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C51" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3674,7 +3674,7 @@
         <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I26" t="s">
         <v>139</v>
@@ -5859,7 +5859,7 @@
         <v>138</v>
       </c>
       <c r="H72" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I72" t="s">
         <v>257</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE2959B6-210A-1F4E-B4BE-D0C556C9C25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0518AC35-A81B-554C-9F30-F822A0E1A91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -1549,9 +1549,6 @@
   </si>
   <si>
     <t>unit5</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> unit5</t>
   </si>
   <si>
     <t xml:space="preserve"> اسبوع  =  ______; مدرسة = ______ ;ذكية = ______</t>
@@ -2063,6 +2060,9 @@
   </si>
   <si>
     <t>She is waiting for you ______ 0 هي تنتظرك {{aهنا}} ; I will ______ love you 0 انا سأحبك {{aدائما}}</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> unit3</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3144,10 +3144,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -3356,7 +3356,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>131</v>
@@ -3409,7 +3409,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>132</v>
@@ -3462,7 +3462,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>133</v>
@@ -3674,7 +3674,7 @@
         <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I26" t="s">
         <v>139</v>
@@ -4151,7 +4151,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I35" t="s">
         <v>161</v>
@@ -4204,7 +4204,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>164</v>
@@ -4416,7 +4416,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I40" t="s">
         <v>154</v>
@@ -4496,7 +4496,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -4549,7 +4549,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -4575,7 +4575,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>236</v>
@@ -4628,7 +4628,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>237</v>
@@ -4681,7 +4681,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>238</v>
@@ -4787,7 +4787,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>240</v>
@@ -4923,7 +4923,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -4949,7 +4949,7 @@
         <v>243</v>
       </c>
       <c r="H51" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>244</v>
@@ -5002,7 +5002,7 @@
         <v>243</v>
       </c>
       <c r="H52" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>245</v>
@@ -5055,7 +5055,7 @@
         <v>243</v>
       </c>
       <c r="H53" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>246</v>
@@ -5108,7 +5108,7 @@
         <v>243</v>
       </c>
       <c r="H54" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>247</v>
@@ -5161,7 +5161,7 @@
         <v>243</v>
       </c>
       <c r="H55" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>248</v>
@@ -5241,7 +5241,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5294,7 +5294,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5347,7 +5347,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>253</v>
@@ -5426,7 +5426,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>249</v>
@@ -5479,7 +5479,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>250</v>
@@ -5532,7 +5532,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>251</v>
@@ -5585,7 +5585,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>252</v>
@@ -5668,7 +5668,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5721,7 +5721,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -5774,7 +5774,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -5833,7 +5833,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -5859,7 +5859,7 @@
         <v>138</v>
       </c>
       <c r="H72" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I72" t="s">
         <v>257</v>
@@ -5943,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -5969,7 +5969,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>259</v>
@@ -6022,7 +6022,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>260</v>
@@ -6075,7 +6075,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>144</v>
@@ -6128,7 +6128,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>260</v>
@@ -6211,7 +6211,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6237,7 +6237,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>262</v>
@@ -6290,7 +6290,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>263</v>
@@ -6343,7 +6343,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>147</v>
@@ -6396,7 +6396,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>150</v>
@@ -6449,7 +6449,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>264</v>
@@ -6517,7 +6517,7 @@
         <v>232</v>
       </c>
       <c r="L87" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M87" t="s">
         <v>1</v>
@@ -6532,7 +6532,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -6591,7 +6591,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6644,7 +6644,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6697,7 +6697,7 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6750,7 +6750,7 @@
         <v>497</v>
       </c>
       <c r="C105" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -6865,7 +6865,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G107" t="s">
         <v>1</v>
@@ -7284,7 +7284,7 @@
         <v>497</v>
       </c>
       <c r="C116" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -7326,7 +7326,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -7337,7 +7337,7 @@
         <v>497</v>
       </c>
       <c r="C117" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -7390,7 +7390,7 @@
         <v>497</v>
       </c>
       <c r="C118" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -7443,7 +7443,7 @@
         <v>497</v>
       </c>
       <c r="C119" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>268</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7496,7 +7496,7 @@
         <v>497</v>
       </c>
       <c r="C120" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -7552,7 +7552,7 @@
         <v>497</v>
       </c>
       <c r="C122" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -7594,7 +7594,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -7605,7 +7605,7 @@
         <v>497</v>
       </c>
       <c r="C123" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -7658,7 +7658,7 @@
         <v>497</v>
       </c>
       <c r="C124" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D124" t="s">
         <v>1</v>
@@ -7667,7 +7667,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G124" t="s">
         <v>1</v>
@@ -7711,7 +7711,7 @@
         <v>497</v>
       </c>
       <c r="C126" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -7764,7 +7764,7 @@
         <v>497</v>
       </c>
       <c r="C127" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7817,7 +7817,7 @@
         <v>497</v>
       </c>
       <c r="C128" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D128" t="s">
         <v>1</v>
@@ -7826,7 +7826,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G128" t="s">
         <v>1</v>
@@ -7870,7 +7870,7 @@
         <v>497</v>
       </c>
       <c r="C130" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7912,7 +7912,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -7923,7 +7923,7 @@
         <v>497</v>
       </c>
       <c r="C131" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -7976,7 +7976,7 @@
         <v>497</v>
       </c>
       <c r="C132" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D132" t="s">
         <v>1</v>
@@ -7985,7 +7985,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G132" t="s">
         <v>1</v>
@@ -8029,7 +8029,7 @@
         <v>497</v>
       </c>
       <c r="C134" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -8071,7 +8071,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -8082,7 +8082,7 @@
         <v>497</v>
       </c>
       <c r="C135" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -8135,7 +8135,7 @@
         <v>497</v>
       </c>
       <c r="C136" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D136" t="s">
         <v>1</v>
@@ -8144,7 +8144,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G136" t="s">
         <v>1</v>
@@ -8191,7 +8191,7 @@
         <v>497</v>
       </c>
       <c r="C138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -8233,7 +8233,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -8244,7 +8244,7 @@
         <v>497</v>
       </c>
       <c r="C139" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -8297,7 +8297,7 @@
         <v>497</v>
       </c>
       <c r="C140" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D140" t="s">
         <v>1</v>
@@ -8306,7 +8306,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G140" t="s">
         <v>1</v>
@@ -8354,7 +8354,7 @@
         <v>497</v>
       </c>
       <c r="C142" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -8396,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -8407,7 +8407,7 @@
         <v>497</v>
       </c>
       <c r="C143" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -8460,7 +8460,7 @@
         <v>497</v>
       </c>
       <c r="C144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D144" t="s">
         <v>1</v>
@@ -8469,7 +8469,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G144" t="s">
         <v>1</v>
@@ -8517,7 +8517,7 @@
         <v>497</v>
       </c>
       <c r="C146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -8559,7 +8559,7 @@
         <v>1</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -8570,7 +8570,7 @@
         <v>497</v>
       </c>
       <c r="C147" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -8623,7 +8623,7 @@
         <v>497</v>
       </c>
       <c r="C148" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D148" t="s">
         <v>1</v>
@@ -8632,7 +8632,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G148" t="s">
         <v>1</v>
@@ -8681,7 +8681,7 @@
         <v>497</v>
       </c>
       <c r="C150" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -8723,7 +8723,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -8734,7 +8734,7 @@
         <v>497</v>
       </c>
       <c r="C151" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -8787,7 +8787,7 @@
         <v>497</v>
       </c>
       <c r="C152" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D152" t="s">
         <v>1</v>
@@ -8796,7 +8796,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G152" t="s">
         <v>1</v>
@@ -8840,7 +8840,7 @@
         <v>497</v>
       </c>
       <c r="C154" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8882,7 +8882,7 @@
         <v>1</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -8893,7 +8893,7 @@
         <v>497</v>
       </c>
       <c r="C155" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -8946,7 +8946,7 @@
         <v>497</v>
       </c>
       <c r="C156" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D156" t="s">
         <v>1</v>
@@ -8955,7 +8955,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G156" t="s">
         <v>1</v>
@@ -8999,7 +8999,7 @@
         <v>497</v>
       </c>
       <c r="C158" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -9041,7 +9041,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -9052,7 +9052,7 @@
         <v>497</v>
       </c>
       <c r="C159" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -9105,7 +9105,7 @@
         <v>497</v>
       </c>
       <c r="C160" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D160" t="s">
         <v>1</v>
@@ -9114,7 +9114,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G160" t="s">
         <v>1</v>
@@ -9161,7 +9161,7 @@
         <v>497</v>
       </c>
       <c r="C162" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -9203,7 +9203,7 @@
         <v>1</v>
       </c>
       <c r="Q162" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -9214,7 +9214,7 @@
         <v>497</v>
       </c>
       <c r="C163" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -9267,7 +9267,7 @@
         <v>497</v>
       </c>
       <c r="C164" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D164" t="s">
         <v>1</v>
@@ -9276,7 +9276,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G164" t="s">
         <v>1</v>
@@ -9323,7 +9323,7 @@
         <v>497</v>
       </c>
       <c r="C166" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -9365,7 +9365,7 @@
         <v>1</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -9376,7 +9376,7 @@
         <v>497</v>
       </c>
       <c r="C167" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -9429,7 +9429,7 @@
         <v>497</v>
       </c>
       <c r="C168" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D168" t="s">
         <v>1</v>
@@ -9438,7 +9438,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G168" t="s">
         <v>1</v>
@@ -9485,7 +9485,7 @@
         <v>497</v>
       </c>
       <c r="C170" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -9542,7 +9542,7 @@
         <v>497</v>
       </c>
       <c r="C172" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -9584,7 +9584,7 @@
         <v>1</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9595,7 +9595,7 @@
         <v>497</v>
       </c>
       <c r="C173" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -9637,7 +9637,7 @@
         <v>1</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9648,7 +9648,7 @@
         <v>497</v>
       </c>
       <c r="C174" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -9690,7 +9690,7 @@
         <v>1</v>
       </c>
       <c r="Q174" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -9752,7 +9752,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -9805,7 +9805,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -9858,7 +9858,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -9911,7 +9911,7 @@
         <v>184</v>
       </c>
       <c r="C216" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D216" t="s">
         <v>1</v>
@@ -9964,7 +9964,7 @@
         <v>184</v>
       </c>
       <c r="C217" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -10017,7 +10017,7 @@
         <v>184</v>
       </c>
       <c r="C218" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D218" t="s">
         <v>1</v>
@@ -10070,7 +10070,7 @@
         <v>184</v>
       </c>
       <c r="C219" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -10123,7 +10123,7 @@
         <v>184</v>
       </c>
       <c r="C220" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -10176,7 +10176,7 @@
         <v>184</v>
       </c>
       <c r="C221" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -10229,7 +10229,7 @@
         <v>184</v>
       </c>
       <c r="C222" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -10282,7 +10282,7 @@
         <v>184</v>
       </c>
       <c r="C223" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -10335,7 +10335,7 @@
         <v>184</v>
       </c>
       <c r="C224" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -10388,7 +10388,7 @@
         <v>184</v>
       </c>
       <c r="C225" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -10406,7 +10406,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -10441,7 +10441,7 @@
         <v>184</v>
       </c>
       <c r="C226" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -10494,7 +10494,7 @@
         <v>184</v>
       </c>
       <c r="C227" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -10547,7 +10547,7 @@
         <v>184</v>
       </c>
       <c r="C228" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -10615,7 +10615,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I229" t="s">
         <v>188</v>
@@ -10668,7 +10668,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I230" t="s">
         <v>188</v>
@@ -10721,7 +10721,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I231" t="s">
         <v>188</v>
@@ -10774,7 +10774,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I232" t="s">
         <v>188</v>
@@ -10827,7 +10827,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I233" t="s">
         <v>188</v>
@@ -10880,7 +10880,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I234" t="s">
         <v>188</v>
@@ -10933,7 +10933,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I235" t="s">
         <v>188</v>
@@ -10986,7 +10986,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I236" t="s">
         <v>188</v>
@@ -11410,7 +11410,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I244" t="s">
         <v>198</v>
@@ -11463,7 +11463,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I245" t="s">
         <v>198</v>
@@ -11516,7 +11516,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I246" t="s">
         <v>198</v>
@@ -11569,7 +11569,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I247" t="s">
         <v>198</v>
@@ -11622,7 +11622,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I248" t="s">
         <v>198</v>
@@ -11675,7 +11675,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I249" t="s">
         <v>200</v>
@@ -11713,7 +11713,7 @@
         <v>231</v>
       </c>
       <c r="C251" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D251" t="s">
         <v>1</v>
@@ -11755,7 +11755,7 @@
         <v>1</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
@@ -11766,7 +11766,7 @@
         <v>231</v>
       </c>
       <c r="C252" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D252" t="s">
         <v>1</v>
@@ -11808,7 +11808,7 @@
         <v>1</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
@@ -11819,7 +11819,7 @@
         <v>231</v>
       </c>
       <c r="C253" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D253" t="s">
         <v>1</v>
@@ -11834,7 +11834,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I253" t="s">
         <v>313</v>
@@ -11872,7 +11872,7 @@
         <v>231</v>
       </c>
       <c r="C254" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -11887,7 +11887,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I254" t="s">
         <v>314</v>
@@ -11925,7 +11925,7 @@
         <v>231</v>
       </c>
       <c r="C255" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -11940,7 +11940,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I255" t="s">
         <v>315</v>
@@ -11978,7 +11978,7 @@
         <v>231</v>
       </c>
       <c r="C256" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D256" t="s">
         <v>1</v>
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I256" t="s">
         <v>316</v>
@@ -12031,7 +12031,7 @@
         <v>231</v>
       </c>
       <c r="C257" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
@@ -12046,7 +12046,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I257" t="s">
         <v>317</v>
@@ -12084,7 +12084,7 @@
         <v>231</v>
       </c>
       <c r="C258" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -12099,7 +12099,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I258" t="s">
         <v>313</v>
@@ -12137,7 +12137,7 @@
         <v>231</v>
       </c>
       <c r="C259" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
@@ -12152,7 +12152,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I259" t="s">
         <v>314</v>
@@ -12190,7 +12190,7 @@
         <v>231</v>
       </c>
       <c r="C260" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D260" t="s">
         <v>1</v>
@@ -12205,7 +12205,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I260" t="s">
         <v>318</v>
@@ -12243,7 +12243,7 @@
         <v>231</v>
       </c>
       <c r="C261" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D261" t="s">
         <v>1</v>
@@ -12258,7 +12258,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I261" t="s">
         <v>319</v>
@@ -12296,7 +12296,7 @@
         <v>231</v>
       </c>
       <c r="C262" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D262" t="s">
         <v>1</v>
@@ -12311,7 +12311,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I262" t="s">
         <v>320</v>
@@ -12349,7 +12349,7 @@
         <v>231</v>
       </c>
       <c r="C265" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D265" t="s">
         <v>1</v>
@@ -12391,7 +12391,7 @@
         <v>1</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
@@ -12402,7 +12402,7 @@
         <v>231</v>
       </c>
       <c r="C266" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D266" t="s">
         <v>1</v>
@@ -12444,7 +12444,7 @@
         <v>1</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
@@ -12455,7 +12455,7 @@
         <v>231</v>
       </c>
       <c r="C267" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D267" t="s">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I267" t="s">
         <v>325</v>
@@ -12508,7 +12508,7 @@
         <v>231</v>
       </c>
       <c r="C268" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -12523,7 +12523,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I268" t="s">
         <v>320</v>
@@ -12561,7 +12561,7 @@
         <v>231</v>
       </c>
       <c r="C269" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -12576,7 +12576,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I269" t="s">
         <v>322</v>
@@ -12614,7 +12614,7 @@
         <v>231</v>
       </c>
       <c r="C270" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D270" t="s">
         <v>1</v>
@@ -12629,7 +12629,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I270" t="s">
         <v>323</v>
@@ -12667,7 +12667,7 @@
         <v>231</v>
       </c>
       <c r="C271" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -12682,7 +12682,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I271" t="s">
         <v>324</v>
@@ -12720,7 +12720,7 @@
         <v>231</v>
       </c>
       <c r="C272" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D272" t="s">
         <v>1</v>
@@ -12735,7 +12735,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I272" t="s">
         <v>320</v>
@@ -12773,7 +12773,7 @@
         <v>231</v>
       </c>
       <c r="C273" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D273" t="s">
         <v>1</v>
@@ -12788,7 +12788,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I273" t="s">
         <v>325</v>
@@ -12826,7 +12826,7 @@
         <v>231</v>
       </c>
       <c r="C274" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D274" t="s">
         <v>1</v>
@@ -12841,7 +12841,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I274" t="s">
         <v>327</v>
@@ -12879,7 +12879,7 @@
         <v>231</v>
       </c>
       <c r="C275" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D275" t="s">
         <v>1</v>
@@ -12894,7 +12894,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I275" t="s">
         <v>326</v>
@@ -12932,7 +12932,7 @@
         <v>231</v>
       </c>
       <c r="C276" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D276" t="s">
         <v>1</v>
@@ -12947,7 +12947,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I276" t="s">
         <v>328</v>
@@ -12985,7 +12985,7 @@
         <v>231</v>
       </c>
       <c r="C278" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D278" t="s">
         <v>1</v>
@@ -13027,7 +13027,7 @@
         <v>1</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
@@ -13038,7 +13038,7 @@
         <v>231</v>
       </c>
       <c r="C279" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -13053,7 +13053,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I279" t="s">
         <v>331</v>
@@ -13091,7 +13091,7 @@
         <v>231</v>
       </c>
       <c r="C280" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D280" t="s">
         <v>1</v>
@@ -13106,7 +13106,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I280" t="s">
         <v>332</v>
@@ -13144,7 +13144,7 @@
         <v>231</v>
       </c>
       <c r="C281" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D281" t="s">
         <v>1</v>
@@ -13159,7 +13159,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I281" t="s">
         <v>333</v>
@@ -13197,7 +13197,7 @@
         <v>231</v>
       </c>
       <c r="C282" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D282" t="s">
         <v>1</v>
@@ -13212,7 +13212,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I282" t="s">
         <v>334</v>
@@ -13250,7 +13250,7 @@
         <v>231</v>
       </c>
       <c r="C283" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -13265,7 +13265,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I283" t="s">
         <v>335</v>
@@ -13303,7 +13303,7 @@
         <v>231</v>
       </c>
       <c r="C284" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D284" t="s">
         <v>1</v>
@@ -13318,7 +13318,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I284" t="s">
         <v>336</v>
@@ -13356,7 +13356,7 @@
         <v>231</v>
       </c>
       <c r="C285" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D285" t="s">
         <v>1</v>
@@ -13371,7 +13371,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I285" t="s">
         <v>334</v>
@@ -13409,7 +13409,7 @@
         <v>231</v>
       </c>
       <c r="C286" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D286" t="s">
         <v>1</v>
@@ -13424,7 +13424,7 @@
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I286" t="s">
         <v>337</v>
@@ -13462,7 +13462,7 @@
         <v>231</v>
       </c>
       <c r="C287" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D287" t="s">
         <v>1</v>
@@ -13477,7 +13477,7 @@
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I287" t="s">
         <v>338</v>
@@ -13515,7 +13515,7 @@
         <v>231</v>
       </c>
       <c r="C288" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D288" t="s">
         <v>1</v>
@@ -13530,7 +13530,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I288" t="s">
         <v>333</v>
@@ -13568,7 +13568,7 @@
         <v>231</v>
       </c>
       <c r="C290" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D290" t="s">
         <v>1</v>
@@ -13610,7 +13610,7 @@
         <v>1</v>
       </c>
       <c r="Q290" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
@@ -13621,7 +13621,7 @@
         <v>231</v>
       </c>
       <c r="C291" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D291" t="s">
         <v>1</v>
@@ -13636,7 +13636,7 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I291" t="s">
         <v>341</v>
@@ -13674,7 +13674,7 @@
         <v>231</v>
       </c>
       <c r="C292" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D292" t="s">
         <v>1</v>
@@ -13689,7 +13689,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I292" t="s">
         <v>343</v>
@@ -13727,7 +13727,7 @@
         <v>231</v>
       </c>
       <c r="C293" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D293" t="s">
         <v>1</v>
@@ -13742,7 +13742,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I293" t="s">
         <v>344</v>
@@ -13780,7 +13780,7 @@
         <v>231</v>
       </c>
       <c r="C294" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D294" t="s">
         <v>1</v>
@@ -13795,7 +13795,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I294" t="s">
         <v>345</v>
@@ -13833,7 +13833,7 @@
         <v>231</v>
       </c>
       <c r="C295" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -13848,7 +13848,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I295" t="s">
         <v>346</v>
@@ -13886,7 +13886,7 @@
         <v>231</v>
       </c>
       <c r="C296" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D296" t="s">
         <v>1</v>
@@ -13901,7 +13901,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I296" t="s">
         <v>347</v>
@@ -13939,7 +13939,7 @@
         <v>231</v>
       </c>
       <c r="C297" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D297" t="s">
         <v>1</v>
@@ -13954,7 +13954,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I297" t="s">
         <v>348</v>
@@ -13992,7 +13992,7 @@
         <v>231</v>
       </c>
       <c r="C298" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D298" t="s">
         <v>1</v>
@@ -14007,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I298" t="s">
         <v>342</v>
@@ -14045,7 +14045,7 @@
         <v>231</v>
       </c>
       <c r="C299" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D299" t="s">
         <v>1</v>
@@ -14060,7 +14060,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I299" t="s">
         <v>349</v>
@@ -14098,7 +14098,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -14151,7 +14151,7 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D333" t="s">
         <v>1</v>
@@ -14204,7 +14204,7 @@
         <v>497</v>
       </c>
       <c r="C334" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -14734,7 +14734,7 @@
         <v>497</v>
       </c>
       <c r="C346" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D346" t="s">
         <v>1</v>
@@ -14776,7 +14776,7 @@
         <v>1</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.2">
@@ -14787,7 +14787,7 @@
         <v>497</v>
       </c>
       <c r="C347" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D347" t="s">
         <v>1</v>
@@ -14840,7 +14840,7 @@
         <v>497</v>
       </c>
       <c r="C348" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D348" t="s">
         <v>1</v>
@@ -14849,7 +14849,7 @@
         <v>1</v>
       </c>
       <c r="F348" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G348" t="s">
         <v>1</v>
@@ -14893,7 +14893,7 @@
         <v>497</v>
       </c>
       <c r="C350" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D350" t="s">
         <v>1</v>
@@ -14935,7 +14935,7 @@
         <v>1</v>
       </c>
       <c r="Q350" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.2">
@@ -14946,7 +14946,7 @@
         <v>497</v>
       </c>
       <c r="C351" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D351" t="s">
         <v>1</v>
@@ -14999,7 +14999,7 @@
         <v>497</v>
       </c>
       <c r="C352" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D352" t="s">
         <v>1</v>
@@ -15008,7 +15008,7 @@
         <v>1</v>
       </c>
       <c r="F352" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G352" t="s">
         <v>1</v>
@@ -15052,7 +15052,7 @@
         <v>497</v>
       </c>
       <c r="C354" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D354" t="s">
         <v>1</v>
@@ -15094,7 +15094,7 @@
         <v>1</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.2">
@@ -15105,7 +15105,7 @@
         <v>497</v>
       </c>
       <c r="C355" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D355" t="s">
         <v>1</v>
@@ -15158,7 +15158,7 @@
         <v>497</v>
       </c>
       <c r="C356" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -15167,7 +15167,7 @@
         <v>1</v>
       </c>
       <c r="F356" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G356" t="s">
         <v>1</v>
@@ -15211,7 +15211,7 @@
         <v>497</v>
       </c>
       <c r="C358" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D358" t="s">
         <v>1</v>
@@ -15253,7 +15253,7 @@
         <v>1</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.2">
@@ -15264,7 +15264,7 @@
         <v>497</v>
       </c>
       <c r="C359" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D359" t="s">
         <v>1</v>
@@ -15317,7 +15317,7 @@
         <v>497</v>
       </c>
       <c r="C360" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D360" t="s">
         <v>1</v>
@@ -15326,7 +15326,7 @@
         <v>1</v>
       </c>
       <c r="F360" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G360" t="s">
         <v>1</v>
@@ -15373,7 +15373,7 @@
         <v>497</v>
       </c>
       <c r="C362" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D362" t="s">
         <v>1</v>
@@ -15415,7 +15415,7 @@
         <v>1</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.2">
@@ -15426,7 +15426,7 @@
         <v>497</v>
       </c>
       <c r="C363" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D363" t="s">
         <v>1</v>
@@ -15479,7 +15479,7 @@
         <v>497</v>
       </c>
       <c r="C364" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -15488,7 +15488,7 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G364" t="s">
         <v>1</v>
@@ -15536,7 +15536,7 @@
         <v>497</v>
       </c>
       <c r="C366" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D366" t="s">
         <v>1</v>
@@ -15578,7 +15578,7 @@
         <v>1</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.2">
@@ -15589,7 +15589,7 @@
         <v>497</v>
       </c>
       <c r="C367" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D367" t="s">
         <v>1</v>
@@ -15642,7 +15642,7 @@
         <v>497</v>
       </c>
       <c r="C368" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D368" t="s">
         <v>1</v>
@@ -15651,7 +15651,7 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G368" t="s">
         <v>1</v>
@@ -15699,7 +15699,7 @@
         <v>497</v>
       </c>
       <c r="C370" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D370" t="s">
         <v>1</v>
@@ -15741,7 +15741,7 @@
         <v>1</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.2">
@@ -15752,7 +15752,7 @@
         <v>497</v>
       </c>
       <c r="C371" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D371" t="s">
         <v>1</v>
@@ -15805,7 +15805,7 @@
         <v>497</v>
       </c>
       <c r="C372" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D372" t="s">
         <v>1</v>
@@ -15814,7 +15814,7 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G372" t="s">
         <v>1</v>
@@ -15863,7 +15863,7 @@
         <v>497</v>
       </c>
       <c r="C374" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D374" t="s">
         <v>1</v>
@@ -15905,7 +15905,7 @@
         <v>1</v>
       </c>
       <c r="Q374" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
@@ -15916,7 +15916,7 @@
         <v>497</v>
       </c>
       <c r="C375" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D375" t="s">
         <v>1</v>
@@ -15969,7 +15969,7 @@
         <v>497</v>
       </c>
       <c r="C376" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D376" t="s">
         <v>1</v>
@@ -15978,7 +15978,7 @@
         <v>1</v>
       </c>
       <c r="F376" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G376" t="s">
         <v>1</v>
@@ -16022,7 +16022,7 @@
         <v>497</v>
       </c>
       <c r="C378" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D378" t="s">
         <v>1</v>
@@ -16064,7 +16064,7 @@
         <v>1</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.2">
@@ -16075,7 +16075,7 @@
         <v>497</v>
       </c>
       <c r="C379" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D379" t="s">
         <v>1</v>
@@ -16128,7 +16128,7 @@
         <v>497</v>
       </c>
       <c r="C380" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D380" t="s">
         <v>1</v>
@@ -16137,7 +16137,7 @@
         <v>1</v>
       </c>
       <c r="F380" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G380" t="s">
         <v>1</v>
@@ -16181,7 +16181,7 @@
         <v>497</v>
       </c>
       <c r="C382" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D382" t="s">
         <v>1</v>
@@ -16223,7 +16223,7 @@
         <v>1</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.2">
@@ -16234,7 +16234,7 @@
         <v>497</v>
       </c>
       <c r="C383" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D383" t="s">
         <v>1</v>
@@ -16287,7 +16287,7 @@
         <v>497</v>
       </c>
       <c r="C384" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D384" t="s">
         <v>1</v>
@@ -16296,7 +16296,7 @@
         <v>1</v>
       </c>
       <c r="F384" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G384" t="s">
         <v>1</v>
@@ -16343,7 +16343,7 @@
         <v>497</v>
       </c>
       <c r="C386" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D386" t="s">
         <v>1</v>
@@ -16385,7 +16385,7 @@
         <v>1</v>
       </c>
       <c r="Q386" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.2">
@@ -16396,7 +16396,7 @@
         <v>497</v>
       </c>
       <c r="C387" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D387" t="s">
         <v>1</v>
@@ -16449,7 +16449,7 @@
         <v>497</v>
       </c>
       <c r="C388" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D388" t="s">
         <v>1</v>
@@ -16458,7 +16458,7 @@
         <v>1</v>
       </c>
       <c r="F388" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G388" t="s">
         <v>1</v>
@@ -16505,7 +16505,7 @@
         <v>497</v>
       </c>
       <c r="C390" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D390" t="s">
         <v>1</v>
@@ -16547,7 +16547,7 @@
         <v>1</v>
       </c>
       <c r="Q390" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.2">
@@ -16558,7 +16558,7 @@
         <v>497</v>
       </c>
       <c r="C391" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D391" t="s">
         <v>1</v>
@@ -16611,7 +16611,7 @@
         <v>497</v>
       </c>
       <c r="C392" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D392" t="s">
         <v>1</v>
@@ -16620,7 +16620,7 @@
         <v>1</v>
       </c>
       <c r="F392" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G392" t="s">
         <v>1</v>
@@ -16667,7 +16667,7 @@
         <v>497</v>
       </c>
       <c r="C394" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D394" t="s">
         <v>1</v>
@@ -16709,7 +16709,7 @@
         <v>1</v>
       </c>
       <c r="Q394" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.2">
@@ -16720,7 +16720,7 @@
         <v>497</v>
       </c>
       <c r="C395" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D395" t="s">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>497</v>
       </c>
       <c r="C396" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D396" t="s">
         <v>1</v>
@@ -16782,7 +16782,7 @@
         <v>1</v>
       </c>
       <c r="F396" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G396" t="s">
         <v>1</v>
@@ -16826,7 +16826,7 @@
         <v>497</v>
       </c>
       <c r="C398" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D398" t="s">
         <v>1</v>
@@ -16868,7 +16868,7 @@
         <v>1</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.2">
@@ -16879,7 +16879,7 @@
         <v>497</v>
       </c>
       <c r="C399" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D399" t="s">
         <v>1</v>
@@ -16932,7 +16932,7 @@
         <v>497</v>
       </c>
       <c r="C400" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D400" t="s">
         <v>1</v>
@@ -16941,7 +16941,7 @@
         <v>1</v>
       </c>
       <c r="F400" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="G400" t="s">
         <v>1</v>
@@ -16985,7 +16985,7 @@
         <v>497</v>
       </c>
       <c r="C402" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D402" t="s">
         <v>1</v>
@@ -17027,7 +17027,7 @@
         <v>1</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.2">
@@ -17038,7 +17038,7 @@
         <v>497</v>
       </c>
       <c r="C403" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D403" t="s">
         <v>1</v>
@@ -17080,7 +17080,7 @@
         <v>1</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17092,7 +17092,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -17145,7 +17145,7 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>503</v>
+        <v>656</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -17198,7 +17198,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -17251,7 +17251,7 @@
         <v>184</v>
       </c>
       <c r="C444" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -17304,7 +17304,7 @@
         <v>184</v>
       </c>
       <c r="C445" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -17357,7 +17357,7 @@
         <v>184</v>
       </c>
       <c r="C446" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -17410,7 +17410,7 @@
         <v>184</v>
       </c>
       <c r="C447" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -17463,7 +17463,7 @@
         <v>184</v>
       </c>
       <c r="C448" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -17516,7 +17516,7 @@
         <v>184</v>
       </c>
       <c r="C449" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -17569,7 +17569,7 @@
         <v>184</v>
       </c>
       <c r="C450" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -17622,7 +17622,7 @@
         <v>184</v>
       </c>
       <c r="C451" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -17675,7 +17675,7 @@
         <v>184</v>
       </c>
       <c r="C452" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -17728,7 +17728,7 @@
         <v>184</v>
       </c>
       <c r="C453" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -17781,7 +17781,7 @@
         <v>184</v>
       </c>
       <c r="C454" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -17849,7 +17849,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I455" t="s">
         <v>208</v>
@@ -18273,7 +18273,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I463" t="s">
         <v>226</v>
@@ -18432,7 +18432,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I466" t="s">
         <v>229</v>
@@ -18523,7 +18523,7 @@
         <v>231</v>
       </c>
       <c r="C469" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D469" t="s">
         <v>1</v>
@@ -18565,7 +18565,7 @@
         <v>1</v>
       </c>
       <c r="Q469" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.2">
@@ -18576,7 +18576,7 @@
         <v>231</v>
       </c>
       <c r="C470" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D470" t="s">
         <v>1</v>
@@ -18591,7 +18591,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I470" t="s">
         <v>394</v>
@@ -18629,7 +18629,7 @@
         <v>231</v>
       </c>
       <c r="C472" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D472" t="s">
         <v>1</v>
@@ -18671,7 +18671,7 @@
         <v>1</v>
       </c>
       <c r="Q472" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.2">
@@ -18682,7 +18682,7 @@
         <v>231</v>
       </c>
       <c r="C473" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D473" t="s">
         <v>1</v>
@@ -18735,7 +18735,7 @@
         <v>231</v>
       </c>
       <c r="C474" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D474" t="s">
         <v>1</v>
@@ -18788,7 +18788,7 @@
         <v>231</v>
       </c>
       <c r="C475" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D475" t="s">
         <v>1</v>
@@ -18841,7 +18841,7 @@
         <v>231</v>
       </c>
       <c r="C476" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -18894,7 +18894,7 @@
         <v>231</v>
       </c>
       <c r="C477" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D477" t="s">
         <v>1</v>
@@ -18947,7 +18947,7 @@
         <v>231</v>
       </c>
       <c r="C478" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D478" t="s">
         <v>1</v>
@@ -19000,7 +19000,7 @@
         <v>231</v>
       </c>
       <c r="C479" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D479" t="s">
         <v>1</v>
@@ -19053,7 +19053,7 @@
         <v>231</v>
       </c>
       <c r="C480" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D480" t="s">
         <v>1</v>
@@ -19106,7 +19106,7 @@
         <v>231</v>
       </c>
       <c r="C481" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D481" t="s">
         <v>1</v>
@@ -19159,7 +19159,7 @@
         <v>231</v>
       </c>
       <c r="C482" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D482" t="s">
         <v>1</v>
@@ -19212,7 +19212,7 @@
         <v>231</v>
       </c>
       <c r="C483" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D483" t="s">
         <v>1</v>
@@ -19227,7 +19227,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I483" t="s">
         <v>428</v>
@@ -19265,7 +19265,7 @@
         <v>231</v>
       </c>
       <c r="C485" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D485" t="s">
         <v>1</v>
@@ -19307,7 +19307,7 @@
         <v>1</v>
       </c>
       <c r="Q485" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.2">
@@ -19318,7 +19318,7 @@
         <v>231</v>
       </c>
       <c r="C486" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D486" t="s">
         <v>1</v>
@@ -19371,7 +19371,7 @@
         <v>231</v>
       </c>
       <c r="C487" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D487" t="s">
         <v>1</v>
@@ -19424,7 +19424,7 @@
         <v>231</v>
       </c>
       <c r="C489" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D489" t="s">
         <v>1</v>
@@ -19466,7 +19466,7 @@
         <v>1</v>
       </c>
       <c r="Q489" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.2">
@@ -19477,7 +19477,7 @@
         <v>231</v>
       </c>
       <c r="C490" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D490" t="s">
         <v>1</v>
@@ -19530,7 +19530,7 @@
         <v>231</v>
       </c>
       <c r="C491" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D491" t="s">
         <v>1</v>
@@ -19583,7 +19583,7 @@
         <v>231</v>
       </c>
       <c r="C493" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D493" t="s">
         <v>1</v>
@@ -19625,7 +19625,7 @@
         <v>1</v>
       </c>
       <c r="Q493" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.2">
@@ -19636,7 +19636,7 @@
         <v>231</v>
       </c>
       <c r="C494" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D494" t="s">
         <v>1</v>
@@ -19689,7 +19689,7 @@
         <v>231</v>
       </c>
       <c r="C495" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D495" t="s">
         <v>1</v>
@@ -19704,7 +19704,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I495" t="s">
         <v>444</v>
@@ -19742,7 +19742,7 @@
         <v>231</v>
       </c>
       <c r="C496" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D496" t="s">
         <v>1</v>
@@ -19757,7 +19757,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I496" t="s">
         <v>444</v>
@@ -19795,7 +19795,7 @@
         <v>231</v>
       </c>
       <c r="C498" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D498" t="s">
         <v>1</v>
@@ -19837,7 +19837,7 @@
         <v>1</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.2">
@@ -19848,7 +19848,7 @@
         <v>231</v>
       </c>
       <c r="C499" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D499" t="s">
         <v>1</v>
@@ -19901,7 +19901,7 @@
         <v>231</v>
       </c>
       <c r="C500" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D500" t="s">
         <v>1</v>
@@ -19957,7 +19957,7 @@
         <v>231</v>
       </c>
       <c r="C502" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D502" t="s">
         <v>1</v>
@@ -19999,7 +19999,7 @@
         <v>1</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.2">
@@ -20010,7 +20010,7 @@
         <v>231</v>
       </c>
       <c r="C503" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D503" t="s">
         <v>1</v>
@@ -20063,7 +20063,7 @@
         <v>231</v>
       </c>
       <c r="C504" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D504" t="s">
         <v>1</v>
@@ -20116,7 +20116,7 @@
         <v>231</v>
       </c>
       <c r="C506" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D506" t="s">
         <v>1</v>
@@ -20158,7 +20158,7 @@
         <v>1</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.2">
@@ -20169,7 +20169,7 @@
         <v>231</v>
       </c>
       <c r="C507" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D507" t="s">
         <v>1</v>
@@ -20222,7 +20222,7 @@
         <v>231</v>
       </c>
       <c r="C508" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="D508" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0518AC35-A81B-554C-9F30-F822A0E1A91E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103997F2-0914-034D-A8D5-2DD7499A54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="657">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="656">
   <si>
     <t>A1</t>
   </si>
@@ -2060,9 +2060,6 @@
   </si>
   <si>
     <t>She is waiting for you ______ 0 هي تنتظرك {{aهنا}} ; I will ______ love you 0 انا سأحبك {{aدائما}}</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> unit3</t>
   </si>
 </sst>
 </file>
@@ -2473,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H51" sqref="H51"/>
+    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H376" sqref="H376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6591,7 +6588,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6644,7 +6641,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6697,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6750,7 +6747,7 @@
         <v>497</v>
       </c>
       <c r="C105" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -9752,7 +9749,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -9805,7 +9802,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -9858,7 +9855,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -14098,7 +14095,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -14151,7 +14148,7 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D333" t="s">
         <v>1</v>
@@ -14204,7 +14201,7 @@
         <v>497</v>
       </c>
       <c r="C334" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -17092,7 +17089,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -17145,7 +17142,7 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>656</v>
+        <v>502</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -17198,7 +17195,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{103997F2-0914-034D-A8D5-2DD7499A54C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD17AEE-CDB7-B44D-84A2-CB019450508D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19280" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
@@ -2470,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A372" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="H376" sqref="H376"/>
+    <sheetView tabSelected="1" topLeftCell="A502" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="H523" sqref="H523"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6747,7 +6747,7 @@
         <v>497</v>
       </c>
       <c r="C105" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -14201,7 +14201,7 @@
         <v>497</v>
       </c>
       <c r="C334" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>

--- a/assets/questions.xlsx
+++ b/assets/questions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ribhibish/Desktop/FLutter/az-english/assets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18590333-D04C-CE46-9227-6B6FC6376677}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12D795C4-A749-0642-89D7-858EA89CAC73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22320" yWindow="740" windowWidth="15840" windowHeight="18820" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15680" xr2:uid="{6AEEC35D-FFE0-0C48-BE89-BDD07A570BA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5456" uniqueCount="656">
   <si>
     <t>A1</t>
   </si>
@@ -1528,9 +1528,6 @@
   </si>
   <si>
     <t xml:space="preserve">To talk0يتكلم : I talk to my mom daily0اتكلم مع امي يوميا;To call 0يتصل : She called me when I was out0اتصلت بي عندما كنت بالخارج;To know0يعلم : I know your secret0اعلم سرك;To learn0يتعلم : Many students learn English0الكثير من التلامذ يتعلمون الإنجليزية;To teach0يعلم : My teacher teaches us0معلمتي تعلمنا </t>
-  </si>
-  <si>
-    <t>listeningWriting</t>
   </si>
   <si>
     <t>unit1</t>
@@ -2057,6 +2054,12 @@
   </si>
   <si>
     <t>She is waiting for you ______ 0 هي تنتظرك {{aهنا}} ; I will ______ love you 0 انا سأحبك {{aدائما}}</t>
+  </si>
+  <si>
+    <t>writing</t>
+  </si>
+  <si>
+    <t>listening</t>
   </si>
 </sst>
 </file>
@@ -2467,8 +2470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E543F04A-C5C9-5445-AC86-CB4890E27EED}">
   <dimension ref="A4:Q508"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I374" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
-      <selection activeCell="L385" sqref="L385"/>
+    <sheetView tabSelected="1" topLeftCell="A460" zoomScale="137" zoomScaleNormal="137" workbookViewId="0">
+      <selection activeCell="D475" sqref="D475"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2487,7 +2490,7 @@
         <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D4" t="s">
         <v>1</v>
@@ -2540,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D5" t="s">
         <v>1</v>
@@ -2593,7 +2596,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -2646,7 +2649,7 @@
         <v>183</v>
       </c>
       <c r="C7" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D7" t="s">
         <v>1</v>
@@ -2699,7 +2702,7 @@
         <v>183</v>
       </c>
       <c r="C8" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D8" t="s">
         <v>1</v>
@@ -2752,7 +2755,7 @@
         <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D9" t="s">
         <v>1</v>
@@ -2805,7 +2808,7 @@
         <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D10" t="s">
         <v>1</v>
@@ -2858,7 +2861,7 @@
         <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D11" t="s">
         <v>1</v>
@@ -2911,7 +2914,7 @@
         <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D12" t="s">
         <v>1</v>
@@ -2964,7 +2967,7 @@
         <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D13" t="s">
         <v>1</v>
@@ -3017,7 +3020,7 @@
         <v>183</v>
       </c>
       <c r="C14" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D14" t="s">
         <v>1</v>
@@ -3070,7 +3073,7 @@
         <v>183</v>
       </c>
       <c r="C15" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D15" t="s">
         <v>1</v>
@@ -3123,7 +3126,7 @@
         <v>183</v>
       </c>
       <c r="C16" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D16" t="s">
         <v>1</v>
@@ -3138,10 +3141,10 @@
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="I16" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="J16" t="s">
         <v>1</v>
@@ -3176,7 +3179,7 @@
         <v>184</v>
       </c>
       <c r="C17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D17" t="s">
         <v>1</v>
@@ -3229,7 +3232,7 @@
         <v>184</v>
       </c>
       <c r="C18" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D18" t="s">
         <v>1</v>
@@ -3282,7 +3285,7 @@
         <v>184</v>
       </c>
       <c r="C19" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D19" t="s">
         <v>1</v>
@@ -3335,7 +3338,7 @@
         <v>184</v>
       </c>
       <c r="C20" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D20" t="s">
         <v>1</v>
@@ -3350,7 +3353,7 @@
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I20" s="2" t="s">
         <v>131</v>
@@ -3388,7 +3391,7 @@
         <v>184</v>
       </c>
       <c r="C21" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D21" t="s">
         <v>1</v>
@@ -3403,7 +3406,7 @@
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I21" s="2" t="s">
         <v>132</v>
@@ -3441,7 +3444,7 @@
         <v>184</v>
       </c>
       <c r="C22" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D22" t="s">
         <v>1</v>
@@ -3456,7 +3459,7 @@
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I22" s="2" t="s">
         <v>133</v>
@@ -3494,7 +3497,7 @@
         <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D23" t="s">
         <v>1</v>
@@ -3547,7 +3550,7 @@
         <v>184</v>
       </c>
       <c r="C24" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D24" t="s">
         <v>1</v>
@@ -3600,7 +3603,7 @@
         <v>184</v>
       </c>
       <c r="C25" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D25" t="s">
         <v>1</v>
@@ -3653,7 +3656,7 @@
         <v>184</v>
       </c>
       <c r="C26" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D26" t="s">
         <v>1</v>
@@ -3668,7 +3671,7 @@
         <v>138</v>
       </c>
       <c r="H26" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I26" t="s">
         <v>139</v>
@@ -3706,7 +3709,7 @@
         <v>184</v>
       </c>
       <c r="C27" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D27" t="s">
         <v>1</v>
@@ -3759,7 +3762,7 @@
         <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D28" t="s">
         <v>1</v>
@@ -3812,7 +3815,7 @@
         <v>184</v>
       </c>
       <c r="C29" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D29" t="s">
         <v>1</v>
@@ -3865,7 +3868,7 @@
         <v>184</v>
       </c>
       <c r="C30" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D30" t="s">
         <v>1</v>
@@ -3918,7 +3921,7 @@
         <v>184</v>
       </c>
       <c r="C31" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D31" t="s">
         <v>1</v>
@@ -3971,7 +3974,7 @@
         <v>184</v>
       </c>
       <c r="C32" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D32" t="s">
         <v>1</v>
@@ -4024,7 +4027,7 @@
         <v>184</v>
       </c>
       <c r="C33" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D33" t="s">
         <v>1</v>
@@ -4077,7 +4080,7 @@
         <v>184</v>
       </c>
       <c r="C34" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D34" t="s">
         <v>1</v>
@@ -4130,7 +4133,7 @@
         <v>184</v>
       </c>
       <c r="C35" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D35" t="s">
         <v>1</v>
@@ -4145,7 +4148,7 @@
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="I35" t="s">
         <v>161</v>
@@ -4183,7 +4186,7 @@
         <v>184</v>
       </c>
       <c r="C36" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D36" t="s">
         <v>1</v>
@@ -4198,7 +4201,7 @@
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I36" s="2" t="s">
         <v>164</v>
@@ -4236,7 +4239,7 @@
         <v>184</v>
       </c>
       <c r="C37" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D37" t="s">
         <v>1</v>
@@ -4289,7 +4292,7 @@
         <v>184</v>
       </c>
       <c r="C38" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D38" t="s">
         <v>1</v>
@@ -4342,7 +4345,7 @@
         <v>184</v>
       </c>
       <c r="C39" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D39" t="s">
         <v>1</v>
@@ -4395,7 +4398,7 @@
         <v>184</v>
       </c>
       <c r="C40" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D40" t="s">
         <v>1</v>
@@ -4410,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I40" t="s">
         <v>154</v>
@@ -4448,7 +4451,7 @@
         <v>230</v>
       </c>
       <c r="C41" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D41" t="s">
         <v>1</v>
@@ -4490,7 +4493,7 @@
         <v>1</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.2">
@@ -4501,7 +4504,7 @@
         <v>230</v>
       </c>
       <c r="C42" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D42" t="s">
         <v>1</v>
@@ -4543,7 +4546,7 @@
         <v>1</v>
       </c>
       <c r="Q42" s="5" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.2">
@@ -4554,7 +4557,7 @@
         <v>230</v>
       </c>
       <c r="C43" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D43" t="s">
         <v>1</v>
@@ -4569,7 +4572,7 @@
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="I43" s="2" t="s">
         <v>235</v>
@@ -4607,7 +4610,7 @@
         <v>230</v>
       </c>
       <c r="C44" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D44" t="s">
         <v>1</v>
@@ -4622,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I44" s="2" t="s">
         <v>236</v>
@@ -4660,7 +4663,7 @@
         <v>230</v>
       </c>
       <c r="C45" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D45" t="s">
         <v>1</v>
@@ -4675,7 +4678,7 @@
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="I45" s="2" t="s">
         <v>237</v>
@@ -4713,7 +4716,7 @@
         <v>230</v>
       </c>
       <c r="C46" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D46" t="s">
         <v>1</v>
@@ -4766,7 +4769,7 @@
         <v>230</v>
       </c>
       <c r="C47" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D47" t="s">
         <v>1</v>
@@ -4781,7 +4784,7 @@
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="I47" s="2" t="s">
         <v>239</v>
@@ -4819,7 +4822,7 @@
         <v>230</v>
       </c>
       <c r="C48" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D48" t="s">
         <v>1</v>
@@ -4875,7 +4878,7 @@
         <v>230</v>
       </c>
       <c r="C50" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D50" t="s">
         <v>1</v>
@@ -4917,7 +4920,7 @@
         <v>1</v>
       </c>
       <c r="Q50" s="5" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.2">
@@ -4928,7 +4931,7 @@
         <v>230</v>
       </c>
       <c r="C51" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D51" t="s">
         <v>1</v>
@@ -4943,7 +4946,7 @@
         <v>242</v>
       </c>
       <c r="H51" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="I51" s="2" t="s">
         <v>243</v>
@@ -4981,7 +4984,7 @@
         <v>230</v>
       </c>
       <c r="C52" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D52" t="s">
         <v>1</v>
@@ -4996,7 +4999,7 @@
         <v>242</v>
       </c>
       <c r="H52" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="I52" s="2" t="s">
         <v>244</v>
@@ -5034,7 +5037,7 @@
         <v>230</v>
       </c>
       <c r="C53" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D53" t="s">
         <v>1</v>
@@ -5049,7 +5052,7 @@
         <v>242</v>
       </c>
       <c r="H53" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="I53" s="2" t="s">
         <v>245</v>
@@ -5087,7 +5090,7 @@
         <v>230</v>
       </c>
       <c r="C54" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D54" t="s">
         <v>1</v>
@@ -5102,7 +5105,7 @@
         <v>242</v>
       </c>
       <c r="H54" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="I54" s="2" t="s">
         <v>246</v>
@@ -5140,7 +5143,7 @@
         <v>230</v>
       </c>
       <c r="C55" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D55" t="s">
         <v>1</v>
@@ -5155,7 +5158,7 @@
         <v>242</v>
       </c>
       <c r="H55" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="I55" s="2" t="s">
         <v>247</v>
@@ -5193,7 +5196,7 @@
         <v>230</v>
       </c>
       <c r="C57" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D57" t="s">
         <v>1</v>
@@ -5235,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="5" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.2">
@@ -5246,7 +5249,7 @@
         <v>230</v>
       </c>
       <c r="C58" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D58" t="s">
         <v>1</v>
@@ -5288,7 +5291,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.2">
@@ -5299,7 +5302,7 @@
         <v>230</v>
       </c>
       <c r="C59" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D59" t="s">
         <v>1</v>
@@ -5341,7 +5344,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.2">
@@ -5352,7 +5355,7 @@
         <v>230</v>
       </c>
       <c r="C60" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D60" t="s">
         <v>1</v>
@@ -5367,7 +5370,7 @@
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="I60" s="2" t="s">
         <v>252</v>
@@ -5405,7 +5408,7 @@
         <v>230</v>
       </c>
       <c r="C61" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D61" t="s">
         <v>1</v>
@@ -5420,7 +5423,7 @@
         <v>1</v>
       </c>
       <c r="H61" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="I61" s="2" t="s">
         <v>248</v>
@@ -5458,7 +5461,7 @@
         <v>230</v>
       </c>
       <c r="C62" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D62" t="s">
         <v>1</v>
@@ -5473,7 +5476,7 @@
         <v>1</v>
       </c>
       <c r="H62" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="I62" s="2" t="s">
         <v>249</v>
@@ -5511,7 +5514,7 @@
         <v>230</v>
       </c>
       <c r="C63" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D63" t="s">
         <v>1</v>
@@ -5526,7 +5529,7 @@
         <v>1</v>
       </c>
       <c r="H63" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="I63" s="2" t="s">
         <v>250</v>
@@ -5564,7 +5567,7 @@
         <v>230</v>
       </c>
       <c r="C64" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D64" t="s">
         <v>1</v>
@@ -5579,7 +5582,7 @@
         <v>1</v>
       </c>
       <c r="H64" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="I64" s="2" t="s">
         <v>251</v>
@@ -5620,7 +5623,7 @@
         <v>230</v>
       </c>
       <c r="C66" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D66" t="s">
         <v>1</v>
@@ -5662,7 +5665,7 @@
         <v>1</v>
       </c>
       <c r="Q66" s="5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.2">
@@ -5673,7 +5676,7 @@
         <v>230</v>
       </c>
       <c r="C67" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D67" t="s">
         <v>1</v>
@@ -5715,7 +5718,7 @@
         <v>1</v>
       </c>
       <c r="Q67" s="5" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.2">
@@ -5726,7 +5729,7 @@
         <v>230</v>
       </c>
       <c r="C68" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D68" t="s">
         <v>1</v>
@@ -5768,7 +5771,7 @@
         <v>1</v>
       </c>
       <c r="Q68" s="5" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.2">
@@ -5785,7 +5788,7 @@
         <v>230</v>
       </c>
       <c r="C71" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D71" t="s">
         <v>1</v>
@@ -5827,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="5" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.2">
@@ -5838,7 +5841,7 @@
         <v>230</v>
       </c>
       <c r="C72" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D72" t="s">
         <v>1</v>
@@ -5853,7 +5856,7 @@
         <v>138</v>
       </c>
       <c r="H72" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I72" t="s">
         <v>256</v>
@@ -5895,7 +5898,7 @@
         <v>230</v>
       </c>
       <c r="C74" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D74" t="s">
         <v>1</v>
@@ -5937,7 +5940,7 @@
         <v>1</v>
       </c>
       <c r="Q74" s="5" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.2">
@@ -5948,7 +5951,7 @@
         <v>230</v>
       </c>
       <c r="C75" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D75" t="s">
         <v>1</v>
@@ -5963,7 +5966,7 @@
         <v>1</v>
       </c>
       <c r="H75" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="I75" s="2" t="s">
         <v>258</v>
@@ -6001,7 +6004,7 @@
         <v>230</v>
       </c>
       <c r="C76" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D76" t="s">
         <v>1</v>
@@ -6016,7 +6019,7 @@
         <v>1</v>
       </c>
       <c r="H76" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="I76" s="2" t="s">
         <v>259</v>
@@ -6054,7 +6057,7 @@
         <v>230</v>
       </c>
       <c r="C77" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D77" t="s">
         <v>1</v>
@@ -6069,7 +6072,7 @@
         <v>1</v>
       </c>
       <c r="H77" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="I77" s="2" t="s">
         <v>144</v>
@@ -6107,7 +6110,7 @@
         <v>230</v>
       </c>
       <c r="C78" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D78" t="s">
         <v>1</v>
@@ -6122,7 +6125,7 @@
         <v>1</v>
       </c>
       <c r="H78" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="I78" s="2" t="s">
         <v>259</v>
@@ -6163,7 +6166,7 @@
         <v>230</v>
       </c>
       <c r="C80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D80" t="s">
         <v>1</v>
@@ -6205,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="5" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.2">
@@ -6216,7 +6219,7 @@
         <v>230</v>
       </c>
       <c r="C81" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D81" t="s">
         <v>1</v>
@@ -6231,7 +6234,7 @@
         <v>1</v>
       </c>
       <c r="H81" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="I81" s="2" t="s">
         <v>261</v>
@@ -6269,7 +6272,7 @@
         <v>230</v>
       </c>
       <c r="C82" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D82" t="s">
         <v>1</v>
@@ -6284,7 +6287,7 @@
         <v>1</v>
       </c>
       <c r="H82" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="I82" s="2" t="s">
         <v>262</v>
@@ -6322,7 +6325,7 @@
         <v>230</v>
       </c>
       <c r="C83" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
@@ -6337,7 +6340,7 @@
         <v>1</v>
       </c>
       <c r="H83" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="I83" s="2" t="s">
         <v>147</v>
@@ -6375,7 +6378,7 @@
         <v>230</v>
       </c>
       <c r="C84" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D84" t="s">
         <v>1</v>
@@ -6390,7 +6393,7 @@
         <v>1</v>
       </c>
       <c r="H84" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="I84" s="2" t="s">
         <v>150</v>
@@ -6428,7 +6431,7 @@
         <v>230</v>
       </c>
       <c r="C85" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D85" t="s">
         <v>1</v>
@@ -6443,7 +6446,7 @@
         <v>1</v>
       </c>
       <c r="H85" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="I85" s="2" t="s">
         <v>263</v>
@@ -6484,7 +6487,7 @@
         <v>230</v>
       </c>
       <c r="C87" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D87" t="s">
         <v>1</v>
@@ -6511,7 +6514,7 @@
         <v>231</v>
       </c>
       <c r="L87" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M87" t="s">
         <v>1</v>
@@ -6526,7 +6529,7 @@
         <v>1</v>
       </c>
       <c r="Q87" s="5" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.2">
@@ -6585,7 +6588,7 @@
         <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D102" t="s">
         <v>1</v>
@@ -6638,7 +6641,7 @@
         <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D103" t="s">
         <v>1</v>
@@ -6691,7 +6694,7 @@
         <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D104" t="s">
         <v>1</v>
@@ -6741,10 +6744,10 @@
         <v>0</v>
       </c>
       <c r="B105" t="s">
+        <v>655</v>
+      </c>
+      <c r="C105" t="s">
         <v>496</v>
-      </c>
-      <c r="C105" t="s">
-        <v>497</v>
       </c>
       <c r="D105" t="s">
         <v>1</v>
@@ -6797,7 +6800,7 @@
         <v>184</v>
       </c>
       <c r="C106" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D106" t="s">
         <v>1</v>
@@ -6850,7 +6853,7 @@
         <v>184</v>
       </c>
       <c r="C107" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D107" t="s">
         <v>1</v>
@@ -6859,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="F107" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G107" t="s">
         <v>1</v>
@@ -6903,7 +6906,7 @@
         <v>184</v>
       </c>
       <c r="C108" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D108" t="s">
         <v>1</v>
@@ -6956,7 +6959,7 @@
         <v>184</v>
       </c>
       <c r="C109" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D109" t="s">
         <v>1</v>
@@ -7009,7 +7012,7 @@
         <v>184</v>
       </c>
       <c r="C110" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D110" t="s">
         <v>1</v>
@@ -7062,7 +7065,7 @@
         <v>184</v>
       </c>
       <c r="C111" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D111" t="s">
         <v>1</v>
@@ -7115,7 +7118,7 @@
         <v>184</v>
       </c>
       <c r="C112" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D112" t="s">
         <v>1</v>
@@ -7168,7 +7171,7 @@
         <v>185</v>
       </c>
       <c r="C113" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D113" t="s">
         <v>1</v>
@@ -7221,7 +7224,7 @@
         <v>185</v>
       </c>
       <c r="C114" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D114" t="s">
         <v>1</v>
@@ -7275,10 +7278,10 @@
         <v>0</v>
       </c>
       <c r="B116" t="s">
+        <v>654</v>
+      </c>
+      <c r="C116" t="s">
         <v>496</v>
-      </c>
-      <c r="C116" t="s">
-        <v>497</v>
       </c>
       <c r="D116" t="s">
         <v>1</v>
@@ -7320,7 +7323,7 @@
         <v>1</v>
       </c>
       <c r="Q116" s="5" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.2">
@@ -7328,10 +7331,10 @@
         <v>0</v>
       </c>
       <c r="B117" t="s">
+        <v>654</v>
+      </c>
+      <c r="C117" t="s">
         <v>496</v>
-      </c>
-      <c r="C117" t="s">
-        <v>497</v>
       </c>
       <c r="D117" t="s">
         <v>1</v>
@@ -7381,10 +7384,10 @@
         <v>0</v>
       </c>
       <c r="B118" t="s">
+        <v>654</v>
+      </c>
+      <c r="C118" t="s">
         <v>496</v>
-      </c>
-      <c r="C118" t="s">
-        <v>497</v>
       </c>
       <c r="D118" t="s">
         <v>1</v>
@@ -7434,10 +7437,10 @@
         <v>0</v>
       </c>
       <c r="B119" t="s">
+        <v>654</v>
+      </c>
+      <c r="C119" t="s">
         <v>496</v>
-      </c>
-      <c r="C119" t="s">
-        <v>497</v>
       </c>
       <c r="D119" t="s">
         <v>1</v>
@@ -7455,7 +7458,7 @@
         <v>267</v>
       </c>
       <c r="I119" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="J119">
         <v>0</v>
@@ -7487,10 +7490,10 @@
         <v>0</v>
       </c>
       <c r="B120" t="s">
+        <v>654</v>
+      </c>
+      <c r="C120" t="s">
         <v>496</v>
-      </c>
-      <c r="C120" t="s">
-        <v>497</v>
       </c>
       <c r="D120" t="s">
         <v>1</v>
@@ -7543,10 +7546,10 @@
         <v>0</v>
       </c>
       <c r="B122" t="s">
+        <v>654</v>
+      </c>
+      <c r="C122" t="s">
         <v>496</v>
-      </c>
-      <c r="C122" t="s">
-        <v>497</v>
       </c>
       <c r="D122" t="s">
         <v>1</v>
@@ -7588,7 +7591,7 @@
         <v>1</v>
       </c>
       <c r="Q122" s="5" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.2">
@@ -7596,10 +7599,10 @@
         <v>0</v>
       </c>
       <c r="B123" t="s">
+        <v>655</v>
+      </c>
+      <c r="C123" t="s">
         <v>496</v>
-      </c>
-      <c r="C123" t="s">
-        <v>497</v>
       </c>
       <c r="D123" t="s">
         <v>1</v>
@@ -7649,11 +7652,11 @@
         <v>0</v>
       </c>
       <c r="B124" t="s">
+        <v>654</v>
+      </c>
+      <c r="C124" t="s">
         <v>496</v>
       </c>
-      <c r="C124" t="s">
-        <v>497</v>
-      </c>
       <c r="D124" t="s">
         <v>1</v>
       </c>
@@ -7661,7 +7664,7 @@
         <v>1</v>
       </c>
       <c r="F124" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G124" t="s">
         <v>1</v>
@@ -7701,11 +7704,11 @@
       <c r="A126" t="s">
         <v>0</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C126" t="s">
         <v>496</v>
-      </c>
-      <c r="C126" t="s">
-        <v>497</v>
       </c>
       <c r="D126" t="s">
         <v>1</v>
@@ -7747,7 +7750,7 @@
         <v>1</v>
       </c>
       <c r="Q126" s="5" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.2">
@@ -7755,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="B127" t="s">
+        <v>655</v>
+      </c>
+      <c r="C127" t="s">
         <v>496</v>
-      </c>
-      <c r="C127" t="s">
-        <v>497</v>
       </c>
       <c r="D127" t="s">
         <v>1</v>
@@ -7807,12 +7810,12 @@
       <c r="A128" t="s">
         <v>0</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C128" t="s">
         <v>496</v>
       </c>
-      <c r="C128" t="s">
-        <v>497</v>
-      </c>
       <c r="D128" t="s">
         <v>1</v>
       </c>
@@ -7820,7 +7823,7 @@
         <v>1</v>
       </c>
       <c r="F128" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G128" t="s">
         <v>1</v>
@@ -7860,11 +7863,11 @@
       <c r="A130" t="s">
         <v>0</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C130" t="s">
         <v>496</v>
-      </c>
-      <c r="C130" t="s">
-        <v>497</v>
       </c>
       <c r="D130" t="s">
         <v>1</v>
@@ -7906,7 +7909,7 @@
         <v>1</v>
       </c>
       <c r="Q130" s="5" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.2">
@@ -7914,10 +7917,10 @@
         <v>0</v>
       </c>
       <c r="B131" t="s">
+        <v>655</v>
+      </c>
+      <c r="C131" t="s">
         <v>496</v>
-      </c>
-      <c r="C131" t="s">
-        <v>497</v>
       </c>
       <c r="D131" t="s">
         <v>1</v>
@@ -7966,12 +7969,12 @@
       <c r="A132" t="s">
         <v>0</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C132" t="s">
         <v>496</v>
       </c>
-      <c r="C132" t="s">
-        <v>497</v>
-      </c>
       <c r="D132" t="s">
         <v>1</v>
       </c>
@@ -7979,7 +7982,7 @@
         <v>1</v>
       </c>
       <c r="F132" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G132" t="s">
         <v>1</v>
@@ -8019,11 +8022,11 @@
       <c r="A134" t="s">
         <v>0</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C134" t="s">
         <v>496</v>
-      </c>
-      <c r="C134" t="s">
-        <v>497</v>
       </c>
       <c r="D134" t="s">
         <v>1</v>
@@ -8065,7 +8068,7 @@
         <v>1</v>
       </c>
       <c r="Q134" s="5" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.2">
@@ -8073,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="B135" t="s">
+        <v>655</v>
+      </c>
+      <c r="C135" t="s">
         <v>496</v>
-      </c>
-      <c r="C135" t="s">
-        <v>497</v>
       </c>
       <c r="D135" t="s">
         <v>1</v>
@@ -8126,11 +8129,11 @@
         <v>0</v>
       </c>
       <c r="B136" t="s">
+        <v>654</v>
+      </c>
+      <c r="C136" t="s">
         <v>496</v>
       </c>
-      <c r="C136" t="s">
-        <v>497</v>
-      </c>
       <c r="D136" t="s">
         <v>1</v>
       </c>
@@ -8138,7 +8141,7 @@
         <v>1</v>
       </c>
       <c r="F136" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G136" t="s">
         <v>1</v>
@@ -8182,10 +8185,10 @@
         <v>0</v>
       </c>
       <c r="B138" t="s">
+        <v>654</v>
+      </c>
+      <c r="C138" t="s">
         <v>496</v>
-      </c>
-      <c r="C138" t="s">
-        <v>497</v>
       </c>
       <c r="D138" t="s">
         <v>1</v>
@@ -8227,7 +8230,7 @@
         <v>1</v>
       </c>
       <c r="Q138" s="5" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.2">
@@ -8235,10 +8238,10 @@
         <v>0</v>
       </c>
       <c r="B139" t="s">
+        <v>655</v>
+      </c>
+      <c r="C139" t="s">
         <v>496</v>
-      </c>
-      <c r="C139" t="s">
-        <v>497</v>
       </c>
       <c r="D139" t="s">
         <v>1</v>
@@ -8287,12 +8290,12 @@
       <c r="A140" t="s">
         <v>0</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C140" t="s">
         <v>496</v>
       </c>
-      <c r="C140" t="s">
-        <v>497</v>
-      </c>
       <c r="D140" t="s">
         <v>1</v>
       </c>
@@ -8300,7 +8303,7 @@
         <v>1</v>
       </c>
       <c r="F140" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G140" t="s">
         <v>1</v>
@@ -8344,11 +8347,11 @@
       <c r="A142" t="s">
         <v>0</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C142" t="s">
         <v>496</v>
-      </c>
-      <c r="C142" t="s">
-        <v>497</v>
       </c>
       <c r="D142" t="s">
         <v>1</v>
@@ -8390,7 +8393,7 @@
         <v>1</v>
       </c>
       <c r="Q142" s="5" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.2">
@@ -8398,10 +8401,10 @@
         <v>0</v>
       </c>
       <c r="B143" t="s">
+        <v>655</v>
+      </c>
+      <c r="C143" t="s">
         <v>496</v>
-      </c>
-      <c r="C143" t="s">
-        <v>497</v>
       </c>
       <c r="D143" t="s">
         <v>1</v>
@@ -8450,12 +8453,12 @@
       <c r="A144" t="s">
         <v>0</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C144" t="s">
         <v>496</v>
       </c>
-      <c r="C144" t="s">
-        <v>497</v>
-      </c>
       <c r="D144" t="s">
         <v>1</v>
       </c>
@@ -8463,7 +8466,7 @@
         <v>1</v>
       </c>
       <c r="F144" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G144" t="s">
         <v>1</v>
@@ -8508,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="B146" t="s">
+        <v>654</v>
+      </c>
+      <c r="C146" t="s">
         <v>496</v>
-      </c>
-      <c r="C146" t="s">
-        <v>497</v>
       </c>
       <c r="D146" t="s">
         <v>1</v>
@@ -8553,7 +8556,7 @@
         <v>1</v>
       </c>
       <c r="Q146" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.2">
@@ -8561,10 +8564,10 @@
         <v>0</v>
       </c>
       <c r="B147" t="s">
+        <v>655</v>
+      </c>
+      <c r="C147" t="s">
         <v>496</v>
-      </c>
-      <c r="C147" t="s">
-        <v>497</v>
       </c>
       <c r="D147" t="s">
         <v>1</v>
@@ -8614,11 +8617,11 @@
         <v>0</v>
       </c>
       <c r="B148" t="s">
+        <v>654</v>
+      </c>
+      <c r="C148" t="s">
         <v>496</v>
       </c>
-      <c r="C148" t="s">
-        <v>497</v>
-      </c>
       <c r="D148" t="s">
         <v>1</v>
       </c>
@@ -8626,7 +8629,7 @@
         <v>1</v>
       </c>
       <c r="F148" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G148" t="s">
         <v>1</v>
@@ -8672,10 +8675,10 @@
         <v>0</v>
       </c>
       <c r="B150" t="s">
+        <v>654</v>
+      </c>
+      <c r="C150" t="s">
         <v>496</v>
-      </c>
-      <c r="C150" t="s">
-        <v>497</v>
       </c>
       <c r="D150" t="s">
         <v>1</v>
@@ -8717,7 +8720,7 @@
         <v>1</v>
       </c>
       <c r="Q150" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.2">
@@ -8725,10 +8728,10 @@
         <v>0</v>
       </c>
       <c r="B151" t="s">
+        <v>655</v>
+      </c>
+      <c r="C151" t="s">
         <v>496</v>
-      </c>
-      <c r="C151" t="s">
-        <v>497</v>
       </c>
       <c r="D151" t="s">
         <v>1</v>
@@ -8777,12 +8780,12 @@
       <c r="A152" t="s">
         <v>0</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C152" t="s">
         <v>496</v>
       </c>
-      <c r="C152" t="s">
-        <v>497</v>
-      </c>
       <c r="D152" t="s">
         <v>1</v>
       </c>
@@ -8790,7 +8793,7 @@
         <v>1</v>
       </c>
       <c r="F152" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G152" t="s">
         <v>1</v>
@@ -8831,10 +8834,10 @@
         <v>0</v>
       </c>
       <c r="B154" t="s">
+        <v>654</v>
+      </c>
+      <c r="C154" t="s">
         <v>496</v>
-      </c>
-      <c r="C154" t="s">
-        <v>497</v>
       </c>
       <c r="D154" t="s">
         <v>1</v>
@@ -8876,7 +8879,7 @@
         <v>1</v>
       </c>
       <c r="Q154" s="5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.2">
@@ -8884,10 +8887,10 @@
         <v>0</v>
       </c>
       <c r="B155" t="s">
+        <v>655</v>
+      </c>
+      <c r="C155" t="s">
         <v>496</v>
-      </c>
-      <c r="C155" t="s">
-        <v>497</v>
       </c>
       <c r="D155" t="s">
         <v>1</v>
@@ -8936,12 +8939,12 @@
       <c r="A156" t="s">
         <v>0</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C156" t="s">
         <v>496</v>
       </c>
-      <c r="C156" t="s">
-        <v>497</v>
-      </c>
       <c r="D156" t="s">
         <v>1</v>
       </c>
@@ -8949,7 +8952,7 @@
         <v>1</v>
       </c>
       <c r="F156" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G156" t="s">
         <v>1</v>
@@ -8990,10 +8993,10 @@
         <v>0</v>
       </c>
       <c r="B158" t="s">
+        <v>654</v>
+      </c>
+      <c r="C158" t="s">
         <v>496</v>
-      </c>
-      <c r="C158" t="s">
-        <v>497</v>
       </c>
       <c r="D158" t="s">
         <v>1</v>
@@ -9035,7 +9038,7 @@
         <v>1</v>
       </c>
       <c r="Q158" s="5" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.2">
@@ -9043,10 +9046,10 @@
         <v>0</v>
       </c>
       <c r="B159" t="s">
+        <v>655</v>
+      </c>
+      <c r="C159" t="s">
         <v>496</v>
-      </c>
-      <c r="C159" t="s">
-        <v>497</v>
       </c>
       <c r="D159" t="s">
         <v>1</v>
@@ -9095,12 +9098,12 @@
       <c r="A160" t="s">
         <v>0</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C160" t="s">
         <v>496</v>
       </c>
-      <c r="C160" t="s">
-        <v>497</v>
-      </c>
       <c r="D160" t="s">
         <v>1</v>
       </c>
@@ -9108,7 +9111,7 @@
         <v>1</v>
       </c>
       <c r="F160" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G160" t="s">
         <v>1</v>
@@ -9152,10 +9155,10 @@
         <v>0</v>
       </c>
       <c r="B162" t="s">
+        <v>654</v>
+      </c>
+      <c r="C162" t="s">
         <v>496</v>
-      </c>
-      <c r="C162" t="s">
-        <v>497</v>
       </c>
       <c r="D162" t="s">
         <v>1</v>
@@ -9197,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="Q162" s="5" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.2">
@@ -9205,10 +9208,10 @@
         <v>0</v>
       </c>
       <c r="B163" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C163" t="s">
         <v>496</v>
-      </c>
-      <c r="C163" t="s">
-        <v>497</v>
       </c>
       <c r="D163" t="s">
         <v>1</v>
@@ -9258,11 +9261,11 @@
         <v>0</v>
       </c>
       <c r="B164" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C164" t="s">
         <v>496</v>
       </c>
-      <c r="C164" t="s">
-        <v>497</v>
-      </c>
       <c r="D164" t="s">
         <v>1</v>
       </c>
@@ -9270,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="F164" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G164" t="s">
         <v>1</v>
@@ -9314,10 +9317,10 @@
         <v>0</v>
       </c>
       <c r="B166" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C166" t="s">
         <v>496</v>
-      </c>
-      <c r="C166" t="s">
-        <v>497</v>
       </c>
       <c r="D166" t="s">
         <v>1</v>
@@ -9359,7 +9362,7 @@
         <v>1</v>
       </c>
       <c r="Q166" s="5" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.2">
@@ -9367,10 +9370,10 @@
         <v>0</v>
       </c>
       <c r="B167" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C167" t="s">
         <v>496</v>
-      </c>
-      <c r="C167" t="s">
-        <v>497</v>
       </c>
       <c r="D167" t="s">
         <v>1</v>
@@ -9420,11 +9423,11 @@
         <v>0</v>
       </c>
       <c r="B168" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C168" t="s">
         <v>496</v>
       </c>
-      <c r="C168" t="s">
-        <v>497</v>
-      </c>
       <c r="D168" t="s">
         <v>1</v>
       </c>
@@ -9432,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="F168" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G168" t="s">
         <v>1</v>
@@ -9476,10 +9479,10 @@
         <v>0</v>
       </c>
       <c r="B170" s="3" t="s">
+        <v>655</v>
+      </c>
+      <c r="C170" t="s">
         <v>496</v>
-      </c>
-      <c r="C170" t="s">
-        <v>497</v>
       </c>
       <c r="D170" t="s">
         <v>1</v>
@@ -9533,10 +9536,10 @@
         <v>0</v>
       </c>
       <c r="B172" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C172" t="s">
         <v>496</v>
-      </c>
-      <c r="C172" t="s">
-        <v>497</v>
       </c>
       <c r="D172" t="s">
         <v>1</v>
@@ -9578,7 +9581,7 @@
         <v>1</v>
       </c>
       <c r="Q172" s="5" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9586,10 +9589,10 @@
         <v>0</v>
       </c>
       <c r="B173" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C173" t="s">
         <v>496</v>
-      </c>
-      <c r="C173" t="s">
-        <v>497</v>
       </c>
       <c r="D173" t="s">
         <v>1</v>
@@ -9631,7 +9634,7 @@
         <v>1</v>
       </c>
       <c r="Q173" s="5" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
     </row>
     <row r="174" spans="1:17" ht="14" customHeight="1" x14ac:dyDescent="0.2">
@@ -9639,10 +9642,10 @@
         <v>0</v>
       </c>
       <c r="B174" s="3" t="s">
+        <v>654</v>
+      </c>
+      <c r="C174" t="s">
         <v>496</v>
-      </c>
-      <c r="C174" t="s">
-        <v>497</v>
       </c>
       <c r="D174" t="s">
         <v>1</v>
@@ -9684,7 +9687,7 @@
         <v>1</v>
       </c>
       <c r="Q174" s="5" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.2">
@@ -9746,7 +9749,7 @@
         <v>9</v>
       </c>
       <c r="C213" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D213" t="s">
         <v>1</v>
@@ -9799,7 +9802,7 @@
         <v>9</v>
       </c>
       <c r="C214" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D214" t="s">
         <v>1</v>
@@ -9852,7 +9855,7 @@
         <v>9</v>
       </c>
       <c r="C215" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D215" t="s">
         <v>1</v>
@@ -9905,7 +9908,7 @@
         <v>183</v>
       </c>
       <c r="C216" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D216" t="s">
         <v>1</v>
@@ -9958,7 +9961,7 @@
         <v>183</v>
       </c>
       <c r="C217" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D217" t="s">
         <v>1</v>
@@ -10011,7 +10014,7 @@
         <v>183</v>
       </c>
       <c r="C218" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D218" t="s">
         <v>1</v>
@@ -10064,7 +10067,7 @@
         <v>183</v>
       </c>
       <c r="C219" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D219" t="s">
         <v>1</v>
@@ -10117,7 +10120,7 @@
         <v>183</v>
       </c>
       <c r="C220" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D220" t="s">
         <v>1</v>
@@ -10170,7 +10173,7 @@
         <v>183</v>
       </c>
       <c r="C221" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D221" t="s">
         <v>1</v>
@@ -10223,7 +10226,7 @@
         <v>183</v>
       </c>
       <c r="C222" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D222" t="s">
         <v>1</v>
@@ -10276,7 +10279,7 @@
         <v>183</v>
       </c>
       <c r="C223" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D223" t="s">
         <v>1</v>
@@ -10329,7 +10332,7 @@
         <v>183</v>
       </c>
       <c r="C224" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D224" t="s">
         <v>1</v>
@@ -10382,7 +10385,7 @@
         <v>183</v>
       </c>
       <c r="C225" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D225" t="s">
         <v>1</v>
@@ -10400,7 +10403,7 @@
         <v>1</v>
       </c>
       <c r="I225" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="J225">
         <v>0</v>
@@ -10435,7 +10438,7 @@
         <v>183</v>
       </c>
       <c r="C226" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D226" t="s">
         <v>1</v>
@@ -10488,7 +10491,7 @@
         <v>183</v>
       </c>
       <c r="C227" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D227" t="s">
         <v>1</v>
@@ -10541,7 +10544,7 @@
         <v>183</v>
       </c>
       <c r="C228" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D228" t="s">
         <v>1</v>
@@ -10594,7 +10597,7 @@
         <v>185</v>
       </c>
       <c r="C229" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D229" t="s">
         <v>1</v>
@@ -10609,7 +10612,7 @@
         <v>1</v>
       </c>
       <c r="H229" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="I229" t="s">
         <v>187</v>
@@ -10647,7 +10650,7 @@
         <v>185</v>
       </c>
       <c r="C230" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D230" t="s">
         <v>1</v>
@@ -10662,7 +10665,7 @@
         <v>1</v>
       </c>
       <c r="H230" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="I230" t="s">
         <v>187</v>
@@ -10700,7 +10703,7 @@
         <v>185</v>
       </c>
       <c r="C231" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D231" t="s">
         <v>1</v>
@@ -10715,7 +10718,7 @@
         <v>1</v>
       </c>
       <c r="H231" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="I231" t="s">
         <v>187</v>
@@ -10753,7 +10756,7 @@
         <v>185</v>
       </c>
       <c r="C232" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D232" t="s">
         <v>1</v>
@@ -10768,7 +10771,7 @@
         <v>1</v>
       </c>
       <c r="H232" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="I232" t="s">
         <v>187</v>
@@ -10806,7 +10809,7 @@
         <v>185</v>
       </c>
       <c r="C233" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D233" t="s">
         <v>1</v>
@@ -10821,7 +10824,7 @@
         <v>1</v>
       </c>
       <c r="H233" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="I233" t="s">
         <v>187</v>
@@ -10859,7 +10862,7 @@
         <v>185</v>
       </c>
       <c r="C234" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D234" t="s">
         <v>1</v>
@@ -10874,7 +10877,7 @@
         <v>1</v>
       </c>
       <c r="H234" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="I234" t="s">
         <v>187</v>
@@ -10912,7 +10915,7 @@
         <v>185</v>
       </c>
       <c r="C235" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D235" t="s">
         <v>1</v>
@@ -10927,7 +10930,7 @@
         <v>1</v>
       </c>
       <c r="H235" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="I235" t="s">
         <v>187</v>
@@ -10965,7 +10968,7 @@
         <v>185</v>
       </c>
       <c r="C236" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D236" t="s">
         <v>1</v>
@@ -10980,7 +10983,7 @@
         <v>1</v>
       </c>
       <c r="H236" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="I236" t="s">
         <v>187</v>
@@ -11018,7 +11021,7 @@
         <v>185</v>
       </c>
       <c r="C237" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D237" t="s">
         <v>1</v>
@@ -11071,7 +11074,7 @@
         <v>185</v>
       </c>
       <c r="C238" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D238" t="s">
         <v>1</v>
@@ -11124,7 +11127,7 @@
         <v>185</v>
       </c>
       <c r="C239" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D239" t="s">
         <v>1</v>
@@ -11177,7 +11180,7 @@
         <v>185</v>
       </c>
       <c r="C240" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D240" t="s">
         <v>1</v>
@@ -11230,7 +11233,7 @@
         <v>185</v>
       </c>
       <c r="C241" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D241" t="s">
         <v>1</v>
@@ -11283,7 +11286,7 @@
         <v>185</v>
       </c>
       <c r="C242" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D242" t="s">
         <v>1</v>
@@ -11336,7 +11339,7 @@
         <v>185</v>
       </c>
       <c r="C243" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D243" t="s">
         <v>1</v>
@@ -11389,7 +11392,7 @@
         <v>185</v>
       </c>
       <c r="C244" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D244" t="s">
         <v>1</v>
@@ -11404,7 +11407,7 @@
         <v>1</v>
       </c>
       <c r="H244" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="I244" t="s">
         <v>197</v>
@@ -11442,7 +11445,7 @@
         <v>185</v>
       </c>
       <c r="C245" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D245" t="s">
         <v>1</v>
@@ -11457,7 +11460,7 @@
         <v>1</v>
       </c>
       <c r="H245" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I245" t="s">
         <v>197</v>
@@ -11495,7 +11498,7 @@
         <v>185</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D246" t="s">
         <v>1</v>
@@ -11510,7 +11513,7 @@
         <v>1</v>
       </c>
       <c r="H246" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I246" t="s">
         <v>197</v>
@@ -11548,7 +11551,7 @@
         <v>185</v>
       </c>
       <c r="C247" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D247" t="s">
         <v>1</v>
@@ -11563,7 +11566,7 @@
         <v>1</v>
       </c>
       <c r="H247" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I247" t="s">
         <v>197</v>
@@ -11601,7 +11604,7 @@
         <v>185</v>
       </c>
       <c r="C248" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D248" t="s">
         <v>1</v>
@@ -11616,7 +11619,7 @@
         <v>1</v>
       </c>
       <c r="H248" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="I248" t="s">
         <v>197</v>
@@ -11654,7 +11657,7 @@
         <v>185</v>
       </c>
       <c r="C249" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D249" t="s">
         <v>1</v>
@@ -11669,7 +11672,7 @@
         <v>1</v>
       </c>
       <c r="H249" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="I249" t="s">
         <v>199</v>
@@ -11707,7 +11710,7 @@
         <v>230</v>
       </c>
       <c r="C251" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D251" t="s">
         <v>1</v>
@@ -11749,7 +11752,7 @@
         <v>1</v>
       </c>
       <c r="Q251" s="5" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.2">
@@ -11760,7 +11763,7 @@
         <v>230</v>
       </c>
       <c r="C252" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D252" t="s">
         <v>1</v>
@@ -11802,7 +11805,7 @@
         <v>1</v>
       </c>
       <c r="Q252" s="5" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.2">
@@ -11813,7 +11816,7 @@
         <v>230</v>
       </c>
       <c r="C253" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D253" t="s">
         <v>1</v>
@@ -11828,7 +11831,7 @@
         <v>1</v>
       </c>
       <c r="H253" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="I253" t="s">
         <v>312</v>
@@ -11866,7 +11869,7 @@
         <v>230</v>
       </c>
       <c r="C254" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D254" t="s">
         <v>1</v>
@@ -11881,7 +11884,7 @@
         <v>1</v>
       </c>
       <c r="H254" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="I254" t="s">
         <v>313</v>
@@ -11919,7 +11922,7 @@
         <v>230</v>
       </c>
       <c r="C255" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D255" t="s">
         <v>1</v>
@@ -11934,7 +11937,7 @@
         <v>1</v>
       </c>
       <c r="H255" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="I255" t="s">
         <v>314</v>
@@ -11972,7 +11975,7 @@
         <v>230</v>
       </c>
       <c r="C256" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D256" t="s">
         <v>1</v>
@@ -11987,7 +11990,7 @@
         <v>1</v>
       </c>
       <c r="H256" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="I256" t="s">
         <v>315</v>
@@ -12025,7 +12028,7 @@
         <v>230</v>
       </c>
       <c r="C257" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D257" t="s">
         <v>1</v>
@@ -12040,7 +12043,7 @@
         <v>1</v>
       </c>
       <c r="H257" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="I257" t="s">
         <v>316</v>
@@ -12078,7 +12081,7 @@
         <v>230</v>
       </c>
       <c r="C258" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D258" t="s">
         <v>1</v>
@@ -12093,7 +12096,7 @@
         <v>1</v>
       </c>
       <c r="H258" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="I258" t="s">
         <v>312</v>
@@ -12131,7 +12134,7 @@
         <v>230</v>
       </c>
       <c r="C259" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D259" t="s">
         <v>1</v>
@@ -12146,7 +12149,7 @@
         <v>1</v>
       </c>
       <c r="H259" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="I259" t="s">
         <v>313</v>
@@ -12184,7 +12187,7 @@
         <v>230</v>
       </c>
       <c r="C260" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D260" t="s">
         <v>1</v>
@@ -12199,7 +12202,7 @@
         <v>1</v>
       </c>
       <c r="H260" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="I260" t="s">
         <v>317</v>
@@ -12237,7 +12240,7 @@
         <v>230</v>
       </c>
       <c r="C261" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D261" t="s">
         <v>1</v>
@@ -12252,7 +12255,7 @@
         <v>1</v>
       </c>
       <c r="H261" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I261" t="s">
         <v>318</v>
@@ -12290,7 +12293,7 @@
         <v>230</v>
       </c>
       <c r="C262" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D262" t="s">
         <v>1</v>
@@ -12305,7 +12308,7 @@
         <v>1</v>
       </c>
       <c r="H262" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="I262" t="s">
         <v>319</v>
@@ -12343,7 +12346,7 @@
         <v>230</v>
       </c>
       <c r="C265" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D265" t="s">
         <v>1</v>
@@ -12385,7 +12388,7 @@
         <v>1</v>
       </c>
       <c r="Q265" s="5" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.2">
@@ -12396,7 +12399,7 @@
         <v>230</v>
       </c>
       <c r="C266" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D266" t="s">
         <v>1</v>
@@ -12438,7 +12441,7 @@
         <v>1</v>
       </c>
       <c r="Q266" s="5" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.2">
@@ -12449,7 +12452,7 @@
         <v>230</v>
       </c>
       <c r="C267" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D267" t="s">
         <v>1</v>
@@ -12464,7 +12467,7 @@
         <v>1</v>
       </c>
       <c r="H267" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="I267" t="s">
         <v>324</v>
@@ -12502,7 +12505,7 @@
         <v>230</v>
       </c>
       <c r="C268" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D268" t="s">
         <v>1</v>
@@ -12517,7 +12520,7 @@
         <v>1</v>
       </c>
       <c r="H268" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="I268" t="s">
         <v>319</v>
@@ -12555,7 +12558,7 @@
         <v>230</v>
       </c>
       <c r="C269" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D269" t="s">
         <v>1</v>
@@ -12570,7 +12573,7 @@
         <v>1</v>
       </c>
       <c r="H269" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="I269" t="s">
         <v>321</v>
@@ -12608,7 +12611,7 @@
         <v>230</v>
       </c>
       <c r="C270" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D270" t="s">
         <v>1</v>
@@ -12623,7 +12626,7 @@
         <v>1</v>
       </c>
       <c r="H270" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="I270" t="s">
         <v>322</v>
@@ -12661,7 +12664,7 @@
         <v>230</v>
       </c>
       <c r="C271" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D271" t="s">
         <v>1</v>
@@ -12676,7 +12679,7 @@
         <v>1</v>
       </c>
       <c r="H271" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I271" t="s">
         <v>323</v>
@@ -12714,7 +12717,7 @@
         <v>230</v>
       </c>
       <c r="C272" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D272" t="s">
         <v>1</v>
@@ -12729,7 +12732,7 @@
         <v>1</v>
       </c>
       <c r="H272" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I272" t="s">
         <v>319</v>
@@ -12767,7 +12770,7 @@
         <v>230</v>
       </c>
       <c r="C273" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D273" t="s">
         <v>1</v>
@@ -12782,7 +12785,7 @@
         <v>1</v>
       </c>
       <c r="H273" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="I273" t="s">
         <v>324</v>
@@ -12820,7 +12823,7 @@
         <v>230</v>
       </c>
       <c r="C274" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D274" t="s">
         <v>1</v>
@@ -12835,7 +12838,7 @@
         <v>1</v>
       </c>
       <c r="H274" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I274" t="s">
         <v>326</v>
@@ -12873,7 +12876,7 @@
         <v>230</v>
       </c>
       <c r="C275" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D275" t="s">
         <v>1</v>
@@ -12888,7 +12891,7 @@
         <v>1</v>
       </c>
       <c r="H275" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I275" t="s">
         <v>325</v>
@@ -12926,7 +12929,7 @@
         <v>230</v>
       </c>
       <c r="C276" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D276" t="s">
         <v>1</v>
@@ -12941,7 +12944,7 @@
         <v>1</v>
       </c>
       <c r="H276" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I276" t="s">
         <v>327</v>
@@ -12979,7 +12982,7 @@
         <v>230</v>
       </c>
       <c r="C278" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D278" t="s">
         <v>1</v>
@@ -13021,7 +13024,7 @@
         <v>1</v>
       </c>
       <c r="Q278" s="5" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.2">
@@ -13032,7 +13035,7 @@
         <v>230</v>
       </c>
       <c r="C279" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D279" t="s">
         <v>1</v>
@@ -13047,7 +13050,7 @@
         <v>1</v>
       </c>
       <c r="H279" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I279" t="s">
         <v>330</v>
@@ -13085,7 +13088,7 @@
         <v>230</v>
       </c>
       <c r="C280" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D280" t="s">
         <v>1</v>
@@ -13100,7 +13103,7 @@
         <v>1</v>
       </c>
       <c r="H280" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="I280" t="s">
         <v>331</v>
@@ -13138,7 +13141,7 @@
         <v>230</v>
       </c>
       <c r="C281" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D281" t="s">
         <v>1</v>
@@ -13153,7 +13156,7 @@
         <v>1</v>
       </c>
       <c r="H281" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I281" t="s">
         <v>332</v>
@@ -13191,7 +13194,7 @@
         <v>230</v>
       </c>
       <c r="C282" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D282" t="s">
         <v>1</v>
@@ -13206,7 +13209,7 @@
         <v>1</v>
       </c>
       <c r="H282" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="I282" t="s">
         <v>333</v>
@@ -13244,7 +13247,7 @@
         <v>230</v>
       </c>
       <c r="C283" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D283" t="s">
         <v>1</v>
@@ -13259,7 +13262,7 @@
         <v>1</v>
       </c>
       <c r="H283" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I283" t="s">
         <v>334</v>
@@ -13297,7 +13300,7 @@
         <v>230</v>
       </c>
       <c r="C284" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D284" t="s">
         <v>1</v>
@@ -13312,7 +13315,7 @@
         <v>1</v>
       </c>
       <c r="H284" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="I284" t="s">
         <v>335</v>
@@ -13350,7 +13353,7 @@
         <v>230</v>
       </c>
       <c r="C285" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D285" t="s">
         <v>1</v>
@@ -13365,7 +13368,7 @@
         <v>1</v>
       </c>
       <c r="H285" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I285" t="s">
         <v>333</v>
@@ -13403,7 +13406,7 @@
         <v>230</v>
       </c>
       <c r="C286" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D286" t="s">
         <v>1</v>
@@ -13418,7 +13421,7 @@
         <v>1</v>
       </c>
       <c r="H286" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I286" t="s">
         <v>336</v>
@@ -13456,7 +13459,7 @@
         <v>230</v>
       </c>
       <c r="C287" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D287" t="s">
         <v>1</v>
@@ -13471,7 +13474,7 @@
         <v>1</v>
       </c>
       <c r="H287" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I287" t="s">
         <v>337</v>
@@ -13509,7 +13512,7 @@
         <v>230</v>
       </c>
       <c r="C288" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D288" t="s">
         <v>1</v>
@@ -13524,7 +13527,7 @@
         <v>1</v>
       </c>
       <c r="H288" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I288" t="s">
         <v>332</v>
@@ -13562,7 +13565,7 @@
         <v>230</v>
       </c>
       <c r="C290" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D290" t="s">
         <v>1</v>
@@ -13604,7 +13607,7 @@
         <v>1</v>
       </c>
       <c r="Q290" s="5" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.2">
@@ -13615,7 +13618,7 @@
         <v>230</v>
       </c>
       <c r="C291" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D291" t="s">
         <v>1</v>
@@ -13630,7 +13633,7 @@
         <v>1</v>
       </c>
       <c r="H291" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I291" t="s">
         <v>340</v>
@@ -13668,7 +13671,7 @@
         <v>230</v>
       </c>
       <c r="C292" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D292" t="s">
         <v>1</v>
@@ -13683,7 +13686,7 @@
         <v>1</v>
       </c>
       <c r="H292" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I292" t="s">
         <v>342</v>
@@ -13721,7 +13724,7 @@
         <v>230</v>
       </c>
       <c r="C293" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D293" t="s">
         <v>1</v>
@@ -13736,7 +13739,7 @@
         <v>1</v>
       </c>
       <c r="H293" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I293" t="s">
         <v>343</v>
@@ -13774,7 +13777,7 @@
         <v>230</v>
       </c>
       <c r="C294" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D294" t="s">
         <v>1</v>
@@ -13789,7 +13792,7 @@
         <v>1</v>
       </c>
       <c r="H294" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I294" t="s">
         <v>344</v>
@@ -13827,7 +13830,7 @@
         <v>230</v>
       </c>
       <c r="C295" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D295" t="s">
         <v>1</v>
@@ -13842,7 +13845,7 @@
         <v>1</v>
       </c>
       <c r="H295" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I295" t="s">
         <v>345</v>
@@ -13880,7 +13883,7 @@
         <v>230</v>
       </c>
       <c r="C296" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D296" t="s">
         <v>1</v>
@@ -13895,7 +13898,7 @@
         <v>1</v>
       </c>
       <c r="H296" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I296" t="s">
         <v>346</v>
@@ -13933,7 +13936,7 @@
         <v>230</v>
       </c>
       <c r="C297" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D297" t="s">
         <v>1</v>
@@ -13948,7 +13951,7 @@
         <v>1</v>
       </c>
       <c r="H297" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I297" t="s">
         <v>347</v>
@@ -13986,7 +13989,7 @@
         <v>230</v>
       </c>
       <c r="C298" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D298" t="s">
         <v>1</v>
@@ -14001,7 +14004,7 @@
         <v>1</v>
       </c>
       <c r="H298" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I298" t="s">
         <v>341</v>
@@ -14039,7 +14042,7 @@
         <v>230</v>
       </c>
       <c r="C299" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D299" t="s">
         <v>1</v>
@@ -14054,7 +14057,7 @@
         <v>1</v>
       </c>
       <c r="H299" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I299" t="s">
         <v>348</v>
@@ -14092,7 +14095,7 @@
         <v>9</v>
       </c>
       <c r="C332" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D332" t="s">
         <v>1</v>
@@ -14145,7 +14148,7 @@
         <v>9</v>
       </c>
       <c r="C333" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D333" t="s">
         <v>1</v>
@@ -14195,10 +14198,10 @@
         <v>0</v>
       </c>
       <c r="B334" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C334" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D334" t="s">
         <v>1</v>
@@ -14251,7 +14254,7 @@
         <v>185</v>
       </c>
       <c r="C336" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D336" t="s">
         <v>1</v>
@@ -14304,7 +14307,7 @@
         <v>185</v>
       </c>
       <c r="C337" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D337" t="s">
         <v>1</v>
@@ -14357,7 +14360,7 @@
         <v>185</v>
       </c>
       <c r="C338" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D338" t="s">
         <v>1</v>
@@ -14410,7 +14413,7 @@
         <v>185</v>
       </c>
       <c r="C339" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D339" t="s">
         <v>1</v>
@@ -14463,7 +14466,7 @@
         <v>185</v>
       </c>
       <c r="C340" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D340" t="s">
         <v>1</v>
@@ -14516,7 +14519,7 @@
         <v>185</v>
       </c>
       <c r="C341" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D341" t="s">
         <v>1</v>
@@ -14569,7 +14572,7 @@
         <v>185</v>
       </c>
       <c r="C342" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D342" t="s">
         <v>1</v>
@@ -14622,7 +14625,7 @@
         <v>185</v>
       </c>
       <c r="C343" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D343" t="s">
         <v>1</v>
@@ -14675,7 +14678,7 @@
         <v>185</v>
       </c>
       <c r="C344" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D344" t="s">
         <v>1</v>
@@ -14725,10 +14728,10 @@
         <v>0</v>
       </c>
       <c r="B346" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C346" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D346" t="s">
         <v>1</v>
@@ -14770,7 +14773,7 @@
         <v>1</v>
       </c>
       <c r="Q346" s="5" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.2">
@@ -14778,10 +14781,10 @@
         <v>0</v>
       </c>
       <c r="B347" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C347" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D347" t="s">
         <v>1</v>
@@ -14831,10 +14834,10 @@
         <v>0</v>
       </c>
       <c r="B348" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C348" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D348" t="s">
         <v>1</v>
@@ -14843,7 +14846,7 @@
         <v>1</v>
       </c>
       <c r="F348" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G348" t="s">
         <v>1</v>
@@ -14884,10 +14887,10 @@
         <v>0</v>
       </c>
       <c r="B350" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C350" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D350" t="s">
         <v>1</v>
@@ -14929,7 +14932,7 @@
         <v>1</v>
       </c>
       <c r="Q350" s="5" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.2">
@@ -14937,10 +14940,10 @@
         <v>0</v>
       </c>
       <c r="B351" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C351" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D351" t="s">
         <v>1</v>
@@ -14990,10 +14993,10 @@
         <v>0</v>
       </c>
       <c r="B352" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C352" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D352" t="s">
         <v>1</v>
@@ -15002,7 +15005,7 @@
         <v>1</v>
       </c>
       <c r="F352" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G352" t="s">
         <v>1</v>
@@ -15043,10 +15046,10 @@
         <v>0</v>
       </c>
       <c r="B354" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C354" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D354" t="s">
         <v>1</v>
@@ -15088,7 +15091,7 @@
         <v>1</v>
       </c>
       <c r="Q354" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.2">
@@ -15096,10 +15099,10 @@
         <v>0</v>
       </c>
       <c r="B355" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C355" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D355" t="s">
         <v>1</v>
@@ -15149,10 +15152,10 @@
         <v>0</v>
       </c>
       <c r="B356" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C356" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D356" t="s">
         <v>1</v>
@@ -15161,7 +15164,7 @@
         <v>1</v>
       </c>
       <c r="F356" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G356" t="s">
         <v>1</v>
@@ -15202,10 +15205,10 @@
         <v>0</v>
       </c>
       <c r="B358" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C358" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D358" t="s">
         <v>1</v>
@@ -15247,7 +15250,7 @@
         <v>1</v>
       </c>
       <c r="Q358" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.2">
@@ -15255,10 +15258,10 @@
         <v>0</v>
       </c>
       <c r="B359" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C359" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D359" t="s">
         <v>1</v>
@@ -15308,10 +15311,10 @@
         <v>0</v>
       </c>
       <c r="B360" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C360" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D360" t="s">
         <v>1</v>
@@ -15320,7 +15323,7 @@
         <v>1</v>
       </c>
       <c r="F360" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G360" t="s">
         <v>1</v>
@@ -15364,10 +15367,10 @@
         <v>0</v>
       </c>
       <c r="B362" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C362" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D362" t="s">
         <v>1</v>
@@ -15409,7 +15412,7 @@
         <v>1</v>
       </c>
       <c r="Q362" s="5" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.2">
@@ -15417,10 +15420,10 @@
         <v>0</v>
       </c>
       <c r="B363" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C363" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D363" t="s">
         <v>1</v>
@@ -15470,10 +15473,10 @@
         <v>0</v>
       </c>
       <c r="B364" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C364" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D364" t="s">
         <v>1</v>
@@ -15482,7 +15485,7 @@
         <v>1</v>
       </c>
       <c r="F364" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G364" t="s">
         <v>1</v>
@@ -15527,10 +15530,10 @@
         <v>0</v>
       </c>
       <c r="B366" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C366" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D366" t="s">
         <v>1</v>
@@ -15572,7 +15575,7 @@
         <v>1</v>
       </c>
       <c r="Q366" s="5" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.2">
@@ -15580,10 +15583,10 @@
         <v>0</v>
       </c>
       <c r="B367" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C367" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D367" t="s">
         <v>1</v>
@@ -15633,10 +15636,10 @@
         <v>0</v>
       </c>
       <c r="B368" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C368" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D368" t="s">
         <v>1</v>
@@ -15645,7 +15648,7 @@
         <v>1</v>
       </c>
       <c r="F368" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G368" t="s">
         <v>1</v>
@@ -15690,10 +15693,10 @@
         <v>0</v>
       </c>
       <c r="B370" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C370" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D370" t="s">
         <v>1</v>
@@ -15735,7 +15738,7 @@
         <v>1</v>
       </c>
       <c r="Q370" s="5" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.2">
@@ -15743,10 +15746,10 @@
         <v>0</v>
       </c>
       <c r="B371" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C371" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D371" t="s">
         <v>1</v>
@@ -15796,10 +15799,10 @@
         <v>0</v>
       </c>
       <c r="B372" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C372" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D372" t="s">
         <v>1</v>
@@ -15808,7 +15811,7 @@
         <v>1</v>
       </c>
       <c r="F372" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G372" t="s">
         <v>1</v>
@@ -15854,10 +15857,10 @@
         <v>0</v>
       </c>
       <c r="B374" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C374" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D374" t="s">
         <v>1</v>
@@ -15899,7 +15902,7 @@
         <v>1</v>
       </c>
       <c r="Q374" s="5" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.2">
@@ -15907,10 +15910,10 @@
         <v>0</v>
       </c>
       <c r="B375" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C375" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D375" t="s">
         <v>1</v>
@@ -15960,10 +15963,10 @@
         <v>0</v>
       </c>
       <c r="B376" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C376" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D376" t="s">
         <v>1</v>
@@ -15972,7 +15975,7 @@
         <v>1</v>
       </c>
       <c r="F376" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G376" t="s">
         <v>1</v>
@@ -16013,10 +16016,10 @@
         <v>0</v>
       </c>
       <c r="B378" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C378" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D378" t="s">
         <v>1</v>
@@ -16058,7 +16061,7 @@
         <v>1</v>
       </c>
       <c r="Q378" s="5" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.2">
@@ -16066,10 +16069,10 @@
         <v>0</v>
       </c>
       <c r="B379" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C379" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D379" t="s">
         <v>1</v>
@@ -16119,10 +16122,10 @@
         <v>0</v>
       </c>
       <c r="B380" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C380" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D380" t="s">
         <v>1</v>
@@ -16131,7 +16134,7 @@
         <v>1</v>
       </c>
       <c r="F380" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G380" t="s">
         <v>1</v>
@@ -16172,10 +16175,10 @@
         <v>0</v>
       </c>
       <c r="B382" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C382" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D382" t="s">
         <v>1</v>
@@ -16217,7 +16220,7 @@
         <v>1</v>
       </c>
       <c r="Q382" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.2">
@@ -16225,10 +16228,10 @@
         <v>0</v>
       </c>
       <c r="B383" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C383" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D383" t="s">
         <v>1</v>
@@ -16278,10 +16281,10 @@
         <v>0</v>
       </c>
       <c r="B384" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C384" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D384" t="s">
         <v>1</v>
@@ -16290,7 +16293,7 @@
         <v>1</v>
       </c>
       <c r="F384" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G384" t="s">
         <v>1</v>
@@ -16334,10 +16337,10 @@
         <v>0</v>
       </c>
       <c r="B386" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C386" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D386" t="s">
         <v>1</v>
@@ -16379,7 +16382,7 @@
         <v>1</v>
       </c>
       <c r="Q386" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.2">
@@ -16387,10 +16390,10 @@
         <v>0</v>
       </c>
       <c r="B387" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C387" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D387" t="s">
         <v>1</v>
@@ -16440,10 +16443,10 @@
         <v>0</v>
       </c>
       <c r="B388" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C388" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D388" t="s">
         <v>1</v>
@@ -16452,7 +16455,7 @@
         <v>1</v>
       </c>
       <c r="F388" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G388" t="s">
         <v>1</v>
@@ -16496,10 +16499,10 @@
         <v>0</v>
       </c>
       <c r="B390" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C390" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D390" t="s">
         <v>1</v>
@@ -16541,7 +16544,7 @@
         <v>1</v>
       </c>
       <c r="Q390" s="5" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.2">
@@ -16549,10 +16552,10 @@
         <v>0</v>
       </c>
       <c r="B391" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C391" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D391" t="s">
         <v>1</v>
@@ -16602,10 +16605,10 @@
         <v>0</v>
       </c>
       <c r="B392" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C392" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D392" t="s">
         <v>1</v>
@@ -16614,7 +16617,7 @@
         <v>1</v>
       </c>
       <c r="F392" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G392" t="s">
         <v>1</v>
@@ -16658,10 +16661,10 @@
         <v>0</v>
       </c>
       <c r="B394" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C394" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D394" t="s">
         <v>1</v>
@@ -16703,7 +16706,7 @@
         <v>1</v>
       </c>
       <c r="Q394" s="5" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.2">
@@ -16711,10 +16714,10 @@
         <v>0</v>
       </c>
       <c r="B395" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C395" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D395" t="s">
         <v>1</v>
@@ -16764,10 +16767,10 @@
         <v>0</v>
       </c>
       <c r="B396" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C396" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D396" t="s">
         <v>1</v>
@@ -16776,7 +16779,7 @@
         <v>1</v>
       </c>
       <c r="F396" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G396" t="s">
         <v>1</v>
@@ -16817,10 +16820,10 @@
         <v>0</v>
       </c>
       <c r="B398" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C398" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D398" t="s">
         <v>1</v>
@@ -16862,7 +16865,7 @@
         <v>1</v>
       </c>
       <c r="Q398" s="5" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.2">
@@ -16870,10 +16873,10 @@
         <v>0</v>
       </c>
       <c r="B399" s="3" t="s">
-        <v>496</v>
+        <v>655</v>
       </c>
       <c r="C399" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D399" t="s">
         <v>1</v>
@@ -16923,10 +16926,10 @@
         <v>0</v>
       </c>
       <c r="B400" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C400" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D400" t="s">
         <v>1</v>
@@ -16935,7 +16938,7 @@
         <v>1</v>
       </c>
       <c r="F400" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="G400" t="s">
         <v>1</v>
@@ -16976,10 +16979,10 @@
         <v>0</v>
       </c>
       <c r="B402" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C402" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D402" t="s">
         <v>1</v>
@@ -17021,7 +17024,7 @@
         <v>1</v>
       </c>
       <c r="Q402" s="5" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.2">
@@ -17029,10 +17032,10 @@
         <v>0</v>
       </c>
       <c r="B403" s="3" t="s">
-        <v>496</v>
+        <v>654</v>
       </c>
       <c r="C403" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D403" t="s">
         <v>1</v>
@@ -17074,7 +17077,7 @@
         <v>1</v>
       </c>
       <c r="Q403" s="5" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="440" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -17086,7 +17089,7 @@
         <v>9</v>
       </c>
       <c r="C441" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D441" t="s">
         <v>1</v>
@@ -17139,7 +17142,7 @@
         <v>9</v>
       </c>
       <c r="C442" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D442" t="s">
         <v>1</v>
@@ -17192,7 +17195,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D443" t="s">
         <v>1</v>
@@ -17245,7 +17248,7 @@
         <v>183</v>
       </c>
       <c r="C444" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D444" t="s">
         <v>1</v>
@@ -17298,7 +17301,7 @@
         <v>183</v>
       </c>
       <c r="C445" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D445" t="s">
         <v>1</v>
@@ -17351,7 +17354,7 @@
         <v>183</v>
       </c>
       <c r="C446" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D446" t="s">
         <v>1</v>
@@ -17404,7 +17407,7 @@
         <v>183</v>
       </c>
       <c r="C447" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D447" t="s">
         <v>1</v>
@@ -17457,7 +17460,7 @@
         <v>183</v>
       </c>
       <c r="C448" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D448" t="s">
         <v>1</v>
@@ -17510,7 +17513,7 @@
         <v>183</v>
       </c>
       <c r="C449" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D449" t="s">
         <v>1</v>
@@ -17563,7 +17566,7 @@
         <v>183</v>
       </c>
       <c r="C450" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D450" t="s">
         <v>1</v>
@@ -17616,7 +17619,7 @@
         <v>183</v>
       </c>
       <c r="C451" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D451" t="s">
         <v>1</v>
@@ -17669,7 +17672,7 @@
         <v>183</v>
       </c>
       <c r="C452" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D452" t="s">
         <v>1</v>
@@ -17722,7 +17725,7 @@
         <v>183</v>
       </c>
       <c r="C453" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D453" t="s">
         <v>1</v>
@@ -17775,7 +17778,7 @@
         <v>183</v>
       </c>
       <c r="C454" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D454" t="s">
         <v>1</v>
@@ -17828,7 +17831,7 @@
         <v>185</v>
       </c>
       <c r="C455" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D455" t="s">
         <v>1</v>
@@ -17843,7 +17846,7 @@
         <v>1</v>
       </c>
       <c r="H455" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="I455" t="s">
         <v>207</v>
@@ -17881,7 +17884,7 @@
         <v>185</v>
       </c>
       <c r="C456" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D456" t="s">
         <v>1</v>
@@ -17934,7 +17937,7 @@
         <v>185</v>
       </c>
       <c r="C457" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D457" t="s">
         <v>1</v>
@@ -17987,7 +17990,7 @@
         <v>185</v>
       </c>
       <c r="C458" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D458" t="s">
         <v>1</v>
@@ -18040,7 +18043,7 @@
         <v>185</v>
       </c>
       <c r="C459" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D459" t="s">
         <v>1</v>
@@ -18093,7 +18096,7 @@
         <v>185</v>
       </c>
       <c r="C460" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D460" t="s">
         <v>1</v>
@@ -18146,7 +18149,7 @@
         <v>185</v>
       </c>
       <c r="C461" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D461" t="s">
         <v>1</v>
@@ -18199,7 +18202,7 @@
         <v>185</v>
       </c>
       <c r="C462" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D462" t="s">
         <v>1</v>
@@ -18252,7 +18255,7 @@
         <v>185</v>
       </c>
       <c r="C463" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D463" t="s">
         <v>1</v>
@@ -18267,7 +18270,7 @@
         <v>1</v>
       </c>
       <c r="H463" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I463" t="s">
         <v>225</v>
@@ -18305,7 +18308,7 @@
         <v>185</v>
       </c>
       <c r="C464" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D464" t="s">
         <v>1</v>
@@ -18358,7 +18361,7 @@
         <v>185</v>
       </c>
       <c r="C465" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D465" t="s">
         <v>1</v>
@@ -18411,7 +18414,7 @@
         <v>185</v>
       </c>
       <c r="C466" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D466" t="s">
         <v>1</v>
@@ -18426,7 +18429,7 @@
         <v>1</v>
       </c>
       <c r="H466" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I466" t="s">
         <v>228</v>
@@ -18464,7 +18467,7 @@
         <v>185</v>
       </c>
       <c r="C467" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D467" t="s">
         <v>1</v>
@@ -18517,7 +18520,7 @@
         <v>230</v>
       </c>
       <c r="C469" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D469" t="s">
         <v>1</v>
@@ -18559,7 +18562,7 @@
         <v>1</v>
       </c>
       <c r="Q469" s="5" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="470" spans="1:17" x14ac:dyDescent="0.2">
@@ -18570,7 +18573,7 @@
         <v>230</v>
       </c>
       <c r="C470" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D470" t="s">
         <v>1</v>
@@ -18585,7 +18588,7 @@
         <v>1</v>
       </c>
       <c r="H470" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="I470" t="s">
         <v>393</v>
@@ -18623,7 +18626,7 @@
         <v>230</v>
       </c>
       <c r="C472" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D472" t="s">
         <v>1</v>
@@ -18665,7 +18668,7 @@
         <v>1</v>
       </c>
       <c r="Q472" s="5" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="473" spans="1:17" x14ac:dyDescent="0.2">
@@ -18676,7 +18679,7 @@
         <v>230</v>
       </c>
       <c r="C473" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D473" t="s">
         <v>1</v>
@@ -18729,7 +18732,7 @@
         <v>230</v>
       </c>
       <c r="C474" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D474" t="s">
         <v>1</v>
@@ -18782,7 +18785,7 @@
         <v>230</v>
       </c>
       <c r="C475" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D475" t="s">
         <v>1</v>
@@ -18835,7 +18838,7 @@
         <v>230</v>
       </c>
       <c r="C476" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D476" t="s">
         <v>1</v>
@@ -18888,7 +18891,7 @@
         <v>230</v>
       </c>
       <c r="C477" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D477" t="s">
         <v>1</v>
@@ -18941,7 +18944,7 @@
         <v>230</v>
       </c>
       <c r="C478" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D478" t="s">
         <v>1</v>
@@ -18994,7 +18997,7 @@
         <v>230</v>
       </c>
       <c r="C479" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D479" t="s">
         <v>1</v>
@@ -19047,7 +19050,7 @@
         <v>230</v>
       </c>
       <c r="C480" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D480" t="s">
         <v>1</v>
@@ -19100,7 +19103,7 @@
         <v>230</v>
       </c>
       <c r="C481" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D481" t="s">
         <v>1</v>
@@ -19153,7 +19156,7 @@
         <v>230</v>
       </c>
       <c r="C482" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D482" t="s">
         <v>1</v>
@@ -19206,7 +19209,7 @@
         <v>230</v>
       </c>
       <c r="C483" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D483" t="s">
         <v>1</v>
@@ -19221,7 +19224,7 @@
         <v>1</v>
       </c>
       <c r="H483" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="I483" t="s">
         <v>427</v>
@@ -19259,7 +19262,7 @@
         <v>230</v>
       </c>
       <c r="C485" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D485" t="s">
         <v>1</v>
@@ -19301,7 +19304,7 @@
         <v>1</v>
       </c>
       <c r="Q485" s="5" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="486" spans="1:17" x14ac:dyDescent="0.2">
@@ -19312,7 +19315,7 @@
         <v>230</v>
       </c>
       <c r="C486" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D486" t="s">
         <v>1</v>
@@ -19365,7 +19368,7 @@
         <v>230</v>
       </c>
       <c r="C487" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D487" t="s">
         <v>1</v>
@@ -19418,7 +19421,7 @@
         <v>230</v>
       </c>
       <c r="C489" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D489" t="s">
         <v>1</v>
@@ -19460,7 +19463,7 @@
         <v>1</v>
       </c>
       <c r="Q489" s="5" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="490" spans="1:17" x14ac:dyDescent="0.2">
@@ -19471,7 +19474,7 @@
         <v>230</v>
       </c>
       <c r="C490" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D490" t="s">
         <v>1</v>
@@ -19524,7 +19527,7 @@
         <v>230</v>
       </c>
       <c r="C491" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D491" t="s">
         <v>1</v>
@@ -19577,7 +19580,7 @@
         <v>230</v>
       </c>
       <c r="C493" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D493" t="s">
         <v>1</v>
@@ -19619,7 +19622,7 @@
         <v>1</v>
       </c>
       <c r="Q493" s="5" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="494" spans="1:17" x14ac:dyDescent="0.2">
@@ -19630,7 +19633,7 @@
         <v>230</v>
       </c>
       <c r="C494" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D494" t="s">
         <v>1</v>
@@ -19683,7 +19686,7 @@
         <v>230</v>
       </c>
       <c r="C495" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D495" t="s">
         <v>1</v>
@@ -19698,7 +19701,7 @@
         <v>1</v>
       </c>
       <c r="H495" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I495" t="s">
         <v>443</v>
@@ -19736,7 +19739,7 @@
         <v>230</v>
       </c>
       <c r="C496" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D496" t="s">
         <v>1</v>
@@ -19751,7 +19754,7 @@
         <v>1</v>
       </c>
       <c r="H496" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I496" t="s">
         <v>443</v>
@@ -19789,7 +19792,7 @@
         <v>230</v>
       </c>
       <c r="C498" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D498" t="s">
         <v>1</v>
@@ -19831,7 +19834,7 @@
         <v>1</v>
       </c>
       <c r="Q498" s="5" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="499" spans="1:17" x14ac:dyDescent="0.2">
@@ -19842,7 +19845,7 @@
         <v>230</v>
       </c>
       <c r="C499" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D499" t="s">
         <v>1</v>
@@ -19895,7 +19898,7 @@
         <v>230</v>
       </c>
       <c r="C500" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D500" t="s">
         <v>1</v>
@@ -19951,7 +19954,7 @@
         <v>230</v>
       </c>
       <c r="C502" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D502" t="s">
         <v>1</v>
@@ -19993,7 +19996,7 @@
         <v>1</v>
       </c>
       <c r="Q502" s="5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="503" spans="1:17" x14ac:dyDescent="0.2">
@@ -20004,7 +20007,7 @@
         <v>230</v>
       </c>
       <c r="C503" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D503" t="s">
         <v>1</v>
@@ -20057,7 +20060,7 @@
         <v>230</v>
       </c>
       <c r="C504" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D504" t="s">
         <v>1</v>
@@ -20110,7 +20113,7 @@
         <v>230</v>
       </c>
       <c r="C506" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D506" t="s">
         <v>1</v>
@@ -20152,7 +20155,7 @@
         <v>1</v>
       </c>
       <c r="Q506" s="5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="507" spans="1:17" x14ac:dyDescent="0.2">
@@ -20163,7 +20166,7 @@
         <v>230</v>
       </c>
       <c r="C507" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D507" t="s">
         <v>1</v>
@@ -20216,7 +20219,7 @@
         <v>230</v>
       </c>
       <c r="C508" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D508" t="s">
         <v>1</v>
